--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -256,10 +256,10 @@
     <t>Železničar Pančevo</t>
   </si>
   <si>
-    <t>Spartak Subotica</t>
+    <t>Radnički Niš</t>
   </si>
   <si>
-    <t>Radnički Niš</t>
+    <t>Spartak Subotica</t>
   </si>
   <si>
     <t>OFK Beograd</t>
@@ -268,10 +268,10 @@
     <t>Partizan</t>
   </si>
   <si>
-    <t>Vojvodina</t>
+    <t>IMT Novi Beograd</t>
   </si>
   <si>
-    <t>IMT Novi Beograd</t>
+    <t>Vojvodina</t>
   </si>
   <si>
     <t>['29', '53']</t>
@@ -304,10 +304,10 @@
     <t>['85', '90+1']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['52']</t>
   </si>
   <si>
-    <t>['52']</t>
+    <t>['81']</t>
   </si>
   <si>
     <t>['5']</t>
@@ -346,10 +346,10 @@
     <t>['69']</t>
   </si>
   <si>
-    <t>['3']</t>
+    <t>['35', '85']</t>
   </si>
   <si>
-    <t>['35', '85']</t>
+    <t>['3']</t>
   </si>
   <si>
     <t>['12', '71']</t>
@@ -361,10 +361,10 @@
     <t>['25', '35', '90+1']</t>
   </si>
   <si>
-    <t>['10', '83']</t>
+    <t>['10', '85']</t>
   </si>
   <si>
-    <t>['10', '85']</t>
+    <t>['10', '83']</t>
   </si>
   <si>
     <t>['17', '58']</t>
@@ -400,10 +400,10 @@
     <t>['9', '43']</t>
   </si>
   <si>
-    <t>['48', '55']</t>
+    <t>['29', '47']</t>
   </si>
   <si>
-    <t>['29', '47']</t>
+    <t>['48', '55']</t>
   </si>
   <si>
     <t>['19', '40']</t>
@@ -436,10 +436,10 @@
     <t>['37', '45+3', '58', '69']</t>
   </si>
   <si>
-    <t>['37']</t>
+    <t>['29', '90+7']</t>
   </si>
   <si>
-    <t>['29', '90+7']</t>
+    <t>['37']</t>
   </si>
   <si>
     <t>['52', '87', '90']</t>
@@ -592,10 +592,10 @@
     <t>['75']</t>
   </si>
   <si>
-    <t>['34']</t>
+    <t>['54']</t>
   </si>
   <si>
-    <t>['54']</t>
+    <t>['34']</t>
   </si>
   <si>
     <t>['8', '27', '38']</t>
@@ -646,10 +646,10 @@
     <t>['7', '24']</t>
   </si>
   <si>
-    <t>['52', '65', '69']</t>
+    <t>['57', '82']</t>
   </si>
   <si>
-    <t>['57', '82']</t>
+    <t>['52', '65', '69']</t>
   </si>
   <si>
     <t>['24', '45+3', '55', '65']</t>
@@ -2151,7 +2151,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -2357,7 +2357,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -2563,7 +2563,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3575,7 +3575,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7453697</v>
+        <v>7454210</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3593,100 +3593,100 @@
         <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" t="s">
         <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R13">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S13">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U13">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="V13">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="W13">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X13">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y13">
         <v>1.06</v>
       </c>
       <c r="Z13">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="AA13">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="AB13">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AC13">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE13">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AF13">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AG13">
+        <v>2.06</v>
+      </c>
+      <c r="AH13">
+        <v>1.68</v>
+      </c>
+      <c r="AI13">
+        <v>1.8</v>
+      </c>
+      <c r="AJ13">
         <v>1.96</v>
       </c>
-      <c r="AH13">
-        <v>1.75</v>
-      </c>
-      <c r="AI13">
-        <v>1.75</v>
-      </c>
-      <c r="AJ13">
-        <v>2.03</v>
-      </c>
       <c r="AK13">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AL13">
         <v>1.25</v>
       </c>
       <c r="AM13">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -3695,11 +3695,11 @@
         <v>0</v>
       </c>
       <c r="AP13">
+        <v>2.43</v>
+      </c>
+      <c r="AQ13">
         <v>1.67</v>
       </c>
-      <c r="AQ13">
-        <v>1</v>
-      </c>
       <c r="AR13">
         <v>0</v>
       </c>
@@ -3710,70 +3710,70 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY13">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AZ13">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BA13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB13">
         <v>4</v>
       </c>
       <c r="BC13">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD13">
-        <v>2.94</v>
+        <v>2.46</v>
       </c>
       <c r="BE13">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="BF13">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="BG13">
+        <v>1.39</v>
+      </c>
+      <c r="BH13">
+        <v>2.67</v>
+      </c>
+      <c r="BI13">
+        <v>1.7</v>
+      </c>
+      <c r="BJ13">
+        <v>1.98</v>
+      </c>
+      <c r="BK13">
+        <v>2.19</v>
+      </c>
+      <c r="BL13">
+        <v>1.57</v>
+      </c>
+      <c r="BM13">
+        <v>2.98</v>
+      </c>
+      <c r="BN13">
         <v>1.32</v>
       </c>
-      <c r="BH13">
-        <v>2.98</v>
-      </c>
-      <c r="BI13">
-        <v>1.59</v>
-      </c>
-      <c r="BJ13">
-        <v>2.16</v>
-      </c>
-      <c r="BK13">
-        <v>2</v>
-      </c>
-      <c r="BL13">
-        <v>1.69</v>
-      </c>
-      <c r="BM13">
-        <v>2.67</v>
-      </c>
-      <c r="BN13">
-        <v>1.39</v>
-      </c>
       <c r="BO13">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="BP13">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3781,7 +3781,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7454210</v>
+        <v>7453697</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3799,100 +3799,100 @@
         <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="s">
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="Q14">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="R14">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="T14">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U14">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="V14">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="W14">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X14">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y14">
         <v>1.06</v>
       </c>
       <c r="Z14">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="AA14">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="AB14">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AC14">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE14">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AF14">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AG14">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="AH14">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AI14">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ14">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="AK14">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AL14">
         <v>1.25</v>
       </c>
       <c r="AM14">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.43</v>
+        <v>1.67</v>
       </c>
       <c r="AQ14">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3916,70 +3916,70 @@
         <v>0</v>
       </c>
       <c r="AU14">
+        <v>3</v>
+      </c>
+      <c r="AV14">
+        <v>6</v>
+      </c>
+      <c r="AW14">
+        <v>2</v>
+      </c>
+      <c r="AX14">
+        <v>6</v>
+      </c>
+      <c r="AY14">
         <v>7</v>
       </c>
-      <c r="AV14">
-        <v>2</v>
-      </c>
-      <c r="AW14">
+      <c r="AZ14">
+        <v>21</v>
+      </c>
+      <c r="BA14">
         <v>4</v>
-      </c>
-      <c r="AX14">
-        <v>8</v>
-      </c>
-      <c r="AY14">
-        <v>20</v>
-      </c>
-      <c r="AZ14">
-        <v>15</v>
-      </c>
-      <c r="BA14">
-        <v>9</v>
       </c>
       <c r="BB14">
         <v>4</v>
       </c>
       <c r="BC14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD14">
-        <v>2.46</v>
+        <v>2.94</v>
       </c>
       <c r="BE14">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="BF14">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="BG14">
+        <v>1.32</v>
+      </c>
+      <c r="BH14">
+        <v>2.98</v>
+      </c>
+      <c r="BI14">
+        <v>1.59</v>
+      </c>
+      <c r="BJ14">
+        <v>2.16</v>
+      </c>
+      <c r="BK14">
+        <v>2</v>
+      </c>
+      <c r="BL14">
+        <v>1.69</v>
+      </c>
+      <c r="BM14">
+        <v>2.67</v>
+      </c>
+      <c r="BN14">
         <v>1.39</v>
       </c>
-      <c r="BH14">
-        <v>2.67</v>
-      </c>
-      <c r="BI14">
-        <v>1.7</v>
-      </c>
-      <c r="BJ14">
-        <v>1.98</v>
-      </c>
-      <c r="BK14">
-        <v>2.19</v>
-      </c>
-      <c r="BL14">
-        <v>1.57</v>
-      </c>
-      <c r="BM14">
-        <v>2.98</v>
-      </c>
-      <c r="BN14">
-        <v>1.32</v>
-      </c>
       <c r="BO14">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="BP14">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -4211,7 +4211,7 @@
         <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5241,7 +5241,7 @@
         <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -5265,7 +5265,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5653,7 +5653,7 @@
         <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -6062,7 +6062,7 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
         <v>71</v>
@@ -6268,7 +6268,7 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
         <v>70</v>
@@ -6913,7 +6913,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7077,7 +7077,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7453713</v>
+        <v>7453710</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -7095,187 +7095,187 @@
         <v>84</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="Q30">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="R30">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="T30">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U30">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V30">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W30">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X30">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y30">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z30">
-        <v>2.75</v>
+        <v>4.6</v>
       </c>
       <c r="AA30">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="AB30">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="AC30">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD30">
         <v>10</v>
       </c>
       <c r="AE30">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AF30">
-        <v>3.64</v>
+        <v>4.2</v>
       </c>
       <c r="AG30">
+        <v>1.81</v>
+      </c>
+      <c r="AH30">
+        <v>2</v>
+      </c>
+      <c r="AI30">
+        <v>1.91</v>
+      </c>
+      <c r="AJ30">
         <v>1.8</v>
       </c>
-      <c r="AH30">
-        <v>1.98</v>
-      </c>
-      <c r="AI30">
-        <v>1.67</v>
-      </c>
-      <c r="AJ30">
-        <v>2.1</v>
-      </c>
       <c r="AK30">
-        <v>1.53</v>
+        <v>3.3</v>
       </c>
       <c r="AL30">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AM30">
-        <v>1.4</v>
+        <v>1.02</v>
       </c>
       <c r="AN30">
         <v>0</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP30">
         <v>1.14</v>
       </c>
       <c r="AQ30">
-        <v>1.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR30">
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.21</v>
+        <v>1.54</v>
       </c>
       <c r="AT30">
-        <v>1.21</v>
+        <v>1.54</v>
       </c>
       <c r="AU30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY30">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ30">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA30">
+        <v>1</v>
+      </c>
+      <c r="BB30">
+        <v>3</v>
+      </c>
+      <c r="BC30">
         <v>4</v>
       </c>
-      <c r="BB30">
-        <v>5</v>
-      </c>
-      <c r="BC30">
-        <v>9</v>
-      </c>
       <c r="BD30">
-        <v>1.82</v>
+        <v>4.41</v>
       </c>
       <c r="BE30">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF30">
-        <v>2.34</v>
+        <v>1.31</v>
       </c>
       <c r="BG30">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="BH30">
-        <v>2.79</v>
+        <v>3.04</v>
       </c>
       <c r="BI30">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="BJ30">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="BK30">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="BL30">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="BM30">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="BN30">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="BO30">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="BP30">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7283,7 +7283,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7453710</v>
+        <v>7453713</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7301,187 +7301,187 @@
         <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O31" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="Q31">
+        <v>3.2</v>
+      </c>
+      <c r="R31">
+        <v>2.2</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>1.36</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>2.63</v>
+      </c>
+      <c r="W31">
+        <v>1.44</v>
+      </c>
+      <c r="X31">
         <v>6.5</v>
       </c>
-      <c r="R31">
+      <c r="Y31">
+        <v>1.1</v>
+      </c>
+      <c r="Z31">
+        <v>2.75</v>
+      </c>
+      <c r="AA31">
+        <v>3.25</v>
+      </c>
+      <c r="AB31">
         <v>2.4</v>
       </c>
-      <c r="S31">
-        <v>1.83</v>
-      </c>
-      <c r="T31">
-        <v>1.3</v>
-      </c>
-      <c r="U31">
-        <v>3.4</v>
-      </c>
-      <c r="V31">
-        <v>2.38</v>
-      </c>
-      <c r="W31">
-        <v>1.53</v>
-      </c>
-      <c r="X31">
-        <v>5.5</v>
-      </c>
-      <c r="Y31">
-        <v>1.13</v>
-      </c>
-      <c r="Z31">
-        <v>4.6</v>
-      </c>
-      <c r="AA31">
-        <v>3.8</v>
-      </c>
-      <c r="AB31">
-        <v>1.57</v>
-      </c>
       <c r="AC31">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD31">
         <v>10</v>
       </c>
       <c r="AE31">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF31">
-        <v>4.2</v>
+        <v>3.64</v>
       </c>
       <c r="AG31">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AH31">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AI31">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AJ31">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AK31">
-        <v>3.3</v>
+        <v>1.53</v>
       </c>
       <c r="AL31">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AM31">
-        <v>1.02</v>
+        <v>1.4</v>
       </c>
       <c r="AN31">
         <v>0</v>
       </c>
       <c r="AO31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP31">
         <v>1.14</v>
       </c>
       <c r="AQ31">
-        <v>2.29</v>
+        <v>1.67</v>
       </c>
       <c r="AR31">
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="AT31">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="AU31">
+        <v>3</v>
+      </c>
+      <c r="AV31">
+        <v>6</v>
+      </c>
+      <c r="AW31">
+        <v>8</v>
+      </c>
+      <c r="AX31">
+        <v>7</v>
+      </c>
+      <c r="AY31">
+        <v>15</v>
+      </c>
+      <c r="AZ31">
+        <v>14</v>
+      </c>
+      <c r="BA31">
+        <v>4</v>
+      </c>
+      <c r="BB31">
         <v>5</v>
       </c>
-      <c r="AV31">
-        <v>3</v>
-      </c>
-      <c r="AW31">
-        <v>4</v>
-      </c>
-      <c r="AX31">
-        <v>5</v>
-      </c>
-      <c r="AY31">
-        <v>10</v>
-      </c>
-      <c r="AZ31">
-        <v>11</v>
-      </c>
-      <c r="BA31">
-        <v>1</v>
-      </c>
-      <c r="BB31">
-        <v>3</v>
-      </c>
       <c r="BC31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD31">
-        <v>4.41</v>
+        <v>1.82</v>
       </c>
       <c r="BE31">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF31">
-        <v>1.31</v>
+        <v>2.34</v>
       </c>
       <c r="BG31">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="BH31">
-        <v>3.04</v>
+        <v>2.79</v>
       </c>
       <c r="BI31">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="BJ31">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="BK31">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="BL31">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BM31">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="BN31">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="BO31">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BP31">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -8107,7 +8107,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7453717</v>
+        <v>7453722</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -8122,10 +8122,10 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -8137,10 +8137,10 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -8149,61 +8149,61 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="Q35">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="T35">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U35">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="V35">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="W35">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X35">
-        <v>6.85</v>
+        <v>7.3</v>
       </c>
       <c r="Y35">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z35">
+        <v>2.5</v>
+      </c>
+      <c r="AA35">
+        <v>3</v>
+      </c>
+      <c r="AB35">
+        <v>2.6</v>
+      </c>
+      <c r="AC35">
+        <v>1.09</v>
+      </c>
+      <c r="AD35">
+        <v>6.5</v>
+      </c>
+      <c r="AE35">
+        <v>1.42</v>
+      </c>
+      <c r="AF35">
+        <v>2.75</v>
+      </c>
+      <c r="AG35">
         <v>1.95</v>
       </c>
-      <c r="AA35">
-        <v>3.2</v>
-      </c>
-      <c r="AB35">
-        <v>3.4</v>
-      </c>
-      <c r="AC35">
-        <v>1.07</v>
-      </c>
-      <c r="AD35">
-        <v>7.5</v>
-      </c>
-      <c r="AE35">
-        <v>1.36</v>
-      </c>
-      <c r="AF35">
-        <v>2.95</v>
-      </c>
-      <c r="AG35">
-        <v>2</v>
-      </c>
       <c r="AH35">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AI35">
         <v>1.83</v>
@@ -8212,100 +8212,100 @@
         <v>1.8</v>
       </c>
       <c r="AK35">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AL35">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AM35">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>0.13</v>
+        <v>0.38</v>
       </c>
       <c r="AR35">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="AS35">
-        <v>0.52</v>
+        <v>1.35</v>
       </c>
       <c r="AT35">
-        <v>1.53</v>
+        <v>2.57</v>
       </c>
       <c r="AU35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AZ35">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA35">
         <v>2</v>
       </c>
       <c r="BB35">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC35">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD35">
-        <v>1.59</v>
+        <v>2.29</v>
       </c>
       <c r="BE35">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF35">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="BG35">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="BH35">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="BI35">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BJ35">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BK35">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="BL35">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="BM35">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="BN35">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="BO35">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="BP35">
-        <v>1.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8313,7 +8313,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7453722</v>
+        <v>7453717</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8328,10 +8328,10 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8343,10 +8343,10 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -8355,61 +8355,61 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>4.33</v>
+      </c>
+      <c r="T36">
+        <v>1.45</v>
+      </c>
+      <c r="U36">
+        <v>2.55</v>
+      </c>
+      <c r="V36">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <v>1.33</v>
+      </c>
+      <c r="X36">
+        <v>6.85</v>
+      </c>
+      <c r="Y36">
+        <v>1.07</v>
+      </c>
+      <c r="Z36">
         <v>1.95</v>
       </c>
-      <c r="S36">
-        <v>3.65</v>
-      </c>
-      <c r="T36">
-        <v>1.48</v>
-      </c>
-      <c r="U36">
-        <v>2.45</v>
-      </c>
-      <c r="V36">
+      <c r="AA36">
         <v>3.2</v>
       </c>
-      <c r="W36">
-        <v>1.3</v>
-      </c>
-      <c r="X36">
-        <v>7.3</v>
-      </c>
-      <c r="Y36">
-        <v>1.06</v>
-      </c>
-      <c r="Z36">
-        <v>2.5</v>
-      </c>
-      <c r="AA36">
-        <v>3</v>
-      </c>
       <c r="AB36">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC36">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD36">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE36">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AF36">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="AG36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AH36">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AI36">
         <v>1.83</v>
@@ -8418,100 +8418,100 @@
         <v>1.8</v>
       </c>
       <c r="AK36">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AL36">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM36">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="AN36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
       <c r="AR36">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="AS36">
-        <v>1.35</v>
+        <v>0.52</v>
       </c>
       <c r="AT36">
-        <v>2.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV36">
+        <v>4</v>
+      </c>
+      <c r="AW36">
+        <v>3</v>
+      </c>
+      <c r="AX36">
         <v>6</v>
       </c>
-      <c r="AW36">
-        <v>2</v>
-      </c>
-      <c r="AX36">
-        <v>7</v>
-      </c>
       <c r="AY36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ36">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BA36">
         <v>2</v>
       </c>
       <c r="BB36">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC36">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BD36">
-        <v>2.29</v>
+        <v>1.59</v>
       </c>
       <c r="BE36">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF36">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="BG36">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BH36">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="BI36">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BJ36">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BK36">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="BL36">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BM36">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BN36">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BO36">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BP36">
-        <v>0</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8537,7 +8537,7 @@
         <v>79</v>
       </c>
       <c r="H37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -8743,7 +8743,7 @@
         <v>70</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -9137,7 +9137,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7454211</v>
+        <v>7453731</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -9152,19 +9152,19 @@
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <v>2</v>
@@ -9182,160 +9182,160 @@
         <v>192</v>
       </c>
       <c r="Q40">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="R40">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S40">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T40">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U40">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W40">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X40">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y40">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z40">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="AA40">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="AB40">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AC40">
         <v>1.06</v>
       </c>
       <c r="AD40">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE40">
         <v>1.33</v>
       </c>
       <c r="AF40">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AG40">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="AH40">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="AI40">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AJ40">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AK40">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AL40">
+        <v>1.3</v>
+      </c>
+      <c r="AM40">
+        <v>1.48</v>
+      </c>
+      <c r="AN40">
+        <v>0.33</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>1</v>
+      </c>
+      <c r="AQ40">
+        <v>0.86</v>
+      </c>
+      <c r="AR40">
+        <v>1.05</v>
+      </c>
+      <c r="AS40">
+        <v>0.93</v>
+      </c>
+      <c r="AT40">
+        <v>1.98</v>
+      </c>
+      <c r="AU40">
+        <v>6</v>
+      </c>
+      <c r="AV40">
+        <v>4</v>
+      </c>
+      <c r="AW40">
+        <v>8</v>
+      </c>
+      <c r="AX40">
+        <v>7</v>
+      </c>
+      <c r="AY40">
+        <v>15</v>
+      </c>
+      <c r="AZ40">
+        <v>16</v>
+      </c>
+      <c r="BA40">
+        <v>4</v>
+      </c>
+      <c r="BB40">
+        <v>6</v>
+      </c>
+      <c r="BC40">
+        <v>10</v>
+      </c>
+      <c r="BD40">
+        <v>1.82</v>
+      </c>
+      <c r="BE40">
+        <v>7.5</v>
+      </c>
+      <c r="BF40">
+        <v>2.4</v>
+      </c>
+      <c r="BG40">
+        <v>1.42</v>
+      </c>
+      <c r="BH40">
+        <v>2.57</v>
+      </c>
+      <c r="BI40">
+        <v>1.82</v>
+      </c>
+      <c r="BJ40">
+        <v>1.98</v>
+      </c>
+      <c r="BK40">
+        <v>2.3</v>
+      </c>
+      <c r="BL40">
+        <v>1.52</v>
+      </c>
+      <c r="BM40">
+        <v>3.18</v>
+      </c>
+      <c r="BN40">
         <v>1.28</v>
       </c>
-      <c r="AM40">
-        <v>1.6</v>
-      </c>
-      <c r="AN40">
-        <v>3</v>
-      </c>
-      <c r="AO40">
-        <v>2</v>
-      </c>
-      <c r="AP40">
-        <v>2.43</v>
-      </c>
-      <c r="AQ40">
-        <v>1.13</v>
-      </c>
-      <c r="AR40">
-        <v>1.91</v>
-      </c>
-      <c r="AS40">
-        <v>1.29</v>
-      </c>
-      <c r="AT40">
-        <v>3.2</v>
-      </c>
-      <c r="AU40">
-        <v>-1</v>
-      </c>
-      <c r="AV40">
-        <v>-1</v>
-      </c>
-      <c r="AW40">
-        <v>-1</v>
-      </c>
-      <c r="AX40">
-        <v>-1</v>
-      </c>
-      <c r="AY40">
-        <v>-1</v>
-      </c>
-      <c r="AZ40">
-        <v>-1</v>
-      </c>
-      <c r="BA40">
-        <v>5</v>
-      </c>
-      <c r="BB40">
-        <v>9</v>
-      </c>
-      <c r="BC40">
-        <v>14</v>
-      </c>
-      <c r="BD40">
-        <v>1.69</v>
-      </c>
-      <c r="BE40">
-        <v>8</v>
-      </c>
-      <c r="BF40">
-        <v>2.54</v>
-      </c>
-      <c r="BG40">
-        <v>1.32</v>
-      </c>
-      <c r="BH40">
-        <v>2.98</v>
-      </c>
-      <c r="BI40">
-        <v>1.59</v>
-      </c>
-      <c r="BJ40">
-        <v>2.16</v>
-      </c>
-      <c r="BK40">
-        <v>2</v>
-      </c>
-      <c r="BL40">
-        <v>1.69</v>
-      </c>
-      <c r="BM40">
-        <v>2.67</v>
-      </c>
-      <c r="BN40">
-        <v>1.39</v>
-      </c>
       <c r="BO40">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="BP40">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9343,7 +9343,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7453731</v>
+        <v>7454211</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9358,19 +9358,19 @@
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41">
         <v>2</v>
@@ -9388,160 +9388,160 @@
         <v>193</v>
       </c>
       <c r="Q41">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="R41">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S41">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T41">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U41">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W41">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X41">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y41">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z41">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="AA41">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="AB41">
-        <v>2.59</v>
+        <v>2.75</v>
       </c>
       <c r="AC41">
         <v>1.06</v>
       </c>
       <c r="AD41">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE41">
         <v>1.33</v>
       </c>
       <c r="AF41">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AG41">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="AH41">
+        <v>1.61</v>
+      </c>
+      <c r="AI41">
         <v>1.8</v>
       </c>
-      <c r="AI41">
-        <v>1.83</v>
-      </c>
       <c r="AJ41">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AK41">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AL41">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM41">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AN41">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>2.43</v>
       </c>
       <c r="AQ41">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR41">
-        <v>1.05</v>
+        <v>1.91</v>
       </c>
       <c r="AS41">
-        <v>0.93</v>
+        <v>1.29</v>
       </c>
       <c r="AT41">
-        <v>1.98</v>
+        <v>3.2</v>
       </c>
       <c r="AU41">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV41">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW41">
+        <v>-1</v>
+      </c>
+      <c r="AX41">
+        <v>-1</v>
+      </c>
+      <c r="AY41">
+        <v>-1</v>
+      </c>
+      <c r="AZ41">
+        <v>-1</v>
+      </c>
+      <c r="BA41">
+        <v>5</v>
+      </c>
+      <c r="BB41">
+        <v>9</v>
+      </c>
+      <c r="BC41">
+        <v>14</v>
+      </c>
+      <c r="BD41">
+        <v>1.69</v>
+      </c>
+      <c r="BE41">
         <v>8</v>
       </c>
-      <c r="AX41">
-        <v>7</v>
-      </c>
-      <c r="AY41">
-        <v>15</v>
-      </c>
-      <c r="AZ41">
-        <v>16</v>
-      </c>
-      <c r="BA41">
-        <v>4</v>
-      </c>
-      <c r="BB41">
-        <v>6</v>
-      </c>
-      <c r="BC41">
-        <v>10</v>
-      </c>
-      <c r="BD41">
-        <v>1.82</v>
-      </c>
-      <c r="BE41">
-        <v>7.5</v>
-      </c>
       <c r="BF41">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="BG41">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="BH41">
-        <v>2.57</v>
+        <v>2.98</v>
       </c>
       <c r="BI41">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="BJ41">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="BK41">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="BL41">
-        <v>1.52</v>
+        <v>1.69</v>
       </c>
       <c r="BM41">
-        <v>3.18</v>
+        <v>2.67</v>
       </c>
       <c r="BN41">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="BO41">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="BP41">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9567,7 +9567,7 @@
         <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
         <v>71</v>
@@ -10182,10 +10182,10 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -10621,7 +10621,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q47">
         <v>2.1</v>
@@ -11009,7 +11009,7 @@
         <v>79</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -11627,7 +11627,7 @@
         <v>83</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -11830,10 +11830,10 @@
         <v>8</v>
       </c>
       <c r="G53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -12036,7 +12036,7 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s">
         <v>79</v>
@@ -12227,7 +12227,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7453745</v>
+        <v>7453744</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12242,16 +12242,16 @@
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -12260,142 +12260,142 @@
         <v>2</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O55" t="s">
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Z55">
-        <v>2.7</v>
+        <v>1.06</v>
       </c>
       <c r="AA55">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="AB55">
-        <v>2.25</v>
+        <v>21</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AF55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG55">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AH55">
-        <v>2.1</v>
+        <v>3.41</v>
       </c>
       <c r="AI55">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AJ55">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AK55">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AL55">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AM55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN55">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="AO55">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.63</v>
+        <v>2.71</v>
       </c>
       <c r="AQ55">
-        <v>1.43</v>
+        <v>0.86</v>
       </c>
       <c r="AR55">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AS55">
-        <v>1.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT55">
-        <v>1.77</v>
+        <v>3.16</v>
       </c>
       <c r="AU55">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AV55">
+        <v>3</v>
+      </c>
+      <c r="AW55">
         <v>5</v>
       </c>
-      <c r="AW55">
-        <v>3</v>
-      </c>
       <c r="AX55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY55">
+        <v>32</v>
+      </c>
+      <c r="AZ55">
         <v>5</v>
       </c>
-      <c r="AZ55">
-        <v>8</v>
-      </c>
       <c r="BA55">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BB55">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BC55">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD55">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="BE55">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BF55">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="BG55">
         <v>0</v>
@@ -12410,10 +12410,10 @@
         <v>0</v>
       </c>
       <c r="BK55">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BL55">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BM55">
         <v>0</v>
@@ -12433,7 +12433,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7453744</v>
+        <v>7453745</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12448,16 +12448,16 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -12466,142 +12466,142 @@
         <v>2</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O56" t="s">
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>2.7</v>
+      </c>
+      <c r="AA56">
+        <v>3.5</v>
+      </c>
+      <c r="AB56">
+        <v>2.25</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>1.67</v>
+      </c>
+      <c r="AH56">
+        <v>2.1</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
         <v>1.5</v>
       </c>
-      <c r="R56">
-        <v>3.1</v>
-      </c>
-      <c r="S56">
-        <v>8.5</v>
-      </c>
-      <c r="T56">
-        <v>1.17</v>
-      </c>
-      <c r="U56">
-        <v>4.5</v>
-      </c>
-      <c r="V56">
-        <v>1.8</v>
-      </c>
-      <c r="W56">
-        <v>1.91</v>
-      </c>
-      <c r="X56">
-        <v>3.5</v>
-      </c>
-      <c r="Y56">
-        <v>1.29</v>
-      </c>
-      <c r="Z56">
-        <v>1.06</v>
-      </c>
-      <c r="AA56">
-        <v>10</v>
-      </c>
-      <c r="AB56">
-        <v>21</v>
-      </c>
-      <c r="AC56">
-        <v>1.01</v>
-      </c>
-      <c r="AD56">
-        <v>29</v>
-      </c>
-      <c r="AE56">
-        <v>1.05</v>
-      </c>
-      <c r="AF56">
+      <c r="AO56">
+        <v>1.5</v>
+      </c>
+      <c r="AP56">
+        <v>1.63</v>
+      </c>
+      <c r="AQ56">
+        <v>1.43</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>1.77</v>
+      </c>
+      <c r="AT56">
+        <v>1.77</v>
+      </c>
+      <c r="AU56">
+        <v>2</v>
+      </c>
+      <c r="AV56">
+        <v>5</v>
+      </c>
+      <c r="AW56">
+        <v>3</v>
+      </c>
+      <c r="AX56">
+        <v>3</v>
+      </c>
+      <c r="AY56">
+        <v>5</v>
+      </c>
+      <c r="AZ56">
         <v>8</v>
       </c>
-      <c r="AG56">
-        <v>1.27</v>
-      </c>
-      <c r="AH56">
-        <v>3.41</v>
-      </c>
-      <c r="AI56">
-        <v>1.8</v>
-      </c>
-      <c r="AJ56">
-        <v>1.91</v>
-      </c>
-      <c r="AK56">
-        <v>1.01</v>
-      </c>
-      <c r="AL56">
-        <v>1.07</v>
-      </c>
-      <c r="AM56">
+      <c r="BA56">
         <v>5</v>
       </c>
-      <c r="AN56">
-        <v>2.33</v>
-      </c>
-      <c r="AO56">
-        <v>1.33</v>
-      </c>
-      <c r="AP56">
-        <v>2.71</v>
-      </c>
-      <c r="AQ56">
-        <v>0.86</v>
-      </c>
-      <c r="AR56">
-        <v>2.35</v>
-      </c>
-      <c r="AS56">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AT56">
-        <v>3.16</v>
-      </c>
-      <c r="AU56">
-        <v>11</v>
-      </c>
-      <c r="AV56">
-        <v>3</v>
-      </c>
-      <c r="AW56">
-        <v>5</v>
-      </c>
-      <c r="AX56">
-        <v>1</v>
-      </c>
-      <c r="AY56">
-        <v>32</v>
-      </c>
-      <c r="AZ56">
-        <v>5</v>
-      </c>
-      <c r="BA56">
+      <c r="BB56">
+        <v>9</v>
+      </c>
+      <c r="BC56">
         <v>14</v>
       </c>
-      <c r="BB56">
-        <v>2</v>
-      </c>
-      <c r="BC56">
-        <v>16</v>
-      </c>
       <c r="BD56">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="BE56">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BF56">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="BG56">
         <v>0</v>
@@ -12616,10 +12616,10 @@
         <v>0</v>
       </c>
       <c r="BK56">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="BL56">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BM56">
         <v>0</v>
@@ -13275,7 +13275,7 @@
         <v>78</v>
       </c>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -13478,7 +13478,7 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s">
         <v>70</v>
@@ -14287,7 +14287,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7453753</v>
+        <v>7453754</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14302,43 +14302,43 @@
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O65" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="P65" t="s">
         <v>210</v>
       </c>
       <c r="Q65">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R65">
         <v>2.2</v>
       </c>
       <c r="S65">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="T65">
         <v>1.33</v>
@@ -14359,31 +14359,31 @@
         <v>1.11</v>
       </c>
       <c r="Z65">
+        <v>2</v>
+      </c>
+      <c r="AA65">
+        <v>3.1</v>
+      </c>
+      <c r="AB65">
+        <v>3.6</v>
+      </c>
+      <c r="AC65">
+        <v>1.04</v>
+      </c>
+      <c r="AD65">
+        <v>9</v>
+      </c>
+      <c r="AE65">
+        <v>1.25</v>
+      </c>
+      <c r="AF65">
         <v>3.75</v>
       </c>
-      <c r="AA65">
-        <v>3.4</v>
-      </c>
-      <c r="AB65">
-        <v>1.85</v>
-      </c>
-      <c r="AC65">
-        <v>1.01</v>
-      </c>
-      <c r="AD65">
-        <v>12</v>
-      </c>
-      <c r="AE65">
-        <v>1.22</v>
-      </c>
-      <c r="AF65">
-        <v>4</v>
-      </c>
       <c r="AG65">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AH65">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AI65">
         <v>1.67</v>
@@ -14392,97 +14392,97 @@
         <v>2.1</v>
       </c>
       <c r="AK65">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="AL65">
         <v>1.22</v>
       </c>
       <c r="AM65">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="AN65">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO65">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AP65">
-        <v>1.14</v>
+        <v>2.43</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>0.38</v>
       </c>
       <c r="AR65">
-        <v>1.31</v>
+        <v>1.91</v>
       </c>
       <c r="AS65">
-        <v>1.97</v>
+        <v>1.52</v>
       </c>
       <c r="AT65">
-        <v>3.28</v>
+        <v>3.43</v>
       </c>
       <c r="AU65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV65">
+        <v>6</v>
+      </c>
+      <c r="AW65">
+        <v>2</v>
+      </c>
+      <c r="AX65">
+        <v>4</v>
+      </c>
+      <c r="AY65">
+        <v>9</v>
+      </c>
+      <c r="AZ65">
+        <v>19</v>
+      </c>
+      <c r="BA65">
+        <v>4</v>
+      </c>
+      <c r="BB65">
         <v>7</v>
-      </c>
-      <c r="AW65">
-        <v>4</v>
-      </c>
-      <c r="AX65">
-        <v>5</v>
-      </c>
-      <c r="AY65">
-        <v>7</v>
-      </c>
-      <c r="AZ65">
-        <v>15</v>
-      </c>
-      <c r="BA65">
-        <v>2</v>
-      </c>
-      <c r="BB65">
-        <v>9</v>
       </c>
       <c r="BC65">
         <v>11</v>
       </c>
       <c r="BD65">
-        <v>2.65</v>
+        <v>1.83</v>
       </c>
       <c r="BE65">
-        <v>6.25</v>
+        <v>6.15</v>
       </c>
       <c r="BF65">
-        <v>1.76</v>
+        <v>2.52</v>
       </c>
       <c r="BG65">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="BH65">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="BI65">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="BJ65">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="BK65">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="BL65">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="BM65">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="BN65">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BO65">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="BP65">
         <v>1.18</v>
@@ -14493,7 +14493,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7453754</v>
+        <v>7453753</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14508,43 +14508,43 @@
         <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O66" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="P66" t="s">
         <v>211</v>
       </c>
       <c r="Q66">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R66">
         <v>2.2</v>
       </c>
       <c r="S66">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="T66">
         <v>1.33</v>
@@ -14565,31 +14565,31 @@
         <v>1.11</v>
       </c>
       <c r="Z66">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="AA66">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB66">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="AC66">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD66">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE66">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF66">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AG66">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AH66">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AI66">
         <v>1.67</v>
@@ -14598,97 +14598,97 @@
         <v>2.1</v>
       </c>
       <c r="AK66">
-        <v>1.38</v>
+        <v>1.7</v>
       </c>
       <c r="AL66">
         <v>1.22</v>
       </c>
       <c r="AM66">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="AN66">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO66">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="AP66">
-        <v>2.43</v>
+        <v>1.14</v>
       </c>
       <c r="AQ66">
-        <v>0.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR66">
-        <v>1.91</v>
+        <v>1.31</v>
       </c>
       <c r="AS66">
-        <v>1.52</v>
+        <v>1.97</v>
       </c>
       <c r="AT66">
-        <v>3.43</v>
+        <v>3.28</v>
       </c>
       <c r="AU66">
+        <v>2</v>
+      </c>
+      <c r="AV66">
+        <v>7</v>
+      </c>
+      <c r="AW66">
+        <v>4</v>
+      </c>
+      <c r="AX66">
         <v>5</v>
       </c>
-      <c r="AV66">
-        <v>6</v>
-      </c>
-      <c r="AW66">
-        <v>2</v>
-      </c>
-      <c r="AX66">
-        <v>4</v>
-      </c>
       <c r="AY66">
+        <v>7</v>
+      </c>
+      <c r="AZ66">
+        <v>15</v>
+      </c>
+      <c r="BA66">
+        <v>2</v>
+      </c>
+      <c r="BB66">
         <v>9</v>
-      </c>
-      <c r="AZ66">
-        <v>19</v>
-      </c>
-      <c r="BA66">
-        <v>4</v>
-      </c>
-      <c r="BB66">
-        <v>7</v>
       </c>
       <c r="BC66">
         <v>11</v>
       </c>
       <c r="BD66">
-        <v>1.83</v>
+        <v>2.65</v>
       </c>
       <c r="BE66">
-        <v>6.15</v>
+        <v>6.25</v>
       </c>
       <c r="BF66">
-        <v>2.52</v>
+        <v>1.76</v>
       </c>
       <c r="BG66">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="BH66">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="BI66">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="BJ66">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="BK66">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="BL66">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="BM66">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="BN66">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="BO66">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="BP66">
         <v>1.18</v>
@@ -15541,7 +15541,7 @@
         <v>82</v>
       </c>
       <c r="H71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -15729,7 +15729,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7453762</v>
+        <v>7453761</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15744,49 +15744,49 @@
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H72" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O72" t="s">
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="Q72">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R72">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S72">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="T72">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U72">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V72">
         <v>2.63</v>
@@ -15795,73 +15795,73 @@
         <v>1.44</v>
       </c>
       <c r="X72">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y72">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z72">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="AA72">
         <v>3.4</v>
       </c>
       <c r="AB72">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AC72">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD72">
-        <v>13</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AE72">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF72">
-        <v>4</v>
+        <v>3.83</v>
       </c>
       <c r="AG72">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AH72">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AI72">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AJ72">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK72">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AL72">
         <v>1.32</v>
       </c>
       <c r="AM72">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AN72">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="AO72">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ72">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR72">
-        <v>1.46</v>
+        <v>1.97</v>
       </c>
       <c r="AS72">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="AT72">
-        <v>3.01</v>
+        <v>3.94</v>
       </c>
       <c r="AU72">
         <v>4</v>
@@ -15870,34 +15870,34 @@
         <v>5</v>
       </c>
       <c r="AW72">
+        <v>7</v>
+      </c>
+      <c r="AX72">
+        <v>3</v>
+      </c>
+      <c r="AY72">
+        <v>16</v>
+      </c>
+      <c r="AZ72">
+        <v>11</v>
+      </c>
+      <c r="BA72">
         <v>5</v>
-      </c>
-      <c r="AX72">
-        <v>4</v>
-      </c>
-      <c r="AY72">
-        <v>11</v>
-      </c>
-      <c r="AZ72">
-        <v>14</v>
-      </c>
-      <c r="BA72">
-        <v>3</v>
       </c>
       <c r="BB72">
         <v>4</v>
       </c>
       <c r="BC72">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD72">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="BE72">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="BF72">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="BG72">
         <v>1.49</v>
@@ -15935,7 +15935,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7453761</v>
+        <v>7453762</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15950,49 +15950,49 @@
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H73" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O73" t="s">
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="Q73">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R73">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S73">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="T73">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U73">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V73">
         <v>2.63</v>
@@ -16001,73 +16001,73 @@
         <v>1.44</v>
       </c>
       <c r="X73">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y73">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z73">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="AA73">
         <v>3.4</v>
       </c>
       <c r="AB73">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AC73">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD73">
-        <v>9.949999999999999</v>
+        <v>13</v>
       </c>
       <c r="AE73">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF73">
-        <v>3.83</v>
+        <v>4</v>
       </c>
       <c r="AG73">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AH73">
+        <v>2.05</v>
+      </c>
+      <c r="AI73">
+        <v>1.67</v>
+      </c>
+      <c r="AJ73">
         <v>2.1</v>
       </c>
-      <c r="AI73">
-        <v>1.62</v>
-      </c>
-      <c r="AJ73">
-        <v>2.2</v>
-      </c>
       <c r="AK73">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AL73">
         <v>1.32</v>
       </c>
       <c r="AM73">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AN73">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="AO73">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AR73">
-        <v>1.97</v>
+        <v>1.46</v>
       </c>
       <c r="AS73">
-        <v>1.97</v>
+        <v>1.55</v>
       </c>
       <c r="AT73">
-        <v>3.94</v>
+        <v>3.01</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16076,34 +16076,34 @@
         <v>5</v>
       </c>
       <c r="AW73">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY73">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ73">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB73">
         <v>4</v>
       </c>
       <c r="BC73">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD73">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="BE73">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="BF73">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="BG73">
         <v>1.49</v>
@@ -16156,10 +16156,10 @@
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -16777,7 +16777,7 @@
         <v>78</v>
       </c>
       <c r="H77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -16980,7 +16980,7 @@
         <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H78" t="s">
         <v>75</v>
@@ -17186,7 +17186,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s">
         <v>82</v>
@@ -18216,7 +18216,7 @@
         <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H84" t="s">
         <v>72</v>
@@ -18422,10 +18422,10 @@
         <v>11</v>
       </c>
       <c r="G85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -18837,7 +18837,7 @@
         <v>72</v>
       </c>
       <c r="H87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I87">
         <v>3</v>
@@ -19455,7 +19455,7 @@
         <v>82</v>
       </c>
       <c r="H90" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -19867,7 +19867,7 @@
         <v>78</v>
       </c>
       <c r="H92" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -20073,7 +20073,7 @@
         <v>73</v>
       </c>
       <c r="H93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -20482,7 +20482,7 @@
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H95" t="s">
         <v>76</v>
@@ -21085,7 +21085,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7453784</v>
+        <v>7453781</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21097,193 +21097,193 @@
         <v>45591.54166666666</v>
       </c>
       <c r="F98">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H98" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>87</v>
+      </c>
+      <c r="P98" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q98">
+        <v>2.75</v>
+      </c>
+      <c r="R98">
+        <v>2.2</v>
+      </c>
+      <c r="S98">
+        <v>3.6</v>
+      </c>
+      <c r="T98">
+        <v>1.36</v>
+      </c>
+      <c r="U98">
+        <v>3</v>
+      </c>
+      <c r="V98">
+        <v>2.63</v>
+      </c>
+      <c r="W98">
+        <v>1.44</v>
+      </c>
+      <c r="X98">
+        <v>6.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.1</v>
+      </c>
+      <c r="Z98">
+        <v>1.87</v>
+      </c>
+      <c r="AA98">
+        <v>3.02</v>
+      </c>
+      <c r="AB98">
+        <v>3.3</v>
+      </c>
+      <c r="AC98">
+        <v>1.05</v>
+      </c>
+      <c r="AD98">
+        <v>8.5</v>
+      </c>
+      <c r="AE98">
+        <v>1.25</v>
+      </c>
+      <c r="AF98">
+        <v>3.6</v>
+      </c>
+      <c r="AG98">
+        <v>1.93</v>
+      </c>
+      <c r="AH98">
+        <v>1.83</v>
+      </c>
+      <c r="AI98">
+        <v>1.67</v>
+      </c>
+      <c r="AJ98">
+        <v>2.1</v>
+      </c>
+      <c r="AK98">
+        <v>1.35</v>
+      </c>
+      <c r="AL98">
+        <v>1.25</v>
+      </c>
+      <c r="AM98">
+        <v>1.65</v>
+      </c>
+      <c r="AN98">
+        <v>1.4</v>
+      </c>
+      <c r="AO98">
+        <v>0.6</v>
+      </c>
+      <c r="AP98">
+        <v>1.14</v>
+      </c>
+      <c r="AQ98">
+        <v>0.86</v>
+      </c>
+      <c r="AR98">
+        <v>1.32</v>
+      </c>
+      <c r="AS98">
+        <v>1.43</v>
+      </c>
+      <c r="AT98">
+        <v>2.75</v>
+      </c>
+      <c r="AU98">
+        <v>2</v>
+      </c>
+      <c r="AV98">
         <v>5</v>
       </c>
-      <c r="N98">
+      <c r="AW98">
+        <v>12</v>
+      </c>
+      <c r="AX98">
+        <v>1</v>
+      </c>
+      <c r="AY98">
+        <v>16</v>
+      </c>
+      <c r="AZ98">
         <v>6</v>
       </c>
-      <c r="O98" t="s">
-        <v>158</v>
-      </c>
-      <c r="P98" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q98">
-        <v>13</v>
-      </c>
-      <c r="R98">
-        <v>2.88</v>
-      </c>
-      <c r="S98">
-        <v>1.44</v>
-      </c>
-      <c r="T98">
-        <v>1.25</v>
-      </c>
-      <c r="U98">
-        <v>3.75</v>
-      </c>
-      <c r="V98">
+      <c r="BA98">
+        <v>4</v>
+      </c>
+      <c r="BB98">
+        <v>0</v>
+      </c>
+      <c r="BC98">
+        <v>4</v>
+      </c>
+      <c r="BD98">
+        <v>1.82</v>
+      </c>
+      <c r="BE98">
+        <v>7.5</v>
+      </c>
+      <c r="BF98">
+        <v>2.4</v>
+      </c>
+      <c r="BG98">
+        <v>1.4</v>
+      </c>
+      <c r="BH98">
+        <v>2.65</v>
+      </c>
+      <c r="BI98">
+        <v>1.67</v>
+      </c>
+      <c r="BJ98">
         <v>2.1</v>
       </c>
-      <c r="W98">
-        <v>1.67</v>
-      </c>
-      <c r="X98">
-        <v>4.5</v>
-      </c>
-      <c r="Y98">
-        <v>1.17</v>
-      </c>
-      <c r="Z98">
-        <v>13.5</v>
-      </c>
-      <c r="AA98">
-        <v>6.5</v>
-      </c>
-      <c r="AB98">
-        <v>1.15</v>
-      </c>
-      <c r="AC98">
-        <v>1.01</v>
-      </c>
-      <c r="AD98">
-        <v>15</v>
-      </c>
-      <c r="AE98">
-        <v>1.14</v>
-      </c>
-      <c r="AF98">
-        <v>5.25</v>
-      </c>
-      <c r="AG98">
-        <v>1.37</v>
-      </c>
-      <c r="AH98">
-        <v>2.85</v>
-      </c>
-      <c r="AI98">
-        <v>2.75</v>
-      </c>
-      <c r="AJ98">
-        <v>1.4</v>
-      </c>
-      <c r="AK98">
-        <v>5.5</v>
-      </c>
-      <c r="AL98">
-        <v>1.07</v>
-      </c>
-      <c r="AM98">
-        <v>1</v>
-      </c>
-      <c r="AN98">
-        <v>1.75</v>
-      </c>
-      <c r="AO98">
-        <v>3</v>
-      </c>
-      <c r="AP98">
-        <v>1.67</v>
-      </c>
-      <c r="AQ98">
-        <v>3</v>
-      </c>
-      <c r="AR98">
-        <v>1.07</v>
-      </c>
-      <c r="AS98">
-        <v>2.16</v>
-      </c>
-      <c r="AT98">
-        <v>3.23</v>
-      </c>
-      <c r="AU98">
-        <v>4</v>
-      </c>
-      <c r="AV98">
-        <v>8</v>
-      </c>
-      <c r="AW98">
-        <v>0</v>
-      </c>
-      <c r="AX98">
-        <v>9</v>
-      </c>
-      <c r="AY98">
-        <v>5</v>
-      </c>
-      <c r="AZ98">
-        <v>21</v>
-      </c>
-      <c r="BA98">
-        <v>1</v>
-      </c>
-      <c r="BB98">
-        <v>12</v>
-      </c>
-      <c r="BC98">
-        <v>13</v>
-      </c>
-      <c r="BD98">
-        <v>9.35</v>
-      </c>
-      <c r="BE98">
-        <v>13</v>
-      </c>
-      <c r="BF98">
-        <v>1.09</v>
-      </c>
-      <c r="BG98">
-        <v>1.35</v>
-      </c>
-      <c r="BH98">
-        <v>2.8</v>
-      </c>
-      <c r="BI98">
+      <c r="BK98">
+        <v>2.1</v>
+      </c>
+      <c r="BL98">
         <v>1.61</v>
       </c>
-      <c r="BJ98">
-        <v>2.12</v>
-      </c>
-      <c r="BK98">
-        <v>2</v>
-      </c>
-      <c r="BL98">
-        <v>1.73</v>
-      </c>
       <c r="BM98">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BN98">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="BO98">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="BP98">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21291,7 +21291,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7453781</v>
+        <v>7453784</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21303,193 +21303,193 @@
         <v>45591.54166666666</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O99" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="Q99">
+        <v>13</v>
+      </c>
+      <c r="R99">
+        <v>2.88</v>
+      </c>
+      <c r="S99">
+        <v>1.44</v>
+      </c>
+      <c r="T99">
+        <v>1.25</v>
+      </c>
+      <c r="U99">
+        <v>3.75</v>
+      </c>
+      <c r="V99">
+        <v>2.1</v>
+      </c>
+      <c r="W99">
+        <v>1.67</v>
+      </c>
+      <c r="X99">
+        <v>4.5</v>
+      </c>
+      <c r="Y99">
+        <v>1.17</v>
+      </c>
+      <c r="Z99">
+        <v>13.5</v>
+      </c>
+      <c r="AA99">
+        <v>6.5</v>
+      </c>
+      <c r="AB99">
+        <v>1.15</v>
+      </c>
+      <c r="AC99">
+        <v>1.01</v>
+      </c>
+      <c r="AD99">
+        <v>15</v>
+      </c>
+      <c r="AE99">
+        <v>1.14</v>
+      </c>
+      <c r="AF99">
+        <v>5.25</v>
+      </c>
+      <c r="AG99">
+        <v>1.37</v>
+      </c>
+      <c r="AH99">
+        <v>2.85</v>
+      </c>
+      <c r="AI99">
         <v>2.75</v>
       </c>
-      <c r="R99">
-        <v>2.2</v>
-      </c>
-      <c r="S99">
-        <v>3.6</v>
-      </c>
-      <c r="T99">
-        <v>1.36</v>
-      </c>
-      <c r="U99">
-        <v>3</v>
-      </c>
-      <c r="V99">
-        <v>2.63</v>
-      </c>
-      <c r="W99">
+      <c r="AJ99">
+        <v>1.4</v>
+      </c>
+      <c r="AK99">
+        <v>5.5</v>
+      </c>
+      <c r="AL99">
+        <v>1.07</v>
+      </c>
+      <c r="AM99">
+        <v>1</v>
+      </c>
+      <c r="AN99">
+        <v>1.75</v>
+      </c>
+      <c r="AO99">
+        <v>3</v>
+      </c>
+      <c r="AP99">
+        <v>1.67</v>
+      </c>
+      <c r="AQ99">
+        <v>3</v>
+      </c>
+      <c r="AR99">
+        <v>1.07</v>
+      </c>
+      <c r="AS99">
+        <v>2.16</v>
+      </c>
+      <c r="AT99">
+        <v>3.23</v>
+      </c>
+      <c r="AU99">
+        <v>4</v>
+      </c>
+      <c r="AV99">
+        <v>8</v>
+      </c>
+      <c r="AW99">
+        <v>0</v>
+      </c>
+      <c r="AX99">
+        <v>9</v>
+      </c>
+      <c r="AY99">
+        <v>5</v>
+      </c>
+      <c r="AZ99">
+        <v>21</v>
+      </c>
+      <c r="BA99">
+        <v>1</v>
+      </c>
+      <c r="BB99">
+        <v>12</v>
+      </c>
+      <c r="BC99">
+        <v>13</v>
+      </c>
+      <c r="BD99">
+        <v>9.35</v>
+      </c>
+      <c r="BE99">
+        <v>13</v>
+      </c>
+      <c r="BF99">
+        <v>1.09</v>
+      </c>
+      <c r="BG99">
+        <v>1.35</v>
+      </c>
+      <c r="BH99">
+        <v>2.8</v>
+      </c>
+      <c r="BI99">
+        <v>1.61</v>
+      </c>
+      <c r="BJ99">
+        <v>2.12</v>
+      </c>
+      <c r="BK99">
+        <v>2</v>
+      </c>
+      <c r="BL99">
+        <v>1.73</v>
+      </c>
+      <c r="BM99">
+        <v>2.5</v>
+      </c>
+      <c r="BN99">
         <v>1.44</v>
       </c>
-      <c r="X99">
-        <v>6.5</v>
-      </c>
-      <c r="Y99">
-        <v>1.1</v>
-      </c>
-      <c r="Z99">
-        <v>1.87</v>
-      </c>
-      <c r="AA99">
-        <v>3.02</v>
-      </c>
-      <c r="AB99">
-        <v>3.3</v>
-      </c>
-      <c r="AC99">
-        <v>1.05</v>
-      </c>
-      <c r="AD99">
-        <v>8.5</v>
-      </c>
-      <c r="AE99">
-        <v>1.25</v>
-      </c>
-      <c r="AF99">
-        <v>3.6</v>
-      </c>
-      <c r="AG99">
-        <v>1.93</v>
-      </c>
-      <c r="AH99">
-        <v>1.83</v>
-      </c>
-      <c r="AI99">
-        <v>1.67</v>
-      </c>
-      <c r="AJ99">
-        <v>2.1</v>
-      </c>
-      <c r="AK99">
-        <v>1.35</v>
-      </c>
-      <c r="AL99">
-        <v>1.25</v>
-      </c>
-      <c r="AM99">
-        <v>1.65</v>
-      </c>
-      <c r="AN99">
-        <v>1.4</v>
-      </c>
-      <c r="AO99">
-        <v>0.6</v>
-      </c>
-      <c r="AP99">
-        <v>1.14</v>
-      </c>
-      <c r="AQ99">
-        <v>0.86</v>
-      </c>
-      <c r="AR99">
-        <v>1.32</v>
-      </c>
-      <c r="AS99">
-        <v>1.43</v>
-      </c>
-      <c r="AT99">
-        <v>2.75</v>
-      </c>
-      <c r="AU99">
-        <v>2</v>
-      </c>
-      <c r="AV99">
-        <v>5</v>
-      </c>
-      <c r="AW99">
-        <v>12</v>
-      </c>
-      <c r="AX99">
-        <v>1</v>
-      </c>
-      <c r="AY99">
-        <v>16</v>
-      </c>
-      <c r="AZ99">
-        <v>6</v>
-      </c>
-      <c r="BA99">
-        <v>4</v>
-      </c>
-      <c r="BB99">
-        <v>0</v>
-      </c>
-      <c r="BC99">
-        <v>4</v>
-      </c>
-      <c r="BD99">
-        <v>1.82</v>
-      </c>
-      <c r="BE99">
-        <v>7.5</v>
-      </c>
-      <c r="BF99">
-        <v>2.4</v>
-      </c>
-      <c r="BG99">
-        <v>1.4</v>
-      </c>
-      <c r="BH99">
-        <v>2.65</v>
-      </c>
-      <c r="BI99">
-        <v>1.67</v>
-      </c>
-      <c r="BJ99">
-        <v>2.1</v>
-      </c>
-      <c r="BK99">
-        <v>2.1</v>
-      </c>
-      <c r="BL99">
-        <v>1.61</v>
-      </c>
-      <c r="BM99">
-        <v>2.7</v>
-      </c>
-      <c r="BN99">
-        <v>1.39</v>
-      </c>
       <c r="BO99">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="BP99">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21512,7 +21512,7 @@
         <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H100" t="s">
         <v>82</v>
@@ -21924,7 +21924,7 @@
         <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H102" t="s">
         <v>73</v>
@@ -22133,7 +22133,7 @@
         <v>76</v>
       </c>
       <c r="H103" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -22339,7 +22339,7 @@
         <v>75</v>
       </c>
       <c r="H104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I104">
         <v>3</v>
@@ -22545,7 +22545,7 @@
         <v>72</v>
       </c>
       <c r="H105" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I105">
         <v>3</v>
@@ -23163,7 +23163,7 @@
         <v>73</v>
       </c>
       <c r="H108" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -23351,7 +23351,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7453791</v>
+        <v>7453786</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23366,43 +23366,43 @@
         <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H109" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O109" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="Q109">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="R109">
         <v>2.2</v>
       </c>
       <c r="S109">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="T109">
         <v>1.4</v>
@@ -23411,145 +23411,145 @@
         <v>2.75</v>
       </c>
       <c r="V109">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W109">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X109">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y109">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z109">
-        <v>1.56</v>
+        <v>4.95</v>
       </c>
       <c r="AA109">
-        <v>4.01</v>
+        <v>3.66</v>
       </c>
       <c r="AB109">
-        <v>5.08</v>
+        <v>1.58</v>
       </c>
       <c r="AC109">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD109">
+        <v>8</v>
+      </c>
+      <c r="AE109">
+        <v>1.33</v>
+      </c>
+      <c r="AF109">
+        <v>3.2</v>
+      </c>
+      <c r="AG109">
+        <v>1.9</v>
+      </c>
+      <c r="AH109">
+        <v>1.84</v>
+      </c>
+      <c r="AI109">
+        <v>2</v>
+      </c>
+      <c r="AJ109">
+        <v>1.73</v>
+      </c>
+      <c r="AK109">
+        <v>2.4</v>
+      </c>
+      <c r="AL109">
+        <v>1.2</v>
+      </c>
+      <c r="AM109">
+        <v>1.08</v>
+      </c>
+      <c r="AN109">
+        <v>0.67</v>
+      </c>
+      <c r="AO109">
+        <v>2</v>
+      </c>
+      <c r="AP109">
+        <v>0.57</v>
+      </c>
+      <c r="AQ109">
+        <v>2.13</v>
+      </c>
+      <c r="AR109">
+        <v>1.11</v>
+      </c>
+      <c r="AS109">
+        <v>1.25</v>
+      </c>
+      <c r="AT109">
+        <v>2.36</v>
+      </c>
+      <c r="AU109">
+        <v>5</v>
+      </c>
+      <c r="AV109">
+        <v>6</v>
+      </c>
+      <c r="AW109">
+        <v>7</v>
+      </c>
+      <c r="AX109">
+        <v>2</v>
+      </c>
+      <c r="AY109">
+        <v>16</v>
+      </c>
+      <c r="AZ109">
+        <v>12</v>
+      </c>
+      <c r="BA109">
+        <v>4</v>
+      </c>
+      <c r="BB109">
+        <v>5</v>
+      </c>
+      <c r="BC109">
         <v>9</v>
       </c>
-      <c r="AE109">
-        <v>1.25</v>
-      </c>
-      <c r="AF109">
-        <v>3.6</v>
-      </c>
-      <c r="AG109">
-        <v>1.83</v>
-      </c>
-      <c r="AH109">
-        <v>1.83</v>
-      </c>
-      <c r="AI109">
-        <v>1.83</v>
-      </c>
-      <c r="AJ109">
-        <v>1.83</v>
-      </c>
-      <c r="AK109">
-        <v>1.15</v>
-      </c>
-      <c r="AL109">
-        <v>1.22</v>
-      </c>
-      <c r="AM109">
-        <v>2.04</v>
-      </c>
-      <c r="AN109">
-        <v>1.86</v>
-      </c>
-      <c r="AO109">
-        <v>1.29</v>
-      </c>
-      <c r="AP109">
-        <v>2</v>
-      </c>
-      <c r="AQ109">
-        <v>1.13</v>
-      </c>
-      <c r="AR109">
-        <v>1.53</v>
-      </c>
-      <c r="AS109">
-        <v>1.31</v>
-      </c>
-      <c r="AT109">
-        <v>2.84</v>
-      </c>
-      <c r="AU109">
-        <v>8</v>
-      </c>
-      <c r="AV109">
-        <v>0</v>
-      </c>
-      <c r="AW109">
-        <v>4</v>
-      </c>
-      <c r="AX109">
-        <v>3</v>
-      </c>
-      <c r="AY109">
-        <v>15</v>
-      </c>
-      <c r="AZ109">
-        <v>3</v>
-      </c>
-      <c r="BA109">
-        <v>1</v>
-      </c>
-      <c r="BB109">
-        <v>1</v>
-      </c>
-      <c r="BC109">
-        <v>2</v>
-      </c>
       <c r="BD109">
-        <v>1.51</v>
+        <v>3.59</v>
       </c>
       <c r="BE109">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF109">
-        <v>3.17</v>
+        <v>1.41</v>
       </c>
       <c r="BG109">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="BH109">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="BI109">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="BJ109">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="BK109">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BL109">
         <v>1.56</v>
       </c>
       <c r="BM109">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="BN109">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="BO109">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="BP109">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23557,7 +23557,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7453786</v>
+        <v>7453791</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23572,43 +23572,43 @@
         <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H110" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O110" t="s">
+        <v>166</v>
+      </c>
+      <c r="P110" t="s">
         <v>87</v>
       </c>
-      <c r="P110" t="s">
-        <v>234</v>
-      </c>
       <c r="Q110">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="R110">
         <v>2.2</v>
       </c>
       <c r="S110">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="T110">
         <v>1.4</v>
@@ -23617,145 +23617,145 @@
         <v>2.75</v>
       </c>
       <c r="V110">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W110">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X110">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y110">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z110">
-        <v>4.95</v>
+        <v>1.56</v>
       </c>
       <c r="AA110">
-        <v>3.66</v>
+        <v>4.01</v>
       </c>
       <c r="AB110">
-        <v>1.58</v>
+        <v>5.08</v>
       </c>
       <c r="AC110">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD110">
+        <v>9</v>
+      </c>
+      <c r="AE110">
+        <v>1.25</v>
+      </c>
+      <c r="AF110">
+        <v>3.6</v>
+      </c>
+      <c r="AG110">
+        <v>1.83</v>
+      </c>
+      <c r="AH110">
+        <v>1.83</v>
+      </c>
+      <c r="AI110">
+        <v>1.83</v>
+      </c>
+      <c r="AJ110">
+        <v>1.83</v>
+      </c>
+      <c r="AK110">
+        <v>1.15</v>
+      </c>
+      <c r="AL110">
+        <v>1.22</v>
+      </c>
+      <c r="AM110">
+        <v>2.04</v>
+      </c>
+      <c r="AN110">
+        <v>1.86</v>
+      </c>
+      <c r="AO110">
+        <v>1.29</v>
+      </c>
+      <c r="AP110">
+        <v>2</v>
+      </c>
+      <c r="AQ110">
+        <v>1.13</v>
+      </c>
+      <c r="AR110">
+        <v>1.53</v>
+      </c>
+      <c r="AS110">
+        <v>1.31</v>
+      </c>
+      <c r="AT110">
+        <v>2.84</v>
+      </c>
+      <c r="AU110">
         <v>8</v>
       </c>
-      <c r="AE110">
-        <v>1.33</v>
-      </c>
-      <c r="AF110">
-        <v>3.2</v>
-      </c>
-      <c r="AG110">
-        <v>1.9</v>
-      </c>
-      <c r="AH110">
-        <v>1.84</v>
-      </c>
-      <c r="AI110">
-        <v>2</v>
-      </c>
-      <c r="AJ110">
-        <v>1.73</v>
-      </c>
-      <c r="AK110">
-        <v>2.4</v>
-      </c>
-      <c r="AL110">
-        <v>1.2</v>
-      </c>
-      <c r="AM110">
-        <v>1.08</v>
-      </c>
-      <c r="AN110">
-        <v>0.67</v>
-      </c>
-      <c r="AO110">
-        <v>2</v>
-      </c>
-      <c r="AP110">
-        <v>0.57</v>
-      </c>
-      <c r="AQ110">
-        <v>2.13</v>
-      </c>
-      <c r="AR110">
-        <v>1.11</v>
-      </c>
-      <c r="AS110">
-        <v>1.25</v>
-      </c>
-      <c r="AT110">
-        <v>2.36</v>
-      </c>
-      <c r="AU110">
-        <v>5</v>
-      </c>
       <c r="AV110">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW110">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY110">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ110">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BA110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB110">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC110">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BD110">
-        <v>3.59</v>
+        <v>1.51</v>
       </c>
       <c r="BE110">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF110">
-        <v>1.41</v>
+        <v>3.17</v>
       </c>
       <c r="BG110">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="BH110">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="BI110">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="BJ110">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="BK110">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BL110">
         <v>1.56</v>
       </c>
       <c r="BM110">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="BN110">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="BO110">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="BP110">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="111" spans="1:68">
@@ -23778,7 +23778,7 @@
         <v>15</v>
       </c>
       <c r="G111" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H111" t="s">
         <v>75</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H112" t="s">
         <v>74</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H113" t="s">
         <v>76</v>
@@ -24396,7 +24396,7 @@
         <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H114" t="s">
         <v>73</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,12 @@
     <t>['25', '33']</t>
   </si>
   <si>
+    <t>['32', '45+2']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -731,6 +737,9 @@
   </si>
   <si>
     <t>['38', '83']</t>
+  </si>
+  <si>
+    <t>['44', '83']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1360,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1969,7 +1978,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2381,7 +2390,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2587,7 +2596,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2999,7 +3008,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3205,7 +3214,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3411,7 +3420,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3695,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ13">
         <v>1.67</v>
@@ -3823,7 +3832,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3901,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4110,7 +4119,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ15">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4235,7 +4244,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4853,7 +4862,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5883,7 +5892,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6167,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ25">
         <v>0.86</v>
@@ -6373,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ26">
         <v>1.43</v>
@@ -6501,7 +6510,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6582,7 +6591,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ27">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6707,7 +6716,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -6788,7 +6797,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ28">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR28">
         <v>2.33</v>
@@ -7325,7 +7334,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7403,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ31">
         <v>1.67</v>
@@ -7531,7 +7540,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7737,7 +7746,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7943,7 +7952,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8355,7 +8364,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8767,7 +8776,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8973,7 +8982,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -9179,7 +9188,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9260,7 +9269,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR40">
         <v>1.05</v>
@@ -9385,7 +9394,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9463,7 +9472,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ41">
         <v>1.13</v>
@@ -9591,7 +9600,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9797,7 +9806,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10003,7 +10012,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10081,7 +10090,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ44">
         <v>0.86</v>
@@ -10209,7 +10218,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10496,7 +10505,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR46">
         <v>0.99</v>
@@ -10827,7 +10836,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11239,7 +11248,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11445,7 +11454,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11935,7 +11944,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ53">
         <v>0.5</v>
@@ -12141,7 +12150,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ54">
         <v>1.13</v>
@@ -12475,7 +12484,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12681,7 +12690,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12887,7 +12896,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -13093,7 +13102,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13299,7 +13308,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13505,7 +13514,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13711,7 +13720,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13917,7 +13926,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -13998,7 +14007,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ63">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR63">
         <v>1.81</v>
@@ -14123,7 +14132,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14329,7 +14338,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>2.75</v>
@@ -14407,7 +14416,7 @@
         <v>0.25</v>
       </c>
       <c r="AP65">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ65">
         <v>0.38</v>
@@ -14535,7 +14544,7 @@
         <v>87</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -15028,7 +15037,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ68">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -15153,7 +15162,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15359,7 +15368,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15565,7 +15574,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15977,7 +15986,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16183,7 +16192,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16261,7 +16270,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16595,7 +16604,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17007,7 +17016,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17085,10 +17094,10 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ78">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR78">
         <v>1.57</v>
@@ -17213,7 +17222,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17291,7 +17300,7 @@
         <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ79">
         <v>2.13</v>
@@ -17625,7 +17634,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17831,7 +17840,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -17912,7 +17921,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ82">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -18037,7 +18046,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18118,7 +18127,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ83">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR83">
         <v>1.12</v>
@@ -18243,7 +18252,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18449,7 +18458,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18527,7 +18536,7 @@
         <v>1.6</v>
       </c>
       <c r="AP85">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ85">
         <v>1.5</v>
@@ -18861,7 +18870,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19273,7 +19282,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19479,7 +19488,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19685,7 +19694,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20303,7 +20312,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20590,7 +20599,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ95">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -21127,7 +21136,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q98">
         <v>2.75</v>
@@ -21208,7 +21217,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ98">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR98">
         <v>1.32</v>
@@ -21333,7 +21342,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>13</v>
@@ -21411,7 +21420,7 @@
         <v>3</v>
       </c>
       <c r="AP99">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ99">
         <v>3</v>
@@ -21539,7 +21548,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21617,7 +21626,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ100">
         <v>2.13</v>
@@ -21745,7 +21754,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -21951,7 +21960,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22029,7 +22038,7 @@
         <v>2.6</v>
       </c>
       <c r="AP102">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ102">
         <v>2.14</v>
@@ -22157,7 +22166,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22363,7 +22372,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q104">
         <v>2.2</v>
@@ -22981,7 +22990,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23393,7 +23402,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -23805,7 +23814,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -23883,10 +23892,10 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ111">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR111">
         <v>1.71</v>
@@ -24011,7 +24020,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24295,10 +24304,10 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ113">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR113">
         <v>1.01</v>
@@ -24501,7 +24510,7 @@
         <v>2.33</v>
       </c>
       <c r="AP114">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ114">
         <v>2.14</v>
@@ -24835,7 +24844,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -25041,7 +25050,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25247,7 +25256,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25404,6 +25413,624 @@
       </c>
       <c r="BP118">
         <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7454215</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45619.41666666666</v>
+      </c>
+      <c r="F119">
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>80</v>
+      </c>
+      <c r="H119" t="s">
+        <v>74</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>3</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>4</v>
+      </c>
+      <c r="O119" t="s">
+        <v>172</v>
+      </c>
+      <c r="P119" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q119">
+        <v>3.25</v>
+      </c>
+      <c r="R119">
+        <v>2.1</v>
+      </c>
+      <c r="S119">
+        <v>3</v>
+      </c>
+      <c r="T119">
+        <v>1.4</v>
+      </c>
+      <c r="U119">
+        <v>2.75</v>
+      </c>
+      <c r="V119">
+        <v>2.75</v>
+      </c>
+      <c r="W119">
+        <v>1.4</v>
+      </c>
+      <c r="X119">
+        <v>7</v>
+      </c>
+      <c r="Y119">
+        <v>1.08</v>
+      </c>
+      <c r="Z119">
+        <v>2.6</v>
+      </c>
+      <c r="AA119">
+        <v>3.15</v>
+      </c>
+      <c r="AB119">
+        <v>2.35</v>
+      </c>
+      <c r="AC119">
+        <v>1.03</v>
+      </c>
+      <c r="AD119">
+        <v>9</v>
+      </c>
+      <c r="AE119">
+        <v>1.28</v>
+      </c>
+      <c r="AF119">
+        <v>3.5</v>
+      </c>
+      <c r="AG119">
+        <v>1.85</v>
+      </c>
+      <c r="AH119">
+        <v>1.87</v>
+      </c>
+      <c r="AI119">
+        <v>1.73</v>
+      </c>
+      <c r="AJ119">
+        <v>2</v>
+      </c>
+      <c r="AK119">
+        <v>1.57</v>
+      </c>
+      <c r="AL119">
+        <v>1.25</v>
+      </c>
+      <c r="AM119">
+        <v>1.4</v>
+      </c>
+      <c r="AN119">
+        <v>2.43</v>
+      </c>
+      <c r="AO119">
+        <v>1</v>
+      </c>
+      <c r="AP119">
+        <v>2.25</v>
+      </c>
+      <c r="AQ119">
+        <v>1</v>
+      </c>
+      <c r="AR119">
+        <v>1.78</v>
+      </c>
+      <c r="AS119">
+        <v>1.49</v>
+      </c>
+      <c r="AT119">
+        <v>3.27</v>
+      </c>
+      <c r="AU119">
+        <v>5</v>
+      </c>
+      <c r="AV119">
+        <v>5</v>
+      </c>
+      <c r="AW119">
+        <v>3</v>
+      </c>
+      <c r="AX119">
+        <v>4</v>
+      </c>
+      <c r="AY119">
+        <v>11</v>
+      </c>
+      <c r="AZ119">
+        <v>13</v>
+      </c>
+      <c r="BA119">
+        <v>-1</v>
+      </c>
+      <c r="BB119">
+        <v>-1</v>
+      </c>
+      <c r="BC119">
+        <v>-1</v>
+      </c>
+      <c r="BD119">
+        <v>2</v>
+      </c>
+      <c r="BE119">
+        <v>7.5</v>
+      </c>
+      <c r="BF119">
+        <v>2.1</v>
+      </c>
+      <c r="BG119">
+        <v>1.34</v>
+      </c>
+      <c r="BH119">
+        <v>2.85</v>
+      </c>
+      <c r="BI119">
+        <v>1.59</v>
+      </c>
+      <c r="BJ119">
+        <v>2.15</v>
+      </c>
+      <c r="BK119">
+        <v>2</v>
+      </c>
+      <c r="BL119">
+        <v>1.72</v>
+      </c>
+      <c r="BM119">
+        <v>2.5</v>
+      </c>
+      <c r="BN119">
+        <v>1.45</v>
+      </c>
+      <c r="BO119">
+        <v>3.3</v>
+      </c>
+      <c r="BP119">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7453804</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45619.45833333334</v>
+      </c>
+      <c r="F120">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>81</v>
+      </c>
+      <c r="H120" t="s">
+        <v>75</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>173</v>
+      </c>
+      <c r="P120" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q120">
+        <v>3.15</v>
+      </c>
+      <c r="R120">
+        <v>2.13</v>
+      </c>
+      <c r="S120">
+        <v>3.15</v>
+      </c>
+      <c r="T120">
+        <v>1.4</v>
+      </c>
+      <c r="U120">
+        <v>2.75</v>
+      </c>
+      <c r="V120">
+        <v>2.7</v>
+      </c>
+      <c r="W120">
+        <v>1.41</v>
+      </c>
+      <c r="X120">
+        <v>8</v>
+      </c>
+      <c r="Y120">
+        <v>1.06</v>
+      </c>
+      <c r="Z120">
+        <v>2.63</v>
+      </c>
+      <c r="AA120">
+        <v>3.25</v>
+      </c>
+      <c r="AB120">
+        <v>2.63</v>
+      </c>
+      <c r="AC120">
+        <v>1.05</v>
+      </c>
+      <c r="AD120">
+        <v>8</v>
+      </c>
+      <c r="AE120">
+        <v>1.27</v>
+      </c>
+      <c r="AF120">
+        <v>3.5</v>
+      </c>
+      <c r="AG120">
+        <v>2.15</v>
+      </c>
+      <c r="AH120">
+        <v>1.62</v>
+      </c>
+      <c r="AI120">
+        <v>1.69</v>
+      </c>
+      <c r="AJ120">
+        <v>2.09</v>
+      </c>
+      <c r="AK120">
+        <v>1.39</v>
+      </c>
+      <c r="AL120">
+        <v>1.28</v>
+      </c>
+      <c r="AM120">
+        <v>1.39</v>
+      </c>
+      <c r="AN120">
+        <v>1.67</v>
+      </c>
+      <c r="AO120">
+        <v>0.86</v>
+      </c>
+      <c r="AP120">
+        <v>1.57</v>
+      </c>
+      <c r="AQ120">
+        <v>0.88</v>
+      </c>
+      <c r="AR120">
+        <v>1.05</v>
+      </c>
+      <c r="AS120">
+        <v>1.26</v>
+      </c>
+      <c r="AT120">
+        <v>2.31</v>
+      </c>
+      <c r="AU120">
+        <v>6</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>3</v>
+      </c>
+      <c r="AX120">
+        <v>5</v>
+      </c>
+      <c r="AY120">
+        <v>11</v>
+      </c>
+      <c r="AZ120">
+        <v>14</v>
+      </c>
+      <c r="BA120">
+        <v>3</v>
+      </c>
+      <c r="BB120">
+        <v>3</v>
+      </c>
+      <c r="BC120">
+        <v>6</v>
+      </c>
+      <c r="BD120">
+        <v>1.95</v>
+      </c>
+      <c r="BE120">
+        <v>7.5</v>
+      </c>
+      <c r="BF120">
+        <v>2.1</v>
+      </c>
+      <c r="BG120">
+        <v>1.3</v>
+      </c>
+      <c r="BH120">
+        <v>2.88</v>
+      </c>
+      <c r="BI120">
+        <v>1.57</v>
+      </c>
+      <c r="BJ120">
+        <v>2.08</v>
+      </c>
+      <c r="BK120">
+        <v>2.03</v>
+      </c>
+      <c r="BL120">
+        <v>1.67</v>
+      </c>
+      <c r="BM120">
+        <v>2.61</v>
+      </c>
+      <c r="BN120">
+        <v>1.36</v>
+      </c>
+      <c r="BO120">
+        <v>3.65</v>
+      </c>
+      <c r="BP120">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7453803</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45619.625</v>
+      </c>
+      <c r="F121">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>85</v>
+      </c>
+      <c r="H121" t="s">
+        <v>76</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121" t="s">
+        <v>87</v>
+      </c>
+      <c r="P121" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q121">
+        <v>1.67</v>
+      </c>
+      <c r="R121">
+        <v>2.55</v>
+      </c>
+      <c r="S121">
+        <v>8</v>
+      </c>
+      <c r="T121">
+        <v>1.3</v>
+      </c>
+      <c r="U121">
+        <v>3.2</v>
+      </c>
+      <c r="V121">
+        <v>2.35</v>
+      </c>
+      <c r="W121">
+        <v>1.53</v>
+      </c>
+      <c r="X121">
+        <v>5.55</v>
+      </c>
+      <c r="Y121">
+        <v>1.12</v>
+      </c>
+      <c r="Z121">
+        <v>1.16</v>
+      </c>
+      <c r="AA121">
+        <v>5.8</v>
+      </c>
+      <c r="AB121">
+        <v>11</v>
+      </c>
+      <c r="AC121">
+        <v>1.03</v>
+      </c>
+      <c r="AD121">
+        <v>10</v>
+      </c>
+      <c r="AE121">
+        <v>1.2</v>
+      </c>
+      <c r="AF121">
+        <v>4.33</v>
+      </c>
+      <c r="AG121">
+        <v>1.56</v>
+      </c>
+      <c r="AH121">
+        <v>2.3</v>
+      </c>
+      <c r="AI121">
+        <v>2.1</v>
+      </c>
+      <c r="AJ121">
+        <v>1.6</v>
+      </c>
+      <c r="AK121">
+        <v>1</v>
+      </c>
+      <c r="AL121">
+        <v>1.1</v>
+      </c>
+      <c r="AM121">
+        <v>3.72</v>
+      </c>
+      <c r="AN121">
+        <v>1.14</v>
+      </c>
+      <c r="AO121">
+        <v>0.43</v>
+      </c>
+      <c r="AP121">
+        <v>1.13</v>
+      </c>
+      <c r="AQ121">
+        <v>0.5</v>
+      </c>
+      <c r="AR121">
+        <v>1.85</v>
+      </c>
+      <c r="AS121">
+        <v>0.97</v>
+      </c>
+      <c r="AT121">
+        <v>2.82</v>
+      </c>
+      <c r="AU121">
+        <v>5</v>
+      </c>
+      <c r="AV121">
+        <v>2</v>
+      </c>
+      <c r="AW121">
+        <v>5</v>
+      </c>
+      <c r="AX121">
+        <v>3</v>
+      </c>
+      <c r="AY121">
+        <v>14</v>
+      </c>
+      <c r="AZ121">
+        <v>6</v>
+      </c>
+      <c r="BA121">
+        <v>3</v>
+      </c>
+      <c r="BB121">
+        <v>2</v>
+      </c>
+      <c r="BC121">
+        <v>5</v>
+      </c>
+      <c r="BD121">
+        <v>1.3</v>
+      </c>
+      <c r="BE121">
+        <v>9.5</v>
+      </c>
+      <c r="BF121">
+        <v>4.58</v>
+      </c>
+      <c r="BG121">
+        <v>1.34</v>
+      </c>
+      <c r="BH121">
+        <v>2.69</v>
+      </c>
+      <c r="BI121">
+        <v>1.67</v>
+      </c>
+      <c r="BJ121">
+        <v>2.03</v>
+      </c>
+      <c r="BK121">
+        <v>2.08</v>
+      </c>
+      <c r="BL121">
+        <v>1.57</v>
+      </c>
+      <c r="BM121">
+        <v>2.78</v>
+      </c>
+      <c r="BN121">
+        <v>1.32</v>
+      </c>
+      <c r="BO121">
+        <v>3.7</v>
+      </c>
+      <c r="BP121">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,9 @@
     <t>['47']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -593,9 +596,6 @@
   </si>
   <si>
     <t>['4', '23']</t>
-  </si>
-  <si>
-    <t>['75']</t>
   </si>
   <si>
     <t>['54']</t>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>['44', '83']</t>
+  </si>
+  <si>
+    <t>['79']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1360,7 +1363,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1978,7 +1981,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2390,7 +2393,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2596,7 +2599,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3008,7 +3011,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3214,7 +3217,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3292,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ11">
         <v>0.86</v>
@@ -3420,7 +3423,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3501,7 +3504,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ12">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>2.33</v>
@@ -3832,7 +3835,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4116,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ15">
         <v>0.5</v>
@@ -4244,7 +4247,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4862,7 +4865,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5892,7 +5895,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -5970,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6385,7 +6388,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ26">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR26">
         <v>0.95</v>
@@ -6510,7 +6513,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6716,7 +6719,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -7334,7 +7337,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7540,7 +7543,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7746,7 +7749,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7952,7 +7955,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8033,7 +8036,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ34">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.89</v>
@@ -8364,7 +8367,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8648,7 +8651,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ37">
         <v>0.5</v>
@@ -8776,7 +8779,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8982,7 +8985,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -9884,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ43">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR43">
         <v>1.47</v>
@@ -11120,7 +11123,7 @@
         <v>0.33</v>
       </c>
       <c r="AP49">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ49">
         <v>0.38</v>
@@ -11329,7 +11332,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -12565,7 +12568,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ56">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR56">
         <v>0</v>
@@ -13180,7 +13183,7 @@
         <v>2.33</v>
       </c>
       <c r="AP59">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ59">
         <v>2.29</v>
@@ -13595,7 +13598,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR61">
         <v>1.36</v>
@@ -14213,7 +14216,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ64">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR64">
         <v>1.12</v>
@@ -14828,7 +14831,7 @@
         <v>2.5</v>
       </c>
       <c r="AP67">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ67">
         <v>2.13</v>
@@ -15652,7 +15655,7 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ71">
         <v>0.5</v>
@@ -15861,7 +15864,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ72">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR72">
         <v>1.97</v>
@@ -17712,10 +17715,10 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ81">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>1.32</v>
@@ -19363,7 +19366,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ89">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR89">
         <v>1.92</v>
@@ -19488,7 +19491,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19566,7 +19569,7 @@
         <v>0.17</v>
       </c>
       <c r="AP90">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90">
         <v>0.38</v>
@@ -21136,7 +21139,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q98">
         <v>2.75</v>
@@ -21214,7 +21217,7 @@
         <v>0.6</v>
       </c>
       <c r="AP98">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ98">
         <v>0.88</v>
@@ -22041,7 +22044,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ102">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR102">
         <v>1.61</v>
@@ -24513,7 +24516,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ114">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR114">
         <v>1.72</v>
@@ -24922,7 +24925,7 @@
         <v>1.8</v>
       </c>
       <c r="AP116">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ116">
         <v>1.67</v>
@@ -25131,7 +25134,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ117">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR117">
         <v>1.39</v>
@@ -25334,7 +25337,7 @@
         <v>3</v>
       </c>
       <c r="AP118">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ118">
         <v>3</v>
@@ -25429,7 +25432,7 @@
         <v>69</v>
       </c>
       <c r="E119" s="2">
-        <v>45619.41666666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F119">
         <v>16</v>
@@ -25626,7 +25629,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7453804</v>
+        <v>7453803</v>
       </c>
       <c r="C120" t="s">
         <v>68</v>
@@ -25635,196 +25638,196 @@
         <v>69</v>
       </c>
       <c r="E120" s="2">
-        <v>45619.45833333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F120">
         <v>16</v>
       </c>
       <c r="G120" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H120" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O120" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="P120" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="Q120">
-        <v>3.15</v>
+        <v>1.67</v>
       </c>
       <c r="R120">
-        <v>2.13</v>
+        <v>2.55</v>
       </c>
       <c r="S120">
-        <v>3.15</v>
+        <v>8</v>
       </c>
       <c r="T120">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U120">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="V120">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="W120">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="X120">
-        <v>8</v>
+        <v>5.55</v>
       </c>
       <c r="Y120">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="Z120">
-        <v>2.63</v>
+        <v>1.16</v>
       </c>
       <c r="AA120">
-        <v>3.25</v>
+        <v>5.8</v>
       </c>
       <c r="AB120">
-        <v>2.63</v>
+        <v>11</v>
       </c>
       <c r="AC120">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD120">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE120">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AF120">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AG120">
-        <v>2.15</v>
+        <v>1.56</v>
       </c>
       <c r="AH120">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="AI120">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="AJ120">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="AK120">
-        <v>1.39</v>
+        <v>1</v>
       </c>
       <c r="AL120">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="AM120">
-        <v>1.39</v>
+        <v>3.72</v>
       </c>
       <c r="AN120">
+        <v>1.14</v>
+      </c>
+      <c r="AO120">
+        <v>0.43</v>
+      </c>
+      <c r="AP120">
+        <v>1.13</v>
+      </c>
+      <c r="AQ120">
+        <v>0.5</v>
+      </c>
+      <c r="AR120">
+        <v>1.85</v>
+      </c>
+      <c r="AS120">
+        <v>0.97</v>
+      </c>
+      <c r="AT120">
+        <v>2.82</v>
+      </c>
+      <c r="AU120">
+        <v>5</v>
+      </c>
+      <c r="AV120">
+        <v>2</v>
+      </c>
+      <c r="AW120">
+        <v>5</v>
+      </c>
+      <c r="AX120">
+        <v>3</v>
+      </c>
+      <c r="AY120">
+        <v>14</v>
+      </c>
+      <c r="AZ120">
+        <v>6</v>
+      </c>
+      <c r="BA120">
+        <v>3</v>
+      </c>
+      <c r="BB120">
+        <v>2</v>
+      </c>
+      <c r="BC120">
+        <v>5</v>
+      </c>
+      <c r="BD120">
+        <v>1.3</v>
+      </c>
+      <c r="BE120">
+        <v>9.5</v>
+      </c>
+      <c r="BF120">
+        <v>4.58</v>
+      </c>
+      <c r="BG120">
+        <v>1.34</v>
+      </c>
+      <c r="BH120">
+        <v>2.69</v>
+      </c>
+      <c r="BI120">
         <v>1.67</v>
       </c>
-      <c r="AO120">
-        <v>0.86</v>
-      </c>
-      <c r="AP120">
+      <c r="BJ120">
+        <v>2.03</v>
+      </c>
+      <c r="BK120">
+        <v>2.08</v>
+      </c>
+      <c r="BL120">
         <v>1.57</v>
       </c>
-      <c r="AQ120">
-        <v>0.88</v>
-      </c>
-      <c r="AR120">
-        <v>1.05</v>
-      </c>
-      <c r="AS120">
-        <v>1.26</v>
-      </c>
-      <c r="AT120">
-        <v>2.31</v>
-      </c>
-      <c r="AU120">
-        <v>6</v>
-      </c>
-      <c r="AV120">
-        <v>4</v>
-      </c>
-      <c r="AW120">
-        <v>3</v>
-      </c>
-      <c r="AX120">
-        <v>5</v>
-      </c>
-      <c r="AY120">
-        <v>11</v>
-      </c>
-      <c r="AZ120">
-        <v>14</v>
-      </c>
-      <c r="BA120">
-        <v>3</v>
-      </c>
-      <c r="BB120">
-        <v>3</v>
-      </c>
-      <c r="BC120">
-        <v>6</v>
-      </c>
-      <c r="BD120">
-        <v>1.95</v>
-      </c>
-      <c r="BE120">
-        <v>7.5</v>
-      </c>
-      <c r="BF120">
-        <v>2.1</v>
-      </c>
-      <c r="BG120">
-        <v>1.3</v>
-      </c>
-      <c r="BH120">
-        <v>2.88</v>
-      </c>
-      <c r="BI120">
-        <v>1.57</v>
-      </c>
-      <c r="BJ120">
-        <v>2.08</v>
-      </c>
-      <c r="BK120">
-        <v>2.03</v>
-      </c>
-      <c r="BL120">
-        <v>1.67</v>
-      </c>
       <c r="BM120">
-        <v>2.61</v>
+        <v>2.78</v>
       </c>
       <c r="BN120">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="BO120">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BP120">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="121" spans="1:68">
@@ -25832,7 +25835,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7453803</v>
+        <v>7453804</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -25841,196 +25844,608 @@
         <v>69</v>
       </c>
       <c r="E121" s="2">
-        <v>45619.625</v>
+        <v>45619.45833333334</v>
       </c>
       <c r="F121">
         <v>16</v>
       </c>
       <c r="G121" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O121" t="s">
+        <v>173</v>
+      </c>
+      <c r="P121" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q121">
+        <v>3.15</v>
+      </c>
+      <c r="R121">
+        <v>2.13</v>
+      </c>
+      <c r="S121">
+        <v>3.15</v>
+      </c>
+      <c r="T121">
+        <v>1.4</v>
+      </c>
+      <c r="U121">
+        <v>2.75</v>
+      </c>
+      <c r="V121">
+        <v>2.7</v>
+      </c>
+      <c r="W121">
+        <v>1.41</v>
+      </c>
+      <c r="X121">
+        <v>8</v>
+      </c>
+      <c r="Y121">
+        <v>1.06</v>
+      </c>
+      <c r="Z121">
+        <v>2.63</v>
+      </c>
+      <c r="AA121">
+        <v>3.25</v>
+      </c>
+      <c r="AB121">
+        <v>2.63</v>
+      </c>
+      <c r="AC121">
+        <v>1.05</v>
+      </c>
+      <c r="AD121">
+        <v>8</v>
+      </c>
+      <c r="AE121">
+        <v>1.27</v>
+      </c>
+      <c r="AF121">
+        <v>3.5</v>
+      </c>
+      <c r="AG121">
+        <v>2.15</v>
+      </c>
+      <c r="AH121">
+        <v>1.62</v>
+      </c>
+      <c r="AI121">
+        <v>1.69</v>
+      </c>
+      <c r="AJ121">
+        <v>2.09</v>
+      </c>
+      <c r="AK121">
+        <v>1.39</v>
+      </c>
+      <c r="AL121">
+        <v>1.28</v>
+      </c>
+      <c r="AM121">
+        <v>1.39</v>
+      </c>
+      <c r="AN121">
+        <v>1.67</v>
+      </c>
+      <c r="AO121">
+        <v>0.86</v>
+      </c>
+      <c r="AP121">
+        <v>1.57</v>
+      </c>
+      <c r="AQ121">
+        <v>0.88</v>
+      </c>
+      <c r="AR121">
+        <v>1.05</v>
+      </c>
+      <c r="AS121">
+        <v>1.26</v>
+      </c>
+      <c r="AT121">
+        <v>2.31</v>
+      </c>
+      <c r="AU121">
+        <v>6</v>
+      </c>
+      <c r="AV121">
+        <v>4</v>
+      </c>
+      <c r="AW121">
+        <v>3</v>
+      </c>
+      <c r="AX121">
+        <v>5</v>
+      </c>
+      <c r="AY121">
+        <v>11</v>
+      </c>
+      <c r="AZ121">
+        <v>14</v>
+      </c>
+      <c r="BA121">
+        <v>3</v>
+      </c>
+      <c r="BB121">
+        <v>3</v>
+      </c>
+      <c r="BC121">
+        <v>6</v>
+      </c>
+      <c r="BD121">
+        <v>1.95</v>
+      </c>
+      <c r="BE121">
+        <v>7.5</v>
+      </c>
+      <c r="BF121">
+        <v>2.1</v>
+      </c>
+      <c r="BG121">
+        <v>1.3</v>
+      </c>
+      <c r="BH121">
+        <v>2.88</v>
+      </c>
+      <c r="BI121">
+        <v>1.57</v>
+      </c>
+      <c r="BJ121">
+        <v>2.08</v>
+      </c>
+      <c r="BK121">
+        <v>2.03</v>
+      </c>
+      <c r="BL121">
+        <v>1.67</v>
+      </c>
+      <c r="BM121">
+        <v>2.61</v>
+      </c>
+      <c r="BN121">
+        <v>1.36</v>
+      </c>
+      <c r="BO121">
+        <v>3.65</v>
+      </c>
+      <c r="BP121">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7453802</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>82</v>
+      </c>
+      <c r="H122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122" t="s">
         <v>87</v>
       </c>
-      <c r="P121" t="s">
+      <c r="P122" t="s">
         <v>87</v>
       </c>
-      <c r="Q121">
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>1.73</v>
+      </c>
+      <c r="AA122">
+        <v>3.5</v>
+      </c>
+      <c r="AB122">
+        <v>3.9</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+      <c r="AF122">
+        <v>0</v>
+      </c>
+      <c r="AG122">
+        <v>1.95</v>
+      </c>
+      <c r="AH122">
+        <v>1.87</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>0</v>
+      </c>
+      <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>1.43</v>
+      </c>
+      <c r="AO122">
+        <v>2.14</v>
+      </c>
+      <c r="AP122">
+        <v>1.38</v>
+      </c>
+      <c r="AQ122">
+        <v>2</v>
+      </c>
+      <c r="AR122">
+        <v>1.45</v>
+      </c>
+      <c r="AS122">
+        <v>0.46</v>
+      </c>
+      <c r="AT122">
+        <v>1.91</v>
+      </c>
+      <c r="AU122">
+        <v>5</v>
+      </c>
+      <c r="AV122">
+        <v>4</v>
+      </c>
+      <c r="AW122">
+        <v>8</v>
+      </c>
+      <c r="AX122">
+        <v>3</v>
+      </c>
+      <c r="AY122">
+        <v>13</v>
+      </c>
+      <c r="AZ122">
+        <v>7</v>
+      </c>
+      <c r="BA122">
+        <v>5</v>
+      </c>
+      <c r="BB122">
+        <v>4</v>
+      </c>
+      <c r="BC122">
+        <v>9</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>0</v>
+      </c>
+      <c r="BG122">
+        <v>0</v>
+      </c>
+      <c r="BH122">
+        <v>0</v>
+      </c>
+      <c r="BI122">
+        <v>0</v>
+      </c>
+      <c r="BJ122">
+        <v>0</v>
+      </c>
+      <c r="BK122">
+        <v>0</v>
+      </c>
+      <c r="BL122">
+        <v>0</v>
+      </c>
+      <c r="BM122">
+        <v>0</v>
+      </c>
+      <c r="BN122">
+        <v>0</v>
+      </c>
+      <c r="BO122">
+        <v>0</v>
+      </c>
+      <c r="BP122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7453806</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>79</v>
+      </c>
+      <c r="H123" t="s">
+        <v>70</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>174</v>
+      </c>
+      <c r="P123" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q123">
+        <v>3.25</v>
+      </c>
+      <c r="R123">
+        <v>2.2</v>
+      </c>
+      <c r="S123">
+        <v>2.88</v>
+      </c>
+      <c r="T123">
+        <v>1.36</v>
+      </c>
+      <c r="U123">
+        <v>3</v>
+      </c>
+      <c r="V123">
+        <v>2.63</v>
+      </c>
+      <c r="W123">
+        <v>1.44</v>
+      </c>
+      <c r="X123">
+        <v>6.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.1</v>
+      </c>
+      <c r="Z123">
+        <v>2.7</v>
+      </c>
+      <c r="AA123">
+        <v>3.2</v>
+      </c>
+      <c r="AB123">
+        <v>2.4</v>
+      </c>
+      <c r="AC123">
+        <v>1.01</v>
+      </c>
+      <c r="AD123">
+        <v>11</v>
+      </c>
+      <c r="AE123">
+        <v>1.24</v>
+      </c>
+      <c r="AF123">
+        <v>3.8</v>
+      </c>
+      <c r="AG123">
+        <v>1.82</v>
+      </c>
+      <c r="AH123">
+        <v>1.88</v>
+      </c>
+      <c r="AI123">
         <v>1.67</v>
       </c>
-      <c r="R121">
-        <v>2.55</v>
-      </c>
-      <c r="S121">
+      <c r="AJ123">
+        <v>2.1</v>
+      </c>
+      <c r="AK123">
+        <v>1.46</v>
+      </c>
+      <c r="AL123">
+        <v>1.27</v>
+      </c>
+      <c r="AM123">
+        <v>1.34</v>
+      </c>
+      <c r="AN123">
+        <v>1.14</v>
+      </c>
+      <c r="AO123">
+        <v>1.43</v>
+      </c>
+      <c r="AP123">
+        <v>1.13</v>
+      </c>
+      <c r="AQ123">
+        <v>1.38</v>
+      </c>
+      <c r="AR123">
+        <v>1.33</v>
+      </c>
+      <c r="AS123">
+        <v>1.68</v>
+      </c>
+      <c r="AT123">
+        <v>3.01</v>
+      </c>
+      <c r="AU123">
+        <v>3</v>
+      </c>
+      <c r="AV123">
+        <v>7</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>5</v>
+      </c>
+      <c r="AY123">
+        <v>12</v>
+      </c>
+      <c r="AZ123">
+        <v>13</v>
+      </c>
+      <c r="BA123">
+        <v>5</v>
+      </c>
+      <c r="BB123">
+        <v>3</v>
+      </c>
+      <c r="BC123">
         <v>8</v>
       </c>
-      <c r="T121">
-        <v>1.3</v>
-      </c>
-      <c r="U121">
-        <v>3.2</v>
-      </c>
-      <c r="V121">
-        <v>2.35</v>
-      </c>
-      <c r="W121">
-        <v>1.53</v>
-      </c>
-      <c r="X121">
-        <v>5.55</v>
-      </c>
-      <c r="Y121">
-        <v>1.12</v>
-      </c>
-      <c r="Z121">
+      <c r="BD123">
+        <v>2</v>
+      </c>
+      <c r="BE123">
+        <v>7.5</v>
+      </c>
+      <c r="BF123">
+        <v>2.1</v>
+      </c>
+      <c r="BG123">
+        <v>1.45</v>
+      </c>
+      <c r="BH123">
+        <v>2.34</v>
+      </c>
+      <c r="BI123">
+        <v>1.92</v>
+      </c>
+      <c r="BJ123">
+        <v>1.88</v>
+      </c>
+      <c r="BK123">
+        <v>2.39</v>
+      </c>
+      <c r="BL123">
+        <v>1.43</v>
+      </c>
+      <c r="BM123">
+        <v>3.28</v>
+      </c>
+      <c r="BN123">
+        <v>1.23</v>
+      </c>
+      <c r="BO123">
+        <v>4.3</v>
+      </c>
+      <c r="BP123">
         <v>1.16</v>
-      </c>
-      <c r="AA121">
-        <v>5.8</v>
-      </c>
-      <c r="AB121">
-        <v>11</v>
-      </c>
-      <c r="AC121">
-        <v>1.03</v>
-      </c>
-      <c r="AD121">
-        <v>10</v>
-      </c>
-      <c r="AE121">
-        <v>1.2</v>
-      </c>
-      <c r="AF121">
-        <v>4.33</v>
-      </c>
-      <c r="AG121">
-        <v>1.56</v>
-      </c>
-      <c r="AH121">
-        <v>2.3</v>
-      </c>
-      <c r="AI121">
-        <v>2.1</v>
-      </c>
-      <c r="AJ121">
-        <v>1.6</v>
-      </c>
-      <c r="AK121">
-        <v>1</v>
-      </c>
-      <c r="AL121">
-        <v>1.1</v>
-      </c>
-      <c r="AM121">
-        <v>3.72</v>
-      </c>
-      <c r="AN121">
-        <v>1.14</v>
-      </c>
-      <c r="AO121">
-        <v>0.43</v>
-      </c>
-      <c r="AP121">
-        <v>1.13</v>
-      </c>
-      <c r="AQ121">
-        <v>0.5</v>
-      </c>
-      <c r="AR121">
-        <v>1.85</v>
-      </c>
-      <c r="AS121">
-        <v>0.97</v>
-      </c>
-      <c r="AT121">
-        <v>2.82</v>
-      </c>
-      <c r="AU121">
-        <v>5</v>
-      </c>
-      <c r="AV121">
-        <v>2</v>
-      </c>
-      <c r="AW121">
-        <v>5</v>
-      </c>
-      <c r="AX121">
-        <v>3</v>
-      </c>
-      <c r="AY121">
-        <v>14</v>
-      </c>
-      <c r="AZ121">
-        <v>6</v>
-      </c>
-      <c r="BA121">
-        <v>3</v>
-      </c>
-      <c r="BB121">
-        <v>2</v>
-      </c>
-      <c r="BC121">
-        <v>5</v>
-      </c>
-      <c r="BD121">
-        <v>1.3</v>
-      </c>
-      <c r="BE121">
-        <v>9.5</v>
-      </c>
-      <c r="BF121">
-        <v>4.58</v>
-      </c>
-      <c r="BG121">
-        <v>1.34</v>
-      </c>
-      <c r="BH121">
-        <v>2.69</v>
-      </c>
-      <c r="BI121">
-        <v>1.67</v>
-      </c>
-      <c r="BJ121">
-        <v>2.03</v>
-      </c>
-      <c r="BK121">
-        <v>2.08</v>
-      </c>
-      <c r="BL121">
-        <v>1.57</v>
-      </c>
-      <c r="BM121">
-        <v>2.78</v>
-      </c>
-      <c r="BN121">
-        <v>1.32</v>
-      </c>
-      <c r="BO121">
-        <v>3.7</v>
-      </c>
-      <c r="BP121">
-        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1104,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3298,7 +3298,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ11">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -5561,7 +5561,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ22">
         <v>1.13</v>
@@ -6182,7 +6182,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ25">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -10096,7 +10096,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ44">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR44">
         <v>1.19</v>
@@ -11741,7 +11741,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -12362,7 +12362,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ55">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
         <v>2.35</v>
@@ -15243,7 +15243,7 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ69">
         <v>3</v>
@@ -16482,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR75">
         <v>1.22</v>
@@ -17921,7 +17921,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ82">
         <v>0.5</v>
@@ -19160,7 +19160,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR88">
         <v>1.41</v>
@@ -21011,7 +21011,7 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -22868,7 +22868,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ106">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR106">
         <v>1.53</v>
@@ -25131,7 +25131,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ117">
         <v>1.38</v>
@@ -25432,7 +25432,7 @@
         <v>69</v>
       </c>
       <c r="E119" s="2">
-        <v>45618.875</v>
+        <v>45619.41666666666</v>
       </c>
       <c r="F119">
         <v>16</v>
@@ -25558,22 +25558,22 @@
         <v>3.27</v>
       </c>
       <c r="AU119">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV119">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX119">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY119">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ119">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BA119">
         <v>-1</v>
@@ -25629,7 +25629,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7453803</v>
+        <v>7453804</v>
       </c>
       <c r="C120" t="s">
         <v>68</v>
@@ -25638,196 +25638,196 @@
         <v>69</v>
       </c>
       <c r="E120" s="2">
-        <v>45618.875</v>
+        <v>45619.45833333334</v>
       </c>
       <c r="F120">
         <v>16</v>
       </c>
       <c r="G120" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O120" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="Q120">
+        <v>3.15</v>
+      </c>
+      <c r="R120">
+        <v>2.13</v>
+      </c>
+      <c r="S120">
+        <v>3.15</v>
+      </c>
+      <c r="T120">
+        <v>1.4</v>
+      </c>
+      <c r="U120">
+        <v>2.75</v>
+      </c>
+      <c r="V120">
+        <v>2.7</v>
+      </c>
+      <c r="W120">
+        <v>1.41</v>
+      </c>
+      <c r="X120">
+        <v>8</v>
+      </c>
+      <c r="Y120">
+        <v>1.06</v>
+      </c>
+      <c r="Z120">
+        <v>2.63</v>
+      </c>
+      <c r="AA120">
+        <v>3.25</v>
+      </c>
+      <c r="AB120">
+        <v>2.63</v>
+      </c>
+      <c r="AC120">
+        <v>1.05</v>
+      </c>
+      <c r="AD120">
+        <v>8</v>
+      </c>
+      <c r="AE120">
+        <v>1.27</v>
+      </c>
+      <c r="AF120">
+        <v>3.5</v>
+      </c>
+      <c r="AG120">
+        <v>2.15</v>
+      </c>
+      <c r="AH120">
+        <v>1.62</v>
+      </c>
+      <c r="AI120">
+        <v>1.69</v>
+      </c>
+      <c r="AJ120">
+        <v>2.09</v>
+      </c>
+      <c r="AK120">
+        <v>1.39</v>
+      </c>
+      <c r="AL120">
+        <v>1.28</v>
+      </c>
+      <c r="AM120">
+        <v>1.39</v>
+      </c>
+      <c r="AN120">
         <v>1.67</v>
       </c>
-      <c r="R120">
-        <v>2.55</v>
-      </c>
-      <c r="S120">
-        <v>8</v>
-      </c>
-      <c r="T120">
-        <v>1.3</v>
-      </c>
-      <c r="U120">
-        <v>3.2</v>
-      </c>
-      <c r="V120">
-        <v>2.35</v>
-      </c>
-      <c r="W120">
-        <v>1.53</v>
-      </c>
-      <c r="X120">
-        <v>5.55</v>
-      </c>
-      <c r="Y120">
-        <v>1.12</v>
-      </c>
-      <c r="Z120">
-        <v>1.16</v>
-      </c>
-      <c r="AA120">
-        <v>5.8</v>
-      </c>
-      <c r="AB120">
-        <v>11</v>
-      </c>
-      <c r="AC120">
-        <v>1.03</v>
-      </c>
-      <c r="AD120">
-        <v>10</v>
-      </c>
-      <c r="AE120">
-        <v>1.2</v>
-      </c>
-      <c r="AF120">
-        <v>4.33</v>
-      </c>
-      <c r="AG120">
-        <v>1.56</v>
-      </c>
-      <c r="AH120">
-        <v>2.3</v>
-      </c>
-      <c r="AI120">
-        <v>2.1</v>
-      </c>
-      <c r="AJ120">
-        <v>1.6</v>
-      </c>
-      <c r="AK120">
-        <v>1</v>
-      </c>
-      <c r="AL120">
-        <v>1.1</v>
-      </c>
-      <c r="AM120">
-        <v>3.72</v>
-      </c>
-      <c r="AN120">
-        <v>1.14</v>
-      </c>
       <c r="AO120">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="AQ120">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="AR120">
-        <v>1.85</v>
+        <v>1.05</v>
       </c>
       <c r="AS120">
-        <v>0.97</v>
+        <v>1.26</v>
       </c>
       <c r="AT120">
-        <v>2.82</v>
+        <v>2.31</v>
       </c>
       <c r="AU120">
         <v>5</v>
       </c>
       <c r="AV120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW120">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX120">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AY120">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AZ120">
+        <v>13</v>
+      </c>
+      <c r="BA120">
+        <v>3</v>
+      </c>
+      <c r="BB120">
+        <v>3</v>
+      </c>
+      <c r="BC120">
         <v>6</v>
       </c>
-      <c r="BA120">
-        <v>3</v>
-      </c>
-      <c r="BB120">
-        <v>2</v>
-      </c>
-      <c r="BC120">
-        <v>5</v>
-      </c>
       <c r="BD120">
+        <v>1.95</v>
+      </c>
+      <c r="BE120">
+        <v>7.5</v>
+      </c>
+      <c r="BF120">
+        <v>2.1</v>
+      </c>
+      <c r="BG120">
         <v>1.3</v>
       </c>
-      <c r="BE120">
-        <v>9.5</v>
-      </c>
-      <c r="BF120">
-        <v>4.58</v>
-      </c>
-      <c r="BG120">
-        <v>1.34</v>
-      </c>
       <c r="BH120">
-        <v>2.69</v>
+        <v>2.88</v>
       </c>
       <c r="BI120">
+        <v>1.57</v>
+      </c>
+      <c r="BJ120">
+        <v>2.08</v>
+      </c>
+      <c r="BK120">
+        <v>2.03</v>
+      </c>
+      <c r="BL120">
         <v>1.67</v>
       </c>
-      <c r="BJ120">
-        <v>2.03</v>
-      </c>
-      <c r="BK120">
-        <v>2.08</v>
-      </c>
-      <c r="BL120">
-        <v>1.57</v>
-      </c>
       <c r="BM120">
-        <v>2.78</v>
+        <v>2.61</v>
       </c>
       <c r="BN120">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="BO120">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="BP120">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="121" spans="1:68">
@@ -25835,7 +25835,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7453804</v>
+        <v>7453803</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -25844,196 +25844,196 @@
         <v>69</v>
       </c>
       <c r="E121" s="2">
-        <v>45619.45833333334</v>
+        <v>45619.625</v>
       </c>
       <c r="F121">
         <v>16</v>
       </c>
       <c r="G121" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H121" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O121" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="Q121">
-        <v>3.15</v>
+        <v>1.67</v>
       </c>
       <c r="R121">
-        <v>2.13</v>
+        <v>2.55</v>
       </c>
       <c r="S121">
-        <v>3.15</v>
+        <v>8</v>
       </c>
       <c r="T121">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U121">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="V121">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="W121">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="X121">
-        <v>8</v>
+        <v>5.55</v>
       </c>
       <c r="Y121">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="Z121">
-        <v>2.63</v>
+        <v>1.16</v>
       </c>
       <c r="AA121">
-        <v>3.25</v>
+        <v>5.8</v>
       </c>
       <c r="AB121">
-        <v>2.63</v>
+        <v>11</v>
       </c>
       <c r="AC121">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD121">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE121">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AF121">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AG121">
-        <v>2.15</v>
+        <v>1.56</v>
       </c>
       <c r="AH121">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="AI121">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="AJ121">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="AK121">
-        <v>1.39</v>
+        <v>1</v>
       </c>
       <c r="AL121">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="AM121">
-        <v>1.39</v>
+        <v>3.72</v>
       </c>
       <c r="AN121">
+        <v>1.14</v>
+      </c>
+      <c r="AO121">
+        <v>0.43</v>
+      </c>
+      <c r="AP121">
+        <v>1.13</v>
+      </c>
+      <c r="AQ121">
+        <v>0.5</v>
+      </c>
+      <c r="AR121">
+        <v>1.85</v>
+      </c>
+      <c r="AS121">
+        <v>0.97</v>
+      </c>
+      <c r="AT121">
+        <v>2.82</v>
+      </c>
+      <c r="AU121">
+        <v>4</v>
+      </c>
+      <c r="AV121">
+        <v>2</v>
+      </c>
+      <c r="AW121">
+        <v>6</v>
+      </c>
+      <c r="AX121">
+        <v>4</v>
+      </c>
+      <c r="AY121">
+        <v>10</v>
+      </c>
+      <c r="AZ121">
+        <v>6</v>
+      </c>
+      <c r="BA121">
+        <v>3</v>
+      </c>
+      <c r="BB121">
+        <v>2</v>
+      </c>
+      <c r="BC121">
+        <v>5</v>
+      </c>
+      <c r="BD121">
+        <v>1.3</v>
+      </c>
+      <c r="BE121">
+        <v>9.5</v>
+      </c>
+      <c r="BF121">
+        <v>4.58</v>
+      </c>
+      <c r="BG121">
+        <v>1.34</v>
+      </c>
+      <c r="BH121">
+        <v>2.69</v>
+      </c>
+      <c r="BI121">
         <v>1.67</v>
       </c>
-      <c r="AO121">
-        <v>0.86</v>
-      </c>
-      <c r="AP121">
+      <c r="BJ121">
+        <v>2.03</v>
+      </c>
+      <c r="BK121">
+        <v>2.08</v>
+      </c>
+      <c r="BL121">
         <v>1.57</v>
       </c>
-      <c r="AQ121">
-        <v>0.88</v>
-      </c>
-      <c r="AR121">
-        <v>1.05</v>
-      </c>
-      <c r="AS121">
-        <v>1.26</v>
-      </c>
-      <c r="AT121">
-        <v>2.31</v>
-      </c>
-      <c r="AU121">
-        <v>6</v>
-      </c>
-      <c r="AV121">
-        <v>4</v>
-      </c>
-      <c r="AW121">
-        <v>3</v>
-      </c>
-      <c r="AX121">
-        <v>5</v>
-      </c>
-      <c r="AY121">
-        <v>11</v>
-      </c>
-      <c r="AZ121">
-        <v>14</v>
-      </c>
-      <c r="BA121">
-        <v>3</v>
-      </c>
-      <c r="BB121">
-        <v>3</v>
-      </c>
-      <c r="BC121">
-        <v>6</v>
-      </c>
-      <c r="BD121">
-        <v>1.95</v>
-      </c>
-      <c r="BE121">
-        <v>7.5</v>
-      </c>
-      <c r="BF121">
-        <v>2.1</v>
-      </c>
-      <c r="BG121">
-        <v>1.3</v>
-      </c>
-      <c r="BH121">
-        <v>2.88</v>
-      </c>
-      <c r="BI121">
-        <v>1.57</v>
-      </c>
-      <c r="BJ121">
-        <v>2.08</v>
-      </c>
-      <c r="BK121">
-        <v>2.03</v>
-      </c>
-      <c r="BL121">
-        <v>1.67</v>
-      </c>
       <c r="BM121">
-        <v>2.61</v>
+        <v>2.78</v>
       </c>
       <c r="BN121">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="BO121">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BP121">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="122" spans="1:68">
@@ -26050,10 +26050,10 @@
         <v>69</v>
       </c>
       <c r="E122" s="2">
-        <v>45619.875</v>
+        <v>45620.41666666666</v>
       </c>
       <c r="F122">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
         <v>82</v>
@@ -26176,22 +26176,22 @@
         <v>1.91</v>
       </c>
       <c r="AU122">
+        <v>6</v>
+      </c>
+      <c r="AV122">
         <v>5</v>
       </c>
-      <c r="AV122">
-        <v>4</v>
-      </c>
       <c r="AW122">
+        <v>10</v>
+      </c>
+      <c r="AX122">
+        <v>3</v>
+      </c>
+      <c r="AY122">
+        <v>16</v>
+      </c>
+      <c r="AZ122">
         <v>8</v>
-      </c>
-      <c r="AX122">
-        <v>3</v>
-      </c>
-      <c r="AY122">
-        <v>13</v>
-      </c>
-      <c r="AZ122">
-        <v>7</v>
       </c>
       <c r="BA122">
         <v>5</v>
@@ -26247,7 +26247,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7453806</v>
+        <v>7453807</v>
       </c>
       <c r="C123" t="s">
         <v>68</v>
@@ -26256,16 +26256,16 @@
         <v>69</v>
       </c>
       <c r="E123" s="2">
-        <v>45619.875</v>
+        <v>45620.5</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G123" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H123" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -26277,174 +26277,380 @@
         <v>0</v>
       </c>
       <c r="L123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>87</v>
       </c>
       <c r="Q123">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="R123">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="S123">
-        <v>2.88</v>
+        <v>8</v>
       </c>
       <c r="T123">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U123">
         <v>3</v>
       </c>
       <c r="V123">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="W123">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="X123">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="Y123">
         <v>1.1</v>
       </c>
       <c r="Z123">
+        <v>1.23</v>
+      </c>
+      <c r="AA123">
+        <v>5.8</v>
+      </c>
+      <c r="AB123">
+        <v>7.7</v>
+      </c>
+      <c r="AC123">
+        <v>1.04</v>
+      </c>
+      <c r="AD123">
+        <v>9</v>
+      </c>
+      <c r="AE123">
+        <v>1.22</v>
+      </c>
+      <c r="AF123">
+        <v>4</v>
+      </c>
+      <c r="AG123">
+        <v>1.45</v>
+      </c>
+      <c r="AH123">
+        <v>2.56</v>
+      </c>
+      <c r="AI123">
+        <v>2.15</v>
+      </c>
+      <c r="AJ123">
+        <v>1.65</v>
+      </c>
+      <c r="AK123">
+        <v>1.03</v>
+      </c>
+      <c r="AL123">
+        <v>1.09</v>
+      </c>
+      <c r="AM123">
+        <v>3.5</v>
+      </c>
+      <c r="AN123">
+        <v>1.83</v>
+      </c>
+      <c r="AO123">
+        <v>0.86</v>
+      </c>
+      <c r="AP123">
+        <v>1.71</v>
+      </c>
+      <c r="AQ123">
+        <v>0.88</v>
+      </c>
+      <c r="AR123">
+        <v>1.46</v>
+      </c>
+      <c r="AS123">
+        <v>0.92</v>
+      </c>
+      <c r="AT123">
+        <v>2.38</v>
+      </c>
+      <c r="AU123">
+        <v>6</v>
+      </c>
+      <c r="AV123">
+        <v>6</v>
+      </c>
+      <c r="AW123">
+        <v>7</v>
+      </c>
+      <c r="AX123">
+        <v>6</v>
+      </c>
+      <c r="AY123">
+        <v>13</v>
+      </c>
+      <c r="AZ123">
+        <v>12</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>3</v>
+      </c>
+      <c r="BC123">
+        <v>3</v>
+      </c>
+      <c r="BD123">
+        <v>1.14</v>
+      </c>
+      <c r="BE123">
+        <v>12</v>
+      </c>
+      <c r="BF123">
+        <v>7.01</v>
+      </c>
+      <c r="BG123">
+        <v>1.27</v>
+      </c>
+      <c r="BH123">
+        <v>3.04</v>
+      </c>
+      <c r="BI123">
+        <v>1.51</v>
+      </c>
+      <c r="BJ123">
+        <v>2.2</v>
+      </c>
+      <c r="BK123">
+        <v>2</v>
+      </c>
+      <c r="BL123">
+        <v>1.8</v>
+      </c>
+      <c r="BM123">
+        <v>2.45</v>
+      </c>
+      <c r="BN123">
+        <v>1.41</v>
+      </c>
+      <c r="BO123">
+        <v>3.35</v>
+      </c>
+      <c r="BP123">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7453806</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45620.58333333334</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>79</v>
+      </c>
+      <c r="H124" t="s">
+        <v>70</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>174</v>
+      </c>
+      <c r="P124" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q124">
+        <v>3.25</v>
+      </c>
+      <c r="R124">
+        <v>2.2</v>
+      </c>
+      <c r="S124">
+        <v>2.88</v>
+      </c>
+      <c r="T124">
+        <v>1.36</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>2.63</v>
+      </c>
+      <c r="W124">
+        <v>1.44</v>
+      </c>
+      <c r="X124">
+        <v>6.5</v>
+      </c>
+      <c r="Y124">
+        <v>1.1</v>
+      </c>
+      <c r="Z124">
         <v>2.7</v>
       </c>
-      <c r="AA123">
+      <c r="AA124">
         <v>3.2</v>
       </c>
-      <c r="AB123">
+      <c r="AB124">
         <v>2.4</v>
       </c>
-      <c r="AC123">
+      <c r="AC124">
         <v>1.01</v>
       </c>
-      <c r="AD123">
+      <c r="AD124">
         <v>11</v>
       </c>
-      <c r="AE123">
+      <c r="AE124">
         <v>1.24</v>
       </c>
-      <c r="AF123">
+      <c r="AF124">
         <v>3.8</v>
       </c>
-      <c r="AG123">
+      <c r="AG124">
         <v>1.82</v>
       </c>
-      <c r="AH123">
+      <c r="AH124">
         <v>1.88</v>
       </c>
-      <c r="AI123">
+      <c r="AI124">
         <v>1.67</v>
       </c>
-      <c r="AJ123">
+      <c r="AJ124">
         <v>2.1</v>
       </c>
-      <c r="AK123">
+      <c r="AK124">
         <v>1.46</v>
       </c>
-      <c r="AL123">
+      <c r="AL124">
         <v>1.27</v>
       </c>
-      <c r="AM123">
+      <c r="AM124">
         <v>1.34</v>
       </c>
-      <c r="AN123">
+      <c r="AN124">
         <v>1.14</v>
       </c>
-      <c r="AO123">
+      <c r="AO124">
         <v>1.43</v>
       </c>
-      <c r="AP123">
+      <c r="AP124">
         <v>1.13</v>
       </c>
-      <c r="AQ123">
+      <c r="AQ124">
         <v>1.38</v>
       </c>
-      <c r="AR123">
+      <c r="AR124">
         <v>1.33</v>
       </c>
-      <c r="AS123">
+      <c r="AS124">
         <v>1.68</v>
       </c>
-      <c r="AT123">
+      <c r="AT124">
         <v>3.01</v>
       </c>
-      <c r="AU123">
-        <v>3</v>
-      </c>
-      <c r="AV123">
-        <v>7</v>
-      </c>
-      <c r="AW123">
+      <c r="AU124">
+        <v>2</v>
+      </c>
+      <c r="AV124">
+        <v>8</v>
+      </c>
+      <c r="AW124">
+        <v>10</v>
+      </c>
+      <c r="AX124">
         <v>6</v>
       </c>
-      <c r="AX123">
+      <c r="AY124">
+        <v>12</v>
+      </c>
+      <c r="AZ124">
+        <v>14</v>
+      </c>
+      <c r="BA124">
         <v>5</v>
       </c>
-      <c r="AY123">
-        <v>12</v>
-      </c>
-      <c r="AZ123">
-        <v>13</v>
-      </c>
-      <c r="BA123">
-        <v>5</v>
-      </c>
-      <c r="BB123">
-        <v>3</v>
-      </c>
-      <c r="BC123">
+      <c r="BB124">
+        <v>3</v>
+      </c>
+      <c r="BC124">
         <v>8</v>
       </c>
-      <c r="BD123">
-        <v>2</v>
-      </c>
-      <c r="BE123">
+      <c r="BD124">
+        <v>2</v>
+      </c>
+      <c r="BE124">
         <v>7.5</v>
       </c>
-      <c r="BF123">
+      <c r="BF124">
         <v>2.1</v>
       </c>
-      <c r="BG123">
+      <c r="BG124">
         <v>1.45</v>
       </c>
-      <c r="BH123">
+      <c r="BH124">
         <v>2.34</v>
       </c>
-      <c r="BI123">
+      <c r="BI124">
         <v>1.92</v>
       </c>
-      <c r="BJ123">
+      <c r="BJ124">
         <v>1.88</v>
       </c>
-      <c r="BK123">
+      <c r="BK124">
         <v>2.39</v>
       </c>
-      <c r="BL123">
+      <c r="BL124">
         <v>1.43</v>
       </c>
-      <c r="BM123">
+      <c r="BM124">
         <v>3.28</v>
       </c>
-      <c r="BN123">
+      <c r="BN124">
         <v>1.23</v>
       </c>
-      <c r="BO123">
+      <c r="BO124">
         <v>4.3</v>
       </c>
-      <c r="BP123">
+      <c r="BP124">
         <v>1.16</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -744,6 +744,9 @@
   <si>
     <t>['79']</t>
   </si>
+  <si>
+    <t>['19', '66', '75', '78']</t>
+  </si>
 </sst>
 </file>
 
@@ -1104,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP124"/>
+  <dimension ref="A1:BP125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2471,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ7">
         <v>0.38</v>
@@ -2680,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -4531,7 +4534,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17">
         <v>2.13</v>
@@ -5358,7 +5361,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -8033,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ34">
         <v>2</v>
@@ -8860,7 +8863,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
         <v>1.63</v>
@@ -10711,7 +10714,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ47">
         <v>0.13</v>
@@ -11744,7 +11747,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR52">
         <v>1.32</v>
@@ -12771,7 +12774,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -14628,7 +14631,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR66">
         <v>1.31</v>
@@ -15861,7 +15864,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ72">
         <v>1.38</v>
@@ -18542,7 +18545,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ85">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR85">
         <v>1.12</v>
@@ -19984,7 +19987,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR92">
         <v>1.11</v>
@@ -20393,7 +20396,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ94">
         <v>2.29</v>
@@ -22453,7 +22456,7 @@
         <v>0.57</v>
       </c>
       <c r="AP104">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ104">
         <v>0.5</v>
@@ -22662,7 +22665,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ105">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR105">
         <v>2.08</v>
@@ -26652,6 +26655,212 @@
       </c>
       <c r="BP124">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7453813</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45625.4375</v>
+      </c>
+      <c r="F125">
+        <v>17</v>
+      </c>
+      <c r="G125" t="s">
+        <v>75</v>
+      </c>
+      <c r="H125" t="s">
+        <v>85</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>4</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125" t="s">
+        <v>87</v>
+      </c>
+      <c r="P125" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q125">
+        <v>3.85</v>
+      </c>
+      <c r="R125">
+        <v>2.15</v>
+      </c>
+      <c r="S125">
+        <v>2.7</v>
+      </c>
+      <c r="T125">
+        <v>1.38</v>
+      </c>
+      <c r="U125">
+        <v>2.8</v>
+      </c>
+      <c r="V125">
+        <v>2.7</v>
+      </c>
+      <c r="W125">
+        <v>1.41</v>
+      </c>
+      <c r="X125">
+        <v>6.5</v>
+      </c>
+      <c r="Y125">
+        <v>1.1</v>
+      </c>
+      <c r="Z125">
+        <v>3.1</v>
+      </c>
+      <c r="AA125">
+        <v>3.25</v>
+      </c>
+      <c r="AB125">
+        <v>2.05</v>
+      </c>
+      <c r="AC125">
+        <v>1.02</v>
+      </c>
+      <c r="AD125">
+        <v>9.5</v>
+      </c>
+      <c r="AE125">
+        <v>1.27</v>
+      </c>
+      <c r="AF125">
+        <v>3.4</v>
+      </c>
+      <c r="AG125">
+        <v>1.67</v>
+      </c>
+      <c r="AH125">
+        <v>2.05</v>
+      </c>
+      <c r="AI125">
+        <v>1.7</v>
+      </c>
+      <c r="AJ125">
+        <v>2.07</v>
+      </c>
+      <c r="AK125">
+        <v>1.54</v>
+      </c>
+      <c r="AL125">
+        <v>1.29</v>
+      </c>
+      <c r="AM125">
+        <v>1.26</v>
+      </c>
+      <c r="AN125">
+        <v>1.75</v>
+      </c>
+      <c r="AO125">
+        <v>1.5</v>
+      </c>
+      <c r="AP125">
+        <v>1.56</v>
+      </c>
+      <c r="AQ125">
+        <v>1.67</v>
+      </c>
+      <c r="AR125">
+        <v>1.76</v>
+      </c>
+      <c r="AS125">
+        <v>1.81</v>
+      </c>
+      <c r="AT125">
+        <v>3.57</v>
+      </c>
+      <c r="AU125">
+        <v>5</v>
+      </c>
+      <c r="AV125">
+        <v>8</v>
+      </c>
+      <c r="AW125">
+        <v>7</v>
+      </c>
+      <c r="AX125">
+        <v>2</v>
+      </c>
+      <c r="AY125">
+        <v>15</v>
+      </c>
+      <c r="AZ125">
+        <v>11</v>
+      </c>
+      <c r="BA125">
+        <v>6</v>
+      </c>
+      <c r="BB125">
+        <v>8</v>
+      </c>
+      <c r="BC125">
+        <v>14</v>
+      </c>
+      <c r="BD125">
+        <v>0</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+      <c r="BF125">
+        <v>0</v>
+      </c>
+      <c r="BG125">
+        <v>0</v>
+      </c>
+      <c r="BH125">
+        <v>0</v>
+      </c>
+      <c r="BI125">
+        <v>0</v>
+      </c>
+      <c r="BJ125">
+        <v>0</v>
+      </c>
+      <c r="BK125">
+        <v>2</v>
+      </c>
+      <c r="BL125">
+        <v>1.8</v>
+      </c>
+      <c r="BM125">
+        <v>0</v>
+      </c>
+      <c r="BN125">
+        <v>0</v>
+      </c>
+      <c r="BO125">
+        <v>0</v>
+      </c>
+      <c r="BP125">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,15 @@
     <t>['75']</t>
   </si>
   <si>
+    <t>['26', '68']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['46', '49', '53']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -746,6 +755,15 @@
   </si>
   <si>
     <t>['19', '66', '75', '78']</t>
+  </si>
+  <si>
+    <t>['15', '59']</t>
+  </si>
+  <si>
+    <t>['19', '38', '64']</t>
+  </si>
+  <si>
+    <t>['14', '47']</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP125"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,7 +1384,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1444,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ2">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1650,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ3">
         <v>2.29</v>
@@ -1859,7 +1877,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ4">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1984,7 +2002,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2062,10 +2080,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ5">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2268,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2396,7 +2414,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2477,7 +2495,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ7">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2602,7 +2620,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2680,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ8">
         <v>1.67</v>
@@ -2889,7 +2907,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3014,7 +3032,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3220,7 +3238,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3426,7 +3444,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3838,7 +3856,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4250,7 +4268,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4328,10 +4346,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR16">
         <v>1.02</v>
@@ -4537,7 +4555,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ17">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR17">
         <v>1.59</v>
@@ -4740,10 +4758,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ18">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4868,7 +4886,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -4946,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ19">
         <v>3</v>
@@ -5155,7 +5173,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ20">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>1.78</v>
@@ -5358,7 +5376,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ21">
         <v>1.67</v>
@@ -5564,10 +5582,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ22">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5770,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -5898,7 +5916,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6516,7 +6534,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6594,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -6722,7 +6740,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -7009,7 +7027,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ29">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>0.53</v>
@@ -7340,7 +7358,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7546,7 +7564,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7624,7 +7642,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ32">
         <v>3</v>
@@ -7752,7 +7770,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7833,7 +7851,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR33">
         <v>1.82</v>
@@ -7958,7 +7976,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8242,10 +8260,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ35">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR35">
         <v>1.22</v>
@@ -8370,7 +8388,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8448,10 +8466,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ36">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR36">
         <v>1.01</v>
@@ -8657,7 +8675,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR37">
         <v>1.6</v>
@@ -8782,7 +8800,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8860,7 +8878,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ38">
         <v>1.67</v>
@@ -9066,7 +9084,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9194,7 +9212,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9272,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ40">
         <v>0.88</v>
@@ -9400,7 +9418,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9481,7 +9499,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ41">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>1.91</v>
@@ -9606,7 +9624,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9687,7 +9705,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR42">
         <v>0.6</v>
@@ -9812,7 +9830,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10018,7 +10036,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10224,7 +10242,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10508,7 +10526,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ46">
         <v>0.5</v>
@@ -10717,7 +10735,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ47">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR47">
         <v>1.89</v>
@@ -10842,7 +10860,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -10920,10 +10938,10 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ48">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR48">
         <v>1.07</v>
@@ -11129,7 +11147,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ49">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>1.36</v>
@@ -11254,7 +11272,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11460,7 +11478,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11538,7 +11556,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ51">
         <v>3</v>
@@ -11744,7 +11762,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ52">
         <v>1.67</v>
@@ -11953,7 +11971,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR53">
         <v>1.1</v>
@@ -12159,7 +12177,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ54">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -12490,7 +12508,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12568,7 +12586,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ56">
         <v>1.38</v>
@@ -12696,7 +12714,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12902,7 +12920,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12980,7 +12998,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ58">
         <v>1.67</v>
@@ -13108,7 +13126,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13314,7 +13332,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13520,7 +13538,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13726,7 +13744,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13804,10 +13822,10 @@
         <v>0.25</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ62">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR62">
         <v>1.13</v>
@@ -13932,7 +13950,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14138,7 +14156,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14216,7 +14234,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ64">
         <v>2</v>
@@ -14344,7 +14362,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q65">
         <v>2.75</v>
@@ -14425,7 +14443,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ65">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR65">
         <v>1.91</v>
@@ -14550,7 +14568,7 @@
         <v>87</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -14837,7 +14855,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ67">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR67">
         <v>1.33</v>
@@ -15040,7 +15058,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ68">
         <v>0.5</v>
@@ -15168,7 +15186,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15246,7 +15264,7 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ69">
         <v>3</v>
@@ -15374,7 +15392,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15455,7 +15473,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
         <v>2.49</v>
@@ -15580,7 +15598,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15661,7 +15679,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ71">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR71">
         <v>1.63</v>
@@ -15992,7 +16010,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16070,7 +16088,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ73">
         <v>1.67</v>
@@ -16198,7 +16216,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16482,7 +16500,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ75">
         <v>0.88</v>
@@ -16610,7 +16628,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16688,7 +16706,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ76">
         <v>2.29</v>
@@ -16897,7 +16915,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ77">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR77">
         <v>0.96</v>
@@ -17022,7 +17040,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17228,7 +17246,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17309,7 +17327,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ79">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR79">
         <v>1.64</v>
@@ -17512,7 +17530,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -17640,7 +17658,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17846,7 +17864,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -17924,7 +17942,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ82">
         <v>0.5</v>
@@ -18052,7 +18070,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18130,7 +18148,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ83">
         <v>0.88</v>
@@ -18258,7 +18276,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18464,7 +18482,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18751,7 +18769,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ86">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR86">
         <v>1.93</v>
@@ -18876,7 +18894,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19160,7 +19178,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ88">
         <v>0.88</v>
@@ -19288,7 +19306,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19494,7 +19512,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19575,7 +19593,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ90">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR90">
         <v>1.6</v>
@@ -19700,7 +19718,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -19778,10 +19796,10 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ91">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>1.18</v>
@@ -20190,10 +20208,10 @@
         <v>0.67</v>
       </c>
       <c r="AP93">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ93">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR93">
         <v>0</v>
@@ -20318,7 +20336,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20808,10 +20826,10 @@
         <v>0.17</v>
       </c>
       <c r="AP96">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ96">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR96">
         <v>1.54</v>
@@ -21014,7 +21032,7 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21142,7 +21160,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q98">
         <v>2.75</v>
@@ -21348,7 +21366,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q99">
         <v>13</v>
@@ -21554,7 +21572,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21635,7 +21653,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ100">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR100">
         <v>1.66</v>
@@ -21760,7 +21778,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -21838,7 +21856,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ101">
         <v>1.67</v>
@@ -21966,7 +21984,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22172,7 +22190,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22250,7 +22268,7 @@
         <v>0.67</v>
       </c>
       <c r="AP103">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22378,7 +22396,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>2.2</v>
@@ -22459,7 +22477,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ104">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AR104">
         <v>1.79</v>
@@ -22868,7 +22886,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ106">
         <v>0.88</v>
@@ -22996,7 +23014,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23280,10 +23298,10 @@
         <v>0.29</v>
       </c>
       <c r="AP108">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ108">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AR108">
         <v>0.6899999999999999</v>
@@ -23408,7 +23426,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -23489,7 +23507,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ109">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR109">
         <v>1.11</v>
@@ -23692,10 +23710,10 @@
         <v>1.29</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ110">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR110">
         <v>1.53</v>
@@ -23820,7 +23838,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24026,7 +24044,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24722,10 +24740,10 @@
         <v>0.14</v>
       </c>
       <c r="AP115">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ115">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR115">
         <v>1.12</v>
@@ -24850,7 +24868,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -25056,7 +25074,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25134,7 +25152,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ117">
         <v>1.38</v>
@@ -25262,7 +25280,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25468,7 +25486,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25674,7 +25692,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26370,7 +26388,7 @@
         <v>0.86</v>
       </c>
       <c r="AP123">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ123">
         <v>0.88</v>
@@ -26498,7 +26516,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26704,7 +26722,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -26860,6 +26878,1242 @@
         <v>0</v>
       </c>
       <c r="BP125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7453812</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45625.52083333334</v>
+      </c>
+      <c r="F126">
+        <v>17</v>
+      </c>
+      <c r="G126" t="s">
+        <v>74</v>
+      </c>
+      <c r="H126" t="s">
+        <v>81</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>111</v>
+      </c>
+      <c r="P126" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q126">
+        <v>1.77</v>
+      </c>
+      <c r="R126">
+        <v>2.45</v>
+      </c>
+      <c r="S126">
+        <v>7</v>
+      </c>
+      <c r="T126">
+        <v>1.33</v>
+      </c>
+      <c r="U126">
+        <v>3.1</v>
+      </c>
+      <c r="V126">
+        <v>2.45</v>
+      </c>
+      <c r="W126">
+        <v>1.48</v>
+      </c>
+      <c r="X126">
+        <v>5.5</v>
+      </c>
+      <c r="Y126">
+        <v>1.12</v>
+      </c>
+      <c r="Z126">
+        <v>1.56</v>
+      </c>
+      <c r="AA126">
+        <v>3.65</v>
+      </c>
+      <c r="AB126">
+        <v>4.9</v>
+      </c>
+      <c r="AC126">
+        <v>1.04</v>
+      </c>
+      <c r="AD126">
+        <v>9</v>
+      </c>
+      <c r="AE126">
+        <v>1.22</v>
+      </c>
+      <c r="AF126">
+        <v>3.95</v>
+      </c>
+      <c r="AG126">
+        <v>1.8</v>
+      </c>
+      <c r="AH126">
+        <v>2</v>
+      </c>
+      <c r="AI126">
+        <v>1.91</v>
+      </c>
+      <c r="AJ126">
+        <v>1.73</v>
+      </c>
+      <c r="AK126">
+        <v>1.06</v>
+      </c>
+      <c r="AL126">
+        <v>1.15</v>
+      </c>
+      <c r="AM126">
+        <v>2.47</v>
+      </c>
+      <c r="AN126">
+        <v>2</v>
+      </c>
+      <c r="AO126">
+        <v>0.38</v>
+      </c>
+      <c r="AP126">
+        <v>1.78</v>
+      </c>
+      <c r="AQ126">
+        <v>0.67</v>
+      </c>
+      <c r="AR126">
+        <v>1.56</v>
+      </c>
+      <c r="AS126">
+        <v>1.44</v>
+      </c>
+      <c r="AT126">
+        <v>3</v>
+      </c>
+      <c r="AU126">
+        <v>7</v>
+      </c>
+      <c r="AV126">
+        <v>4</v>
+      </c>
+      <c r="AW126">
+        <v>4</v>
+      </c>
+      <c r="AX126">
+        <v>4</v>
+      </c>
+      <c r="AY126">
+        <v>22</v>
+      </c>
+      <c r="AZ126">
+        <v>10</v>
+      </c>
+      <c r="BA126">
+        <v>11</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>11</v>
+      </c>
+      <c r="BD126">
+        <v>0</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>0</v>
+      </c>
+      <c r="BG126">
+        <v>0</v>
+      </c>
+      <c r="BH126">
+        <v>0</v>
+      </c>
+      <c r="BI126">
+        <v>1.98</v>
+      </c>
+      <c r="BJ126">
+        <v>1.82</v>
+      </c>
+      <c r="BK126">
+        <v>0</v>
+      </c>
+      <c r="BL126">
+        <v>0</v>
+      </c>
+      <c r="BM126">
+        <v>0</v>
+      </c>
+      <c r="BN126">
+        <v>0</v>
+      </c>
+      <c r="BO126">
+        <v>0</v>
+      </c>
+      <c r="BP126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7453814</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45625.60416666666</v>
+      </c>
+      <c r="F127">
+        <v>17</v>
+      </c>
+      <c r="G127" t="s">
+        <v>76</v>
+      </c>
+      <c r="H127" t="s">
+        <v>82</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>175</v>
+      </c>
+      <c r="P127" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q127">
+        <v>4.5</v>
+      </c>
+      <c r="R127">
+        <v>2.15</v>
+      </c>
+      <c r="S127">
+        <v>2.44</v>
+      </c>
+      <c r="T127">
+        <v>1.4</v>
+      </c>
+      <c r="U127">
+        <v>2.75</v>
+      </c>
+      <c r="V127">
+        <v>2.7</v>
+      </c>
+      <c r="W127">
+        <v>1.41</v>
+      </c>
+      <c r="X127">
+        <v>6.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.1</v>
+      </c>
+      <c r="Z127">
+        <v>3.1</v>
+      </c>
+      <c r="AA127">
+        <v>3.15</v>
+      </c>
+      <c r="AB127">
+        <v>2.09</v>
+      </c>
+      <c r="AC127">
+        <v>1.06</v>
+      </c>
+      <c r="AD127">
+        <v>8</v>
+      </c>
+      <c r="AE127">
+        <v>1.29</v>
+      </c>
+      <c r="AF127">
+        <v>3.4</v>
+      </c>
+      <c r="AG127">
+        <v>2</v>
+      </c>
+      <c r="AH127">
+        <v>1.8</v>
+      </c>
+      <c r="AI127">
+        <v>1.8</v>
+      </c>
+      <c r="AJ127">
+        <v>1.95</v>
+      </c>
+      <c r="AK127">
+        <v>1.69</v>
+      </c>
+      <c r="AL127">
+        <v>1.26</v>
+      </c>
+      <c r="AM127">
+        <v>1.2</v>
+      </c>
+      <c r="AN127">
+        <v>1</v>
+      </c>
+      <c r="AO127">
+        <v>2.13</v>
+      </c>
+      <c r="AP127">
+        <v>1.22</v>
+      </c>
+      <c r="AQ127">
+        <v>1.89</v>
+      </c>
+      <c r="AR127">
+        <v>1.18</v>
+      </c>
+      <c r="AS127">
+        <v>1.27</v>
+      </c>
+      <c r="AT127">
+        <v>2.45</v>
+      </c>
+      <c r="AU127">
+        <v>6</v>
+      </c>
+      <c r="AV127">
+        <v>7</v>
+      </c>
+      <c r="AW127">
+        <v>1</v>
+      </c>
+      <c r="AX127">
+        <v>2</v>
+      </c>
+      <c r="AY127">
+        <v>8</v>
+      </c>
+      <c r="AZ127">
+        <v>12</v>
+      </c>
+      <c r="BA127">
+        <v>3</v>
+      </c>
+      <c r="BB127">
+        <v>7</v>
+      </c>
+      <c r="BC127">
+        <v>10</v>
+      </c>
+      <c r="BD127">
+        <v>2.2</v>
+      </c>
+      <c r="BE127">
+        <v>5.9</v>
+      </c>
+      <c r="BF127">
+        <v>2.1</v>
+      </c>
+      <c r="BG127">
+        <v>1.68</v>
+      </c>
+      <c r="BH127">
+        <v>2.18</v>
+      </c>
+      <c r="BI127">
+        <v>2.13</v>
+      </c>
+      <c r="BJ127">
+        <v>1.66</v>
+      </c>
+      <c r="BK127">
+        <v>2.89</v>
+      </c>
+      <c r="BL127">
+        <v>1.42</v>
+      </c>
+      <c r="BM127">
+        <v>4.22</v>
+      </c>
+      <c r="BN127">
+        <v>1.23</v>
+      </c>
+      <c r="BO127">
+        <v>0</v>
+      </c>
+      <c r="BP127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7453809</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45626.41666666666</v>
+      </c>
+      <c r="F128">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>71</v>
+      </c>
+      <c r="H128" t="s">
+        <v>79</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>119</v>
+      </c>
+      <c r="P128" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q128">
+        <v>3.2</v>
+      </c>
+      <c r="R128">
+        <v>2.05</v>
+      </c>
+      <c r="S128">
+        <v>3.25</v>
+      </c>
+      <c r="T128">
+        <v>1.44</v>
+      </c>
+      <c r="U128">
+        <v>2.63</v>
+      </c>
+      <c r="V128">
+        <v>3.25</v>
+      </c>
+      <c r="W128">
+        <v>1.33</v>
+      </c>
+      <c r="X128">
+        <v>7.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.07</v>
+      </c>
+      <c r="Z128">
+        <v>2.8</v>
+      </c>
+      <c r="AA128">
+        <v>3.1</v>
+      </c>
+      <c r="AB128">
+        <v>2.3</v>
+      </c>
+      <c r="AC128">
+        <v>1.01</v>
+      </c>
+      <c r="AD128">
+        <v>7.6</v>
+      </c>
+      <c r="AE128">
+        <v>1.32</v>
+      </c>
+      <c r="AF128">
+        <v>3</v>
+      </c>
+      <c r="AG128">
+        <v>2.05</v>
+      </c>
+      <c r="AH128">
+        <v>1.65</v>
+      </c>
+      <c r="AI128">
+        <v>1.83</v>
+      </c>
+      <c r="AJ128">
+        <v>1.83</v>
+      </c>
+      <c r="AK128">
+        <v>1.43</v>
+      </c>
+      <c r="AL128">
+        <v>1.29</v>
+      </c>
+      <c r="AM128">
+        <v>1.34</v>
+      </c>
+      <c r="AN128">
+        <v>1.25</v>
+      </c>
+      <c r="AO128">
+        <v>1.13</v>
+      </c>
+      <c r="AP128">
+        <v>1.11</v>
+      </c>
+      <c r="AQ128">
+        <v>1.33</v>
+      </c>
+      <c r="AR128">
+        <v>1.28</v>
+      </c>
+      <c r="AS128">
+        <v>1.18</v>
+      </c>
+      <c r="AT128">
+        <v>2.46</v>
+      </c>
+      <c r="AU128">
+        <v>4</v>
+      </c>
+      <c r="AV128">
+        <v>6</v>
+      </c>
+      <c r="AW128">
+        <v>9</v>
+      </c>
+      <c r="AX128">
+        <v>1</v>
+      </c>
+      <c r="AY128">
+        <v>18</v>
+      </c>
+      <c r="AZ128">
+        <v>10</v>
+      </c>
+      <c r="BA128">
+        <v>5</v>
+      </c>
+      <c r="BB128">
+        <v>4</v>
+      </c>
+      <c r="BC128">
+        <v>9</v>
+      </c>
+      <c r="BD128">
+        <v>2.2</v>
+      </c>
+      <c r="BE128">
+        <v>7.5</v>
+      </c>
+      <c r="BF128">
+        <v>1.91</v>
+      </c>
+      <c r="BG128">
+        <v>1.5</v>
+      </c>
+      <c r="BH128">
+        <v>2.4</v>
+      </c>
+      <c r="BI128">
+        <v>1.85</v>
+      </c>
+      <c r="BJ128">
+        <v>1.95</v>
+      </c>
+      <c r="BK128">
+        <v>2.43</v>
+      </c>
+      <c r="BL128">
+        <v>1.49</v>
+      </c>
+      <c r="BM128">
+        <v>3.3</v>
+      </c>
+      <c r="BN128">
+        <v>1.29</v>
+      </c>
+      <c r="BO128">
+        <v>0</v>
+      </c>
+      <c r="BP128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7453810</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45626.41666666666</v>
+      </c>
+      <c r="F129">
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
+        <v>70</v>
+      </c>
+      <c r="H129" t="s">
+        <v>84</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
+      </c>
+      <c r="K129">
+        <v>3</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>3</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129" t="s">
+        <v>176</v>
+      </c>
+      <c r="P129" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q129">
+        <v>2.2</v>
+      </c>
+      <c r="R129">
+        <v>2.3</v>
+      </c>
+      <c r="S129">
+        <v>4.5</v>
+      </c>
+      <c r="T129">
+        <v>1.33</v>
+      </c>
+      <c r="U129">
+        <v>3.25</v>
+      </c>
+      <c r="V129">
+        <v>2.5</v>
+      </c>
+      <c r="W129">
+        <v>1.5</v>
+      </c>
+      <c r="X129">
+        <v>6</v>
+      </c>
+      <c r="Y129">
+        <v>1.11</v>
+      </c>
+      <c r="Z129">
+        <v>1.6</v>
+      </c>
+      <c r="AA129">
+        <v>3.8</v>
+      </c>
+      <c r="AB129">
+        <v>4.33</v>
+      </c>
+      <c r="AC129">
+        <v>1.01</v>
+      </c>
+      <c r="AD129">
+        <v>12</v>
+      </c>
+      <c r="AE129">
+        <v>1.16</v>
+      </c>
+      <c r="AF129">
+        <v>3.94</v>
+      </c>
+      <c r="AG129">
+        <v>1.7</v>
+      </c>
+      <c r="AH129">
+        <v>1.95</v>
+      </c>
+      <c r="AI129">
+        <v>1.67</v>
+      </c>
+      <c r="AJ129">
+        <v>2.1</v>
+      </c>
+      <c r="AK129">
+        <v>1.12</v>
+      </c>
+      <c r="AL129">
+        <v>1.17</v>
+      </c>
+      <c r="AM129">
+        <v>2.09</v>
+      </c>
+      <c r="AN129">
+        <v>1.75</v>
+      </c>
+      <c r="AO129">
+        <v>0.5</v>
+      </c>
+      <c r="AP129">
+        <v>1.56</v>
+      </c>
+      <c r="AQ129">
+        <v>0.78</v>
+      </c>
+      <c r="AR129">
+        <v>1.62</v>
+      </c>
+      <c r="AS129">
+        <v>1.47</v>
+      </c>
+      <c r="AT129">
+        <v>3.09</v>
+      </c>
+      <c r="AU129">
+        <v>4</v>
+      </c>
+      <c r="AV129">
+        <v>9</v>
+      </c>
+      <c r="AW129">
+        <v>6</v>
+      </c>
+      <c r="AX129">
+        <v>2</v>
+      </c>
+      <c r="AY129">
+        <v>15</v>
+      </c>
+      <c r="AZ129">
+        <v>12</v>
+      </c>
+      <c r="BA129">
+        <v>6</v>
+      </c>
+      <c r="BB129">
+        <v>4</v>
+      </c>
+      <c r="BC129">
+        <v>10</v>
+      </c>
+      <c r="BD129">
+        <v>1.75</v>
+      </c>
+      <c r="BE129">
+        <v>8</v>
+      </c>
+      <c r="BF129">
+        <v>2.52</v>
+      </c>
+      <c r="BG129">
+        <v>1.37</v>
+      </c>
+      <c r="BH129">
+        <v>2.83</v>
+      </c>
+      <c r="BI129">
+        <v>1.65</v>
+      </c>
+      <c r="BJ129">
+        <v>2.1</v>
+      </c>
+      <c r="BK129">
+        <v>2.08</v>
+      </c>
+      <c r="BL129">
+        <v>1.67</v>
+      </c>
+      <c r="BM129">
+        <v>2.73</v>
+      </c>
+      <c r="BN129">
+        <v>1.4</v>
+      </c>
+      <c r="BO129">
+        <v>3.7</v>
+      </c>
+      <c r="BP129">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7453808</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45626.45486111111</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>83</v>
+      </c>
+      <c r="H130" t="s">
+        <v>78</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>177</v>
+      </c>
+      <c r="P130" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q130">
+        <v>1.5</v>
+      </c>
+      <c r="R130">
+        <v>3</v>
+      </c>
+      <c r="S130">
+        <v>9.5</v>
+      </c>
+      <c r="T130">
+        <v>1.2</v>
+      </c>
+      <c r="U130">
+        <v>4.33</v>
+      </c>
+      <c r="V130">
+        <v>1.91</v>
+      </c>
+      <c r="W130">
+        <v>1.8</v>
+      </c>
+      <c r="X130">
+        <v>4</v>
+      </c>
+      <c r="Y130">
+        <v>1.22</v>
+      </c>
+      <c r="Z130">
+        <v>1.11</v>
+      </c>
+      <c r="AA130">
+        <v>8</v>
+      </c>
+      <c r="AB130">
+        <v>13</v>
+      </c>
+      <c r="AC130">
+        <v>1</v>
+      </c>
+      <c r="AD130">
+        <v>18</v>
+      </c>
+      <c r="AE130">
+        <v>1.04</v>
+      </c>
+      <c r="AF130">
+        <v>6.35</v>
+      </c>
+      <c r="AG130">
+        <v>1.44</v>
+      </c>
+      <c r="AH130">
+        <v>2.6</v>
+      </c>
+      <c r="AI130">
+        <v>2</v>
+      </c>
+      <c r="AJ130">
+        <v>1.73</v>
+      </c>
+      <c r="AK130">
+        <v>1.03</v>
+      </c>
+      <c r="AL130">
+        <v>1.06</v>
+      </c>
+      <c r="AM130">
+        <v>3.3</v>
+      </c>
+      <c r="AN130">
+        <v>1.71</v>
+      </c>
+      <c r="AO130">
+        <v>0.13</v>
+      </c>
+      <c r="AP130">
+        <v>1.88</v>
+      </c>
+      <c r="AQ130">
+        <v>0.11</v>
+      </c>
+      <c r="AR130">
+        <v>1.5</v>
+      </c>
+      <c r="AS130">
+        <v>1.06</v>
+      </c>
+      <c r="AT130">
+        <v>2.56</v>
+      </c>
+      <c r="AU130">
+        <v>14</v>
+      </c>
+      <c r="AV130">
+        <v>3</v>
+      </c>
+      <c r="AW130">
+        <v>8</v>
+      </c>
+      <c r="AX130">
+        <v>2</v>
+      </c>
+      <c r="AY130">
+        <v>27</v>
+      </c>
+      <c r="AZ130">
+        <v>11</v>
+      </c>
+      <c r="BA130">
+        <v>6</v>
+      </c>
+      <c r="BB130">
+        <v>1</v>
+      </c>
+      <c r="BC130">
+        <v>7</v>
+      </c>
+      <c r="BD130">
+        <v>1.07</v>
+      </c>
+      <c r="BE130">
+        <v>13</v>
+      </c>
+      <c r="BF130">
+        <v>10.2</v>
+      </c>
+      <c r="BG130">
+        <v>0</v>
+      </c>
+      <c r="BH130">
+        <v>0</v>
+      </c>
+      <c r="BI130">
+        <v>0</v>
+      </c>
+      <c r="BJ130">
+        <v>0</v>
+      </c>
+      <c r="BK130">
+        <v>0</v>
+      </c>
+      <c r="BL130">
+        <v>0</v>
+      </c>
+      <c r="BM130">
+        <v>0</v>
+      </c>
+      <c r="BN130">
+        <v>0</v>
+      </c>
+      <c r="BO130">
+        <v>0</v>
+      </c>
+      <c r="BP130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7453815</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45626.54166666666</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>73</v>
+      </c>
+      <c r="H131" t="s">
+        <v>72</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>87</v>
+      </c>
+      <c r="P131" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>15</v>
+      </c>
+      <c r="AA131">
+        <v>7.5</v>
+      </c>
+      <c r="AB131">
+        <v>1.11</v>
+      </c>
+      <c r="AC131">
+        <v>0</v>
+      </c>
+      <c r="AD131">
+        <v>0</v>
+      </c>
+      <c r="AE131">
+        <v>0</v>
+      </c>
+      <c r="AF131">
+        <v>0</v>
+      </c>
+      <c r="AG131">
+        <v>1.45</v>
+      </c>
+      <c r="AH131">
+        <v>2.55</v>
+      </c>
+      <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>0</v>
+      </c>
+      <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>1.63</v>
+      </c>
+      <c r="AO131">
+        <v>3</v>
+      </c>
+      <c r="AP131">
+        <v>1.44</v>
+      </c>
+      <c r="AQ131">
+        <v>3</v>
+      </c>
+      <c r="AR131">
+        <v>1.03</v>
+      </c>
+      <c r="AS131">
+        <v>2.21</v>
+      </c>
+      <c r="AT131">
+        <v>3.24</v>
+      </c>
+      <c r="AU131">
+        <v>-1</v>
+      </c>
+      <c r="AV131">
+        <v>-1</v>
+      </c>
+      <c r="AW131">
+        <v>-1</v>
+      </c>
+      <c r="AX131">
+        <v>-1</v>
+      </c>
+      <c r="AY131">
+        <v>-1</v>
+      </c>
+      <c r="AZ131">
+        <v>-1</v>
+      </c>
+      <c r="BA131">
+        <v>-1</v>
+      </c>
+      <c r="BB131">
+        <v>-1</v>
+      </c>
+      <c r="BC131">
+        <v>-1</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>0</v>
+      </c>
+      <c r="BG131">
+        <v>0</v>
+      </c>
+      <c r="BH131">
+        <v>0</v>
+      </c>
+      <c r="BI131">
+        <v>0</v>
+      </c>
+      <c r="BJ131">
+        <v>0</v>
+      </c>
+      <c r="BK131">
+        <v>0</v>
+      </c>
+      <c r="BL131">
+        <v>0</v>
+      </c>
+      <c r="BM131">
+        <v>0</v>
+      </c>
+      <c r="BN131">
+        <v>0</v>
+      </c>
+      <c r="BO131">
+        <v>0</v>
+      </c>
+      <c r="BP131">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -331,10 +331,10 @@
     <t>['27', '45', '67']</t>
   </si>
   <si>
-    <t>['2']</t>
+    <t>['84']</t>
   </si>
   <si>
-    <t>['84']</t>
+    <t>['2']</t>
   </si>
   <si>
     <t>['9', '60', '80', '86']</t>
@@ -346,10 +346,10 @@
     <t>['69']</t>
   </si>
   <si>
-    <t>['35', '85']</t>
+    <t>['3']</t>
   </si>
   <si>
-    <t>['3']</t>
+    <t>['35', '85']</t>
   </si>
   <si>
     <t>['12', '71']</t>
@@ -400,19 +400,19 @@
     <t>['9', '43']</t>
   </si>
   <si>
-    <t>['29', '47']</t>
+    <t>['48', '55']</t>
   </si>
   <si>
-    <t>['48', '55']</t>
+    <t>['29', '47']</t>
   </si>
   <si>
     <t>['19', '40']</t>
   </si>
   <si>
-    <t>['48', '54']</t>
+    <t>['18', '86', '90+6']</t>
   </si>
   <si>
-    <t>['18', '86', '90+6']</t>
+    <t>['48', '54']</t>
   </si>
   <si>
     <t>['51', '55']</t>
@@ -436,10 +436,10 @@
     <t>['37', '45+3', '58', '69']</t>
   </si>
   <si>
-    <t>['29', '90+7']</t>
+    <t>['37']</t>
   </si>
   <si>
-    <t>['37']</t>
+    <t>['29', '90+7']</t>
   </si>
   <si>
     <t>['52', '87', '90']</t>
@@ -505,10 +505,10 @@
     <t>['25', '34', '45']</t>
   </si>
   <si>
-    <t>['20', '33', '45+1']</t>
+    <t>['87']</t>
   </si>
   <si>
-    <t>['87']</t>
+    <t>['20', '33', '45+1']</t>
   </si>
   <si>
     <t>['74']</t>
@@ -526,10 +526,10 @@
     <t>['32', '77']</t>
   </si>
   <si>
-    <t>['53', '59', '66']</t>
+    <t>['25', '33']</t>
   </si>
   <si>
-    <t>['25', '33']</t>
+    <t>['53', '59', '66']</t>
   </si>
   <si>
     <t>['32', '45+2']</t>
@@ -640,10 +640,10 @@
     <t>['16', '68']</t>
   </si>
   <si>
-    <t>['64']</t>
+    <t>['15', '40']</t>
   </si>
   <si>
-    <t>['15', '40']</t>
+    <t>['64']</t>
   </si>
   <si>
     <t>['50', '62']</t>
@@ -742,10 +742,10 @@
     <t>['10']</t>
   </si>
   <si>
-    <t>['11', '25', '45']</t>
+    <t>['38', '83']</t>
   </si>
   <si>
-    <t>['38', '83']</t>
+    <t>['11', '25', '45']</t>
   </si>
   <si>
     <t>['44', '83']</t>
@@ -5298,7 +5298,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -6286,7 +6286,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7453712</v>
+        <v>7453716</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6301,16 +6301,16 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -6319,172 +6319,172 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O26" t="s">
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="Q26">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>2.55</v>
+        <v>1.62</v>
       </c>
       <c r="AA26">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AB26">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="AC26">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AH26">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AI26">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
         <v>1.5</v>
       </c>
-      <c r="AL26">
-        <v>1.33</v>
-      </c>
-      <c r="AM26">
-        <v>1.5</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
       <c r="AO26">
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AQ26">
-        <v>1.38</v>
+        <v>0.5</v>
       </c>
       <c r="AR26">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AT26">
-        <v>0.95</v>
+        <v>1.64</v>
       </c>
       <c r="AU26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV26">
+        <v>2</v>
+      </c>
+      <c r="AW26">
+        <v>6</v>
+      </c>
+      <c r="AX26">
+        <v>1</v>
+      </c>
+      <c r="AY26">
+        <v>13</v>
+      </c>
+      <c r="AZ26">
+        <v>3</v>
+      </c>
+      <c r="BA26">
         <v>4</v>
       </c>
-      <c r="AW26">
-        <v>4</v>
-      </c>
-      <c r="AX26">
-        <v>9</v>
-      </c>
-      <c r="AY26">
-        <v>11</v>
-      </c>
-      <c r="AZ26">
-        <v>21</v>
-      </c>
-      <c r="BA26">
-        <v>3</v>
-      </c>
       <c r="BB26">
         <v>3</v>
       </c>
       <c r="BC26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD26">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="BE26">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG26">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="BH26">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BI26">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="BJ26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK26">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BL26">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="BM26">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="BN26">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="BO26">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BP26">
-        <v>1.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6492,7 +6492,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7453716</v>
+        <v>7453712</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6507,16 +6507,16 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -6525,172 +6525,172 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O27" t="s">
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z27">
-        <v>1.62</v>
+        <v>2.55</v>
       </c>
       <c r="AA27">
+        <v>3.3</v>
+      </c>
+      <c r="AB27">
+        <v>2.63</v>
+      </c>
+      <c r="AC27">
+        <v>1.02</v>
+      </c>
+      <c r="AD27">
+        <v>10.5</v>
+      </c>
+      <c r="AE27">
+        <v>1.25</v>
+      </c>
+      <c r="AF27">
+        <v>3.6</v>
+      </c>
+      <c r="AG27">
+        <v>1.73</v>
+      </c>
+      <c r="AH27">
+        <v>2</v>
+      </c>
+      <c r="AI27">
+        <v>1.67</v>
+      </c>
+      <c r="AJ27">
+        <v>2.1</v>
+      </c>
+      <c r="AK27">
+        <v>1.5</v>
+      </c>
+      <c r="AL27">
+        <v>1.33</v>
+      </c>
+      <c r="AM27">
+        <v>1.5</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>1.57</v>
+      </c>
+      <c r="AQ27">
+        <v>1.38</v>
+      </c>
+      <c r="AR27">
+        <v>0.95</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0.95</v>
+      </c>
+      <c r="AU27">
+        <v>5</v>
+      </c>
+      <c r="AV27">
+        <v>4</v>
+      </c>
+      <c r="AW27">
+        <v>4</v>
+      </c>
+      <c r="AX27">
+        <v>9</v>
+      </c>
+      <c r="AY27">
+        <v>11</v>
+      </c>
+      <c r="AZ27">
+        <v>21</v>
+      </c>
+      <c r="BA27">
+        <v>3</v>
+      </c>
+      <c r="BB27">
+        <v>3</v>
+      </c>
+      <c r="BC27">
+        <v>6</v>
+      </c>
+      <c r="BD27">
+        <v>2.05</v>
+      </c>
+      <c r="BE27">
+        <v>7.5</v>
+      </c>
+      <c r="BF27">
+        <v>2</v>
+      </c>
+      <c r="BG27">
+        <v>1.41</v>
+      </c>
+      <c r="BH27">
+        <v>2.7</v>
+      </c>
+      <c r="BI27">
+        <v>1.73</v>
+      </c>
+      <c r="BJ27">
+        <v>2</v>
+      </c>
+      <c r="BK27">
+        <v>2.15</v>
+      </c>
+      <c r="BL27">
+        <v>1.63</v>
+      </c>
+      <c r="BM27">
+        <v>2.75</v>
+      </c>
+      <c r="BN27">
+        <v>1.39</v>
+      </c>
+      <c r="BO27">
         <v>3.8</v>
       </c>
-      <c r="AB27">
-        <v>5</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>1.75</v>
-      </c>
-      <c r="AH27">
-        <v>1.95</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>1.5</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1.44</v>
-      </c>
-      <c r="AQ27">
-        <v>0.5</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>1.64</v>
-      </c>
-      <c r="AT27">
-        <v>1.64</v>
-      </c>
-      <c r="AU27">
-        <v>7</v>
-      </c>
-      <c r="AV27">
-        <v>2</v>
-      </c>
-      <c r="AW27">
-        <v>6</v>
-      </c>
-      <c r="AX27">
-        <v>1</v>
-      </c>
-      <c r="AY27">
-        <v>13</v>
-      </c>
-      <c r="AZ27">
-        <v>3</v>
-      </c>
-      <c r="BA27">
-        <v>4</v>
-      </c>
-      <c r="BB27">
-        <v>3</v>
-      </c>
-      <c r="BC27">
-        <v>7</v>
-      </c>
-      <c r="BD27">
-        <v>0</v>
-      </c>
-      <c r="BE27">
-        <v>0</v>
-      </c>
-      <c r="BF27">
-        <v>0</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>0</v>
-      </c>
-      <c r="BI27">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
-      </c>
-      <c r="BK27">
-        <v>0</v>
-      </c>
-      <c r="BL27">
-        <v>0</v>
-      </c>
-      <c r="BM27">
-        <v>0</v>
-      </c>
-      <c r="BN27">
-        <v>0</v>
-      </c>
-      <c r="BO27">
-        <v>0</v>
-      </c>
       <c r="BP27">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6946,7 +6946,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -8140,7 +8140,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7453722</v>
+        <v>7453717</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -8155,10 +8155,10 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -8170,10 +8170,10 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -8182,61 +8182,61 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>4.33</v>
+      </c>
+      <c r="T35">
+        <v>1.45</v>
+      </c>
+      <c r="U35">
+        <v>2.55</v>
+      </c>
+      <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="W35">
+        <v>1.33</v>
+      </c>
+      <c r="X35">
+        <v>6.85</v>
+      </c>
+      <c r="Y35">
+        <v>1.07</v>
+      </c>
+      <c r="Z35">
         <v>1.95</v>
       </c>
-      <c r="S35">
-        <v>3.65</v>
-      </c>
-      <c r="T35">
-        <v>1.48</v>
-      </c>
-      <c r="U35">
-        <v>2.45</v>
-      </c>
-      <c r="V35">
+      <c r="AA35">
         <v>3.2</v>
       </c>
-      <c r="W35">
-        <v>1.3</v>
-      </c>
-      <c r="X35">
-        <v>7.3</v>
-      </c>
-      <c r="Y35">
-        <v>1.06</v>
-      </c>
-      <c r="Z35">
-        <v>2.5</v>
-      </c>
-      <c r="AA35">
-        <v>3</v>
-      </c>
       <c r="AB35">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC35">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD35">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE35">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AF35">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="AG35">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AH35">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AI35">
         <v>1.83</v>
@@ -8245,100 +8245,100 @@
         <v>1.8</v>
       </c>
       <c r="AK35">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AL35">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM35">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="AN35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AQ35">
-        <v>0.67</v>
+        <v>0.11</v>
       </c>
       <c r="AR35">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="AS35">
-        <v>1.35</v>
+        <v>0.52</v>
       </c>
       <c r="AT35">
-        <v>2.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>3</v>
+      </c>
+      <c r="AX35">
         <v>6</v>
       </c>
-      <c r="AW35">
-        <v>2</v>
-      </c>
-      <c r="AX35">
-        <v>7</v>
-      </c>
       <c r="AY35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ35">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BA35">
         <v>2</v>
       </c>
       <c r="BB35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC35">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BD35">
-        <v>2.29</v>
+        <v>1.59</v>
       </c>
       <c r="BE35">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF35">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="BG35">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BH35">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="BI35">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BJ35">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BK35">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="BL35">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BM35">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BN35">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BO35">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BP35">
-        <v>0</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8346,7 +8346,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7453717</v>
+        <v>7453722</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8361,10 +8361,10 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8376,10 +8376,10 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -8388,61 +8388,61 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="Q36">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="T36">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U36">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="V36">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="W36">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X36">
-        <v>6.85</v>
+        <v>7.3</v>
       </c>
       <c r="Y36">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z36">
+        <v>2.5</v>
+      </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <v>2.6</v>
+      </c>
+      <c r="AC36">
+        <v>1.09</v>
+      </c>
+      <c r="AD36">
+        <v>6.5</v>
+      </c>
+      <c r="AE36">
+        <v>1.42</v>
+      </c>
+      <c r="AF36">
+        <v>2.75</v>
+      </c>
+      <c r="AG36">
         <v>1.95</v>
       </c>
-      <c r="AA36">
-        <v>3.2</v>
-      </c>
-      <c r="AB36">
-        <v>3.4</v>
-      </c>
-      <c r="AC36">
-        <v>1.07</v>
-      </c>
-      <c r="AD36">
-        <v>7.5</v>
-      </c>
-      <c r="AE36">
-        <v>1.36</v>
-      </c>
-      <c r="AF36">
-        <v>2.95</v>
-      </c>
-      <c r="AG36">
-        <v>2</v>
-      </c>
       <c r="AH36">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AI36">
         <v>1.83</v>
@@ -8451,100 +8451,100 @@
         <v>1.8</v>
       </c>
       <c r="AK36">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AL36">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AM36">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
+        <v>1.11</v>
+      </c>
+      <c r="AQ36">
+        <v>0.67</v>
+      </c>
+      <c r="AR36">
         <v>1.22</v>
       </c>
-      <c r="AQ36">
-        <v>0.11</v>
-      </c>
-      <c r="AR36">
-        <v>1.01</v>
-      </c>
       <c r="AS36">
-        <v>0.52</v>
+        <v>1.35</v>
       </c>
       <c r="AT36">
-        <v>1.53</v>
+        <v>2.57</v>
       </c>
       <c r="AU36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AZ36">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA36">
         <v>2</v>
       </c>
       <c r="BB36">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC36">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD36">
-        <v>1.59</v>
+        <v>2.29</v>
       </c>
       <c r="BE36">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF36">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="BG36">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="BH36">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="BI36">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BJ36">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BK36">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="BL36">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="BM36">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="BN36">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="BO36">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="BP36">
-        <v>1.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -10654,7 +10654,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q47">
         <v>2.1</v>
@@ -12260,7 +12260,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7453744</v>
+        <v>7453745</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12275,16 +12275,16 @@
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -12293,142 +12293,142 @@
         <v>2</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O55" t="s">
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>2.7</v>
+      </c>
+      <c r="AA55">
+        <v>3.5</v>
+      </c>
+      <c r="AB55">
+        <v>2.25</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>1.67</v>
+      </c>
+      <c r="AH55">
+        <v>2.1</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
         <v>1.5</v>
       </c>
-      <c r="R55">
-        <v>3.1</v>
-      </c>
-      <c r="S55">
-        <v>8.5</v>
-      </c>
-      <c r="T55">
-        <v>1.17</v>
-      </c>
-      <c r="U55">
-        <v>4.5</v>
-      </c>
-      <c r="V55">
-        <v>1.8</v>
-      </c>
-      <c r="W55">
-        <v>1.91</v>
-      </c>
-      <c r="X55">
-        <v>3.5</v>
-      </c>
-      <c r="Y55">
-        <v>1.29</v>
-      </c>
-      <c r="Z55">
-        <v>1.06</v>
-      </c>
-      <c r="AA55">
-        <v>10</v>
-      </c>
-      <c r="AB55">
-        <v>21</v>
-      </c>
-      <c r="AC55">
-        <v>1.01</v>
-      </c>
-      <c r="AD55">
-        <v>29</v>
-      </c>
-      <c r="AE55">
-        <v>1.05</v>
-      </c>
-      <c r="AF55">
+      <c r="AO55">
+        <v>1.5</v>
+      </c>
+      <c r="AP55">
+        <v>1.44</v>
+      </c>
+      <c r="AQ55">
+        <v>1.38</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>1.77</v>
+      </c>
+      <c r="AT55">
+        <v>1.77</v>
+      </c>
+      <c r="AU55">
+        <v>2</v>
+      </c>
+      <c r="AV55">
+        <v>5</v>
+      </c>
+      <c r="AW55">
+        <v>3</v>
+      </c>
+      <c r="AX55">
+        <v>3</v>
+      </c>
+      <c r="AY55">
+        <v>5</v>
+      </c>
+      <c r="AZ55">
         <v>8</v>
       </c>
-      <c r="AG55">
-        <v>1.27</v>
-      </c>
-      <c r="AH55">
-        <v>3.41</v>
-      </c>
-      <c r="AI55">
-        <v>1.8</v>
-      </c>
-      <c r="AJ55">
-        <v>1.91</v>
-      </c>
-      <c r="AK55">
-        <v>1.01</v>
-      </c>
-      <c r="AL55">
-        <v>1.07</v>
-      </c>
-      <c r="AM55">
+      <c r="BA55">
         <v>5</v>
       </c>
-      <c r="AN55">
-        <v>2.33</v>
-      </c>
-      <c r="AO55">
-        <v>1.33</v>
-      </c>
-      <c r="AP55">
-        <v>2.71</v>
-      </c>
-      <c r="AQ55">
-        <v>0.88</v>
-      </c>
-      <c r="AR55">
-        <v>2.35</v>
-      </c>
-      <c r="AS55">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AT55">
-        <v>3.16</v>
-      </c>
-      <c r="AU55">
-        <v>11</v>
-      </c>
-      <c r="AV55">
-        <v>3</v>
-      </c>
-      <c r="AW55">
-        <v>5</v>
-      </c>
-      <c r="AX55">
-        <v>1</v>
-      </c>
-      <c r="AY55">
-        <v>32</v>
-      </c>
-      <c r="AZ55">
-        <v>5</v>
-      </c>
-      <c r="BA55">
+      <c r="BB55">
+        <v>9</v>
+      </c>
+      <c r="BC55">
         <v>14</v>
       </c>
-      <c r="BB55">
-        <v>2</v>
-      </c>
-      <c r="BC55">
-        <v>16</v>
-      </c>
       <c r="BD55">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="BE55">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BF55">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="BG55">
         <v>0</v>
@@ -12443,10 +12443,10 @@
         <v>0</v>
       </c>
       <c r="BK55">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="BL55">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BM55">
         <v>0</v>
@@ -12466,7 +12466,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7453745</v>
+        <v>7453744</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12481,16 +12481,16 @@
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -12499,142 +12499,142 @@
         <v>2</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O56" t="s">
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>87</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Z56">
-        <v>2.7</v>
+        <v>1.06</v>
       </c>
       <c r="AA56">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="AB56">
-        <v>2.25</v>
+        <v>21</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG56">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="AH56">
-        <v>2.1</v>
+        <v>3.41</v>
       </c>
       <c r="AI56">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AJ56">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AK56">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AL56">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AM56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN56">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="AO56">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.44</v>
+        <v>2.71</v>
       </c>
       <c r="AQ56">
-        <v>1.38</v>
+        <v>0.88</v>
       </c>
       <c r="AR56">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AS56">
-        <v>1.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT56">
-        <v>1.77</v>
+        <v>3.16</v>
       </c>
       <c r="AU56">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AV56">
+        <v>3</v>
+      </c>
+      <c r="AW56">
         <v>5</v>
       </c>
-      <c r="AW56">
-        <v>3</v>
-      </c>
       <c r="AX56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY56">
+        <v>32</v>
+      </c>
+      <c r="AZ56">
         <v>5</v>
       </c>
-      <c r="AZ56">
-        <v>8</v>
-      </c>
       <c r="BA56">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BB56">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BC56">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD56">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="BE56">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BF56">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="BG56">
         <v>0</v>
@@ -12649,10 +12649,10 @@
         <v>0</v>
       </c>
       <c r="BK56">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BL56">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BM56">
         <v>0</v>
@@ -12878,7 +12878,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7453746</v>
+        <v>7453743</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12893,28 +12893,28 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O58" t="s">
         <v>131</v>
@@ -12923,160 +12923,160 @@
         <v>208</v>
       </c>
       <c r="Q58">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="R58">
         <v>2.2</v>
       </c>
       <c r="S58">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T58">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U58">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V58">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W58">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X58">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y58">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z58">
-        <v>5.7</v>
+        <v>3.45</v>
       </c>
       <c r="AA58">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AB58">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AC58">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE58">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AF58">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AG58">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AH58">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="AI58">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AJ58">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AK58">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AL58">
         <v>1.25</v>
       </c>
       <c r="AM58">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AN58">
         <v>1</v>
       </c>
       <c r="AO58">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>1.67</v>
+        <v>2.29</v>
       </c>
       <c r="AR58">
-        <v>1.22</v>
+        <v>1.68</v>
       </c>
       <c r="AS58">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT58">
-        <v>2.66</v>
+        <v>3.1</v>
       </c>
       <c r="AU58">
         <v>6</v>
       </c>
       <c r="AV58">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AW58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY58">
         <v>11</v>
       </c>
       <c r="AZ58">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC58">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD58">
-        <v>2.78</v>
+        <v>3.07</v>
       </c>
       <c r="BE58">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF58">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="BG58">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="BH58">
-        <v>2.38</v>
+        <v>2.91</v>
       </c>
       <c r="BI58">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="BJ58">
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="BK58">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="BL58">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="BM58">
-        <v>3.48</v>
+        <v>2.75</v>
       </c>
       <c r="BN58">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="BO58">
-        <v>4.6</v>
+        <v>3.84</v>
       </c>
       <c r="BP58">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -13084,7 +13084,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7453743</v>
+        <v>7453746</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -13099,28 +13099,28 @@
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O59" t="s">
         <v>132</v>
@@ -13129,160 +13129,160 @@
         <v>209</v>
       </c>
       <c r="Q59">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R59">
         <v>2.2</v>
       </c>
       <c r="S59">
+        <v>2.2</v>
+      </c>
+      <c r="T59">
+        <v>1.36</v>
+      </c>
+      <c r="U59">
+        <v>3</v>
+      </c>
+      <c r="V59">
+        <v>2.75</v>
+      </c>
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59">
+        <v>6.5</v>
+      </c>
+      <c r="Y59">
+        <v>1.1</v>
+      </c>
+      <c r="Z59">
+        <v>5.7</v>
+      </c>
+      <c r="AA59">
+        <v>3.6</v>
+      </c>
+      <c r="AB59">
+        <v>1.5</v>
+      </c>
+      <c r="AC59">
+        <v>1.02</v>
+      </c>
+      <c r="AD59">
+        <v>10</v>
+      </c>
+      <c r="AE59">
+        <v>1.22</v>
+      </c>
+      <c r="AF59">
+        <v>3.8</v>
+      </c>
+      <c r="AG59">
+        <v>1.78</v>
+      </c>
+      <c r="AH59">
+        <v>1.93</v>
+      </c>
+      <c r="AI59">
+        <v>1.8</v>
+      </c>
+      <c r="AJ59">
+        <v>2</v>
+      </c>
+      <c r="AK59">
         <v>2.25</v>
-      </c>
-      <c r="T59">
-        <v>1.33</v>
-      </c>
-      <c r="U59">
-        <v>3.25</v>
-      </c>
-      <c r="V59">
-        <v>2.5</v>
-      </c>
-      <c r="W59">
-        <v>1.5</v>
-      </c>
-      <c r="X59">
-        <v>6</v>
-      </c>
-      <c r="Y59">
-        <v>1.11</v>
-      </c>
-      <c r="Z59">
-        <v>3.45</v>
-      </c>
-      <c r="AA59">
-        <v>3.3</v>
-      </c>
-      <c r="AB59">
-        <v>1.9</v>
-      </c>
-      <c r="AC59">
-        <v>1.01</v>
-      </c>
-      <c r="AD59">
-        <v>11</v>
-      </c>
-      <c r="AE59">
-        <v>1.2</v>
-      </c>
-      <c r="AF59">
-        <v>4</v>
-      </c>
-      <c r="AG59">
-        <v>1.7</v>
-      </c>
-      <c r="AH59">
-        <v>2.03</v>
-      </c>
-      <c r="AI59">
-        <v>1.67</v>
-      </c>
-      <c r="AJ59">
-        <v>2.15</v>
-      </c>
-      <c r="AK59">
-        <v>2.1</v>
       </c>
       <c r="AL59">
         <v>1.25</v>
       </c>
       <c r="AM59">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AN59">
         <v>1</v>
       </c>
       <c r="AO59">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ59">
-        <v>2.29</v>
+        <v>1.67</v>
       </c>
       <c r="AR59">
-        <v>1.68</v>
+        <v>1.22</v>
       </c>
       <c r="AS59">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AT59">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="AU59">
         <v>6</v>
       </c>
       <c r="AV59">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AW59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY59">
         <v>11</v>
       </c>
       <c r="AZ59">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BA59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC59">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD59">
-        <v>3.07</v>
+        <v>2.78</v>
       </c>
       <c r="BE59">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF59">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="BG59">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="BH59">
-        <v>2.91</v>
+        <v>2.38</v>
       </c>
       <c r="BI59">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="BJ59">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="BK59">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="BL59">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="BM59">
-        <v>2.75</v>
+        <v>3.48</v>
       </c>
       <c r="BN59">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="BO59">
-        <v>3.84</v>
+        <v>4.6</v>
       </c>
       <c r="BP59">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -15762,7 +15762,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7453761</v>
+        <v>7453762</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15777,49 +15777,49 @@
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H72" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O72" t="s">
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="Q72">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R72">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S72">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="T72">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U72">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V72">
         <v>2.63</v>
@@ -15828,73 +15828,73 @@
         <v>1.44</v>
       </c>
       <c r="X72">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y72">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z72">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="AA72">
         <v>3.4</v>
       </c>
       <c r="AB72">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AC72">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD72">
-        <v>9.949999999999999</v>
+        <v>13</v>
       </c>
       <c r="AE72">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF72">
-        <v>3.83</v>
+        <v>4</v>
       </c>
       <c r="AG72">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AH72">
+        <v>2.05</v>
+      </c>
+      <c r="AI72">
+        <v>1.67</v>
+      </c>
+      <c r="AJ72">
         <v>2.1</v>
       </c>
-      <c r="AI72">
-        <v>1.62</v>
-      </c>
-      <c r="AJ72">
-        <v>2.2</v>
-      </c>
       <c r="AK72">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AL72">
         <v>1.32</v>
       </c>
       <c r="AM72">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AN72">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="AO72">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="AQ72">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AR72">
-        <v>1.97</v>
+        <v>1.46</v>
       </c>
       <c r="AS72">
-        <v>1.97</v>
+        <v>1.55</v>
       </c>
       <c r="AT72">
-        <v>3.94</v>
+        <v>3.01</v>
       </c>
       <c r="AU72">
         <v>4</v>
@@ -15903,34 +15903,34 @@
         <v>5</v>
       </c>
       <c r="AW72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY72">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ72">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB72">
         <v>4</v>
       </c>
       <c r="BC72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD72">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="BE72">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="BF72">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="BG72">
         <v>1.49</v>
@@ -15968,7 +15968,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7453762</v>
+        <v>7453761</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15983,49 +15983,49 @@
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H73" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O73" t="s">
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="Q73">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R73">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S73">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="T73">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V73">
         <v>2.63</v>
@@ -16034,73 +16034,73 @@
         <v>1.44</v>
       </c>
       <c r="X73">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y73">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z73">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="AA73">
         <v>3.4</v>
       </c>
       <c r="AB73">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AC73">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD73">
-        <v>13</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AE73">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF73">
-        <v>4</v>
+        <v>3.83</v>
       </c>
       <c r="AG73">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AH73">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AI73">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AJ73">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK73">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AL73">
         <v>1.32</v>
       </c>
       <c r="AM73">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AN73">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="AO73">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="AQ73">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AR73">
-        <v>1.46</v>
+        <v>1.97</v>
       </c>
       <c r="AS73">
-        <v>1.55</v>
+        <v>1.97</v>
       </c>
       <c r="AT73">
-        <v>3.01</v>
+        <v>3.94</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16109,34 +16109,34 @@
         <v>5</v>
       </c>
       <c r="AW73">
+        <v>7</v>
+      </c>
+      <c r="AX73">
+        <v>3</v>
+      </c>
+      <c r="AY73">
+        <v>16</v>
+      </c>
+      <c r="AZ73">
+        <v>11</v>
+      </c>
+      <c r="BA73">
         <v>5</v>
-      </c>
-      <c r="AX73">
-        <v>4</v>
-      </c>
-      <c r="AY73">
-        <v>11</v>
-      </c>
-      <c r="AZ73">
-        <v>14</v>
-      </c>
-      <c r="BA73">
-        <v>3</v>
       </c>
       <c r="BB73">
         <v>4</v>
       </c>
       <c r="BC73">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD73">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="BE73">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="BF73">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="BG73">
         <v>1.49</v>
@@ -17452,7 +17452,7 @@
         <v>125</v>
       </c>
       <c r="P80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -19924,7 +19924,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -21118,7 +21118,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7453781</v>
+        <v>7453784</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21130,193 +21130,193 @@
         <v>45591.54166666666</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O98" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="Q98">
+        <v>13</v>
+      </c>
+      <c r="R98">
+        <v>2.88</v>
+      </c>
+      <c r="S98">
+        <v>1.44</v>
+      </c>
+      <c r="T98">
+        <v>1.25</v>
+      </c>
+      <c r="U98">
+        <v>3.75</v>
+      </c>
+      <c r="V98">
+        <v>2.1</v>
+      </c>
+      <c r="W98">
+        <v>1.67</v>
+      </c>
+      <c r="X98">
+        <v>4.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.17</v>
+      </c>
+      <c r="Z98">
+        <v>13.5</v>
+      </c>
+      <c r="AA98">
+        <v>6.5</v>
+      </c>
+      <c r="AB98">
+        <v>1.15</v>
+      </c>
+      <c r="AC98">
+        <v>1.01</v>
+      </c>
+      <c r="AD98">
+        <v>15</v>
+      </c>
+      <c r="AE98">
+        <v>1.14</v>
+      </c>
+      <c r="AF98">
+        <v>5.25</v>
+      </c>
+      <c r="AG98">
+        <v>1.37</v>
+      </c>
+      <c r="AH98">
+        <v>2.85</v>
+      </c>
+      <c r="AI98">
         <v>2.75</v>
       </c>
-      <c r="R98">
-        <v>2.2</v>
-      </c>
-      <c r="S98">
-        <v>3.6</v>
-      </c>
-      <c r="T98">
-        <v>1.36</v>
-      </c>
-      <c r="U98">
-        <v>3</v>
-      </c>
-      <c r="V98">
-        <v>2.63</v>
-      </c>
-      <c r="W98">
+      <c r="AJ98">
+        <v>1.4</v>
+      </c>
+      <c r="AK98">
+        <v>5.5</v>
+      </c>
+      <c r="AL98">
+        <v>1.07</v>
+      </c>
+      <c r="AM98">
+        <v>1</v>
+      </c>
+      <c r="AN98">
+        <v>1.75</v>
+      </c>
+      <c r="AO98">
+        <v>3</v>
+      </c>
+      <c r="AP98">
+        <v>1.57</v>
+      </c>
+      <c r="AQ98">
+        <v>3</v>
+      </c>
+      <c r="AR98">
+        <v>1.07</v>
+      </c>
+      <c r="AS98">
+        <v>2.16</v>
+      </c>
+      <c r="AT98">
+        <v>3.23</v>
+      </c>
+      <c r="AU98">
+        <v>4</v>
+      </c>
+      <c r="AV98">
+        <v>8</v>
+      </c>
+      <c r="AW98">
+        <v>0</v>
+      </c>
+      <c r="AX98">
+        <v>9</v>
+      </c>
+      <c r="AY98">
+        <v>5</v>
+      </c>
+      <c r="AZ98">
+        <v>21</v>
+      </c>
+      <c r="BA98">
+        <v>1</v>
+      </c>
+      <c r="BB98">
+        <v>12</v>
+      </c>
+      <c r="BC98">
+        <v>13</v>
+      </c>
+      <c r="BD98">
+        <v>9.35</v>
+      </c>
+      <c r="BE98">
+        <v>13</v>
+      </c>
+      <c r="BF98">
+        <v>1.09</v>
+      </c>
+      <c r="BG98">
+        <v>1.35</v>
+      </c>
+      <c r="BH98">
+        <v>2.8</v>
+      </c>
+      <c r="BI98">
+        <v>1.61</v>
+      </c>
+      <c r="BJ98">
+        <v>2.12</v>
+      </c>
+      <c r="BK98">
+        <v>2</v>
+      </c>
+      <c r="BL98">
+        <v>1.73</v>
+      </c>
+      <c r="BM98">
+        <v>2.5</v>
+      </c>
+      <c r="BN98">
         <v>1.44</v>
       </c>
-      <c r="X98">
-        <v>6.5</v>
-      </c>
-      <c r="Y98">
-        <v>1.1</v>
-      </c>
-      <c r="Z98">
-        <v>1.87</v>
-      </c>
-      <c r="AA98">
-        <v>3.02</v>
-      </c>
-      <c r="AB98">
-        <v>3.3</v>
-      </c>
-      <c r="AC98">
-        <v>1.05</v>
-      </c>
-      <c r="AD98">
-        <v>8.5</v>
-      </c>
-      <c r="AE98">
-        <v>1.25</v>
-      </c>
-      <c r="AF98">
-        <v>3.6</v>
-      </c>
-      <c r="AG98">
-        <v>1.93</v>
-      </c>
-      <c r="AH98">
-        <v>1.83</v>
-      </c>
-      <c r="AI98">
-        <v>1.67</v>
-      </c>
-      <c r="AJ98">
-        <v>2.1</v>
-      </c>
-      <c r="AK98">
-        <v>1.35</v>
-      </c>
-      <c r="AL98">
-        <v>1.25</v>
-      </c>
-      <c r="AM98">
-        <v>1.65</v>
-      </c>
-      <c r="AN98">
-        <v>1.4</v>
-      </c>
-      <c r="AO98">
-        <v>0.6</v>
-      </c>
-      <c r="AP98">
-        <v>1.13</v>
-      </c>
-      <c r="AQ98">
-        <v>0.88</v>
-      </c>
-      <c r="AR98">
-        <v>1.32</v>
-      </c>
-      <c r="AS98">
-        <v>1.43</v>
-      </c>
-      <c r="AT98">
-        <v>2.75</v>
-      </c>
-      <c r="AU98">
-        <v>2</v>
-      </c>
-      <c r="AV98">
-        <v>5</v>
-      </c>
-      <c r="AW98">
-        <v>12</v>
-      </c>
-      <c r="AX98">
-        <v>1</v>
-      </c>
-      <c r="AY98">
-        <v>16</v>
-      </c>
-      <c r="AZ98">
-        <v>6</v>
-      </c>
-      <c r="BA98">
-        <v>4</v>
-      </c>
-      <c r="BB98">
-        <v>0</v>
-      </c>
-      <c r="BC98">
-        <v>4</v>
-      </c>
-      <c r="BD98">
-        <v>1.82</v>
-      </c>
-      <c r="BE98">
-        <v>7.5</v>
-      </c>
-      <c r="BF98">
-        <v>2.4</v>
-      </c>
-      <c r="BG98">
-        <v>1.4</v>
-      </c>
-      <c r="BH98">
-        <v>2.65</v>
-      </c>
-      <c r="BI98">
-        <v>1.67</v>
-      </c>
-      <c r="BJ98">
-        <v>2.1</v>
-      </c>
-      <c r="BK98">
-        <v>2.1</v>
-      </c>
-      <c r="BL98">
-        <v>1.61</v>
-      </c>
-      <c r="BM98">
-        <v>2.7</v>
-      </c>
-      <c r="BN98">
-        <v>1.39</v>
-      </c>
       <c r="BO98">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="BP98">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21324,7 +21324,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7453784</v>
+        <v>7453781</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21336,193 +21336,193 @@
         <v>45591.54166666666</v>
       </c>
       <c r="F99">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H99" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>87</v>
+      </c>
+      <c r="P99" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q99">
+        <v>2.75</v>
+      </c>
+      <c r="R99">
+        <v>2.2</v>
+      </c>
+      <c r="S99">
+        <v>3.6</v>
+      </c>
+      <c r="T99">
+        <v>1.36</v>
+      </c>
+      <c r="U99">
+        <v>3</v>
+      </c>
+      <c r="V99">
+        <v>2.63</v>
+      </c>
+      <c r="W99">
+        <v>1.44</v>
+      </c>
+      <c r="X99">
+        <v>6.5</v>
+      </c>
+      <c r="Y99">
+        <v>1.1</v>
+      </c>
+      <c r="Z99">
+        <v>1.87</v>
+      </c>
+      <c r="AA99">
+        <v>3.02</v>
+      </c>
+      <c r="AB99">
+        <v>3.3</v>
+      </c>
+      <c r="AC99">
+        <v>1.05</v>
+      </c>
+      <c r="AD99">
+        <v>8.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.25</v>
+      </c>
+      <c r="AF99">
+        <v>3.6</v>
+      </c>
+      <c r="AG99">
+        <v>1.93</v>
+      </c>
+      <c r="AH99">
+        <v>1.83</v>
+      </c>
+      <c r="AI99">
+        <v>1.67</v>
+      </c>
+      <c r="AJ99">
+        <v>2.1</v>
+      </c>
+      <c r="AK99">
+        <v>1.35</v>
+      </c>
+      <c r="AL99">
+        <v>1.25</v>
+      </c>
+      <c r="AM99">
+        <v>1.65</v>
+      </c>
+      <c r="AN99">
+        <v>1.4</v>
+      </c>
+      <c r="AO99">
+        <v>0.6</v>
+      </c>
+      <c r="AP99">
+        <v>1.13</v>
+      </c>
+      <c r="AQ99">
+        <v>0.88</v>
+      </c>
+      <c r="AR99">
+        <v>1.32</v>
+      </c>
+      <c r="AS99">
+        <v>1.43</v>
+      </c>
+      <c r="AT99">
+        <v>2.75</v>
+      </c>
+      <c r="AU99">
+        <v>2</v>
+      </c>
+      <c r="AV99">
         <v>5</v>
       </c>
-      <c r="N99">
+      <c r="AW99">
+        <v>12</v>
+      </c>
+      <c r="AX99">
+        <v>1</v>
+      </c>
+      <c r="AY99">
+        <v>16</v>
+      </c>
+      <c r="AZ99">
         <v>6</v>
       </c>
-      <c r="O99" t="s">
-        <v>158</v>
-      </c>
-      <c r="P99" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q99">
-        <v>13</v>
-      </c>
-      <c r="R99">
-        <v>2.88</v>
-      </c>
-      <c r="S99">
-        <v>1.44</v>
-      </c>
-      <c r="T99">
-        <v>1.25</v>
-      </c>
-      <c r="U99">
-        <v>3.75</v>
-      </c>
-      <c r="V99">
+      <c r="BA99">
+        <v>4</v>
+      </c>
+      <c r="BB99">
+        <v>0</v>
+      </c>
+      <c r="BC99">
+        <v>4</v>
+      </c>
+      <c r="BD99">
+        <v>1.82</v>
+      </c>
+      <c r="BE99">
+        <v>7.5</v>
+      </c>
+      <c r="BF99">
+        <v>2.4</v>
+      </c>
+      <c r="BG99">
+        <v>1.4</v>
+      </c>
+      <c r="BH99">
+        <v>2.65</v>
+      </c>
+      <c r="BI99">
+        <v>1.67</v>
+      </c>
+      <c r="BJ99">
         <v>2.1</v>
       </c>
-      <c r="W99">
-        <v>1.67</v>
-      </c>
-      <c r="X99">
-        <v>4.5</v>
-      </c>
-      <c r="Y99">
-        <v>1.17</v>
-      </c>
-      <c r="Z99">
-        <v>13.5</v>
-      </c>
-      <c r="AA99">
-        <v>6.5</v>
-      </c>
-      <c r="AB99">
-        <v>1.15</v>
-      </c>
-      <c r="AC99">
-        <v>1.01</v>
-      </c>
-      <c r="AD99">
-        <v>15</v>
-      </c>
-      <c r="AE99">
-        <v>1.14</v>
-      </c>
-      <c r="AF99">
-        <v>5.25</v>
-      </c>
-      <c r="AG99">
-        <v>1.37</v>
-      </c>
-      <c r="AH99">
-        <v>2.85</v>
-      </c>
-      <c r="AI99">
-        <v>2.75</v>
-      </c>
-      <c r="AJ99">
-        <v>1.4</v>
-      </c>
-      <c r="AK99">
-        <v>5.5</v>
-      </c>
-      <c r="AL99">
-        <v>1.07</v>
-      </c>
-      <c r="AM99">
-        <v>1</v>
-      </c>
-      <c r="AN99">
-        <v>1.75</v>
-      </c>
-      <c r="AO99">
-        <v>3</v>
-      </c>
-      <c r="AP99">
-        <v>1.57</v>
-      </c>
-      <c r="AQ99">
-        <v>3</v>
-      </c>
-      <c r="AR99">
-        <v>1.07</v>
-      </c>
-      <c r="AS99">
-        <v>2.16</v>
-      </c>
-      <c r="AT99">
-        <v>3.23</v>
-      </c>
-      <c r="AU99">
-        <v>4</v>
-      </c>
-      <c r="AV99">
-        <v>8</v>
-      </c>
-      <c r="AW99">
-        <v>0</v>
-      </c>
-      <c r="AX99">
-        <v>9</v>
-      </c>
-      <c r="AY99">
-        <v>5</v>
-      </c>
-      <c r="AZ99">
-        <v>21</v>
-      </c>
-      <c r="BA99">
-        <v>1</v>
-      </c>
-      <c r="BB99">
-        <v>12</v>
-      </c>
-      <c r="BC99">
-        <v>13</v>
-      </c>
-      <c r="BD99">
-        <v>9.35</v>
-      </c>
-      <c r="BE99">
-        <v>13</v>
-      </c>
-      <c r="BF99">
-        <v>1.09</v>
-      </c>
-      <c r="BG99">
-        <v>1.35</v>
-      </c>
-      <c r="BH99">
-        <v>2.8</v>
-      </c>
-      <c r="BI99">
+      <c r="BK99">
+        <v>2.1</v>
+      </c>
+      <c r="BL99">
         <v>1.61</v>
       </c>
-      <c r="BJ99">
-        <v>2.12</v>
-      </c>
-      <c r="BK99">
-        <v>2</v>
-      </c>
-      <c r="BL99">
-        <v>1.73</v>
-      </c>
       <c r="BM99">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BN99">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="BO99">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="BP99">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -22560,7 +22560,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7453787</v>
+        <v>7453793</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22575,28 +22575,28 @@
         <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H105" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M105">
         <v>0</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O105" t="s">
         <v>163</v>
@@ -22605,160 +22605,160 @@
         <v>87</v>
       </c>
       <c r="Q105">
+        <v>1.95</v>
+      </c>
+      <c r="R105">
+        <v>2.3</v>
+      </c>
+      <c r="S105">
+        <v>6</v>
+      </c>
+      <c r="T105">
+        <v>1.33</v>
+      </c>
+      <c r="U105">
+        <v>3.25</v>
+      </c>
+      <c r="V105">
+        <v>2.63</v>
+      </c>
+      <c r="W105">
+        <v>1.44</v>
+      </c>
+      <c r="X105">
+        <v>6</v>
+      </c>
+      <c r="Y105">
+        <v>1.11</v>
+      </c>
+      <c r="Z105">
+        <v>1.44</v>
+      </c>
+      <c r="AA105">
+        <v>4.33</v>
+      </c>
+      <c r="AB105">
+        <v>6.35</v>
+      </c>
+      <c r="AC105">
+        <v>1.04</v>
+      </c>
+      <c r="AD105">
+        <v>9</v>
+      </c>
+      <c r="AE105">
+        <v>1.22</v>
+      </c>
+      <c r="AF105">
+        <v>3.95</v>
+      </c>
+      <c r="AG105">
+        <v>1.65</v>
+      </c>
+      <c r="AH105">
+        <v>2.12</v>
+      </c>
+      <c r="AI105">
+        <v>1.91</v>
+      </c>
+      <c r="AJ105">
+        <v>1.8</v>
+      </c>
+      <c r="AK105">
+        <v>1.07</v>
+      </c>
+      <c r="AL105">
+        <v>1.18</v>
+      </c>
+      <c r="AM105">
+        <v>2.5</v>
+      </c>
+      <c r="AN105">
         <v>1.57</v>
       </c>
-      <c r="R105">
-        <v>2.75</v>
-      </c>
-      <c r="S105">
-        <v>8.5</v>
-      </c>
-      <c r="T105">
-        <v>1.22</v>
-      </c>
-      <c r="U105">
+      <c r="AO105">
+        <v>1</v>
+      </c>
+      <c r="AP105">
+        <v>1.56</v>
+      </c>
+      <c r="AQ105">
+        <v>0.88</v>
+      </c>
+      <c r="AR105">
+        <v>1.53</v>
+      </c>
+      <c r="AS105">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT105">
+        <v>2.47</v>
+      </c>
+      <c r="AU105">
+        <v>8</v>
+      </c>
+      <c r="AV105">
         <v>4</v>
       </c>
-      <c r="V105">
-        <v>2.1</v>
-      </c>
-      <c r="W105">
-        <v>1.67</v>
-      </c>
-      <c r="X105">
-        <v>4.33</v>
-      </c>
-      <c r="Y105">
-        <v>1.2</v>
-      </c>
-      <c r="Z105">
-        <v>1.2</v>
-      </c>
-      <c r="AA105">
-        <v>5.5</v>
-      </c>
-      <c r="AB105">
-        <v>10</v>
-      </c>
-      <c r="AC105">
-        <v>1</v>
-      </c>
-      <c r="AD105">
-        <v>15.5</v>
-      </c>
-      <c r="AE105">
-        <v>1.11</v>
-      </c>
-      <c r="AF105">
-        <v>5.75</v>
-      </c>
-      <c r="AG105">
-        <v>1.44</v>
-      </c>
-      <c r="AH105">
-        <v>2.63</v>
-      </c>
-      <c r="AI105">
-        <v>2</v>
-      </c>
-      <c r="AJ105">
-        <v>1.73</v>
-      </c>
-      <c r="AK105">
-        <v>1.02</v>
-      </c>
-      <c r="AL105">
-        <v>1.11</v>
-      </c>
-      <c r="AM105">
-        <v>3.9</v>
-      </c>
-      <c r="AN105">
-        <v>2.67</v>
-      </c>
-      <c r="AO105">
-        <v>1.71</v>
-      </c>
-      <c r="AP105">
-        <v>2.71</v>
-      </c>
-      <c r="AQ105">
-        <v>1.67</v>
-      </c>
-      <c r="AR105">
-        <v>2.08</v>
-      </c>
-      <c r="AS105">
-        <v>1.91</v>
-      </c>
-      <c r="AT105">
-        <v>3.99</v>
-      </c>
-      <c r="AU105">
+      <c r="AW105">
+        <v>7</v>
+      </c>
+      <c r="AX105">
+        <v>1</v>
+      </c>
+      <c r="AY105">
+        <v>24</v>
+      </c>
+      <c r="AZ105">
+        <v>7</v>
+      </c>
+      <c r="BA105">
+        <v>12</v>
+      </c>
+      <c r="BB105">
+        <v>3</v>
+      </c>
+      <c r="BC105">
+        <v>15</v>
+      </c>
+      <c r="BD105">
+        <v>1.31</v>
+      </c>
+      <c r="BE105">
         <v>9</v>
       </c>
-      <c r="AV105">
-        <v>6</v>
-      </c>
-      <c r="AW105">
+      <c r="BF105">
+        <v>4.43</v>
+      </c>
+      <c r="BG105">
+        <v>1.4</v>
+      </c>
+      <c r="BH105">
+        <v>2.48</v>
+      </c>
+      <c r="BI105">
+        <v>1.82</v>
+      </c>
+      <c r="BJ105">
+        <v>1.98</v>
+      </c>
+      <c r="BK105">
+        <v>2.24</v>
+      </c>
+      <c r="BL105">
+        <v>1.49</v>
+      </c>
+      <c r="BM105">
+        <v>3.02</v>
+      </c>
+      <c r="BN105">
+        <v>1.27</v>
+      </c>
+      <c r="BO105">
         <v>4</v>
       </c>
-      <c r="AX105">
-        <v>4</v>
-      </c>
-      <c r="AY105">
-        <v>15</v>
-      </c>
-      <c r="AZ105">
-        <v>14</v>
-      </c>
-      <c r="BA105">
-        <v>9</v>
-      </c>
-      <c r="BB105">
-        <v>4</v>
-      </c>
-      <c r="BC105">
-        <v>13</v>
-      </c>
-      <c r="BD105">
-        <v>1.21</v>
-      </c>
-      <c r="BE105">
-        <v>11</v>
-      </c>
-      <c r="BF105">
-        <v>5.17</v>
-      </c>
-      <c r="BG105">
-        <v>0</v>
-      </c>
-      <c r="BH105">
-        <v>0</v>
-      </c>
-      <c r="BI105">
-        <v>1.26</v>
-      </c>
-      <c r="BJ105">
-        <v>3.3</v>
-      </c>
-      <c r="BK105">
-        <v>1.46</v>
-      </c>
-      <c r="BL105">
-        <v>2.44</v>
-      </c>
-      <c r="BM105">
-        <v>1.8</v>
-      </c>
-      <c r="BN105">
-        <v>2</v>
-      </c>
-      <c r="BO105">
-        <v>2.16</v>
-      </c>
       <c r="BP105">
-        <v>1.59</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="106" spans="1:68">
@@ -22766,7 +22766,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>7453793</v>
+        <v>7453787</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
@@ -22781,28 +22781,28 @@
         <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H106" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M106">
         <v>0</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O106" t="s">
         <v>164</v>
@@ -22811,160 +22811,160 @@
         <v>87</v>
       </c>
       <c r="Q106">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="R106">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="S106">
+        <v>8.5</v>
+      </c>
+      <c r="T106">
+        <v>1.22</v>
+      </c>
+      <c r="U106">
+        <v>4</v>
+      </c>
+      <c r="V106">
+        <v>2.1</v>
+      </c>
+      <c r="W106">
+        <v>1.67</v>
+      </c>
+      <c r="X106">
+        <v>4.33</v>
+      </c>
+      <c r="Y106">
+        <v>1.2</v>
+      </c>
+      <c r="Z106">
+        <v>1.2</v>
+      </c>
+      <c r="AA106">
+        <v>5.5</v>
+      </c>
+      <c r="AB106">
+        <v>10</v>
+      </c>
+      <c r="AC106">
+        <v>1</v>
+      </c>
+      <c r="AD106">
+        <v>15.5</v>
+      </c>
+      <c r="AE106">
+        <v>1.11</v>
+      </c>
+      <c r="AF106">
+        <v>5.75</v>
+      </c>
+      <c r="AG106">
+        <v>1.44</v>
+      </c>
+      <c r="AH106">
+        <v>2.63</v>
+      </c>
+      <c r="AI106">
+        <v>2</v>
+      </c>
+      <c r="AJ106">
+        <v>1.73</v>
+      </c>
+      <c r="AK106">
+        <v>1.02</v>
+      </c>
+      <c r="AL106">
+        <v>1.11</v>
+      </c>
+      <c r="AM106">
+        <v>3.9</v>
+      </c>
+      <c r="AN106">
+        <v>2.67</v>
+      </c>
+      <c r="AO106">
+        <v>1.71</v>
+      </c>
+      <c r="AP106">
+        <v>2.71</v>
+      </c>
+      <c r="AQ106">
+        <v>1.67</v>
+      </c>
+      <c r="AR106">
+        <v>2.08</v>
+      </c>
+      <c r="AS106">
+        <v>1.91</v>
+      </c>
+      <c r="AT106">
+        <v>3.99</v>
+      </c>
+      <c r="AU106">
+        <v>9</v>
+      </c>
+      <c r="AV106">
         <v>6</v>
       </c>
-      <c r="T106">
-        <v>1.33</v>
-      </c>
-      <c r="U106">
-        <v>3.25</v>
-      </c>
-      <c r="V106">
-        <v>2.63</v>
-      </c>
-      <c r="W106">
-        <v>1.44</v>
-      </c>
-      <c r="X106">
-        <v>6</v>
-      </c>
-      <c r="Y106">
-        <v>1.11</v>
-      </c>
-      <c r="Z106">
-        <v>1.44</v>
-      </c>
-      <c r="AA106">
-        <v>4.33</v>
-      </c>
-      <c r="AB106">
-        <v>6.35</v>
-      </c>
-      <c r="AC106">
-        <v>1.04</v>
-      </c>
-      <c r="AD106">
+      <c r="AW106">
+        <v>4</v>
+      </c>
+      <c r="AX106">
+        <v>4</v>
+      </c>
+      <c r="AY106">
+        <v>15</v>
+      </c>
+      <c r="AZ106">
+        <v>14</v>
+      </c>
+      <c r="BA106">
         <v>9</v>
       </c>
-      <c r="AE106">
-        <v>1.22</v>
-      </c>
-      <c r="AF106">
-        <v>3.95</v>
-      </c>
-      <c r="AG106">
-        <v>1.65</v>
-      </c>
-      <c r="AH106">
-        <v>2.12</v>
-      </c>
-      <c r="AI106">
-        <v>1.91</v>
-      </c>
-      <c r="AJ106">
+      <c r="BB106">
+        <v>4</v>
+      </c>
+      <c r="BC106">
+        <v>13</v>
+      </c>
+      <c r="BD106">
+        <v>1.21</v>
+      </c>
+      <c r="BE106">
+        <v>11</v>
+      </c>
+      <c r="BF106">
+        <v>5.17</v>
+      </c>
+      <c r="BG106">
+        <v>0</v>
+      </c>
+      <c r="BH106">
+        <v>0</v>
+      </c>
+      <c r="BI106">
+        <v>1.26</v>
+      </c>
+      <c r="BJ106">
+        <v>3.3</v>
+      </c>
+      <c r="BK106">
+        <v>1.46</v>
+      </c>
+      <c r="BL106">
+        <v>2.44</v>
+      </c>
+      <c r="BM106">
         <v>1.8</v>
       </c>
-      <c r="AK106">
-        <v>1.07</v>
-      </c>
-      <c r="AL106">
-        <v>1.18</v>
-      </c>
-      <c r="AM106">
-        <v>2.5</v>
-      </c>
-      <c r="AN106">
-        <v>1.57</v>
-      </c>
-      <c r="AO106">
-        <v>1</v>
-      </c>
-      <c r="AP106">
-        <v>1.56</v>
-      </c>
-      <c r="AQ106">
-        <v>0.88</v>
-      </c>
-      <c r="AR106">
-        <v>1.53</v>
-      </c>
-      <c r="AS106">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AT106">
-        <v>2.47</v>
-      </c>
-      <c r="AU106">
-        <v>8</v>
-      </c>
-      <c r="AV106">
-        <v>4</v>
-      </c>
-      <c r="AW106">
-        <v>7</v>
-      </c>
-      <c r="AX106">
-        <v>1</v>
-      </c>
-      <c r="AY106">
-        <v>24</v>
-      </c>
-      <c r="AZ106">
-        <v>7</v>
-      </c>
-      <c r="BA106">
-        <v>12</v>
-      </c>
-      <c r="BB106">
-        <v>3</v>
-      </c>
-      <c r="BC106">
-        <v>15</v>
-      </c>
-      <c r="BD106">
-        <v>1.31</v>
-      </c>
-      <c r="BE106">
-        <v>9</v>
-      </c>
-      <c r="BF106">
-        <v>4.43</v>
-      </c>
-      <c r="BG106">
-        <v>1.4</v>
-      </c>
-      <c r="BH106">
-        <v>2.48</v>
-      </c>
-      <c r="BI106">
-        <v>1.82</v>
-      </c>
-      <c r="BJ106">
-        <v>1.98</v>
-      </c>
-      <c r="BK106">
-        <v>2.24</v>
-      </c>
-      <c r="BL106">
-        <v>1.49</v>
-      </c>
-      <c r="BM106">
-        <v>3.02</v>
-      </c>
       <c r="BN106">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="BO106">
-        <v>4</v>
+        <v>2.16</v>
       </c>
       <c r="BP106">
-        <v>1.18</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="107" spans="1:68">
@@ -24826,7 +24826,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7453796</v>
+        <v>7453795</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24841,28 +24841,28 @@
         <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H116" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K116">
         <v>3</v>
       </c>
       <c r="L116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N116">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O116" t="s">
         <v>170</v>
@@ -24871,121 +24871,121 @@
         <v>242</v>
       </c>
       <c r="Q116">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="R116">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S116">
+        <v>5</v>
+      </c>
+      <c r="T116">
+        <v>1.33</v>
+      </c>
+      <c r="U116">
+        <v>3.25</v>
+      </c>
+      <c r="V116">
         <v>2.5</v>
       </c>
-      <c r="T116">
-        <v>1.36</v>
-      </c>
-      <c r="U116">
-        <v>3</v>
-      </c>
-      <c r="V116">
-        <v>2.63</v>
-      </c>
       <c r="W116">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X116">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y116">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z116">
-        <v>3.02</v>
+        <v>1.48</v>
       </c>
       <c r="AA116">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="AB116">
-        <v>2.17</v>
+        <v>5.08</v>
       </c>
       <c r="AC116">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD116">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE116">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AF116">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AG116">
+        <v>1.53</v>
+      </c>
+      <c r="AH116">
+        <v>2.34</v>
+      </c>
+      <c r="AI116">
         <v>1.8</v>
       </c>
-      <c r="AH116">
-        <v>1.9</v>
-      </c>
-      <c r="AI116">
-        <v>1.73</v>
-      </c>
       <c r="AJ116">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK116">
-        <v>1.85</v>
+        <v>1.11</v>
       </c>
       <c r="AL116">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AM116">
-        <v>1.22</v>
+        <v>2.35</v>
       </c>
       <c r="AN116">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AO116">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP116">
-        <v>1.13</v>
+        <v>1.88</v>
       </c>
       <c r="AQ116">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AR116">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AS116">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="AT116">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AU116">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV116">
         <v>6</v>
       </c>
       <c r="AW116">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY116">
+        <v>21</v>
+      </c>
+      <c r="AZ116">
         <v>11</v>
       </c>
-      <c r="AZ116">
-        <v>10</v>
-      </c>
       <c r="BA116">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC116">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD116">
         <v>0</v>
@@ -25003,16 +25003,16 @@
         <v>0</v>
       </c>
       <c r="BI116">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BJ116">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="BK116">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="BL116">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BM116">
         <v>0</v>
@@ -25032,7 +25032,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>7453795</v>
+        <v>7453796</v>
       </c>
       <c r="C117" t="s">
         <v>68</v>
@@ -25047,28 +25047,28 @@
         <v>15</v>
       </c>
       <c r="G117" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H117" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K117">
         <v>3</v>
       </c>
       <c r="L117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O117" t="s">
         <v>171</v>
@@ -25077,121 +25077,121 @@
         <v>243</v>
       </c>
       <c r="Q117">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="R117">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S117">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="T117">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U117">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V117">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W117">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X117">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y117">
+        <v>1.1</v>
+      </c>
+      <c r="Z117">
+        <v>3.02</v>
+      </c>
+      <c r="AA117">
+        <v>3.2</v>
+      </c>
+      <c r="AB117">
+        <v>2.17</v>
+      </c>
+      <c r="AC117">
+        <v>1.04</v>
+      </c>
+      <c r="AD117">
+        <v>9</v>
+      </c>
+      <c r="AE117">
+        <v>1.25</v>
+      </c>
+      <c r="AF117">
+        <v>3.6</v>
+      </c>
+      <c r="AG117">
+        <v>1.8</v>
+      </c>
+      <c r="AH117">
+        <v>1.9</v>
+      </c>
+      <c r="AI117">
+        <v>1.73</v>
+      </c>
+      <c r="AJ117">
+        <v>2</v>
+      </c>
+      <c r="AK117">
+        <v>1.85</v>
+      </c>
+      <c r="AL117">
+        <v>1.22</v>
+      </c>
+      <c r="AM117">
+        <v>1.22</v>
+      </c>
+      <c r="AN117">
+        <v>1.17</v>
+      </c>
+      <c r="AO117">
+        <v>1.8</v>
+      </c>
+      <c r="AP117">
         <v>1.13</v>
       </c>
-      <c r="Z117">
-        <v>1.48</v>
-      </c>
-      <c r="AA117">
-        <v>4.3</v>
-      </c>
-      <c r="AB117">
-        <v>5.08</v>
-      </c>
-      <c r="AC117">
-        <v>1.03</v>
-      </c>
-      <c r="AD117">
-        <v>10</v>
-      </c>
-      <c r="AE117">
-        <v>1.2</v>
-      </c>
-      <c r="AF117">
-        <v>4.2</v>
-      </c>
-      <c r="AG117">
-        <v>1.53</v>
-      </c>
-      <c r="AH117">
-        <v>2.34</v>
-      </c>
-      <c r="AI117">
-        <v>1.8</v>
-      </c>
-      <c r="AJ117">
-        <v>1.91</v>
-      </c>
-      <c r="AK117">
-        <v>1.11</v>
-      </c>
-      <c r="AL117">
-        <v>1.18</v>
-      </c>
-      <c r="AM117">
-        <v>2.35</v>
-      </c>
-      <c r="AN117">
-        <v>2</v>
-      </c>
-      <c r="AO117">
-        <v>1.5</v>
-      </c>
-      <c r="AP117">
-        <v>1.88</v>
-      </c>
       <c r="AQ117">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AR117">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AS117">
-        <v>1.71</v>
+        <v>1.49</v>
       </c>
       <c r="AT117">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AU117">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV117">
         <v>6</v>
       </c>
       <c r="AW117">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX117">
+        <v>2</v>
+      </c>
+      <c r="AY117">
+        <v>11</v>
+      </c>
+      <c r="AZ117">
+        <v>10</v>
+      </c>
+      <c r="BA117">
         <v>4</v>
       </c>
-      <c r="AY117">
-        <v>21</v>
-      </c>
-      <c r="AZ117">
-        <v>11</v>
-      </c>
-      <c r="BA117">
-        <v>7</v>
-      </c>
       <c r="BB117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC117">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BD117">
         <v>0</v>
@@ -25209,16 +25209,16 @@
         <v>0</v>
       </c>
       <c r="BI117">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BJ117">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BK117">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="BL117">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="BM117">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>3</v>
       </c>
       <c r="O126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P126" t="s">
         <v>247</v>
@@ -27298,7 +27298,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7453809</v>
+        <v>7453810</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27313,190 +27313,190 @@
         <v>17</v>
       </c>
       <c r="G128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H128" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L128">
         <v>1</v>
       </c>
       <c r="M128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O128" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="Q128">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="R128">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S128">
+        <v>4.5</v>
+      </c>
+      <c r="T128">
+        <v>1.33</v>
+      </c>
+      <c r="U128">
         <v>3.25</v>
       </c>
-      <c r="T128">
-        <v>1.44</v>
-      </c>
-      <c r="U128">
-        <v>2.63</v>
-      </c>
       <c r="V128">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="W128">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="X128">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Y128">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Z128">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="AA128">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="AB128">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="AC128">
         <v>1.01</v>
       </c>
       <c r="AD128">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="AE128">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AF128">
-        <v>3</v>
+        <v>3.94</v>
       </c>
       <c r="AG128">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="AH128">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="AI128">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AJ128">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AK128">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="AL128">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AM128">
-        <v>1.34</v>
+        <v>2.09</v>
       </c>
       <c r="AN128">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO128">
-        <v>1.13</v>
+        <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>1.11</v>
+        <v>1.56</v>
       </c>
       <c r="AQ128">
-        <v>1.33</v>
+        <v>0.78</v>
       </c>
       <c r="AR128">
-        <v>1.28</v>
+        <v>1.62</v>
       </c>
       <c r="AS128">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AT128">
-        <v>2.46</v>
+        <v>3.09</v>
       </c>
       <c r="AU128">
         <v>4</v>
       </c>
       <c r="AV128">
+        <v>9</v>
+      </c>
+      <c r="AW128">
         <v>6</v>
       </c>
-      <c r="AW128">
-        <v>9</v>
-      </c>
       <c r="AX128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY128">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ128">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA128">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB128">
         <v>4</v>
       </c>
       <c r="BC128">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD128">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="BE128">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF128">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="BG128">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="BH128">
-        <v>2.4</v>
+        <v>2.83</v>
       </c>
       <c r="BI128">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="BJ128">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="BK128">
-        <v>2.43</v>
+        <v>2.08</v>
       </c>
       <c r="BL128">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="BM128">
-        <v>3.3</v>
+        <v>2.73</v>
       </c>
       <c r="BN128">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="BO128">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BP128">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27504,7 +27504,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7453810</v>
+        <v>7453809</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27519,190 +27519,190 @@
         <v>17</v>
       </c>
       <c r="G129" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H129" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L129">
         <v>1</v>
       </c>
       <c r="M129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O129" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="P129" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="Q129">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="R129">
+        <v>2.05</v>
+      </c>
+      <c r="S129">
+        <v>3.25</v>
+      </c>
+      <c r="T129">
+        <v>1.44</v>
+      </c>
+      <c r="U129">
+        <v>2.63</v>
+      </c>
+      <c r="V129">
+        <v>3.25</v>
+      </c>
+      <c r="W129">
+        <v>1.33</v>
+      </c>
+      <c r="X129">
+        <v>7.5</v>
+      </c>
+      <c r="Y129">
+        <v>1.07</v>
+      </c>
+      <c r="Z129">
+        <v>2.8</v>
+      </c>
+      <c r="AA129">
+        <v>3.1</v>
+      </c>
+      <c r="AB129">
         <v>2.3</v>
-      </c>
-      <c r="S129">
-        <v>4.5</v>
-      </c>
-      <c r="T129">
-        <v>1.33</v>
-      </c>
-      <c r="U129">
-        <v>3.25</v>
-      </c>
-      <c r="V129">
-        <v>2.5</v>
-      </c>
-      <c r="W129">
-        <v>1.5</v>
-      </c>
-      <c r="X129">
-        <v>6</v>
-      </c>
-      <c r="Y129">
-        <v>1.11</v>
-      </c>
-      <c r="Z129">
-        <v>1.6</v>
-      </c>
-      <c r="AA129">
-        <v>3.8</v>
-      </c>
-      <c r="AB129">
-        <v>4.33</v>
       </c>
       <c r="AC129">
         <v>1.01</v>
       </c>
       <c r="AD129">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="AE129">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="AF129">
-        <v>3.94</v>
+        <v>3</v>
       </c>
       <c r="AG129">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="AH129">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="AI129">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AJ129">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AK129">
-        <v>1.12</v>
+        <v>1.43</v>
       </c>
       <c r="AL129">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AM129">
-        <v>2.09</v>
+        <v>1.34</v>
       </c>
       <c r="AN129">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AO129">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="AP129">
-        <v>1.56</v>
+        <v>1.11</v>
       </c>
       <c r="AQ129">
-        <v>0.78</v>
+        <v>1.33</v>
       </c>
       <c r="AR129">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="AS129">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AT129">
-        <v>3.09</v>
+        <v>2.46</v>
       </c>
       <c r="AU129">
         <v>4</v>
       </c>
       <c r="AV129">
+        <v>6</v>
+      </c>
+      <c r="AW129">
         <v>9</v>
       </c>
-      <c r="AW129">
-        <v>6</v>
-      </c>
       <c r="AX129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY129">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ129">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA129">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB129">
         <v>4</v>
       </c>
       <c r="BC129">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD129">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="BE129">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF129">
-        <v>2.52</v>
+        <v>1.91</v>
       </c>
       <c r="BG129">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="BH129">
-        <v>2.83</v>
+        <v>2.4</v>
       </c>
       <c r="BI129">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="BJ129">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="BK129">
-        <v>2.08</v>
+        <v>2.43</v>
       </c>
       <c r="BL129">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="BM129">
-        <v>2.73</v>
+        <v>3.3</v>
       </c>
       <c r="BN129">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BO129">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="BP129">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>['46', '49', '53']</t>
+  </si>
+  <si>
+    <t>['9', '71', '74', '80']</t>
   </si>
   <si>
     <t>['3', '15', '45+3']</t>
@@ -1125,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,7 +1387,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2002,7 +2005,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2289,7 +2292,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2414,7 +2417,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2620,7 +2623,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2904,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ9">
         <v>0.78</v>
@@ -3032,7 +3035,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3238,7 +3241,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3444,7 +3447,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3856,7 +3859,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4268,7 +4271,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4886,7 +4889,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5170,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ20">
         <v>0.67</v>
@@ -5791,7 +5794,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
@@ -5916,7 +5919,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6328,7 +6331,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6740,7 +6743,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -7358,7 +7361,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7564,7 +7567,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7770,7 +7773,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7848,7 +7851,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ33">
         <v>1.89</v>
@@ -7976,7 +7979,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8182,7 +8185,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8800,7 +8803,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9212,7 +9215,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9418,7 +9421,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9624,7 +9627,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9830,7 +9833,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10036,7 +10039,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10242,7 +10245,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10323,7 +10326,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR45">
         <v>1.22</v>
@@ -10860,7 +10863,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11272,7 +11275,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11350,7 +11353,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ50">
         <v>2</v>
@@ -11478,7 +11481,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -12302,7 +12305,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12714,7 +12717,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12920,7 +12923,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13126,7 +13129,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13332,7 +13335,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13413,7 +13416,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -13538,7 +13541,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13744,7 +13747,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13950,7 +13953,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14028,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ63">
         <v>0.88</v>
@@ -14156,7 +14159,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14362,7 +14365,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q65">
         <v>2.75</v>
@@ -14568,7 +14571,7 @@
         <v>87</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -15186,7 +15189,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15392,7 +15395,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15598,7 +15601,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15804,7 +15807,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16216,7 +16219,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16297,7 +16300,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR74">
         <v>1.34</v>
@@ -16628,7 +16631,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17040,7 +17043,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17246,7 +17249,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17658,7 +17661,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17864,7 +17867,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18070,7 +18073,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18276,7 +18279,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18482,7 +18485,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18766,7 +18769,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ86">
         <v>0.11</v>
@@ -18894,7 +18897,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -18975,7 +18978,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR87">
         <v>2.4</v>
@@ -19306,7 +19309,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19384,7 +19387,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ89">
         <v>1.38</v>
@@ -19512,7 +19515,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19718,7 +19721,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20336,7 +20339,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21160,7 +21163,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21366,7 +21369,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21572,7 +21575,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21778,7 +21781,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -21984,7 +21987,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22190,7 +22193,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22271,7 +22274,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR103">
         <v>1.2</v>
@@ -22396,7 +22399,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q104">
         <v>2.2</v>
@@ -23014,7 +23017,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23092,7 +23095,7 @@
         <v>2.17</v>
       </c>
       <c r="AP107">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ107">
         <v>2.29</v>
@@ -23426,7 +23429,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -23838,7 +23841,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24044,7 +24047,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24868,7 +24871,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q116">
         <v>2.05</v>
@@ -25074,7 +25077,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25280,7 +25283,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25486,7 +25489,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25692,7 +25695,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26516,7 +26519,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26722,7 +26725,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -26928,7 +26931,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27340,7 +27343,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27546,7 +27549,7 @@
         <v>119</v>
       </c>
       <c r="P129" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q129">
         <v>3.2</v>
@@ -27958,7 +27961,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28051,31 +28054,31 @@
         <v>3.24</v>
       </c>
       <c r="AU131">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV131">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW131">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX131">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY131">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ131">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB131">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC131">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD131">
         <v>0</v>
@@ -28114,6 +28117,212 @@
         <v>0</v>
       </c>
       <c r="BP131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7453811</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45627.54166666666</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>77</v>
+      </c>
+      <c r="H132" t="s">
+        <v>80</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>4</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>5</v>
+      </c>
+      <c r="O132" t="s">
+        <v>178</v>
+      </c>
+      <c r="P132" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q132">
+        <v>2.2</v>
+      </c>
+      <c r="R132">
+        <v>2.3</v>
+      </c>
+      <c r="S132">
+        <v>4.33</v>
+      </c>
+      <c r="T132">
+        <v>1.3</v>
+      </c>
+      <c r="U132">
+        <v>3.4</v>
+      </c>
+      <c r="V132">
+        <v>2.5</v>
+      </c>
+      <c r="W132">
+        <v>1.5</v>
+      </c>
+      <c r="X132">
+        <v>5.5</v>
+      </c>
+      <c r="Y132">
+        <v>1.13</v>
+      </c>
+      <c r="Z132">
+        <v>1.53</v>
+      </c>
+      <c r="AA132">
+        <v>3.7</v>
+      </c>
+      <c r="AB132">
+        <v>4.55</v>
+      </c>
+      <c r="AC132">
+        <v>1</v>
+      </c>
+      <c r="AD132">
+        <v>11.8</v>
+      </c>
+      <c r="AE132">
+        <v>1.16</v>
+      </c>
+      <c r="AF132">
+        <v>3.95</v>
+      </c>
+      <c r="AG132">
+        <v>1.65</v>
+      </c>
+      <c r="AH132">
+        <v>2.1</v>
+      </c>
+      <c r="AI132">
+        <v>1.67</v>
+      </c>
+      <c r="AJ132">
+        <v>2.1</v>
+      </c>
+      <c r="AK132">
+        <v>1.15</v>
+      </c>
+      <c r="AL132">
+        <v>1.19</v>
+      </c>
+      <c r="AM132">
+        <v>1.95</v>
+      </c>
+      <c r="AN132">
+        <v>1.25</v>
+      </c>
+      <c r="AO132">
+        <v>1</v>
+      </c>
+      <c r="AP132">
+        <v>1.44</v>
+      </c>
+      <c r="AQ132">
+        <v>0.88</v>
+      </c>
+      <c r="AR132">
+        <v>1.95</v>
+      </c>
+      <c r="AS132">
+        <v>1.51</v>
+      </c>
+      <c r="AT132">
+        <v>3.46</v>
+      </c>
+      <c r="AU132">
+        <v>12</v>
+      </c>
+      <c r="AV132">
+        <v>3</v>
+      </c>
+      <c r="AW132">
+        <v>7</v>
+      </c>
+      <c r="AX132">
+        <v>5</v>
+      </c>
+      <c r="AY132">
+        <v>22</v>
+      </c>
+      <c r="AZ132">
+        <v>9</v>
+      </c>
+      <c r="BA132">
+        <v>8</v>
+      </c>
+      <c r="BB132">
+        <v>3</v>
+      </c>
+      <c r="BC132">
+        <v>11</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>0</v>
+      </c>
+      <c r="BG132">
+        <v>0</v>
+      </c>
+      <c r="BH132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
+        <v>0</v>
+      </c>
+      <c r="BJ132">
+        <v>0</v>
+      </c>
+      <c r="BK132">
+        <v>0</v>
+      </c>
+      <c r="BL132">
+        <v>0</v>
+      </c>
+      <c r="BM132">
+        <v>0</v>
+      </c>
+      <c r="BN132">
+        <v>0</v>
+      </c>
+      <c r="BO132">
+        <v>0</v>
+      </c>
+      <c r="BP132">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,12 @@
     <t>['9', '71', '74', '80']</t>
   </si>
   <si>
+    <t>['3', '35', '67']</t>
+  </si>
+  <si>
+    <t>['17', '38', '62']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -767,6 +773,9 @@
   </si>
   <si>
     <t>['14', '47']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP132"/>
+  <dimension ref="A1:BP134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1396,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1877,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ4">
         <v>0.11</v>
@@ -2005,7 +2014,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2292,7 +2301,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ6">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2417,7 +2426,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2623,7 +2632,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3035,7 +3044,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3241,7 +3250,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3447,7 +3456,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3525,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3734,7 +3743,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3859,7 +3868,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4271,7 +4280,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4889,7 +4898,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5585,7 +5594,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5794,7 +5803,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ23">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
@@ -5919,7 +5928,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6331,7 +6340,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6743,7 +6752,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -6821,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ28">
         <v>0.88</v>
@@ -7361,7 +7370,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7442,7 +7451,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ31">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7567,7 +7576,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7773,7 +7782,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7979,7 +7988,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8185,7 +8194,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8803,7 +8812,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9215,7 +9224,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9421,7 +9430,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9627,7 +9636,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9833,7 +9842,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10039,7 +10048,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10245,7 +10254,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10326,7 +10335,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ45">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR45">
         <v>1.22</v>
@@ -10863,7 +10872,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11275,7 +11284,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11481,7 +11490,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11765,7 +11774,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>1.67</v>
@@ -12305,7 +12314,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12589,7 +12598,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ56">
         <v>0.88</v>
@@ -12717,7 +12726,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12923,7 +12932,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13129,7 +13138,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13210,7 +13219,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13335,7 +13344,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13416,7 +13425,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ60">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -13541,7 +13550,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13747,7 +13756,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13953,7 +13962,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14159,7 +14168,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14365,7 +14374,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q65">
         <v>2.75</v>
@@ -14571,7 +14580,7 @@
         <v>87</v>
       </c>
       <c r="P66" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -15189,7 +15198,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15267,7 +15276,7 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>3</v>
@@ -15395,7 +15404,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15473,7 +15482,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ70">
         <v>1.33</v>
@@ -15601,7 +15610,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15807,7 +15816,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15888,7 +15897,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ72">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -16219,7 +16228,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16300,7 +16309,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ74">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR74">
         <v>1.34</v>
@@ -16631,7 +16640,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17043,7 +17052,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17249,7 +17258,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17661,7 +17670,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17867,7 +17876,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -17945,7 +17954,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
         <v>0.5</v>
@@ -18073,7 +18082,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18279,7 +18288,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18485,7 +18494,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18897,7 +18906,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -18975,10 +18984,10 @@
         <v>0.8</v>
       </c>
       <c r="AP87">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ87">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR87">
         <v>2.4</v>
@@ -19309,7 +19318,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19515,7 +19524,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19721,7 +19730,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20339,7 +20348,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -21035,7 +21044,7 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21163,7 +21172,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21369,7 +21378,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21575,7 +21584,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21781,7 +21790,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -21862,7 +21871,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ101">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR101">
         <v>1.12</v>
@@ -21987,7 +21996,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22193,7 +22202,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22274,7 +22283,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ103">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR103">
         <v>1.2</v>
@@ -22399,7 +22408,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>2.2</v>
@@ -22889,7 +22898,7 @@
         <v>1.71</v>
       </c>
       <c r="AP106">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ106">
         <v>1.67</v>
@@ -23017,7 +23026,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23429,7 +23438,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -23841,7 +23850,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24047,7 +24056,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24871,7 +24880,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q116">
         <v>2.05</v>
@@ -24949,7 +24958,7 @@
         <v>1.5</v>
       </c>
       <c r="AP116">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
         <v>1.38</v>
@@ -25077,7 +25086,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25158,7 +25167,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ117">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR117">
         <v>1.31</v>
@@ -25283,7 +25292,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25489,7 +25498,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25695,7 +25704,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26391,7 +26400,7 @@
         <v>0.86</v>
       </c>
       <c r="AP123">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
         <v>0.88</v>
@@ -26519,7 +26528,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26725,7 +26734,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -26931,7 +26940,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27343,7 +27352,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27549,7 +27558,7 @@
         <v>119</v>
       </c>
       <c r="P129" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q129">
         <v>3.2</v>
@@ -27833,7 +27842,7 @@
         <v>0.13</v>
       </c>
       <c r="AP130">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ130">
         <v>0.11</v>
@@ -27961,7 +27970,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28167,7 +28176,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q132">
         <v>2.2</v>
@@ -28248,7 +28257,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ132">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR132">
         <v>1.95</v>
@@ -28324,6 +28333,418 @@
       </c>
       <c r="BP132">
         <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7453723</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45630.52083333334</v>
+      </c>
+      <c r="F133">
+        <v>5</v>
+      </c>
+      <c r="G133" t="s">
+        <v>83</v>
+      </c>
+      <c r="H133" t="s">
+        <v>80</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>3</v>
+      </c>
+      <c r="L133">
+        <v>3</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>4</v>
+      </c>
+      <c r="O133" t="s">
+        <v>179</v>
+      </c>
+      <c r="P133" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q133">
+        <v>1.67</v>
+      </c>
+      <c r="R133">
+        <v>2.6</v>
+      </c>
+      <c r="S133">
+        <v>7.5</v>
+      </c>
+      <c r="T133">
+        <v>1.28</v>
+      </c>
+      <c r="U133">
+        <v>3.3</v>
+      </c>
+      <c r="V133">
+        <v>2.38</v>
+      </c>
+      <c r="W133">
+        <v>1.53</v>
+      </c>
+      <c r="X133">
+        <v>6</v>
+      </c>
+      <c r="Y133">
+        <v>1.11</v>
+      </c>
+      <c r="Z133">
+        <v>1.36</v>
+      </c>
+      <c r="AA133">
+        <v>4.97</v>
+      </c>
+      <c r="AB133">
+        <v>7.64</v>
+      </c>
+      <c r="AC133">
+        <v>1.03</v>
+      </c>
+      <c r="AD133">
+        <v>10</v>
+      </c>
+      <c r="AE133">
+        <v>1.2</v>
+      </c>
+      <c r="AF133">
+        <v>4.33</v>
+      </c>
+      <c r="AG133">
+        <v>1.48</v>
+      </c>
+      <c r="AH133">
+        <v>2.47</v>
+      </c>
+      <c r="AI133">
+        <v>2.15</v>
+      </c>
+      <c r="AJ133">
+        <v>1.57</v>
+      </c>
+      <c r="AK133">
+        <v>1.06</v>
+      </c>
+      <c r="AL133">
+        <v>1.13</v>
+      </c>
+      <c r="AM133">
+        <v>3.5</v>
+      </c>
+      <c r="AN133">
+        <v>1.88</v>
+      </c>
+      <c r="AO133">
+        <v>0.88</v>
+      </c>
+      <c r="AP133">
+        <v>2</v>
+      </c>
+      <c r="AQ133">
+        <v>0.78</v>
+      </c>
+      <c r="AR133">
+        <v>1.68</v>
+      </c>
+      <c r="AS133">
+        <v>1.42</v>
+      </c>
+      <c r="AT133">
+        <v>3.1</v>
+      </c>
+      <c r="AU133">
+        <v>8</v>
+      </c>
+      <c r="AV133">
+        <v>4</v>
+      </c>
+      <c r="AW133">
+        <v>6</v>
+      </c>
+      <c r="AX133">
+        <v>5</v>
+      </c>
+      <c r="AY133">
+        <v>16</v>
+      </c>
+      <c r="AZ133">
+        <v>13</v>
+      </c>
+      <c r="BA133">
+        <v>6</v>
+      </c>
+      <c r="BB133">
+        <v>5</v>
+      </c>
+      <c r="BC133">
+        <v>11</v>
+      </c>
+      <c r="BD133">
+        <v>1.28</v>
+      </c>
+      <c r="BE133">
+        <v>7.8</v>
+      </c>
+      <c r="BF133">
+        <v>4.8</v>
+      </c>
+      <c r="BG133">
+        <v>1.18</v>
+      </c>
+      <c r="BH133">
+        <v>3.65</v>
+      </c>
+      <c r="BI133">
+        <v>1.38</v>
+      </c>
+      <c r="BJ133">
+        <v>2.54</v>
+      </c>
+      <c r="BK133">
+        <v>1.71</v>
+      </c>
+      <c r="BL133">
+        <v>1.97</v>
+      </c>
+      <c r="BM133">
+        <v>2.12</v>
+      </c>
+      <c r="BN133">
+        <v>1.55</v>
+      </c>
+      <c r="BO133">
+        <v>2.82</v>
+      </c>
+      <c r="BP133">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7453729</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45630.60416666666</v>
+      </c>
+      <c r="F134">
+        <v>6</v>
+      </c>
+      <c r="G134" t="s">
+        <v>72</v>
+      </c>
+      <c r="H134" t="s">
+        <v>77</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134" t="s">
+        <v>180</v>
+      </c>
+      <c r="P134" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q134">
+        <v>1.62</v>
+      </c>
+      <c r="R134">
+        <v>2.75</v>
+      </c>
+      <c r="S134">
+        <v>8</v>
+      </c>
+      <c r="T134">
+        <v>1.22</v>
+      </c>
+      <c r="U134">
+        <v>4</v>
+      </c>
+      <c r="V134">
+        <v>2</v>
+      </c>
+      <c r="W134">
+        <v>1.73</v>
+      </c>
+      <c r="X134">
+        <v>4.33</v>
+      </c>
+      <c r="Y134">
+        <v>1.2</v>
+      </c>
+      <c r="Z134">
+        <v>1.23</v>
+      </c>
+      <c r="AA134">
+        <v>6.29</v>
+      </c>
+      <c r="AB134">
+        <v>10.7</v>
+      </c>
+      <c r="AC134">
+        <v>1.01</v>
+      </c>
+      <c r="AD134">
+        <v>17.5</v>
+      </c>
+      <c r="AE134">
+        <v>1.11</v>
+      </c>
+      <c r="AF134">
+        <v>6</v>
+      </c>
+      <c r="AG134">
+        <v>1.34</v>
+      </c>
+      <c r="AH134">
+        <v>2.99</v>
+      </c>
+      <c r="AI134">
+        <v>1.83</v>
+      </c>
+      <c r="AJ134">
+        <v>1.83</v>
+      </c>
+      <c r="AK134">
+        <v>1.04</v>
+      </c>
+      <c r="AL134">
+        <v>1.07</v>
+      </c>
+      <c r="AM134">
+        <v>3.1</v>
+      </c>
+      <c r="AN134">
+        <v>2.71</v>
+      </c>
+      <c r="AO134">
+        <v>1.67</v>
+      </c>
+      <c r="AP134">
+        <v>2.75</v>
+      </c>
+      <c r="AQ134">
+        <v>1.43</v>
+      </c>
+      <c r="AR134">
+        <v>2.03</v>
+      </c>
+      <c r="AS134">
+        <v>1.48</v>
+      </c>
+      <c r="AT134">
+        <v>3.51</v>
+      </c>
+      <c r="AU134">
+        <v>7</v>
+      </c>
+      <c r="AV134">
+        <v>8</v>
+      </c>
+      <c r="AW134">
+        <v>2</v>
+      </c>
+      <c r="AX134">
+        <v>4</v>
+      </c>
+      <c r="AY134">
+        <v>11</v>
+      </c>
+      <c r="AZ134">
+        <v>18</v>
+      </c>
+      <c r="BA134">
+        <v>2</v>
+      </c>
+      <c r="BB134">
+        <v>10</v>
+      </c>
+      <c r="BC134">
+        <v>12</v>
+      </c>
+      <c r="BD134">
+        <v>1.14</v>
+      </c>
+      <c r="BE134">
+        <v>12</v>
+      </c>
+      <c r="BF134">
+        <v>7.01</v>
+      </c>
+      <c r="BG134">
+        <v>0</v>
+      </c>
+      <c r="BH134">
+        <v>0</v>
+      </c>
+      <c r="BI134">
+        <v>1.4</v>
+      </c>
+      <c r="BJ134">
+        <v>2.75</v>
+      </c>
+      <c r="BK134">
+        <v>1.98</v>
+      </c>
+      <c r="BL134">
+        <v>1.82</v>
+      </c>
+      <c r="BM134">
+        <v>2.08</v>
+      </c>
+      <c r="BN134">
+        <v>1.67</v>
+      </c>
+      <c r="BO134">
+        <v>2.7</v>
+      </c>
+      <c r="BP134">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>['17', '38', '62']</t>
+  </si>
+  <si>
+    <t>['10', '14', '17', '62', '67', '90']</t>
   </si>
   <si>
     <t>['3', '15', '45+3']</t>
@@ -1137,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP134"/>
+  <dimension ref="A1:BP135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,7 +1399,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1886,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ4">
         <v>0.11</v>
@@ -2014,7 +2017,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2426,7 +2429,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2632,7 +2635,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3044,7 +3047,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3250,7 +3253,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3456,7 +3459,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3534,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3868,7 +3871,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4155,7 +4158,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4280,7 +4283,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4898,7 +4901,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5928,7 +5931,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6340,7 +6343,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6421,7 +6424,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6752,7 +6755,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -6830,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ28">
         <v>0.88</v>
@@ -7370,7 +7373,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7576,7 +7579,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7782,7 +7785,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7988,7 +7991,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8194,7 +8197,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8812,7 +8815,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9224,7 +9227,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9430,7 +9433,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9636,7 +9639,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9842,7 +9845,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10048,7 +10051,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10254,7 +10257,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10541,7 +10544,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ46">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR46">
         <v>0.99</v>
@@ -10872,7 +10875,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11284,7 +11287,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11490,7 +11493,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -12314,7 +12317,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12598,7 +12601,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ56">
         <v>0.88</v>
@@ -12726,7 +12729,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12932,7 +12935,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13138,7 +13141,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13344,7 +13347,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13550,7 +13553,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13756,7 +13759,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13962,7 +13965,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14168,7 +14171,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14374,7 +14377,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q65">
         <v>2.75</v>
@@ -14580,7 +14583,7 @@
         <v>87</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -15073,7 +15076,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ68">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -15198,7 +15201,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15404,7 +15407,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15482,7 +15485,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ70">
         <v>1.33</v>
@@ -15610,7 +15613,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15816,7 +15819,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16228,7 +16231,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16640,7 +16643,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17052,7 +17055,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17258,7 +17261,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17670,7 +17673,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17876,7 +17879,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -17957,7 +17960,7 @@
         <v>2</v>
       </c>
       <c r="AQ82">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -18082,7 +18085,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18288,7 +18291,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18494,7 +18497,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18906,7 +18909,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -18984,7 +18987,7 @@
         <v>0.8</v>
       </c>
       <c r="AP87">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ87">
         <v>0.78</v>
@@ -19318,7 +19321,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19524,7 +19527,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19730,7 +19733,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20348,7 +20351,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20635,7 +20638,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ95">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -21172,7 +21175,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21378,7 +21381,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21584,7 +21587,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21790,7 +21793,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -21996,7 +21999,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22202,7 +22205,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22408,7 +22411,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>2.2</v>
@@ -22898,7 +22901,7 @@
         <v>1.71</v>
       </c>
       <c r="AP106">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ106">
         <v>1.67</v>
@@ -23026,7 +23029,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23438,7 +23441,7 @@
         <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -23850,7 +23853,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24056,7 +24059,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24343,7 +24346,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ113">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR113">
         <v>1.01</v>
@@ -24880,7 +24883,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>2.05</v>
@@ -25086,7 +25089,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25292,7 +25295,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25498,7 +25501,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25704,7 +25707,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -25991,7 +25994,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ121">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR121">
         <v>1.85</v>
@@ -26528,7 +26531,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26734,7 +26737,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -26940,7 +26943,7 @@
         <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27352,7 +27355,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27558,7 +27561,7 @@
         <v>119</v>
       </c>
       <c r="P129" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q129">
         <v>3.2</v>
@@ -27970,7 +27973,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28176,7 +28179,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q132">
         <v>2.2</v>
@@ -28588,7 +28591,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q134">
         <v>1.62</v>
@@ -28666,7 +28669,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ134">
         <v>1.43</v>
@@ -28745,6 +28748,212 @@
       </c>
       <c r="BP134">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7453817</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45633.54166666666</v>
+      </c>
+      <c r="F135">
+        <v>18</v>
+      </c>
+      <c r="G135" t="s">
+        <v>72</v>
+      </c>
+      <c r="H135" t="s">
+        <v>76</v>
+      </c>
+      <c r="I135">
+        <v>3</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>3</v>
+      </c>
+      <c r="L135">
+        <v>6</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>6</v>
+      </c>
+      <c r="O135" t="s">
+        <v>181</v>
+      </c>
+      <c r="P135" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q135">
+        <v>1.25</v>
+      </c>
+      <c r="R135">
+        <v>3.6</v>
+      </c>
+      <c r="S135">
+        <v>21</v>
+      </c>
+      <c r="T135">
+        <v>1.2</v>
+      </c>
+      <c r="U135">
+        <v>4.33</v>
+      </c>
+      <c r="V135">
+        <v>1.83</v>
+      </c>
+      <c r="W135">
+        <v>1.83</v>
+      </c>
+      <c r="X135">
+        <v>3.75</v>
+      </c>
+      <c r="Y135">
+        <v>1.25</v>
+      </c>
+      <c r="Z135">
+        <v>1.05</v>
+      </c>
+      <c r="AA135">
+        <v>11</v>
+      </c>
+      <c r="AB135">
+        <v>21</v>
+      </c>
+      <c r="AC135">
+        <v>1.01</v>
+      </c>
+      <c r="AD135">
+        <v>11</v>
+      </c>
+      <c r="AE135">
+        <v>1.07</v>
+      </c>
+      <c r="AF135">
+        <v>7.5</v>
+      </c>
+      <c r="AG135">
+        <v>1.33</v>
+      </c>
+      <c r="AH135">
+        <v>3.25</v>
+      </c>
+      <c r="AI135">
+        <v>3.4</v>
+      </c>
+      <c r="AJ135">
+        <v>1.3</v>
+      </c>
+      <c r="AK135">
+        <v>1</v>
+      </c>
+      <c r="AL135">
+        <v>1.03</v>
+      </c>
+      <c r="AM135">
+        <v>8.4</v>
+      </c>
+      <c r="AN135">
+        <v>2.75</v>
+      </c>
+      <c r="AO135">
+        <v>0.5</v>
+      </c>
+      <c r="AP135">
+        <v>2.78</v>
+      </c>
+      <c r="AQ135">
+        <v>0.44</v>
+      </c>
+      <c r="AR135">
+        <v>1.93</v>
+      </c>
+      <c r="AS135">
+        <v>0.95</v>
+      </c>
+      <c r="AT135">
+        <v>2.88</v>
+      </c>
+      <c r="AU135">
+        <v>12</v>
+      </c>
+      <c r="AV135">
+        <v>5</v>
+      </c>
+      <c r="AW135">
+        <v>5</v>
+      </c>
+      <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>21</v>
+      </c>
+      <c r="AZ135">
+        <v>6</v>
+      </c>
+      <c r="BA135">
+        <v>6</v>
+      </c>
+      <c r="BB135">
+        <v>1</v>
+      </c>
+      <c r="BC135">
+        <v>7</v>
+      </c>
+      <c r="BD135">
+        <v>1.14</v>
+      </c>
+      <c r="BE135">
+        <v>12</v>
+      </c>
+      <c r="BF135">
+        <v>7.41</v>
+      </c>
+      <c r="BG135">
+        <v>1.4</v>
+      </c>
+      <c r="BH135">
+        <v>2.82</v>
+      </c>
+      <c r="BI135">
+        <v>1.68</v>
+      </c>
+      <c r="BJ135">
+        <v>2.12</v>
+      </c>
+      <c r="BK135">
+        <v>2.11</v>
+      </c>
+      <c r="BL135">
+        <v>1.68</v>
+      </c>
+      <c r="BM135">
+        <v>2.75</v>
+      </c>
+      <c r="BN135">
+        <v>1.42</v>
+      </c>
+      <c r="BO135">
+        <v>3.8</v>
+      </c>
+      <c r="BP135">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,9 @@
     <t>['10', '14', '17', '62', '67', '90']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -739,9 +742,6 @@
     <t>['8', '35', '58']</t>
   </si>
   <si>
-    <t>['38']</t>
-  </si>
-  <si>
     <t>['7', '18']</t>
   </si>
   <si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['24', '67']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP135"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1402,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1686,7 +1689,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ3">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2017,7 +2020,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2429,7 +2432,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2635,7 +2638,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3047,7 +3050,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3125,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="AP10">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3253,7 +3256,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3331,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>0.88</v>
@@ -3459,7 +3462,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3540,7 +3543,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR12">
         <v>2.33</v>
@@ -3746,7 +3749,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ13">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3871,7 +3874,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3949,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4283,7 +4286,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4901,7 +4904,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5931,7 +5934,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6012,7 +6015,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR24">
         <v>0.98</v>
@@ -6343,7 +6346,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -6627,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>1.38</v>
@@ -6755,7 +6758,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -7039,7 +7042,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ29">
         <v>1.33</v>
@@ -7248,7 +7251,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ30">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7373,7 +7376,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7451,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7579,7 +7582,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7785,7 +7788,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7991,7 +7994,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8072,7 +8075,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR34">
         <v>1.89</v>
@@ -8197,7 +8200,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>2.55</v>
@@ -8687,7 +8690,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>0.78</v>
@@ -8815,7 +8818,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9102,7 +9105,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9227,7 +9230,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9433,7 +9436,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9639,7 +9642,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9717,7 +9720,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ42">
         <v>0.78</v>
@@ -9845,7 +9848,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10051,7 +10054,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10129,7 +10132,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>0.88</v>
@@ -10257,7 +10260,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10875,7 +10878,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11159,7 +11162,7 @@
         <v>0.33</v>
       </c>
       <c r="AP49">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>0.67</v>
@@ -11287,7 +11290,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11368,7 +11371,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11493,7 +11496,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11983,7 +11986,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>0.78</v>
@@ -12189,7 +12192,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>1.33</v>
@@ -12317,7 +12320,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12729,7 +12732,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12810,7 +12813,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR57">
         <v>1.94</v>
@@ -12935,7 +12938,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13016,7 +13019,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR58">
         <v>1.68</v>
@@ -13141,7 +13144,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13222,7 +13225,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ59">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13347,7 +13350,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13425,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ60">
         <v>0.78</v>
@@ -13553,7 +13556,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13759,7 +13762,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13965,7 +13968,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14171,7 +14174,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14252,7 +14255,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR64">
         <v>1.12</v>
@@ -14377,7 +14380,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q65">
         <v>2.75</v>
@@ -14583,7 +14586,7 @@
         <v>87</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>3.75</v>
@@ -14867,7 +14870,7 @@
         <v>2.5</v>
       </c>
       <c r="AP67">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>1.89</v>
@@ -15201,7 +15204,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15407,7 +15410,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15613,7 +15616,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15819,7 +15822,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15900,7 +15903,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ72">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -16231,7 +16234,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16309,7 +16312,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
         <v>0.78</v>
@@ -16643,7 +16646,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16724,7 +16727,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ76">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR76">
         <v>0</v>
@@ -16927,7 +16930,7 @@
         <v>0.2</v>
       </c>
       <c r="AP77">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ77">
         <v>0.67</v>
@@ -17055,7 +17058,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17133,7 +17136,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
         <v>0.88</v>
@@ -17261,7 +17264,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17548,7 +17551,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -17673,7 +17676,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17751,10 +17754,10 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR81">
         <v>1.32</v>
@@ -17879,7 +17882,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18085,7 +18088,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18291,7 +18294,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18497,7 +18500,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18575,7 +18578,7 @@
         <v>1.6</v>
       </c>
       <c r="AP85">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
         <v>1.67</v>
@@ -18909,7 +18912,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19321,7 +19324,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19527,7 +19530,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19733,7 +19736,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20017,7 +20020,7 @@
         <v>1.83</v>
       </c>
       <c r="AP92">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ92">
         <v>1.67</v>
@@ -20351,7 +20354,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20432,7 +20435,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ94">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR94">
         <v>1.84</v>
@@ -21050,7 +21053,7 @@
         <v>2</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR97">
         <v>1.33</v>
@@ -21175,7 +21178,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>13</v>
@@ -21253,7 +21256,7 @@
         <v>3</v>
       </c>
       <c r="AP98">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>3</v>
@@ -21381,7 +21384,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q99">
         <v>2.75</v>
@@ -21459,7 +21462,7 @@
         <v>0.6</v>
       </c>
       <c r="AP99">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
         <v>0.88</v>
@@ -21587,7 +21590,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21665,7 +21668,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ100">
         <v>1.89</v>
@@ -21793,7 +21796,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -21874,7 +21877,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ101">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR101">
         <v>1.12</v>
@@ -21999,7 +22002,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22080,7 +22083,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR102">
         <v>1.61</v>
@@ -22205,7 +22208,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22411,7 +22414,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="Q104">
         <v>2.2</v>
@@ -23110,7 +23113,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ107">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR107">
         <v>1.95</v>
@@ -23519,7 +23522,7 @@
         <v>2</v>
       </c>
       <c r="AP109">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ109">
         <v>1.89</v>
@@ -24140,7 +24143,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR112">
         <v>1.19</v>
@@ -24343,7 +24346,7 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
         <v>0.44</v>
@@ -24549,10 +24552,10 @@
         <v>2.33</v>
       </c>
       <c r="AP114">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ114">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR114">
         <v>1.72</v>
@@ -25167,10 +25170,10 @@
         <v>1.8</v>
       </c>
       <c r="AP117">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ117">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR117">
         <v>1.31</v>
@@ -25295,7 +25298,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25582,7 +25585,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR119">
         <v>1.78</v>
@@ -25707,7 +25710,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -25785,7 +25788,7 @@
         <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
         <v>0.88</v>
@@ -25991,7 +25994,7 @@
         <v>0.43</v>
       </c>
       <c r="AP121">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
         <v>0.44</v>
@@ -26200,7 +26203,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ122">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR122">
         <v>1.45</v>
@@ -26609,7 +26612,7 @@
         <v>1.43</v>
       </c>
       <c r="AP124">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
         <v>1.38</v>
@@ -27561,7 +27564,7 @@
         <v>119</v>
       </c>
       <c r="P129" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q129">
         <v>3.2</v>
@@ -28179,7 +28182,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q132">
         <v>2.2</v>
@@ -28672,7 +28675,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ134">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR134">
         <v>2.03</v>
@@ -28953,6 +28956,830 @@
         <v>3.8</v>
       </c>
       <c r="BP135">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7453816</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45634.375</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>78</v>
+      </c>
+      <c r="H136" t="s">
+        <v>73</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>182</v>
+      </c>
+      <c r="P136" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>3.19</v>
+      </c>
+      <c r="AA136">
+        <v>3.07</v>
+      </c>
+      <c r="AB136">
+        <v>2.04</v>
+      </c>
+      <c r="AC136">
+        <v>0</v>
+      </c>
+      <c r="AD136">
+        <v>0</v>
+      </c>
+      <c r="AE136">
+        <v>0</v>
+      </c>
+      <c r="AF136">
+        <v>0</v>
+      </c>
+      <c r="AG136">
+        <v>1.83</v>
+      </c>
+      <c r="AH136">
+        <v>1.77</v>
+      </c>
+      <c r="AI136">
+        <v>0</v>
+      </c>
+      <c r="AJ136">
+        <v>0</v>
+      </c>
+      <c r="AK136">
+        <v>0</v>
+      </c>
+      <c r="AL136">
+        <v>0</v>
+      </c>
+      <c r="AM136">
+        <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>0.57</v>
+      </c>
+      <c r="AO136">
+        <v>2</v>
+      </c>
+      <c r="AP136">
+        <v>0.5</v>
+      </c>
+      <c r="AQ136">
+        <v>2.11</v>
+      </c>
+      <c r="AR136">
+        <v>1.2</v>
+      </c>
+      <c r="AS136">
+        <v>0.7</v>
+      </c>
+      <c r="AT136">
+        <v>1.9</v>
+      </c>
+      <c r="AU136">
+        <v>-1</v>
+      </c>
+      <c r="AV136">
+        <v>-1</v>
+      </c>
+      <c r="AW136">
+        <v>-1</v>
+      </c>
+      <c r="AX136">
+        <v>-1</v>
+      </c>
+      <c r="AY136">
+        <v>-1</v>
+      </c>
+      <c r="AZ136">
+        <v>-1</v>
+      </c>
+      <c r="BA136">
+        <v>-1</v>
+      </c>
+      <c r="BB136">
+        <v>-1</v>
+      </c>
+      <c r="BC136">
+        <v>-1</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>0</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>0</v>
+      </c>
+      <c r="BJ136">
+        <v>0</v>
+      </c>
+      <c r="BK136">
+        <v>0</v>
+      </c>
+      <c r="BL136">
+        <v>0</v>
+      </c>
+      <c r="BM136">
+        <v>0</v>
+      </c>
+      <c r="BN136">
+        <v>0</v>
+      </c>
+      <c r="BO136">
+        <v>0</v>
+      </c>
+      <c r="BP136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7453819</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45634.45833333334</v>
+      </c>
+      <c r="F137">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s">
+        <v>85</v>
+      </c>
+      <c r="H137" t="s">
+        <v>74</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>87</v>
+      </c>
+      <c r="P137" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q137">
+        <v>2.4</v>
+      </c>
+      <c r="R137">
+        <v>2.2</v>
+      </c>
+      <c r="S137">
+        <v>4.33</v>
+      </c>
+      <c r="T137">
+        <v>1.4</v>
+      </c>
+      <c r="U137">
+        <v>2.75</v>
+      </c>
+      <c r="V137">
+        <v>2.75</v>
+      </c>
+      <c r="W137">
+        <v>1.4</v>
+      </c>
+      <c r="X137">
+        <v>7</v>
+      </c>
+      <c r="Y137">
+        <v>1.08</v>
+      </c>
+      <c r="Z137">
+        <v>1.76</v>
+      </c>
+      <c r="AA137">
+        <v>3.11</v>
+      </c>
+      <c r="AB137">
+        <v>4.16</v>
+      </c>
+      <c r="AC137">
+        <v>1.05</v>
+      </c>
+      <c r="AD137">
+        <v>8.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.28</v>
+      </c>
+      <c r="AF137">
+        <v>3.4</v>
+      </c>
+      <c r="AG137">
+        <v>1.8</v>
+      </c>
+      <c r="AH137">
+        <v>1.81</v>
+      </c>
+      <c r="AI137">
+        <v>1.8</v>
+      </c>
+      <c r="AJ137">
+        <v>1.91</v>
+      </c>
+      <c r="AK137">
+        <v>1.17</v>
+      </c>
+      <c r="AL137">
+        <v>1.25</v>
+      </c>
+      <c r="AM137">
+        <v>1.93</v>
+      </c>
+      <c r="AN137">
+        <v>1.13</v>
+      </c>
+      <c r="AO137">
+        <v>1</v>
+      </c>
+      <c r="AP137">
+        <v>1</v>
+      </c>
+      <c r="AQ137">
+        <v>1.22</v>
+      </c>
+      <c r="AR137">
+        <v>1.8</v>
+      </c>
+      <c r="AS137">
+        <v>1.49</v>
+      </c>
+      <c r="AT137">
+        <v>3.29</v>
+      </c>
+      <c r="AU137">
+        <v>5</v>
+      </c>
+      <c r="AV137">
+        <v>2</v>
+      </c>
+      <c r="AW137">
+        <v>5</v>
+      </c>
+      <c r="AX137">
+        <v>3</v>
+      </c>
+      <c r="AY137">
+        <v>13</v>
+      </c>
+      <c r="AZ137">
+        <v>6</v>
+      </c>
+      <c r="BA137">
+        <v>4</v>
+      </c>
+      <c r="BB137">
+        <v>3</v>
+      </c>
+      <c r="BC137">
+        <v>7</v>
+      </c>
+      <c r="BD137">
+        <v>1.37</v>
+      </c>
+      <c r="BE137">
+        <v>9</v>
+      </c>
+      <c r="BF137">
+        <v>3.83</v>
+      </c>
+      <c r="BG137">
+        <v>1.36</v>
+      </c>
+      <c r="BH137">
+        <v>2.98</v>
+      </c>
+      <c r="BI137">
+        <v>1.62</v>
+      </c>
+      <c r="BJ137">
+        <v>2.22</v>
+      </c>
+      <c r="BK137">
+        <v>2.02</v>
+      </c>
+      <c r="BL137">
+        <v>1.74</v>
+      </c>
+      <c r="BM137">
+        <v>2.6</v>
+      </c>
+      <c r="BN137">
+        <v>1.46</v>
+      </c>
+      <c r="BO137">
+        <v>3.58</v>
+      </c>
+      <c r="BP137">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7453820</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45634.54166666666</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>81</v>
+      </c>
+      <c r="H138" t="s">
+        <v>77</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138" t="s">
+        <v>87</v>
+      </c>
+      <c r="P138" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q138">
+        <v>4.33</v>
+      </c>
+      <c r="R138">
+        <v>2.1</v>
+      </c>
+      <c r="S138">
+        <v>2.4</v>
+      </c>
+      <c r="T138">
+        <v>1.4</v>
+      </c>
+      <c r="U138">
+        <v>2.75</v>
+      </c>
+      <c r="V138">
+        <v>2.75</v>
+      </c>
+      <c r="W138">
+        <v>1.4</v>
+      </c>
+      <c r="X138">
+        <v>7</v>
+      </c>
+      <c r="Y138">
+        <v>1.08</v>
+      </c>
+      <c r="Z138">
+        <v>3.92</v>
+      </c>
+      <c r="AA138">
+        <v>3.44</v>
+      </c>
+      <c r="AB138">
+        <v>1.84</v>
+      </c>
+      <c r="AC138">
+        <v>1.05</v>
+      </c>
+      <c r="AD138">
+        <v>8.5</v>
+      </c>
+      <c r="AE138">
+        <v>1.27</v>
+      </c>
+      <c r="AF138">
+        <v>3.55</v>
+      </c>
+      <c r="AG138">
+        <v>1.85</v>
+      </c>
+      <c r="AH138">
+        <v>1.85</v>
+      </c>
+      <c r="AI138">
+        <v>1.8</v>
+      </c>
+      <c r="AJ138">
+        <v>1.91</v>
+      </c>
+      <c r="AK138">
+        <v>1.8</v>
+      </c>
+      <c r="AL138">
+        <v>1.29</v>
+      </c>
+      <c r="AM138">
+        <v>1.2</v>
+      </c>
+      <c r="AN138">
+        <v>1.57</v>
+      </c>
+      <c r="AO138">
+        <v>1.43</v>
+      </c>
+      <c r="AP138">
+        <v>1.5</v>
+      </c>
+      <c r="AQ138">
+        <v>1.38</v>
+      </c>
+      <c r="AR138">
+        <v>1.06</v>
+      </c>
+      <c r="AS138">
+        <v>1.5</v>
+      </c>
+      <c r="AT138">
+        <v>2.56</v>
+      </c>
+      <c r="AU138">
+        <v>3</v>
+      </c>
+      <c r="AV138">
+        <v>4</v>
+      </c>
+      <c r="AW138">
+        <v>4</v>
+      </c>
+      <c r="AX138">
+        <v>6</v>
+      </c>
+      <c r="AY138">
+        <v>7</v>
+      </c>
+      <c r="AZ138">
+        <v>16</v>
+      </c>
+      <c r="BA138">
+        <v>5</v>
+      </c>
+      <c r="BB138">
+        <v>5</v>
+      </c>
+      <c r="BC138">
+        <v>10</v>
+      </c>
+      <c r="BD138">
+        <v>2.4</v>
+      </c>
+      <c r="BE138">
+        <v>7.5</v>
+      </c>
+      <c r="BF138">
+        <v>1.82</v>
+      </c>
+      <c r="BG138">
+        <v>1.48</v>
+      </c>
+      <c r="BH138">
+        <v>2.53</v>
+      </c>
+      <c r="BI138">
+        <v>1.8</v>
+      </c>
+      <c r="BJ138">
+        <v>2</v>
+      </c>
+      <c r="BK138">
+        <v>2.34</v>
+      </c>
+      <c r="BL138">
+        <v>1.56</v>
+      </c>
+      <c r="BM138">
+        <v>3.1</v>
+      </c>
+      <c r="BN138">
+        <v>1.34</v>
+      </c>
+      <c r="BO138">
+        <v>0</v>
+      </c>
+      <c r="BP138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7453823</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45634.625</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139" t="s">
+        <v>79</v>
+      </c>
+      <c r="H139" t="s">
+        <v>83</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
+        <v>87</v>
+      </c>
+      <c r="P139" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q139">
+        <v>5.5</v>
+      </c>
+      <c r="R139">
+        <v>2.25</v>
+      </c>
+      <c r="S139">
+        <v>2.05</v>
+      </c>
+      <c r="T139">
+        <v>1.36</v>
+      </c>
+      <c r="U139">
+        <v>3</v>
+      </c>
+      <c r="V139">
+        <v>2.63</v>
+      </c>
+      <c r="W139">
+        <v>1.44</v>
+      </c>
+      <c r="X139">
+        <v>6.5</v>
+      </c>
+      <c r="Y139">
+        <v>1.1</v>
+      </c>
+      <c r="Z139">
+        <v>3.78</v>
+      </c>
+      <c r="AA139">
+        <v>3.58</v>
+      </c>
+      <c r="AB139">
+        <v>1.78</v>
+      </c>
+      <c r="AC139">
+        <v>1.02</v>
+      </c>
+      <c r="AD139">
+        <v>10</v>
+      </c>
+      <c r="AE139">
+        <v>1.2</v>
+      </c>
+      <c r="AF139">
+        <v>4</v>
+      </c>
+      <c r="AG139">
+        <v>1.8</v>
+      </c>
+      <c r="AH139">
+        <v>1.95</v>
+      </c>
+      <c r="AI139">
+        <v>1.91</v>
+      </c>
+      <c r="AJ139">
+        <v>1.8</v>
+      </c>
+      <c r="AK139">
+        <v>2.44</v>
+      </c>
+      <c r="AL139">
+        <v>1.19</v>
+      </c>
+      <c r="AM139">
+        <v>1.09</v>
+      </c>
+      <c r="AN139">
+        <v>1.13</v>
+      </c>
+      <c r="AO139">
+        <v>2.29</v>
+      </c>
+      <c r="AP139">
+        <v>1</v>
+      </c>
+      <c r="AQ139">
+        <v>2.38</v>
+      </c>
+      <c r="AR139">
+        <v>1.32</v>
+      </c>
+      <c r="AS139">
+        <v>1.48</v>
+      </c>
+      <c r="AT139">
+        <v>2.8</v>
+      </c>
+      <c r="AU139">
+        <v>6</v>
+      </c>
+      <c r="AV139">
+        <v>5</v>
+      </c>
+      <c r="AW139">
+        <v>6</v>
+      </c>
+      <c r="AX139">
+        <v>2</v>
+      </c>
+      <c r="AY139">
+        <v>16</v>
+      </c>
+      <c r="AZ139">
+        <v>9</v>
+      </c>
+      <c r="BA139">
+        <v>4</v>
+      </c>
+      <c r="BB139">
+        <v>2</v>
+      </c>
+      <c r="BC139">
+        <v>6</v>
+      </c>
+      <c r="BD139">
+        <v>2.54</v>
+      </c>
+      <c r="BE139">
+        <v>8</v>
+      </c>
+      <c r="BF139">
+        <v>1.69</v>
+      </c>
+      <c r="BG139">
+        <v>1.4</v>
+      </c>
+      <c r="BH139">
+        <v>2.82</v>
+      </c>
+      <c r="BI139">
+        <v>1.68</v>
+      </c>
+      <c r="BJ139">
+        <v>2.11</v>
+      </c>
+      <c r="BK139">
+        <v>2.11</v>
+      </c>
+      <c r="BL139">
+        <v>1.68</v>
+      </c>
+      <c r="BM139">
+        <v>2.75</v>
+      </c>
+      <c r="BN139">
+        <v>1.42</v>
+      </c>
+      <c r="BO139">
+        <v>3.82</v>
+      </c>
+      <c r="BP139">
         <v>1.24</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -268,10 +268,10 @@
     <t>Partizan</t>
   </si>
   <si>
-    <t>IMT Novi Beograd</t>
+    <t>Vojvodina</t>
   </si>
   <si>
-    <t>Vojvodina</t>
+    <t>IMT Novi Beograd</t>
   </si>
   <si>
     <t>['29', '53']</t>
@@ -331,10 +331,10 @@
     <t>['27', '45', '67']</t>
   </si>
   <si>
-    <t>['84']</t>
+    <t>['2']</t>
   </si>
   <si>
-    <t>['2']</t>
+    <t>['84']</t>
   </si>
   <si>
     <t>['9', '60', '80', '86']</t>
@@ -346,10 +346,10 @@
     <t>['69']</t>
   </si>
   <si>
-    <t>['3']</t>
+    <t>['35', '85']</t>
   </si>
   <si>
-    <t>['35', '85']</t>
+    <t>['3']</t>
   </si>
   <si>
     <t>['12', '71']</t>
@@ -361,10 +361,10 @@
     <t>['25', '35', '90+1']</t>
   </si>
   <si>
-    <t>['10', '85']</t>
+    <t>['10', '83']</t>
   </si>
   <si>
-    <t>['10', '83']</t>
+    <t>['10', '85']</t>
   </si>
   <si>
     <t>['17', '58']</t>
@@ -565,6 +565,12 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['43', '90+3', '90+4']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -622,10 +628,10 @@
     <t>['4', '23']</t>
   </si>
   <si>
-    <t>['54']</t>
+    <t>['34']</t>
   </si>
   <si>
-    <t>['34']</t>
+    <t>['54']</t>
   </si>
   <si>
     <t>['8', '27', '38']</t>
@@ -676,16 +682,13 @@
     <t>['7', '24']</t>
   </si>
   <si>
+    <t>['52', '65', '69']</t>
+  </si>
+  <si>
     <t>['57', '82']</t>
   </si>
   <si>
-    <t>['52', '65', '69']</t>
-  </si>
-  <si>
     <t>['24', '45+3', '55', '65']</t>
-  </si>
-  <si>
-    <t>['60']</t>
   </si>
   <si>
     <t>['16', '73', '76']</t>
@@ -782,6 +785,12 @@
   </si>
   <si>
     <t>['24', '67']</t>
+  </si>
+  <si>
+    <t>['27', '39']</t>
+  </si>
+  <si>
+    <t>['22', '73']</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,7 +1411,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2020,7 +2029,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2432,7 +2441,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2614,7 +2623,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2638,7 +2647,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2820,7 +2829,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3050,7 +3059,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3256,7 +3265,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3337,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3462,7 +3471,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3746,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>1.38</v>
@@ -3874,7 +3883,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4158,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>0.44</v>
@@ -4262,7 +4271,7 @@
         <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4286,7 +4295,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4904,7 +4913,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5292,7 +5301,7 @@
         <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -5934,7 +5943,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6012,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.22</v>
@@ -6218,10 +6227,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6304,7 +6313,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7453716</v>
+        <v>7453712</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6319,16 +6328,16 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -6337,172 +6346,172 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O26" t="s">
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z26">
-        <v>1.62</v>
+        <v>2.55</v>
       </c>
       <c r="AA26">
+        <v>3.3</v>
+      </c>
+      <c r="AB26">
+        <v>2.63</v>
+      </c>
+      <c r="AC26">
+        <v>1.02</v>
+      </c>
+      <c r="AD26">
+        <v>10.5</v>
+      </c>
+      <c r="AE26">
+        <v>1.25</v>
+      </c>
+      <c r="AF26">
+        <v>3.6</v>
+      </c>
+      <c r="AG26">
+        <v>1.73</v>
+      </c>
+      <c r="AH26">
+        <v>2</v>
+      </c>
+      <c r="AI26">
+        <v>1.67</v>
+      </c>
+      <c r="AJ26">
+        <v>2.1</v>
+      </c>
+      <c r="AK26">
+        <v>1.5</v>
+      </c>
+      <c r="AL26">
+        <v>1.33</v>
+      </c>
+      <c r="AM26">
+        <v>1.5</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>1.5</v>
+      </c>
+      <c r="AQ26">
+        <v>1.56</v>
+      </c>
+      <c r="AR26">
+        <v>0.95</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0.95</v>
+      </c>
+      <c r="AU26">
+        <v>5</v>
+      </c>
+      <c r="AV26">
+        <v>4</v>
+      </c>
+      <c r="AW26">
+        <v>4</v>
+      </c>
+      <c r="AX26">
+        <v>9</v>
+      </c>
+      <c r="AY26">
+        <v>11</v>
+      </c>
+      <c r="AZ26">
+        <v>21</v>
+      </c>
+      <c r="BA26">
+        <v>3</v>
+      </c>
+      <c r="BB26">
+        <v>3</v>
+      </c>
+      <c r="BC26">
+        <v>6</v>
+      </c>
+      <c r="BD26">
+        <v>2.05</v>
+      </c>
+      <c r="BE26">
+        <v>7.5</v>
+      </c>
+      <c r="BF26">
+        <v>2</v>
+      </c>
+      <c r="BG26">
+        <v>1.41</v>
+      </c>
+      <c r="BH26">
+        <v>2.7</v>
+      </c>
+      <c r="BI26">
+        <v>1.73</v>
+      </c>
+      <c r="BJ26">
+        <v>2</v>
+      </c>
+      <c r="BK26">
+        <v>2.15</v>
+      </c>
+      <c r="BL26">
+        <v>1.63</v>
+      </c>
+      <c r="BM26">
+        <v>2.75</v>
+      </c>
+      <c r="BN26">
+        <v>1.39</v>
+      </c>
+      <c r="BO26">
         <v>3.8</v>
       </c>
-      <c r="AB26">
-        <v>5</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>1.75</v>
-      </c>
-      <c r="AH26">
-        <v>1.95</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>1.5</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>1.44</v>
-      </c>
-      <c r="AQ26">
-        <v>0.44</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
-        <v>1.64</v>
-      </c>
-      <c r="AT26">
-        <v>1.64</v>
-      </c>
-      <c r="AU26">
-        <v>7</v>
-      </c>
-      <c r="AV26">
-        <v>2</v>
-      </c>
-      <c r="AW26">
-        <v>6</v>
-      </c>
-      <c r="AX26">
-        <v>1</v>
-      </c>
-      <c r="AY26">
-        <v>13</v>
-      </c>
-      <c r="AZ26">
-        <v>3</v>
-      </c>
-      <c r="BA26">
-        <v>4</v>
-      </c>
-      <c r="BB26">
-        <v>3</v>
-      </c>
-      <c r="BC26">
-        <v>7</v>
-      </c>
-      <c r="BD26">
-        <v>0</v>
-      </c>
-      <c r="BE26">
-        <v>0</v>
-      </c>
-      <c r="BF26">
-        <v>0</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>0</v>
-      </c>
-      <c r="BI26">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
-      </c>
-      <c r="BK26">
-        <v>0</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BM26">
-        <v>0</v>
-      </c>
-      <c r="BN26">
-        <v>0</v>
-      </c>
-      <c r="BO26">
-        <v>0</v>
-      </c>
       <c r="BP26">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6510,7 +6519,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7453712</v>
+        <v>7453716</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6525,16 +6534,16 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -6543,172 +6552,172 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O27" t="s">
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="Q27">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>2.55</v>
+        <v>1.62</v>
       </c>
       <c r="AA27">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AB27">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="AC27">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AH27">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AI27">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AJ27">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
         <v>1.5</v>
       </c>
-      <c r="AL27">
-        <v>1.33</v>
-      </c>
-      <c r="AM27">
-        <v>1.5</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27">
-        <v>1.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR27">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AT27">
-        <v>0.95</v>
+        <v>1.64</v>
       </c>
       <c r="AU27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV27">
+        <v>2</v>
+      </c>
+      <c r="AW27">
+        <v>6</v>
+      </c>
+      <c r="AX27">
+        <v>1</v>
+      </c>
+      <c r="AY27">
+        <v>13</v>
+      </c>
+      <c r="AZ27">
+        <v>3</v>
+      </c>
+      <c r="BA27">
         <v>4</v>
       </c>
-      <c r="AW27">
-        <v>4</v>
-      </c>
-      <c r="AX27">
-        <v>9</v>
-      </c>
-      <c r="AY27">
-        <v>11</v>
-      </c>
-      <c r="AZ27">
-        <v>21</v>
-      </c>
-      <c r="BA27">
-        <v>3</v>
-      </c>
       <c r="BB27">
         <v>3</v>
       </c>
       <c r="BC27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD27">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="BE27">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="BF27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG27">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="BH27">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BI27">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="BJ27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK27">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BL27">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="BM27">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="BN27">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="BO27">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BP27">
-        <v>1.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6758,7 +6767,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -6839,7 +6848,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ28">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR28">
         <v>2.33</v>
@@ -7128,7 +7137,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7453710</v>
+        <v>7453713</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -7146,187 +7155,187 @@
         <v>84</v>
       </c>
       <c r="H30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="Q30">
+        <v>3.2</v>
+      </c>
+      <c r="R30">
+        <v>2.2</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="T30">
+        <v>1.36</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>2.63</v>
+      </c>
+      <c r="W30">
+        <v>1.44</v>
+      </c>
+      <c r="X30">
         <v>6.5</v>
       </c>
-      <c r="R30">
+      <c r="Y30">
+        <v>1.1</v>
+      </c>
+      <c r="Z30">
+        <v>2.75</v>
+      </c>
+      <c r="AA30">
+        <v>3.25</v>
+      </c>
+      <c r="AB30">
         <v>2.4</v>
       </c>
-      <c r="S30">
-        <v>1.83</v>
-      </c>
-      <c r="T30">
-        <v>1.3</v>
-      </c>
-      <c r="U30">
-        <v>3.4</v>
-      </c>
-      <c r="V30">
-        <v>2.38</v>
-      </c>
-      <c r="W30">
-        <v>1.53</v>
-      </c>
-      <c r="X30">
-        <v>5.5</v>
-      </c>
-      <c r="Y30">
-        <v>1.13</v>
-      </c>
-      <c r="Z30">
-        <v>4.6</v>
-      </c>
-      <c r="AA30">
-        <v>3.8</v>
-      </c>
-      <c r="AB30">
-        <v>1.57</v>
-      </c>
       <c r="AC30">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD30">
         <v>10</v>
       </c>
       <c r="AE30">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF30">
-        <v>4.2</v>
+        <v>3.64</v>
       </c>
       <c r="AG30">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AH30">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AI30">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AJ30">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AK30">
-        <v>3.3</v>
+        <v>1.53</v>
       </c>
       <c r="AL30">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AM30">
-        <v>1.02</v>
+        <v>1.4</v>
       </c>
       <c r="AN30">
         <v>0</v>
       </c>
       <c r="AO30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>2.38</v>
+        <v>1.38</v>
       </c>
       <c r="AR30">
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="AT30">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="AU30">
+        <v>3</v>
+      </c>
+      <c r="AV30">
+        <v>6</v>
+      </c>
+      <c r="AW30">
+        <v>8</v>
+      </c>
+      <c r="AX30">
+        <v>7</v>
+      </c>
+      <c r="AY30">
+        <v>15</v>
+      </c>
+      <c r="AZ30">
+        <v>14</v>
+      </c>
+      <c r="BA30">
+        <v>4</v>
+      </c>
+      <c r="BB30">
         <v>5</v>
       </c>
-      <c r="AV30">
-        <v>3</v>
-      </c>
-      <c r="AW30">
-        <v>4</v>
-      </c>
-      <c r="AX30">
-        <v>5</v>
-      </c>
-      <c r="AY30">
-        <v>10</v>
-      </c>
-      <c r="AZ30">
-        <v>11</v>
-      </c>
-      <c r="BA30">
-        <v>1</v>
-      </c>
-      <c r="BB30">
-        <v>3</v>
-      </c>
       <c r="BC30">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD30">
-        <v>4.41</v>
+        <v>1.82</v>
       </c>
       <c r="BE30">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF30">
-        <v>1.31</v>
+        <v>2.34</v>
       </c>
       <c r="BG30">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="BH30">
-        <v>3.04</v>
+        <v>2.79</v>
       </c>
       <c r="BI30">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="BJ30">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="BK30">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="BL30">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BM30">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="BN30">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="BO30">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BP30">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7334,7 +7343,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7453713</v>
+        <v>7453710</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7352,187 +7361,187 @@
         <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="Q31">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="R31">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S31">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="T31">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V31">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W31">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X31">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y31">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z31">
-        <v>2.75</v>
+        <v>4.6</v>
       </c>
       <c r="AA31">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="AB31">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="AC31">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD31">
         <v>10</v>
       </c>
       <c r="AE31">
+        <v>1.2</v>
+      </c>
+      <c r="AF31">
+        <v>4.2</v>
+      </c>
+      <c r="AG31">
+        <v>1.81</v>
+      </c>
+      <c r="AH31">
+        <v>2</v>
+      </c>
+      <c r="AI31">
+        <v>1.91</v>
+      </c>
+      <c r="AJ31">
+        <v>1.8</v>
+      </c>
+      <c r="AK31">
+        <v>3.3</v>
+      </c>
+      <c r="AL31">
+        <v>1.11</v>
+      </c>
+      <c r="AM31">
+        <v>1.02</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <v>1.38</v>
+      </c>
+      <c r="AQ31">
+        <v>2.38</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>1.54</v>
+      </c>
+      <c r="AT31">
+        <v>1.54</v>
+      </c>
+      <c r="AU31">
+        <v>5</v>
+      </c>
+      <c r="AV31">
+        <v>3</v>
+      </c>
+      <c r="AW31">
+        <v>4</v>
+      </c>
+      <c r="AX31">
+        <v>5</v>
+      </c>
+      <c r="AY31">
+        <v>10</v>
+      </c>
+      <c r="AZ31">
+        <v>11</v>
+      </c>
+      <c r="BA31">
+        <v>1</v>
+      </c>
+      <c r="BB31">
+        <v>3</v>
+      </c>
+      <c r="BC31">
+        <v>4</v>
+      </c>
+      <c r="BD31">
+        <v>4.41</v>
+      </c>
+      <c r="BE31">
+        <v>9.5</v>
+      </c>
+      <c r="BF31">
+        <v>1.31</v>
+      </c>
+      <c r="BG31">
+        <v>1.31</v>
+      </c>
+      <c r="BH31">
+        <v>3.04</v>
+      </c>
+      <c r="BI31">
+        <v>1.57</v>
+      </c>
+      <c r="BJ31">
+        <v>2.19</v>
+      </c>
+      <c r="BK31">
+        <v>1.98</v>
+      </c>
+      <c r="BL31">
+        <v>1.7</v>
+      </c>
+      <c r="BM31">
+        <v>2.6</v>
+      </c>
+      <c r="BN31">
+        <v>1.41</v>
+      </c>
+      <c r="BO31">
+        <v>3.65</v>
+      </c>
+      <c r="BP31">
         <v>1.22</v>
-      </c>
-      <c r="AF31">
-        <v>3.64</v>
-      </c>
-      <c r="AG31">
-        <v>1.8</v>
-      </c>
-      <c r="AH31">
-        <v>1.98</v>
-      </c>
-      <c r="AI31">
-        <v>1.67</v>
-      </c>
-      <c r="AJ31">
-        <v>2.1</v>
-      </c>
-      <c r="AK31">
-        <v>1.53</v>
-      </c>
-      <c r="AL31">
-        <v>1.26</v>
-      </c>
-      <c r="AM31">
-        <v>1.4</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>1</v>
-      </c>
-      <c r="AQ31">
-        <v>1.38</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AS31">
-        <v>1.21</v>
-      </c>
-      <c r="AT31">
-        <v>1.21</v>
-      </c>
-      <c r="AU31">
-        <v>3</v>
-      </c>
-      <c r="AV31">
-        <v>6</v>
-      </c>
-      <c r="AW31">
-        <v>8</v>
-      </c>
-      <c r="AX31">
-        <v>7</v>
-      </c>
-      <c r="AY31">
-        <v>15</v>
-      </c>
-      <c r="AZ31">
-        <v>14</v>
-      </c>
-      <c r="BA31">
-        <v>4</v>
-      </c>
-      <c r="BB31">
-        <v>5</v>
-      </c>
-      <c r="BC31">
-        <v>9</v>
-      </c>
-      <c r="BD31">
-        <v>1.82</v>
-      </c>
-      <c r="BE31">
-        <v>7.5</v>
-      </c>
-      <c r="BF31">
-        <v>2.34</v>
-      </c>
-      <c r="BG31">
-        <v>1.36</v>
-      </c>
-      <c r="BH31">
-        <v>2.79</v>
-      </c>
-      <c r="BI31">
-        <v>1.65</v>
-      </c>
-      <c r="BJ31">
-        <v>2.05</v>
-      </c>
-      <c r="BK31">
-        <v>2.11</v>
-      </c>
-      <c r="BL31">
-        <v>1.62</v>
-      </c>
-      <c r="BM31">
-        <v>2.84</v>
-      </c>
-      <c r="BN31">
-        <v>1.35</v>
-      </c>
-      <c r="BO31">
-        <v>3.7</v>
-      </c>
-      <c r="BP31">
-        <v>1.24</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7582,7 +7591,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7788,7 +7797,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -7994,7 +8003,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8158,7 +8167,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7453717</v>
+        <v>7453722</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -8173,10 +8182,10 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -8188,10 +8197,10 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -8200,61 +8209,61 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="Q35">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="T35">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U35">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="V35">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="W35">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X35">
-        <v>6.85</v>
+        <v>7.3</v>
       </c>
       <c r="Y35">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z35">
+        <v>2.5</v>
+      </c>
+      <c r="AA35">
+        <v>3</v>
+      </c>
+      <c r="AB35">
+        <v>2.6</v>
+      </c>
+      <c r="AC35">
+        <v>1.09</v>
+      </c>
+      <c r="AD35">
+        <v>6.5</v>
+      </c>
+      <c r="AE35">
+        <v>1.42</v>
+      </c>
+      <c r="AF35">
+        <v>2.75</v>
+      </c>
+      <c r="AG35">
         <v>1.95</v>
       </c>
-      <c r="AA35">
-        <v>3.2</v>
-      </c>
-      <c r="AB35">
-        <v>3.4</v>
-      </c>
-      <c r="AC35">
-        <v>1.07</v>
-      </c>
-      <c r="AD35">
-        <v>7.5</v>
-      </c>
-      <c r="AE35">
-        <v>1.36</v>
-      </c>
-      <c r="AF35">
-        <v>2.95</v>
-      </c>
-      <c r="AG35">
-        <v>2</v>
-      </c>
       <c r="AH35">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AI35">
         <v>1.83</v>
@@ -8263,100 +8272,100 @@
         <v>1.8</v>
       </c>
       <c r="AK35">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AL35">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AM35">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
+        <v>1.11</v>
+      </c>
+      <c r="AQ35">
+        <v>0.67</v>
+      </c>
+      <c r="AR35">
         <v>1.22</v>
       </c>
-      <c r="AQ35">
-        <v>0.11</v>
-      </c>
-      <c r="AR35">
-        <v>1.01</v>
-      </c>
       <c r="AS35">
-        <v>0.52</v>
+        <v>1.35</v>
       </c>
       <c r="AT35">
-        <v>1.53</v>
+        <v>2.57</v>
       </c>
       <c r="AU35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AZ35">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA35">
         <v>2</v>
       </c>
       <c r="BB35">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC35">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD35">
-        <v>1.59</v>
+        <v>2.29</v>
       </c>
       <c r="BE35">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF35">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="BG35">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="BH35">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="BI35">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BJ35">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BK35">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="BL35">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="BM35">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="BN35">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="BO35">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="BP35">
-        <v>1.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8364,7 +8373,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7453722</v>
+        <v>7453717</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8379,10 +8388,10 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8394,10 +8403,10 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -8406,61 +8415,61 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>4.33</v>
+      </c>
+      <c r="T36">
+        <v>1.45</v>
+      </c>
+      <c r="U36">
+        <v>2.55</v>
+      </c>
+      <c r="V36">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <v>1.33</v>
+      </c>
+      <c r="X36">
+        <v>6.85</v>
+      </c>
+      <c r="Y36">
+        <v>1.07</v>
+      </c>
+      <c r="Z36">
         <v>1.95</v>
       </c>
-      <c r="S36">
-        <v>3.65</v>
-      </c>
-      <c r="T36">
-        <v>1.48</v>
-      </c>
-      <c r="U36">
-        <v>2.45</v>
-      </c>
-      <c r="V36">
+      <c r="AA36">
         <v>3.2</v>
       </c>
-      <c r="W36">
-        <v>1.3</v>
-      </c>
-      <c r="X36">
-        <v>7.3</v>
-      </c>
-      <c r="Y36">
-        <v>1.06</v>
-      </c>
-      <c r="Z36">
-        <v>2.5</v>
-      </c>
-      <c r="AA36">
-        <v>3</v>
-      </c>
       <c r="AB36">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC36">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD36">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE36">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AF36">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="AG36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AH36">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AI36">
         <v>1.83</v>
@@ -8469,100 +8478,100 @@
         <v>1.8</v>
       </c>
       <c r="AK36">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AL36">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM36">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="AN36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AQ36">
-        <v>0.67</v>
+        <v>0.11</v>
       </c>
       <c r="AR36">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="AS36">
-        <v>1.35</v>
+        <v>0.52</v>
       </c>
       <c r="AT36">
-        <v>2.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV36">
+        <v>4</v>
+      </c>
+      <c r="AW36">
+        <v>3</v>
+      </c>
+      <c r="AX36">
         <v>6</v>
       </c>
-      <c r="AW36">
-        <v>2</v>
-      </c>
-      <c r="AX36">
-        <v>7</v>
-      </c>
       <c r="AY36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ36">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BA36">
         <v>2</v>
       </c>
       <c r="BB36">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC36">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BD36">
-        <v>2.29</v>
+        <v>1.59</v>
       </c>
       <c r="BE36">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF36">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="BG36">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BH36">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="BI36">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BJ36">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BK36">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="BL36">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BM36">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BN36">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BO36">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BP36">
-        <v>0</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8588,7 +8597,7 @@
         <v>79</v>
       </c>
       <c r="H37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -8794,7 +8803,7 @@
         <v>70</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -8818,7 +8827,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9188,7 +9197,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7453731</v>
+        <v>7454211</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -9203,19 +9212,19 @@
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40">
         <v>2</v>
@@ -9230,163 +9239,163 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q40">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="R40">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S40">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T40">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U40">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V40">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W40">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X40">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y40">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z40">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="AA40">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="AB40">
-        <v>2.59</v>
+        <v>2.75</v>
       </c>
       <c r="AC40">
         <v>1.06</v>
       </c>
       <c r="AD40">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE40">
         <v>1.33</v>
       </c>
       <c r="AF40">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AG40">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="AH40">
+        <v>1.61</v>
+      </c>
+      <c r="AI40">
         <v>1.8</v>
       </c>
-      <c r="AI40">
-        <v>1.83</v>
-      </c>
       <c r="AJ40">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AK40">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AL40">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM40">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AN40">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP40">
+        <v>2</v>
+      </c>
+      <c r="AQ40">
+        <v>1.33</v>
+      </c>
+      <c r="AR40">
+        <v>1.91</v>
+      </c>
+      <c r="AS40">
+        <v>1.29</v>
+      </c>
+      <c r="AT40">
+        <v>3.2</v>
+      </c>
+      <c r="AU40">
+        <v>-1</v>
+      </c>
+      <c r="AV40">
+        <v>-1</v>
+      </c>
+      <c r="AW40">
+        <v>-1</v>
+      </c>
+      <c r="AX40">
+        <v>-1</v>
+      </c>
+      <c r="AY40">
+        <v>-1</v>
+      </c>
+      <c r="AZ40">
+        <v>-1</v>
+      </c>
+      <c r="BA40">
+        <v>5</v>
+      </c>
+      <c r="BB40">
+        <v>9</v>
+      </c>
+      <c r="BC40">
+        <v>14</v>
+      </c>
+      <c r="BD40">
+        <v>1.69</v>
+      </c>
+      <c r="BE40">
+        <v>8</v>
+      </c>
+      <c r="BF40">
+        <v>2.54</v>
+      </c>
+      <c r="BG40">
+        <v>1.32</v>
+      </c>
+      <c r="BH40">
+        <v>2.98</v>
+      </c>
+      <c r="BI40">
+        <v>1.59</v>
+      </c>
+      <c r="BJ40">
+        <v>2.16</v>
+      </c>
+      <c r="BK40">
+        <v>2</v>
+      </c>
+      <c r="BL40">
+        <v>1.69</v>
+      </c>
+      <c r="BM40">
+        <v>2.67</v>
+      </c>
+      <c r="BN40">
+        <v>1.39</v>
+      </c>
+      <c r="BO40">
+        <v>3.65</v>
+      </c>
+      <c r="BP40">
         <v>1.22</v>
-      </c>
-      <c r="AQ40">
-        <v>0.88</v>
-      </c>
-      <c r="AR40">
-        <v>1.05</v>
-      </c>
-      <c r="AS40">
-        <v>0.93</v>
-      </c>
-      <c r="AT40">
-        <v>1.98</v>
-      </c>
-      <c r="AU40">
-        <v>6</v>
-      </c>
-      <c r="AV40">
-        <v>4</v>
-      </c>
-      <c r="AW40">
-        <v>8</v>
-      </c>
-      <c r="AX40">
-        <v>7</v>
-      </c>
-      <c r="AY40">
-        <v>15</v>
-      </c>
-      <c r="AZ40">
-        <v>16</v>
-      </c>
-      <c r="BA40">
-        <v>4</v>
-      </c>
-      <c r="BB40">
-        <v>6</v>
-      </c>
-      <c r="BC40">
-        <v>10</v>
-      </c>
-      <c r="BD40">
-        <v>1.82</v>
-      </c>
-      <c r="BE40">
-        <v>7.5</v>
-      </c>
-      <c r="BF40">
-        <v>2.4</v>
-      </c>
-      <c r="BG40">
-        <v>1.42</v>
-      </c>
-      <c r="BH40">
-        <v>2.57</v>
-      </c>
-      <c r="BI40">
-        <v>1.82</v>
-      </c>
-      <c r="BJ40">
-        <v>1.98</v>
-      </c>
-      <c r="BK40">
-        <v>2.3</v>
-      </c>
-      <c r="BL40">
-        <v>1.52</v>
-      </c>
-      <c r="BM40">
-        <v>3.18</v>
-      </c>
-      <c r="BN40">
-        <v>1.28</v>
-      </c>
-      <c r="BO40">
-        <v>4.2</v>
-      </c>
-      <c r="BP40">
-        <v>1.19</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9394,7 +9403,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7454211</v>
+        <v>7453731</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9409,19 +9418,19 @@
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <v>2</v>
@@ -9436,163 +9445,163 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q41">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="R41">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S41">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T41">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U41">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W41">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X41">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y41">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z41">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="AA41">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="AB41">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AC41">
         <v>1.06</v>
       </c>
       <c r="AD41">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE41">
         <v>1.33</v>
       </c>
       <c r="AF41">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AG41">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="AH41">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="AI41">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AJ41">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AK41">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AL41">
+        <v>1.3</v>
+      </c>
+      <c r="AM41">
+        <v>1.48</v>
+      </c>
+      <c r="AN41">
+        <v>0.33</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>1.22</v>
+      </c>
+      <c r="AQ41">
+        <v>0.89</v>
+      </c>
+      <c r="AR41">
+        <v>1.05</v>
+      </c>
+      <c r="AS41">
+        <v>0.93</v>
+      </c>
+      <c r="AT41">
+        <v>1.98</v>
+      </c>
+      <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
+        <v>4</v>
+      </c>
+      <c r="AW41">
+        <v>8</v>
+      </c>
+      <c r="AX41">
+        <v>7</v>
+      </c>
+      <c r="AY41">
+        <v>15</v>
+      </c>
+      <c r="AZ41">
+        <v>16</v>
+      </c>
+      <c r="BA41">
+        <v>4</v>
+      </c>
+      <c r="BB41">
+        <v>6</v>
+      </c>
+      <c r="BC41">
+        <v>10</v>
+      </c>
+      <c r="BD41">
+        <v>1.82</v>
+      </c>
+      <c r="BE41">
+        <v>7.5</v>
+      </c>
+      <c r="BF41">
+        <v>2.4</v>
+      </c>
+      <c r="BG41">
+        <v>1.42</v>
+      </c>
+      <c r="BH41">
+        <v>2.57</v>
+      </c>
+      <c r="BI41">
+        <v>1.82</v>
+      </c>
+      <c r="BJ41">
+        <v>1.98</v>
+      </c>
+      <c r="BK41">
+        <v>2.3</v>
+      </c>
+      <c r="BL41">
+        <v>1.52</v>
+      </c>
+      <c r="BM41">
+        <v>3.18</v>
+      </c>
+      <c r="BN41">
         <v>1.28</v>
       </c>
-      <c r="AM41">
-        <v>1.6</v>
-      </c>
-      <c r="AN41">
-        <v>3</v>
-      </c>
-      <c r="AO41">
-        <v>2</v>
-      </c>
-      <c r="AP41">
-        <v>2.25</v>
-      </c>
-      <c r="AQ41">
-        <v>1.33</v>
-      </c>
-      <c r="AR41">
-        <v>1.91</v>
-      </c>
-      <c r="AS41">
-        <v>1.29</v>
-      </c>
-      <c r="AT41">
-        <v>3.2</v>
-      </c>
-      <c r="AU41">
-        <v>-1</v>
-      </c>
-      <c r="AV41">
-        <v>-1</v>
-      </c>
-      <c r="AW41">
-        <v>-1</v>
-      </c>
-      <c r="AX41">
-        <v>-1</v>
-      </c>
-      <c r="AY41">
-        <v>-1</v>
-      </c>
-      <c r="AZ41">
-        <v>-1</v>
-      </c>
-      <c r="BA41">
-        <v>5</v>
-      </c>
-      <c r="BB41">
-        <v>9</v>
-      </c>
-      <c r="BC41">
-        <v>14</v>
-      </c>
-      <c r="BD41">
-        <v>1.69</v>
-      </c>
-      <c r="BE41">
-        <v>8</v>
-      </c>
-      <c r="BF41">
-        <v>2.54</v>
-      </c>
-      <c r="BG41">
-        <v>1.32</v>
-      </c>
-      <c r="BH41">
-        <v>2.98</v>
-      </c>
-      <c r="BI41">
-        <v>1.59</v>
-      </c>
-      <c r="BJ41">
-        <v>2.16</v>
-      </c>
-      <c r="BK41">
-        <v>2</v>
-      </c>
-      <c r="BL41">
-        <v>1.69</v>
-      </c>
-      <c r="BM41">
-        <v>2.67</v>
-      </c>
-      <c r="BN41">
-        <v>1.39</v>
-      </c>
       <c r="BO41">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="BP41">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9618,7 +9627,7 @@
         <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -9642,7 +9651,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9848,7 +9857,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9926,10 +9935,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR43">
         <v>1.47</v>
@@ -10027,7 +10036,7 @@
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s">
         <v>71</v>
@@ -10054,7 +10063,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10135,7 +10144,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR44">
         <v>1.19</v>
@@ -10233,7 +10242,7 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s">
         <v>80</v>
@@ -10260,7 +10269,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10338,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ45">
         <v>0.78</v>
@@ -10672,7 +10681,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q47">
         <v>2.1</v>
@@ -10878,7 +10887,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11290,7 +11299,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11496,7 +11505,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11678,7 +11687,7 @@
         <v>83</v>
       </c>
       <c r="H52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -11884,7 +11893,7 @@
         <v>81</v>
       </c>
       <c r="H53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -12087,7 +12096,7 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s">
         <v>79</v>
@@ -12320,7 +12329,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12401,7 +12410,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ55">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR55">
         <v>0</v>
@@ -12607,7 +12616,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ56">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR56">
         <v>2.35</v>
@@ -12732,7 +12741,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12938,7 +12947,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13016,7 +13025,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
         <v>2.38</v>
@@ -13144,7 +13153,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13350,7 +13359,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13529,7 +13538,7 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s">
         <v>70</v>
@@ -13556,7 +13565,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13634,10 +13643,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ61">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR61">
         <v>1.36</v>
@@ -13762,7 +13771,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13968,7 +13977,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14049,7 +14058,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ63">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR63">
         <v>1.81</v>
@@ -14174,7 +14183,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14338,7 +14347,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7453754</v>
+        <v>7453753</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14353,43 +14362,43 @@
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O65" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q65">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R65">
         <v>2.2</v>
       </c>
       <c r="S65">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="T65">
         <v>1.33</v>
@@ -14410,31 +14419,31 @@
         <v>1.11</v>
       </c>
       <c r="Z65">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="AA65">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB65">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="AC65">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD65">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE65">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF65">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AG65">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AH65">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AI65">
         <v>1.67</v>
@@ -14443,97 +14452,97 @@
         <v>2.1</v>
       </c>
       <c r="AK65">
-        <v>1.38</v>
+        <v>1.7</v>
       </c>
       <c r="AL65">
         <v>1.22</v>
       </c>
       <c r="AM65">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="AN65">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO65">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ65">
-        <v>0.67</v>
+        <v>1.67</v>
       </c>
       <c r="AR65">
-        <v>1.91</v>
+        <v>1.31</v>
       </c>
       <c r="AS65">
-        <v>1.52</v>
+        <v>1.97</v>
       </c>
       <c r="AT65">
-        <v>3.43</v>
+        <v>3.28</v>
       </c>
       <c r="AU65">
+        <v>2</v>
+      </c>
+      <c r="AV65">
+        <v>7</v>
+      </c>
+      <c r="AW65">
+        <v>4</v>
+      </c>
+      <c r="AX65">
         <v>5</v>
       </c>
-      <c r="AV65">
-        <v>6</v>
-      </c>
-      <c r="AW65">
-        <v>2</v>
-      </c>
-      <c r="AX65">
-        <v>4</v>
-      </c>
       <c r="AY65">
+        <v>7</v>
+      </c>
+      <c r="AZ65">
+        <v>15</v>
+      </c>
+      <c r="BA65">
+        <v>2</v>
+      </c>
+      <c r="BB65">
         <v>9</v>
-      </c>
-      <c r="AZ65">
-        <v>19</v>
-      </c>
-      <c r="BA65">
-        <v>4</v>
-      </c>
-      <c r="BB65">
-        <v>7</v>
       </c>
       <c r="BC65">
         <v>11</v>
       </c>
       <c r="BD65">
-        <v>1.83</v>
+        <v>2.65</v>
       </c>
       <c r="BE65">
-        <v>6.15</v>
+        <v>6.25</v>
       </c>
       <c r="BF65">
-        <v>2.52</v>
+        <v>1.76</v>
       </c>
       <c r="BG65">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="BH65">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="BI65">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="BJ65">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="BK65">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="BL65">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="BM65">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="BN65">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="BO65">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="BP65">
         <v>1.18</v>
@@ -14544,7 +14553,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7453753</v>
+        <v>7453754</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14559,43 +14568,43 @@
         <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O66" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q66">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R66">
         <v>2.2</v>
       </c>
       <c r="S66">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="T66">
         <v>1.33</v>
@@ -14616,31 +14625,31 @@
         <v>1.11</v>
       </c>
       <c r="Z66">
+        <v>2</v>
+      </c>
+      <c r="AA66">
+        <v>3.1</v>
+      </c>
+      <c r="AB66">
+        <v>3.6</v>
+      </c>
+      <c r="AC66">
+        <v>1.04</v>
+      </c>
+      <c r="AD66">
+        <v>9</v>
+      </c>
+      <c r="AE66">
+        <v>1.25</v>
+      </c>
+      <c r="AF66">
         <v>3.75</v>
       </c>
-      <c r="AA66">
-        <v>3.4</v>
-      </c>
-      <c r="AB66">
-        <v>1.85</v>
-      </c>
-      <c r="AC66">
-        <v>1.01</v>
-      </c>
-      <c r="AD66">
-        <v>12</v>
-      </c>
-      <c r="AE66">
-        <v>1.22</v>
-      </c>
-      <c r="AF66">
-        <v>4</v>
-      </c>
       <c r="AG66">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AH66">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AI66">
         <v>1.67</v>
@@ -14649,97 +14658,97 @@
         <v>2.1</v>
       </c>
       <c r="AK66">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="AL66">
         <v>1.22</v>
       </c>
       <c r="AM66">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="AN66">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO66">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AP66">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AR66">
-        <v>1.31</v>
+        <v>1.91</v>
       </c>
       <c r="AS66">
-        <v>1.97</v>
+        <v>1.52</v>
       </c>
       <c r="AT66">
-        <v>3.28</v>
+        <v>3.43</v>
       </c>
       <c r="AU66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV66">
+        <v>6</v>
+      </c>
+      <c r="AW66">
+        <v>2</v>
+      </c>
+      <c r="AX66">
+        <v>4</v>
+      </c>
+      <c r="AY66">
+        <v>9</v>
+      </c>
+      <c r="AZ66">
+        <v>19</v>
+      </c>
+      <c r="BA66">
+        <v>4</v>
+      </c>
+      <c r="BB66">
         <v>7</v>
-      </c>
-      <c r="AW66">
-        <v>4</v>
-      </c>
-      <c r="AX66">
-        <v>5</v>
-      </c>
-      <c r="AY66">
-        <v>7</v>
-      </c>
-      <c r="AZ66">
-        <v>15</v>
-      </c>
-      <c r="BA66">
-        <v>2</v>
-      </c>
-      <c r="BB66">
-        <v>9</v>
       </c>
       <c r="BC66">
         <v>11</v>
       </c>
       <c r="BD66">
-        <v>2.65</v>
+        <v>1.83</v>
       </c>
       <c r="BE66">
-        <v>6.25</v>
+        <v>6.15</v>
       </c>
       <c r="BF66">
-        <v>1.76</v>
+        <v>2.52</v>
       </c>
       <c r="BG66">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="BH66">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="BI66">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="BJ66">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="BK66">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="BL66">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="BM66">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="BN66">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BO66">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="BP66">
         <v>1.18</v>
@@ -15204,7 +15213,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15410,7 +15419,7 @@
         <v>138</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="Q70">
         <v>1.33</v>
@@ -15592,7 +15601,7 @@
         <v>82</v>
       </c>
       <c r="H71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -15616,7 +15625,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15694,7 +15703,7 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71">
         <v>0.78</v>
@@ -15822,7 +15831,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16109,7 +16118,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ73">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR73">
         <v>1.97</v>
@@ -16207,7 +16216,7 @@
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H74" t="s">
         <v>80</v>
@@ -16234,7 +16243,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16521,7 +16530,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ75">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR75">
         <v>1.22</v>
@@ -16646,7 +16655,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17031,7 +17040,7 @@
         <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s">
         <v>75</v>
@@ -17058,7 +17067,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17139,7 +17148,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR78">
         <v>1.57</v>
@@ -17264,7 +17273,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17342,7 +17351,7 @@
         <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>1.89</v>
@@ -17470,7 +17479,7 @@
         <v>125</v>
       </c>
       <c r="P80" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17676,7 +17685,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17882,7 +17891,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18088,7 +18097,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18169,7 +18178,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ83">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR83">
         <v>1.12</v>
@@ -18267,7 +18276,7 @@
         <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H84" t="s">
         <v>72</v>
@@ -18294,7 +18303,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18372,7 +18381,7 @@
         <v>3</v>
       </c>
       <c r="AP84">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ84">
         <v>3</v>
@@ -18476,7 +18485,7 @@
         <v>81</v>
       </c>
       <c r="H85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -18500,7 +18509,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18912,7 +18921,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19199,7 +19208,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ88">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR88">
         <v>1.41</v>
@@ -19324,7 +19333,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19405,7 +19414,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ89">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR89">
         <v>1.92</v>
@@ -19530,7 +19539,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19608,7 +19617,7 @@
         <v>0.17</v>
       </c>
       <c r="AP90">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ90">
         <v>0.67</v>
@@ -19736,7 +19745,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -19918,7 +19927,7 @@
         <v>78</v>
       </c>
       <c r="H92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -19942,7 +19951,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20124,7 +20133,7 @@
         <v>73</v>
       </c>
       <c r="H93" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -20354,7 +20363,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20533,7 +20542,7 @@
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H95" t="s">
         <v>76</v>
@@ -20638,7 +20647,7 @@
         <v>0.6</v>
       </c>
       <c r="AP95">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ95">
         <v>0.44</v>
@@ -21136,7 +21145,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7453784</v>
+        <v>7453781</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21148,193 +21157,193 @@
         <v>45591.54166666666</v>
       </c>
       <c r="F98">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H98" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>87</v>
+      </c>
+      <c r="P98" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q98">
+        <v>2.75</v>
+      </c>
+      <c r="R98">
+        <v>2.2</v>
+      </c>
+      <c r="S98">
+        <v>3.6</v>
+      </c>
+      <c r="T98">
+        <v>1.36</v>
+      </c>
+      <c r="U98">
+        <v>3</v>
+      </c>
+      <c r="V98">
+        <v>2.63</v>
+      </c>
+      <c r="W98">
+        <v>1.44</v>
+      </c>
+      <c r="X98">
+        <v>6.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.1</v>
+      </c>
+      <c r="Z98">
+        <v>1.87</v>
+      </c>
+      <c r="AA98">
+        <v>3.02</v>
+      </c>
+      <c r="AB98">
+        <v>3.3</v>
+      </c>
+      <c r="AC98">
+        <v>1.05</v>
+      </c>
+      <c r="AD98">
+        <v>8.5</v>
+      </c>
+      <c r="AE98">
+        <v>1.25</v>
+      </c>
+      <c r="AF98">
+        <v>3.6</v>
+      </c>
+      <c r="AG98">
+        <v>1.93</v>
+      </c>
+      <c r="AH98">
+        <v>1.83</v>
+      </c>
+      <c r="AI98">
+        <v>1.67</v>
+      </c>
+      <c r="AJ98">
+        <v>2.1</v>
+      </c>
+      <c r="AK98">
+        <v>1.35</v>
+      </c>
+      <c r="AL98">
+        <v>1.25</v>
+      </c>
+      <c r="AM98">
+        <v>1.65</v>
+      </c>
+      <c r="AN98">
+        <v>1.4</v>
+      </c>
+      <c r="AO98">
+        <v>0.6</v>
+      </c>
+      <c r="AP98">
+        <v>1</v>
+      </c>
+      <c r="AQ98">
+        <v>0.89</v>
+      </c>
+      <c r="AR98">
+        <v>1.32</v>
+      </c>
+      <c r="AS98">
+        <v>1.43</v>
+      </c>
+      <c r="AT98">
+        <v>2.75</v>
+      </c>
+      <c r="AU98">
+        <v>2</v>
+      </c>
+      <c r="AV98">
         <v>5</v>
       </c>
-      <c r="N98">
+      <c r="AW98">
+        <v>12</v>
+      </c>
+      <c r="AX98">
+        <v>1</v>
+      </c>
+      <c r="AY98">
+        <v>16</v>
+      </c>
+      <c r="AZ98">
         <v>6</v>
       </c>
-      <c r="O98" t="s">
-        <v>158</v>
-      </c>
-      <c r="P98" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q98">
-        <v>13</v>
-      </c>
-      <c r="R98">
-        <v>2.88</v>
-      </c>
-      <c r="S98">
-        <v>1.44</v>
-      </c>
-      <c r="T98">
-        <v>1.25</v>
-      </c>
-      <c r="U98">
-        <v>3.75</v>
-      </c>
-      <c r="V98">
+      <c r="BA98">
+        <v>4</v>
+      </c>
+      <c r="BB98">
+        <v>0</v>
+      </c>
+      <c r="BC98">
+        <v>4</v>
+      </c>
+      <c r="BD98">
+        <v>1.82</v>
+      </c>
+      <c r="BE98">
+        <v>7.5</v>
+      </c>
+      <c r="BF98">
+        <v>2.4</v>
+      </c>
+      <c r="BG98">
+        <v>1.4</v>
+      </c>
+      <c r="BH98">
+        <v>2.65</v>
+      </c>
+      <c r="BI98">
+        <v>1.67</v>
+      </c>
+      <c r="BJ98">
         <v>2.1</v>
       </c>
-      <c r="W98">
-        <v>1.67</v>
-      </c>
-      <c r="X98">
-        <v>4.5</v>
-      </c>
-      <c r="Y98">
-        <v>1.17</v>
-      </c>
-      <c r="Z98">
-        <v>13.5</v>
-      </c>
-      <c r="AA98">
-        <v>6.5</v>
-      </c>
-      <c r="AB98">
-        <v>1.15</v>
-      </c>
-      <c r="AC98">
-        <v>1.01</v>
-      </c>
-      <c r="AD98">
-        <v>15</v>
-      </c>
-      <c r="AE98">
-        <v>1.14</v>
-      </c>
-      <c r="AF98">
-        <v>5.25</v>
-      </c>
-      <c r="AG98">
-        <v>1.37</v>
-      </c>
-      <c r="AH98">
-        <v>2.85</v>
-      </c>
-      <c r="AI98">
-        <v>2.75</v>
-      </c>
-      <c r="AJ98">
-        <v>1.4</v>
-      </c>
-      <c r="AK98">
-        <v>5.5</v>
-      </c>
-      <c r="AL98">
-        <v>1.07</v>
-      </c>
-      <c r="AM98">
-        <v>1</v>
-      </c>
-      <c r="AN98">
-        <v>1.75</v>
-      </c>
-      <c r="AO98">
-        <v>3</v>
-      </c>
-      <c r="AP98">
-        <v>1.5</v>
-      </c>
-      <c r="AQ98">
-        <v>3</v>
-      </c>
-      <c r="AR98">
-        <v>1.07</v>
-      </c>
-      <c r="AS98">
-        <v>2.16</v>
-      </c>
-      <c r="AT98">
-        <v>3.23</v>
-      </c>
-      <c r="AU98">
-        <v>4</v>
-      </c>
-      <c r="AV98">
-        <v>8</v>
-      </c>
-      <c r="AW98">
-        <v>0</v>
-      </c>
-      <c r="AX98">
-        <v>9</v>
-      </c>
-      <c r="AY98">
-        <v>5</v>
-      </c>
-      <c r="AZ98">
-        <v>21</v>
-      </c>
-      <c r="BA98">
-        <v>1</v>
-      </c>
-      <c r="BB98">
-        <v>12</v>
-      </c>
-      <c r="BC98">
-        <v>13</v>
-      </c>
-      <c r="BD98">
-        <v>9.35</v>
-      </c>
-      <c r="BE98">
-        <v>13</v>
-      </c>
-      <c r="BF98">
-        <v>1.09</v>
-      </c>
-      <c r="BG98">
-        <v>1.35</v>
-      </c>
-      <c r="BH98">
-        <v>2.8</v>
-      </c>
-      <c r="BI98">
+      <c r="BK98">
+        <v>2.1</v>
+      </c>
+      <c r="BL98">
         <v>1.61</v>
       </c>
-      <c r="BJ98">
-        <v>2.12</v>
-      </c>
-      <c r="BK98">
-        <v>2</v>
-      </c>
-      <c r="BL98">
-        <v>1.73</v>
-      </c>
       <c r="BM98">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BN98">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="BO98">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="BP98">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21342,7 +21351,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7453781</v>
+        <v>7453784</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21354,193 +21363,193 @@
         <v>45591.54166666666</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O99" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="Q99">
+        <v>13</v>
+      </c>
+      <c r="R99">
+        <v>2.88</v>
+      </c>
+      <c r="S99">
+        <v>1.44</v>
+      </c>
+      <c r="T99">
+        <v>1.25</v>
+      </c>
+      <c r="U99">
+        <v>3.75</v>
+      </c>
+      <c r="V99">
+        <v>2.1</v>
+      </c>
+      <c r="W99">
+        <v>1.67</v>
+      </c>
+      <c r="X99">
+        <v>4.5</v>
+      </c>
+      <c r="Y99">
+        <v>1.17</v>
+      </c>
+      <c r="Z99">
+        <v>13.5</v>
+      </c>
+      <c r="AA99">
+        <v>6.5</v>
+      </c>
+      <c r="AB99">
+        <v>1.15</v>
+      </c>
+      <c r="AC99">
+        <v>1.01</v>
+      </c>
+      <c r="AD99">
+        <v>15</v>
+      </c>
+      <c r="AE99">
+        <v>1.14</v>
+      </c>
+      <c r="AF99">
+        <v>5.25</v>
+      </c>
+      <c r="AG99">
+        <v>1.37</v>
+      </c>
+      <c r="AH99">
+        <v>2.85</v>
+      </c>
+      <c r="AI99">
         <v>2.75</v>
       </c>
-      <c r="R99">
-        <v>2.2</v>
-      </c>
-      <c r="S99">
-        <v>3.6</v>
-      </c>
-      <c r="T99">
-        <v>1.36</v>
-      </c>
-      <c r="U99">
-        <v>3</v>
-      </c>
-      <c r="V99">
-        <v>2.63</v>
-      </c>
-      <c r="W99">
+      <c r="AJ99">
+        <v>1.4</v>
+      </c>
+      <c r="AK99">
+        <v>5.5</v>
+      </c>
+      <c r="AL99">
+        <v>1.07</v>
+      </c>
+      <c r="AM99">
+        <v>1</v>
+      </c>
+      <c r="AN99">
+        <v>1.75</v>
+      </c>
+      <c r="AO99">
+        <v>3</v>
+      </c>
+      <c r="AP99">
+        <v>1.5</v>
+      </c>
+      <c r="AQ99">
+        <v>3</v>
+      </c>
+      <c r="AR99">
+        <v>1.07</v>
+      </c>
+      <c r="AS99">
+        <v>2.16</v>
+      </c>
+      <c r="AT99">
+        <v>3.23</v>
+      </c>
+      <c r="AU99">
+        <v>4</v>
+      </c>
+      <c r="AV99">
+        <v>8</v>
+      </c>
+      <c r="AW99">
+        <v>0</v>
+      </c>
+      <c r="AX99">
+        <v>9</v>
+      </c>
+      <c r="AY99">
+        <v>5</v>
+      </c>
+      <c r="AZ99">
+        <v>21</v>
+      </c>
+      <c r="BA99">
+        <v>1</v>
+      </c>
+      <c r="BB99">
+        <v>12</v>
+      </c>
+      <c r="BC99">
+        <v>13</v>
+      </c>
+      <c r="BD99">
+        <v>9.35</v>
+      </c>
+      <c r="BE99">
+        <v>13</v>
+      </c>
+      <c r="BF99">
+        <v>1.09</v>
+      </c>
+      <c r="BG99">
+        <v>1.35</v>
+      </c>
+      <c r="BH99">
+        <v>2.8</v>
+      </c>
+      <c r="BI99">
+        <v>1.61</v>
+      </c>
+      <c r="BJ99">
+        <v>2.12</v>
+      </c>
+      <c r="BK99">
+        <v>2</v>
+      </c>
+      <c r="BL99">
+        <v>1.73</v>
+      </c>
+      <c r="BM99">
+        <v>2.5</v>
+      </c>
+      <c r="BN99">
         <v>1.44</v>
       </c>
-      <c r="X99">
-        <v>6.5</v>
-      </c>
-      <c r="Y99">
-        <v>1.1</v>
-      </c>
-      <c r="Z99">
-        <v>1.87</v>
-      </c>
-      <c r="AA99">
-        <v>3.02</v>
-      </c>
-      <c r="AB99">
-        <v>3.3</v>
-      </c>
-      <c r="AC99">
-        <v>1.05</v>
-      </c>
-      <c r="AD99">
-        <v>8.5</v>
-      </c>
-      <c r="AE99">
-        <v>1.25</v>
-      </c>
-      <c r="AF99">
-        <v>3.6</v>
-      </c>
-      <c r="AG99">
-        <v>1.93</v>
-      </c>
-      <c r="AH99">
-        <v>1.83</v>
-      </c>
-      <c r="AI99">
-        <v>1.67</v>
-      </c>
-      <c r="AJ99">
-        <v>2.1</v>
-      </c>
-      <c r="AK99">
-        <v>1.35</v>
-      </c>
-      <c r="AL99">
-        <v>1.25</v>
-      </c>
-      <c r="AM99">
-        <v>1.65</v>
-      </c>
-      <c r="AN99">
-        <v>1.4</v>
-      </c>
-      <c r="AO99">
-        <v>0.6</v>
-      </c>
-      <c r="AP99">
-        <v>1</v>
-      </c>
-      <c r="AQ99">
-        <v>0.88</v>
-      </c>
-      <c r="AR99">
-        <v>1.32</v>
-      </c>
-      <c r="AS99">
-        <v>1.43</v>
-      </c>
-      <c r="AT99">
-        <v>2.75</v>
-      </c>
-      <c r="AU99">
-        <v>2</v>
-      </c>
-      <c r="AV99">
-        <v>5</v>
-      </c>
-      <c r="AW99">
-        <v>12</v>
-      </c>
-      <c r="AX99">
-        <v>1</v>
-      </c>
-      <c r="AY99">
-        <v>16</v>
-      </c>
-      <c r="AZ99">
-        <v>6</v>
-      </c>
-      <c r="BA99">
-        <v>4</v>
-      </c>
-      <c r="BB99">
-        <v>0</v>
-      </c>
-      <c r="BC99">
-        <v>4</v>
-      </c>
-      <c r="BD99">
-        <v>1.82</v>
-      </c>
-      <c r="BE99">
-        <v>7.5</v>
-      </c>
-      <c r="BF99">
-        <v>2.4</v>
-      </c>
-      <c r="BG99">
-        <v>1.4</v>
-      </c>
-      <c r="BH99">
-        <v>2.65</v>
-      </c>
-      <c r="BI99">
-        <v>1.67</v>
-      </c>
-      <c r="BJ99">
-        <v>2.1</v>
-      </c>
-      <c r="BK99">
-        <v>2.1</v>
-      </c>
-      <c r="BL99">
-        <v>1.61</v>
-      </c>
-      <c r="BM99">
-        <v>2.7</v>
-      </c>
-      <c r="BN99">
-        <v>1.39</v>
-      </c>
       <c r="BO99">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="BP99">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21563,7 +21572,7 @@
         <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H100" t="s">
         <v>82</v>
@@ -21590,7 +21599,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21796,7 +21805,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22002,7 +22011,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22080,7 +22089,7 @@
         <v>2.6</v>
       </c>
       <c r="AP102">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
         <v>2.11</v>
@@ -22208,7 +22217,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22390,7 +22399,7 @@
         <v>75</v>
       </c>
       <c r="H104" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I104">
         <v>3</v>
@@ -22701,7 +22710,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ105">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR105">
         <v>1.53</v>
@@ -22802,7 +22811,7 @@
         <v>72</v>
       </c>
       <c r="H106" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I106">
         <v>3</v>
@@ -23032,7 +23041,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23402,7 +23411,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7453786</v>
+        <v>7453791</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23417,43 +23426,43 @@
         <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H109" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O109" t="s">
+        <v>166</v>
+      </c>
+      <c r="P109" t="s">
         <v>87</v>
       </c>
-      <c r="P109" t="s">
-        <v>243</v>
-      </c>
       <c r="Q109">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="R109">
         <v>2.2</v>
       </c>
       <c r="S109">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="T109">
         <v>1.4</v>
@@ -23462,145 +23471,145 @@
         <v>2.75</v>
       </c>
       <c r="V109">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W109">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X109">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y109">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z109">
-        <v>4.95</v>
+        <v>1.56</v>
       </c>
       <c r="AA109">
-        <v>3.66</v>
+        <v>4.01</v>
       </c>
       <c r="AB109">
-        <v>1.58</v>
+        <v>5.08</v>
       </c>
       <c r="AC109">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD109">
+        <v>9</v>
+      </c>
+      <c r="AE109">
+        <v>1.25</v>
+      </c>
+      <c r="AF109">
+        <v>3.6</v>
+      </c>
+      <c r="AG109">
+        <v>1.83</v>
+      </c>
+      <c r="AH109">
+        <v>1.83</v>
+      </c>
+      <c r="AI109">
+        <v>1.83</v>
+      </c>
+      <c r="AJ109">
+        <v>1.83</v>
+      </c>
+      <c r="AK109">
+        <v>1.15</v>
+      </c>
+      <c r="AL109">
+        <v>1.22</v>
+      </c>
+      <c r="AM109">
+        <v>2.04</v>
+      </c>
+      <c r="AN109">
+        <v>1.86</v>
+      </c>
+      <c r="AO109">
+        <v>1.29</v>
+      </c>
+      <c r="AP109">
+        <v>1.78</v>
+      </c>
+      <c r="AQ109">
+        <v>1.33</v>
+      </c>
+      <c r="AR109">
+        <v>1.53</v>
+      </c>
+      <c r="AS109">
+        <v>1.31</v>
+      </c>
+      <c r="AT109">
+        <v>2.84</v>
+      </c>
+      <c r="AU109">
         <v>8</v>
       </c>
-      <c r="AE109">
-        <v>1.33</v>
-      </c>
-      <c r="AF109">
-        <v>3.2</v>
-      </c>
-      <c r="AG109">
-        <v>1.9</v>
-      </c>
-      <c r="AH109">
-        <v>1.84</v>
-      </c>
-      <c r="AI109">
-        <v>2</v>
-      </c>
-      <c r="AJ109">
-        <v>1.73</v>
-      </c>
-      <c r="AK109">
-        <v>2.4</v>
-      </c>
-      <c r="AL109">
-        <v>1.2</v>
-      </c>
-      <c r="AM109">
-        <v>1.08</v>
-      </c>
-      <c r="AN109">
-        <v>0.67</v>
-      </c>
-      <c r="AO109">
-        <v>2</v>
-      </c>
-      <c r="AP109">
-        <v>0.5</v>
-      </c>
-      <c r="AQ109">
-        <v>1.89</v>
-      </c>
-      <c r="AR109">
-        <v>1.11</v>
-      </c>
-      <c r="AS109">
-        <v>1.25</v>
-      </c>
-      <c r="AT109">
-        <v>2.36</v>
-      </c>
-      <c r="AU109">
-        <v>5</v>
-      </c>
       <c r="AV109">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW109">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY109">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ109">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BA109">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB109">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC109">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BD109">
-        <v>3.59</v>
+        <v>1.51</v>
       </c>
       <c r="BE109">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF109">
-        <v>1.41</v>
+        <v>3.17</v>
       </c>
       <c r="BG109">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="BH109">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="BI109">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="BJ109">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="BK109">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BL109">
         <v>1.56</v>
       </c>
       <c r="BM109">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="BN109">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="BO109">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="BP109">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23608,7 +23617,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7453791</v>
+        <v>7453786</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23623,43 +23632,43 @@
         <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H110" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O110" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="Q110">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="R110">
         <v>2.2</v>
       </c>
       <c r="S110">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="T110">
         <v>1.4</v>
@@ -23668,145 +23677,145 @@
         <v>2.75</v>
       </c>
       <c r="V110">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W110">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X110">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y110">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z110">
-        <v>1.56</v>
+        <v>4.95</v>
       </c>
       <c r="AA110">
-        <v>4.01</v>
+        <v>3.66</v>
       </c>
       <c r="AB110">
-        <v>5.08</v>
+        <v>1.58</v>
       </c>
       <c r="AC110">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD110">
+        <v>8</v>
+      </c>
+      <c r="AE110">
+        <v>1.33</v>
+      </c>
+      <c r="AF110">
+        <v>3.2</v>
+      </c>
+      <c r="AG110">
+        <v>1.9</v>
+      </c>
+      <c r="AH110">
+        <v>1.84</v>
+      </c>
+      <c r="AI110">
+        <v>2</v>
+      </c>
+      <c r="AJ110">
+        <v>1.73</v>
+      </c>
+      <c r="AK110">
+        <v>2.4</v>
+      </c>
+      <c r="AL110">
+        <v>1.2</v>
+      </c>
+      <c r="AM110">
+        <v>1.08</v>
+      </c>
+      <c r="AN110">
+        <v>0.67</v>
+      </c>
+      <c r="AO110">
+        <v>2</v>
+      </c>
+      <c r="AP110">
+        <v>0.5</v>
+      </c>
+      <c r="AQ110">
+        <v>1.89</v>
+      </c>
+      <c r="AR110">
+        <v>1.11</v>
+      </c>
+      <c r="AS110">
+        <v>1.25</v>
+      </c>
+      <c r="AT110">
+        <v>2.36</v>
+      </c>
+      <c r="AU110">
+        <v>5</v>
+      </c>
+      <c r="AV110">
+        <v>6</v>
+      </c>
+      <c r="AW110">
+        <v>7</v>
+      </c>
+      <c r="AX110">
+        <v>2</v>
+      </c>
+      <c r="AY110">
+        <v>16</v>
+      </c>
+      <c r="AZ110">
+        <v>12</v>
+      </c>
+      <c r="BA110">
+        <v>4</v>
+      </c>
+      <c r="BB110">
+        <v>5</v>
+      </c>
+      <c r="BC110">
         <v>9</v>
       </c>
-      <c r="AE110">
-        <v>1.25</v>
-      </c>
-      <c r="AF110">
-        <v>3.6</v>
-      </c>
-      <c r="AG110">
-        <v>1.83</v>
-      </c>
-      <c r="AH110">
-        <v>1.83</v>
-      </c>
-      <c r="AI110">
-        <v>1.83</v>
-      </c>
-      <c r="AJ110">
-        <v>1.83</v>
-      </c>
-      <c r="AK110">
-        <v>1.15</v>
-      </c>
-      <c r="AL110">
-        <v>1.22</v>
-      </c>
-      <c r="AM110">
-        <v>2.04</v>
-      </c>
-      <c r="AN110">
-        <v>1.86</v>
-      </c>
-      <c r="AO110">
-        <v>1.29</v>
-      </c>
-      <c r="AP110">
-        <v>1.78</v>
-      </c>
-      <c r="AQ110">
-        <v>1.33</v>
-      </c>
-      <c r="AR110">
-        <v>1.53</v>
-      </c>
-      <c r="AS110">
-        <v>1.31</v>
-      </c>
-      <c r="AT110">
-        <v>2.84</v>
-      </c>
-      <c r="AU110">
-        <v>8</v>
-      </c>
-      <c r="AV110">
-        <v>0</v>
-      </c>
-      <c r="AW110">
-        <v>4</v>
-      </c>
-      <c r="AX110">
-        <v>3</v>
-      </c>
-      <c r="AY110">
-        <v>15</v>
-      </c>
-      <c r="AZ110">
-        <v>3</v>
-      </c>
-      <c r="BA110">
-        <v>1</v>
-      </c>
-      <c r="BB110">
-        <v>1</v>
-      </c>
-      <c r="BC110">
-        <v>2</v>
-      </c>
       <c r="BD110">
-        <v>1.51</v>
+        <v>3.59</v>
       </c>
       <c r="BE110">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF110">
-        <v>3.17</v>
+        <v>1.41</v>
       </c>
       <c r="BG110">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="BH110">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="BI110">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="BJ110">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="BK110">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BL110">
         <v>1.56</v>
       </c>
       <c r="BM110">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="BN110">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="BO110">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="BP110">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="111" spans="1:68">
@@ -23856,7 +23865,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -23934,10 +23943,10 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR111">
         <v>1.71</v>
@@ -24035,7 +24044,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H112" t="s">
         <v>74</v>
@@ -24062,7 +24071,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24140,7 +24149,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ112">
         <v>1.22</v>
@@ -24447,7 +24456,7 @@
         <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H114" t="s">
         <v>73</v>
@@ -24886,7 +24895,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q116">
         <v>2.05</v>
@@ -24967,7 +24976,7 @@
         <v>2</v>
       </c>
       <c r="AQ116">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR116">
         <v>1.39</v>
@@ -25092,7 +25101,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25298,7 +25307,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25376,7 +25385,7 @@
         <v>3</v>
       </c>
       <c r="AP118">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ118">
         <v>3</v>
@@ -25504,7 +25513,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25582,7 +25591,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ119">
         <v>1.22</v>
@@ -25710,7 +25719,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -25791,7 +25800,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR120">
         <v>1.05</v>
@@ -25889,7 +25898,7 @@
         <v>16</v>
       </c>
       <c r="G121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H121" t="s">
         <v>76</v>
@@ -26200,7 +26209,7 @@
         <v>2.14</v>
       </c>
       <c r="AP122">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122">
         <v>2.11</v>
@@ -26409,7 +26418,7 @@
         <v>2</v>
       </c>
       <c r="AQ123">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR123">
         <v>1.46</v>
@@ -26534,7 +26543,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26615,7 +26624,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR124">
         <v>1.33</v>
@@ -26716,7 +26725,7 @@
         <v>75</v>
       </c>
       <c r="H125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -26740,7 +26749,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -26943,10 +26952,10 @@
         <v>3</v>
       </c>
       <c r="O126" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P126" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27316,7 +27325,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7453810</v>
+        <v>7453809</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27331,190 +27340,190 @@
         <v>17</v>
       </c>
       <c r="G128" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H128" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L128">
         <v>1</v>
       </c>
       <c r="M128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O128" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="Q128">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="R128">
+        <v>2.05</v>
+      </c>
+      <c r="S128">
+        <v>3.25</v>
+      </c>
+      <c r="T128">
+        <v>1.44</v>
+      </c>
+      <c r="U128">
+        <v>2.63</v>
+      </c>
+      <c r="V128">
+        <v>3.25</v>
+      </c>
+      <c r="W128">
+        <v>1.33</v>
+      </c>
+      <c r="X128">
+        <v>7.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.07</v>
+      </c>
+      <c r="Z128">
+        <v>2.8</v>
+      </c>
+      <c r="AA128">
+        <v>3.1</v>
+      </c>
+      <c r="AB128">
         <v>2.3</v>
-      </c>
-      <c r="S128">
-        <v>4.5</v>
-      </c>
-      <c r="T128">
-        <v>1.33</v>
-      </c>
-      <c r="U128">
-        <v>3.25</v>
-      </c>
-      <c r="V128">
-        <v>2.5</v>
-      </c>
-      <c r="W128">
-        <v>1.5</v>
-      </c>
-      <c r="X128">
-        <v>6</v>
-      </c>
-      <c r="Y128">
-        <v>1.11</v>
-      </c>
-      <c r="Z128">
-        <v>1.6</v>
-      </c>
-      <c r="AA128">
-        <v>3.8</v>
-      </c>
-      <c r="AB128">
-        <v>4.33</v>
       </c>
       <c r="AC128">
         <v>1.01</v>
       </c>
       <c r="AD128">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="AE128">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="AF128">
-        <v>3.94</v>
+        <v>3</v>
       </c>
       <c r="AG128">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="AH128">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="AI128">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AJ128">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AK128">
-        <v>1.12</v>
+        <v>1.43</v>
       </c>
       <c r="AL128">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AM128">
-        <v>2.09</v>
+        <v>1.34</v>
       </c>
       <c r="AN128">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AO128">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="AP128">
-        <v>1.56</v>
+        <v>1.11</v>
       </c>
       <c r="AQ128">
-        <v>0.78</v>
+        <v>1.33</v>
       </c>
       <c r="AR128">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="AS128">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AT128">
-        <v>3.09</v>
+        <v>2.46</v>
       </c>
       <c r="AU128">
         <v>4</v>
       </c>
       <c r="AV128">
+        <v>6</v>
+      </c>
+      <c r="AW128">
         <v>9</v>
       </c>
-      <c r="AW128">
-        <v>6</v>
-      </c>
       <c r="AX128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY128">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ128">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA128">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB128">
         <v>4</v>
       </c>
       <c r="BC128">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD128">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="BE128">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF128">
-        <v>2.52</v>
+        <v>1.91</v>
       </c>
       <c r="BG128">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="BH128">
-        <v>2.83</v>
+        <v>2.4</v>
       </c>
       <c r="BI128">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="BJ128">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="BK128">
-        <v>2.08</v>
+        <v>2.43</v>
       </c>
       <c r="BL128">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="BM128">
-        <v>2.73</v>
+        <v>3.3</v>
       </c>
       <c r="BN128">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BO128">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="BP128">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27522,7 +27531,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7453809</v>
+        <v>7453810</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27537,190 +27546,190 @@
         <v>17</v>
       </c>
       <c r="G129" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H129" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L129">
         <v>1</v>
       </c>
       <c r="M129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O129" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="Q129">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="R129">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S129">
+        <v>4.5</v>
+      </c>
+      <c r="T129">
+        <v>1.33</v>
+      </c>
+      <c r="U129">
         <v>3.25</v>
       </c>
-      <c r="T129">
-        <v>1.44</v>
-      </c>
-      <c r="U129">
-        <v>2.63</v>
-      </c>
       <c r="V129">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="W129">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="X129">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Y129">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Z129">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="AA129">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="AB129">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="AC129">
         <v>1.01</v>
       </c>
       <c r="AD129">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="AE129">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AF129">
-        <v>3</v>
+        <v>3.94</v>
       </c>
       <c r="AG129">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="AH129">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="AI129">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AJ129">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AK129">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="AL129">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AM129">
-        <v>1.34</v>
+        <v>2.09</v>
       </c>
       <c r="AN129">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO129">
-        <v>1.13</v>
+        <v>0.5</v>
       </c>
       <c r="AP129">
-        <v>1.11</v>
+        <v>1.56</v>
       </c>
       <c r="AQ129">
-        <v>1.33</v>
+        <v>0.78</v>
       </c>
       <c r="AR129">
-        <v>1.28</v>
+        <v>1.62</v>
       </c>
       <c r="AS129">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AT129">
-        <v>2.46</v>
+        <v>3.09</v>
       </c>
       <c r="AU129">
         <v>4</v>
       </c>
       <c r="AV129">
+        <v>9</v>
+      </c>
+      <c r="AW129">
         <v>6</v>
       </c>
-      <c r="AW129">
-        <v>9</v>
-      </c>
       <c r="AX129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY129">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ129">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA129">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB129">
         <v>4</v>
       </c>
       <c r="BC129">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD129">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="BE129">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF129">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="BG129">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="BH129">
-        <v>2.4</v>
+        <v>2.83</v>
       </c>
       <c r="BI129">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="BJ129">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="BK129">
-        <v>2.43</v>
+        <v>2.08</v>
       </c>
       <c r="BL129">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="BM129">
-        <v>3.3</v>
+        <v>2.73</v>
       </c>
       <c r="BN129">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="BO129">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BP129">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27976,7 +27985,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28182,7 +28191,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q132">
         <v>2.2</v>
@@ -28594,7 +28603,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>1.62</v>
@@ -28976,7 +28985,7 @@
         <v>45634.375</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G136" t="s">
         <v>78</v>
@@ -29006,7 +29015,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29117,13 +29126,13 @@
         <v>-1</v>
       </c>
       <c r="BA136">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB136">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC136">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD136">
         <v>0</v>
@@ -29185,7 +29194,7 @@
         <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H137" t="s">
         <v>74</v>
@@ -29624,7 +29633,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -29780,6 +29789,624 @@
         <v>3.82</v>
       </c>
       <c r="BP139">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7453818</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45635.41666666666</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>82</v>
+      </c>
+      <c r="H140" t="s">
+        <v>75</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>183</v>
+      </c>
+      <c r="P140" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q140">
+        <v>2.4</v>
+      </c>
+      <c r="R140">
+        <v>2.2</v>
+      </c>
+      <c r="S140">
+        <v>4.33</v>
+      </c>
+      <c r="T140">
+        <v>1.4</v>
+      </c>
+      <c r="U140">
+        <v>2.75</v>
+      </c>
+      <c r="V140">
+        <v>2.75</v>
+      </c>
+      <c r="W140">
+        <v>1.4</v>
+      </c>
+      <c r="X140">
+        <v>7</v>
+      </c>
+      <c r="Y140">
+        <v>1.08</v>
+      </c>
+      <c r="Z140">
+        <v>1.75</v>
+      </c>
+      <c r="AA140">
+        <v>3.6</v>
+      </c>
+      <c r="AB140">
+        <v>4</v>
+      </c>
+      <c r="AC140">
+        <v>1.02</v>
+      </c>
+      <c r="AD140">
+        <v>10</v>
+      </c>
+      <c r="AE140">
+        <v>1.22</v>
+      </c>
+      <c r="AF140">
+        <v>3.8</v>
+      </c>
+      <c r="AG140">
+        <v>1.8</v>
+      </c>
+      <c r="AH140">
+        <v>1.91</v>
+      </c>
+      <c r="AI140">
+        <v>1.8</v>
+      </c>
+      <c r="AJ140">
+        <v>1.91</v>
+      </c>
+      <c r="AK140">
+        <v>1.2</v>
+      </c>
+      <c r="AL140">
+        <v>1.24</v>
+      </c>
+      <c r="AM140">
+        <v>1.88</v>
+      </c>
+      <c r="AN140">
+        <v>1.38</v>
+      </c>
+      <c r="AO140">
+        <v>0.88</v>
+      </c>
+      <c r="AP140">
+        <v>1.33</v>
+      </c>
+      <c r="AQ140">
+        <v>0.89</v>
+      </c>
+      <c r="AR140">
+        <v>1.53</v>
+      </c>
+      <c r="AS140">
+        <v>1.28</v>
+      </c>
+      <c r="AT140">
+        <v>2.81</v>
+      </c>
+      <c r="AU140">
+        <v>5</v>
+      </c>
+      <c r="AV140">
+        <v>3</v>
+      </c>
+      <c r="AW140">
+        <v>5</v>
+      </c>
+      <c r="AX140">
+        <v>3</v>
+      </c>
+      <c r="AY140">
+        <v>17</v>
+      </c>
+      <c r="AZ140">
+        <v>8</v>
+      </c>
+      <c r="BA140">
+        <v>12</v>
+      </c>
+      <c r="BB140">
+        <v>1</v>
+      </c>
+      <c r="BC140">
+        <v>13</v>
+      </c>
+      <c r="BD140">
+        <v>1.64</v>
+      </c>
+      <c r="BE140">
+        <v>8</v>
+      </c>
+      <c r="BF140">
+        <v>2.67</v>
+      </c>
+      <c r="BG140">
+        <v>1.4</v>
+      </c>
+      <c r="BH140">
+        <v>2.82</v>
+      </c>
+      <c r="BI140">
+        <v>1.68</v>
+      </c>
+      <c r="BJ140">
+        <v>2.12</v>
+      </c>
+      <c r="BK140">
+        <v>2.11</v>
+      </c>
+      <c r="BL140">
+        <v>1.68</v>
+      </c>
+      <c r="BM140">
+        <v>2.75</v>
+      </c>
+      <c r="BN140">
+        <v>1.42</v>
+      </c>
+      <c r="BO140">
+        <v>3.8</v>
+      </c>
+      <c r="BP140">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7453822</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45635.5</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>85</v>
+      </c>
+      <c r="H141" t="s">
+        <v>71</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>2</v>
+      </c>
+      <c r="K141">
+        <v>3</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>5</v>
+      </c>
+      <c r="O141" t="s">
+        <v>184</v>
+      </c>
+      <c r="P141" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q141">
+        <v>2.4</v>
+      </c>
+      <c r="R141">
+        <v>2.1</v>
+      </c>
+      <c r="S141">
+        <v>4.5</v>
+      </c>
+      <c r="T141">
+        <v>1.4</v>
+      </c>
+      <c r="U141">
+        <v>2.75</v>
+      </c>
+      <c r="V141">
+        <v>3</v>
+      </c>
+      <c r="W141">
+        <v>1.36</v>
+      </c>
+      <c r="X141">
+        <v>7</v>
+      </c>
+      <c r="Y141">
+        <v>1.08</v>
+      </c>
+      <c r="Z141">
+        <v>1.82</v>
+      </c>
+      <c r="AA141">
+        <v>3.38</v>
+      </c>
+      <c r="AB141">
+        <v>4.1</v>
+      </c>
+      <c r="AC141">
+        <v>1.03</v>
+      </c>
+      <c r="AD141">
+        <v>9</v>
+      </c>
+      <c r="AE141">
+        <v>1.29</v>
+      </c>
+      <c r="AF141">
+        <v>3.3</v>
+      </c>
+      <c r="AG141">
+        <v>2.23</v>
+      </c>
+      <c r="AH141">
+        <v>1.58</v>
+      </c>
+      <c r="AI141">
+        <v>1.83</v>
+      </c>
+      <c r="AJ141">
+        <v>1.83</v>
+      </c>
+      <c r="AK141">
+        <v>1.16</v>
+      </c>
+      <c r="AL141">
+        <v>1.24</v>
+      </c>
+      <c r="AM141">
+        <v>1.97</v>
+      </c>
+      <c r="AN141">
+        <v>1.14</v>
+      </c>
+      <c r="AO141">
+        <v>0.88</v>
+      </c>
+      <c r="AP141">
+        <v>1.38</v>
+      </c>
+      <c r="AQ141">
+        <v>0.78</v>
+      </c>
+      <c r="AR141">
+        <v>1.19</v>
+      </c>
+      <c r="AS141">
+        <v>0.99</v>
+      </c>
+      <c r="AT141">
+        <v>2.18</v>
+      </c>
+      <c r="AU141">
+        <v>8</v>
+      </c>
+      <c r="AV141">
+        <v>7</v>
+      </c>
+      <c r="AW141">
+        <v>14</v>
+      </c>
+      <c r="AX141">
+        <v>4</v>
+      </c>
+      <c r="AY141">
+        <v>24</v>
+      </c>
+      <c r="AZ141">
+        <v>16</v>
+      </c>
+      <c r="BA141">
+        <v>9</v>
+      </c>
+      <c r="BB141">
+        <v>3</v>
+      </c>
+      <c r="BC141">
+        <v>12</v>
+      </c>
+      <c r="BD141">
+        <v>1.31</v>
+      </c>
+      <c r="BE141">
+        <v>9.5</v>
+      </c>
+      <c r="BF141">
+        <v>4.41</v>
+      </c>
+      <c r="BG141">
+        <v>1.3</v>
+      </c>
+      <c r="BH141">
+        <v>2.88</v>
+      </c>
+      <c r="BI141">
+        <v>1.57</v>
+      </c>
+      <c r="BJ141">
+        <v>2.08</v>
+      </c>
+      <c r="BK141">
+        <v>2.03</v>
+      </c>
+      <c r="BL141">
+        <v>1.67</v>
+      </c>
+      <c r="BM141">
+        <v>2.61</v>
+      </c>
+      <c r="BN141">
+        <v>1.36</v>
+      </c>
+      <c r="BO141">
+        <v>3.65</v>
+      </c>
+      <c r="BP141">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7453821</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45635.58333333334</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>80</v>
+      </c>
+      <c r="H142" t="s">
+        <v>70</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142" t="s">
+        <v>148</v>
+      </c>
+      <c r="P142" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q142">
+        <v>3</v>
+      </c>
+      <c r="R142">
+        <v>2.25</v>
+      </c>
+      <c r="S142">
+        <v>3.1</v>
+      </c>
+      <c r="T142">
+        <v>1.33</v>
+      </c>
+      <c r="U142">
+        <v>3.25</v>
+      </c>
+      <c r="V142">
+        <v>2.5</v>
+      </c>
+      <c r="W142">
+        <v>1.5</v>
+      </c>
+      <c r="X142">
+        <v>6</v>
+      </c>
+      <c r="Y142">
+        <v>1.11</v>
+      </c>
+      <c r="Z142">
+        <v>2.2</v>
+      </c>
+      <c r="AA142">
+        <v>3.25</v>
+      </c>
+      <c r="AB142">
+        <v>2.9</v>
+      </c>
+      <c r="AC142">
+        <v>1.01</v>
+      </c>
+      <c r="AD142">
+        <v>11</v>
+      </c>
+      <c r="AE142">
+        <v>1.17</v>
+      </c>
+      <c r="AF142">
+        <v>4.5</v>
+      </c>
+      <c r="AG142">
+        <v>1.65</v>
+      </c>
+      <c r="AH142">
+        <v>2.1</v>
+      </c>
+      <c r="AI142">
+        <v>1.57</v>
+      </c>
+      <c r="AJ142">
+        <v>2.25</v>
+      </c>
+      <c r="AK142">
+        <v>1.43</v>
+      </c>
+      <c r="AL142">
+        <v>1.25</v>
+      </c>
+      <c r="AM142">
+        <v>1.49</v>
+      </c>
+      <c r="AN142">
+        <v>2.25</v>
+      </c>
+      <c r="AO142">
+        <v>1.38</v>
+      </c>
+      <c r="AP142">
+        <v>2</v>
+      </c>
+      <c r="AQ142">
+        <v>1.56</v>
+      </c>
+      <c r="AR142">
+        <v>1.78</v>
+      </c>
+      <c r="AS142">
+        <v>1.74</v>
+      </c>
+      <c r="AT142">
+        <v>3.52</v>
+      </c>
+      <c r="AU142">
+        <v>4</v>
+      </c>
+      <c r="AV142">
+        <v>8</v>
+      </c>
+      <c r="AW142">
+        <v>4</v>
+      </c>
+      <c r="AX142">
+        <v>5</v>
+      </c>
+      <c r="AY142">
+        <v>14</v>
+      </c>
+      <c r="AZ142">
+        <v>16</v>
+      </c>
+      <c r="BA142">
+        <v>5</v>
+      </c>
+      <c r="BB142">
+        <v>7</v>
+      </c>
+      <c r="BC142">
+        <v>12</v>
+      </c>
+      <c r="BD142">
+        <v>1.82</v>
+      </c>
+      <c r="BE142">
+        <v>8</v>
+      </c>
+      <c r="BF142">
+        <v>2.39</v>
+      </c>
+      <c r="BG142">
+        <v>1.33</v>
+      </c>
+      <c r="BH142">
+        <v>2.73</v>
+      </c>
+      <c r="BI142">
+        <v>1.65</v>
+      </c>
+      <c r="BJ142">
+        <v>2.05</v>
+      </c>
+      <c r="BK142">
+        <v>2.05</v>
+      </c>
+      <c r="BL142">
+        <v>1.59</v>
+      </c>
+      <c r="BM142">
+        <v>2.73</v>
+      </c>
+      <c r="BN142">
+        <v>1.33</v>
+      </c>
+      <c r="BO142">
+        <v>3.85</v>
+      </c>
+      <c r="BP142">
         <v>1.24</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -29806,7 +29806,7 @@
         <v>69</v>
       </c>
       <c r="E140" s="2">
-        <v>45635.41666666666</v>
+        <v>45634.875</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -30012,7 +30012,7 @@
         <v>69</v>
       </c>
       <c r="E141" s="2">
-        <v>45635.5</v>
+        <v>45634.875</v>
       </c>
       <c r="F141">
         <v>18</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,9 @@
     <t>['43', '90+3', '90+4']</t>
   </si>
   <si>
+    <t>['24', '55']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -791,6 +794,9 @@
   </si>
   <si>
     <t>['22', '73']</t>
+  </si>
+  <si>
+    <t>['17']</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP142"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,7 +1417,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1698,7 +1704,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ3">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2029,7 +2035,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2441,7 +2447,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2647,7 +2653,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3059,7 +3065,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3140,7 +3146,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3265,7 +3271,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3471,7 +3477,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3883,7 +3889,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3961,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ14">
         <v>1.22</v>
@@ -4295,7 +4301,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4913,7 +4919,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5943,7 +5949,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6433,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
         <v>1.56</v>
@@ -6561,7 +6567,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6767,7 +6773,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -7179,7 +7185,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7466,7 +7472,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7591,7 +7597,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7797,7 +7803,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -8003,7 +8009,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8415,7 +8421,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8827,7 +8833,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9239,7 +9245,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9445,7 +9451,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9651,7 +9657,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9857,7 +9863,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10063,7 +10069,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10269,7 +10275,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10887,7 +10893,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11299,7 +11305,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11505,7 +11511,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11995,7 +12001,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
         <v>0.78</v>
@@ -12329,7 +12335,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12741,7 +12747,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12947,7 +12953,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13028,7 +13034,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AR58">
         <v>1.68</v>
@@ -13153,7 +13159,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13359,7 +13365,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13565,7 +13571,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13771,7 +13777,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13977,7 +13983,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14183,7 +14189,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14389,7 +14395,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14595,7 +14601,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15213,7 +15219,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15625,7 +15631,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15831,7 +15837,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16243,7 +16249,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16655,7 +16661,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16736,7 +16742,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ76">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AR76">
         <v>0</v>
@@ -17067,7 +17073,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17273,7 +17279,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17685,7 +17691,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17891,7 +17897,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18097,7 +18103,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18303,7 +18309,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18509,7 +18515,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18587,7 +18593,7 @@
         <v>1.6</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ85">
         <v>1.67</v>
@@ -18921,7 +18927,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19333,7 +19339,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19539,7 +19545,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19745,7 +19751,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20363,7 +20369,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20444,7 +20450,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ94">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AR94">
         <v>1.84</v>
@@ -21187,7 +21193,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q98">
         <v>2.75</v>
@@ -21393,7 +21399,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q99">
         <v>13</v>
@@ -21471,7 +21477,7 @@
         <v>3</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ99">
         <v>3</v>
@@ -21599,7 +21605,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21805,7 +21811,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22011,7 +22017,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22217,7 +22223,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23041,7 +23047,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23122,7 +23128,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ107">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AR107">
         <v>1.95</v>
@@ -23659,7 +23665,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -23865,7 +23871,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24071,7 +24077,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24355,7 +24361,7 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ113">
         <v>0.44</v>
@@ -24895,7 +24901,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q116">
         <v>2.05</v>
@@ -25101,7 +25107,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25307,7 +25313,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25513,7 +25519,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25719,7 +25725,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -25797,7 +25803,7 @@
         <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ120">
         <v>0.89</v>
@@ -26543,7 +26549,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26749,7 +26755,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -26955,7 +26961,7 @@
         <v>111</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27367,7 +27373,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27573,7 +27579,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27985,7 +27991,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28191,7 +28197,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q132">
         <v>2.2</v>
@@ -28603,7 +28609,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q134">
         <v>1.62</v>
@@ -29015,7 +29021,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29505,7 +29511,7 @@
         <v>1.43</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ138">
         <v>1.38</v>
@@ -29633,7 +29639,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -29714,7 +29720,7 @@
         <v>1</v>
       </c>
       <c r="AQ139">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AR139">
         <v>1.32</v>
@@ -29806,10 +29812,10 @@
         <v>69</v>
       </c>
       <c r="E140" s="2">
-        <v>45634.875</v>
+        <v>45635.41666666666</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G140" t="s">
         <v>82</v>
@@ -29839,7 +29845,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q140">
         <v>2.4</v>
@@ -29932,31 +29938,31 @@
         <v>2.81</v>
       </c>
       <c r="AU140">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV140">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW140">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX140">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY140">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="AZ140">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA140">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BB140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BC140">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BD140">
         <v>1.64</v>
@@ -30012,7 +30018,7 @@
         <v>69</v>
       </c>
       <c r="E141" s="2">
-        <v>45634.875</v>
+        <v>45635.5</v>
       </c>
       <c r="F141">
         <v>18</v>
@@ -30045,7 +30051,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30138,22 +30144,22 @@
         <v>2.18</v>
       </c>
       <c r="AU141">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AV141">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AW141">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AX141">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY141">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="AZ141">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="BA141">
         <v>9</v>
@@ -30251,7 +30257,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30408,6 +30414,212 @@
       </c>
       <c r="BP142">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7453726</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45638.52083333334</v>
+      </c>
+      <c r="F143">
+        <v>6</v>
+      </c>
+      <c r="G143" t="s">
+        <v>81</v>
+      </c>
+      <c r="H143" t="s">
+        <v>83</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>185</v>
+      </c>
+      <c r="P143" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q143">
+        <v>5.5</v>
+      </c>
+      <c r="R143">
+        <v>2.2</v>
+      </c>
+      <c r="S143">
+        <v>2.05</v>
+      </c>
+      <c r="T143">
+        <v>1.36</v>
+      </c>
+      <c r="U143">
+        <v>3</v>
+      </c>
+      <c r="V143">
+        <v>2.75</v>
+      </c>
+      <c r="W143">
+        <v>1.4</v>
+      </c>
+      <c r="X143">
+        <v>6.5</v>
+      </c>
+      <c r="Y143">
+        <v>1.1</v>
+      </c>
+      <c r="Z143">
+        <v>4.8</v>
+      </c>
+      <c r="AA143">
+        <v>3.7</v>
+      </c>
+      <c r="AB143">
+        <v>1.62</v>
+      </c>
+      <c r="AC143">
+        <v>1.05</v>
+      </c>
+      <c r="AD143">
+        <v>8.5</v>
+      </c>
+      <c r="AE143">
+        <v>1.29</v>
+      </c>
+      <c r="AF143">
+        <v>3.35</v>
+      </c>
+      <c r="AG143">
+        <v>1.81</v>
+      </c>
+      <c r="AH143">
+        <v>1.9</v>
+      </c>
+      <c r="AI143">
+        <v>1.91</v>
+      </c>
+      <c r="AJ143">
+        <v>1.8</v>
+      </c>
+      <c r="AK143">
+        <v>1.91</v>
+      </c>
+      <c r="AL143">
+        <v>1.21</v>
+      </c>
+      <c r="AM143">
+        <v>1.15</v>
+      </c>
+      <c r="AN143">
+        <v>1.5</v>
+      </c>
+      <c r="AO143">
+        <v>2.38</v>
+      </c>
+      <c r="AP143">
+        <v>1.67</v>
+      </c>
+      <c r="AQ143">
+        <v>2.11</v>
+      </c>
+      <c r="AR143">
+        <v>1.05</v>
+      </c>
+      <c r="AS143">
+        <v>1.43</v>
+      </c>
+      <c r="AT143">
+        <v>2.48</v>
+      </c>
+      <c r="AU143">
+        <v>5</v>
+      </c>
+      <c r="AV143">
+        <v>2</v>
+      </c>
+      <c r="AW143">
+        <v>4</v>
+      </c>
+      <c r="AX143">
+        <v>11</v>
+      </c>
+      <c r="AY143">
+        <v>11</v>
+      </c>
+      <c r="AZ143">
+        <v>17</v>
+      </c>
+      <c r="BA143">
+        <v>2</v>
+      </c>
+      <c r="BB143">
+        <v>3</v>
+      </c>
+      <c r="BC143">
+        <v>5</v>
+      </c>
+      <c r="BD143">
+        <v>3.5</v>
+      </c>
+      <c r="BE143">
+        <v>8.5</v>
+      </c>
+      <c r="BF143">
+        <v>1.41</v>
+      </c>
+      <c r="BG143">
+        <v>1.36</v>
+      </c>
+      <c r="BH143">
+        <v>2.98</v>
+      </c>
+      <c r="BI143">
+        <v>1.62</v>
+      </c>
+      <c r="BJ143">
+        <v>2.22</v>
+      </c>
+      <c r="BK143">
+        <v>2.02</v>
+      </c>
+      <c r="BL143">
+        <v>1.74</v>
+      </c>
+      <c r="BM143">
+        <v>2.6</v>
+      </c>
+      <c r="BN143">
+        <v>1.46</v>
+      </c>
+      <c r="BO143">
+        <v>3.52</v>
+      </c>
+      <c r="BP143">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,12 @@
     <t>['24', '55']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['26', '39', '56', '58', '80', '82']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -617,9 +623,6 @@
   </si>
   <si>
     <t>['15', '17', '77', '89']</t>
-  </si>
-  <si>
-    <t>['16']</t>
   </si>
   <si>
     <t>['29']</t>
@@ -1158,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,7 +1420,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1910,7 +1913,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ4">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2035,7 +2038,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2447,7 +2450,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2653,7 +2656,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2731,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
         <v>1.67</v>
@@ -3065,7 +3068,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3271,7 +3274,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3349,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
         <v>0.78</v>
@@ -3477,7 +3480,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3558,7 +3561,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ12">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR12">
         <v>2.33</v>
@@ -3889,7 +3892,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4301,7 +4304,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4794,7 +4797,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ18">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4919,7 +4922,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -4997,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
         <v>3</v>
@@ -5949,7 +5952,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6567,7 +6570,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6773,7 +6776,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -7185,7 +7188,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7597,7 +7600,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7803,7 +7806,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="Q33">
         <v>1.9</v>
@@ -8009,7 +8012,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8090,7 +8093,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ34">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR34">
         <v>1.89</v>
@@ -8421,7 +8424,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8499,10 +8502,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ36">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR36">
         <v>1.01</v>
@@ -8705,7 +8708,7 @@
         <v>0.5</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ37">
         <v>0.78</v>
@@ -8833,7 +8836,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9245,7 +9248,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9451,7 +9454,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9529,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
         <v>0.89</v>
@@ -9657,7 +9660,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9863,7 +9866,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10069,7 +10072,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10275,7 +10278,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10768,7 +10771,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ47">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR47">
         <v>1.89</v>
@@ -10893,7 +10896,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11177,7 +11180,7 @@
         <v>0.33</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ49">
         <v>0.67</v>
@@ -11305,7 +11308,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11386,7 +11389,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ50">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11511,7 +11514,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -12335,7 +12338,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12747,7 +12750,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12953,7 +12956,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13159,7 +13162,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13237,7 +13240,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59">
         <v>1.38</v>
@@ -13365,7 +13368,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13571,7 +13574,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13777,7 +13780,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13858,7 +13861,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ62">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR62">
         <v>1.13</v>
@@ -13983,7 +13986,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14189,7 +14192,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14270,7 +14273,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ64">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR64">
         <v>1.12</v>
@@ -14395,7 +14398,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14601,7 +14604,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14885,7 +14888,7 @@
         <v>2.5</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ67">
         <v>1.89</v>
@@ -15219,7 +15222,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15631,7 +15634,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15837,7 +15840,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16249,7 +16252,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16533,7 +16536,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ75">
         <v>0.78</v>
@@ -16661,7 +16664,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17073,7 +17076,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17279,7 +17282,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17691,7 +17694,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17769,10 +17772,10 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ81">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR81">
         <v>1.32</v>
@@ -17897,7 +17900,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18103,7 +18106,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18309,7 +18312,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18515,7 +18518,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18802,7 +18805,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ86">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR86">
         <v>1.93</v>
@@ -18927,7 +18930,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19339,7 +19342,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19545,7 +19548,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19751,7 +19754,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -19829,7 +19832,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ91">
         <v>1.33</v>
@@ -20369,7 +20372,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20862,7 +20865,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ96">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR96">
         <v>1.54</v>
@@ -21193,7 +21196,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="Q98">
         <v>2.75</v>
@@ -21271,7 +21274,7 @@
         <v>0.6</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ98">
         <v>0.89</v>
@@ -21399,7 +21402,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q99">
         <v>13</v>
@@ -21605,7 +21608,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21811,7 +21814,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22017,7 +22020,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22098,7 +22101,7 @@
         <v>2</v>
       </c>
       <c r="AQ102">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR102">
         <v>1.61</v>
@@ -22223,7 +22226,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22301,7 +22304,7 @@
         <v>0.67</v>
       </c>
       <c r="AP103">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ103">
         <v>0.78</v>
@@ -23047,7 +23050,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23665,7 +23668,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -23871,7 +23874,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24077,7 +24080,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24570,7 +24573,7 @@
         <v>1</v>
       </c>
       <c r="AQ114">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR114">
         <v>1.72</v>
@@ -24776,7 +24779,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ115">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR115">
         <v>1.12</v>
@@ -24901,7 +24904,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q116">
         <v>2.05</v>
@@ -25107,7 +25110,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25185,7 +25188,7 @@
         <v>1.8</v>
       </c>
       <c r="AP117">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ117">
         <v>1.38</v>
@@ -25313,7 +25316,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25519,7 +25522,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25725,7 +25728,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26218,7 +26221,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ122">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR122">
         <v>1.45</v>
@@ -26549,7 +26552,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26627,7 +26630,7 @@
         <v>1.43</v>
       </c>
       <c r="AP124">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ124">
         <v>1.56</v>
@@ -26755,7 +26758,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -26961,7 +26964,7 @@
         <v>111</v>
       </c>
       <c r="P126" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27245,7 +27248,7 @@
         <v>2.13</v>
       </c>
       <c r="AP127">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ127">
         <v>1.89</v>
@@ -27373,7 +27376,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27579,7 +27582,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27866,7 +27869,7 @@
         <v>2</v>
       </c>
       <c r="AQ130">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR130">
         <v>1.5</v>
@@ -27991,7 +27994,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28197,7 +28200,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="Q132">
         <v>2.2</v>
@@ -28609,7 +28612,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>1.62</v>
@@ -29021,7 +29024,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29102,7 +29105,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ136">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AR136">
         <v>1.2</v>
@@ -29639,7 +29642,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -29717,7 +29720,7 @@
         <v>2.29</v>
       </c>
       <c r="AP139">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ139">
         <v>2.11</v>
@@ -29845,7 +29848,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q140">
         <v>2.4</v>
@@ -29938,31 +29941,31 @@
         <v>2.81</v>
       </c>
       <c r="AU140">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV140">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW140">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX140">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY140">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ140">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA140">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BB140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC140">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD140">
         <v>1.64</v>
@@ -30051,7 +30054,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30144,22 +30147,22 @@
         <v>2.18</v>
       </c>
       <c r="AU141">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV141">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW141">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX141">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY141">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ141">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA141">
         <v>9</v>
@@ -30257,7 +30260,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30463,7 +30466,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30620,6 +30623,418 @@
       </c>
       <c r="BP143">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7453831</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45640.375</v>
+      </c>
+      <c r="F144">
+        <v>19</v>
+      </c>
+      <c r="G144" t="s">
+        <v>76</v>
+      </c>
+      <c r="H144" t="s">
+        <v>73</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>186</v>
+      </c>
+      <c r="P144" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>2.4</v>
+      </c>
+      <c r="AA144">
+        <v>3.2</v>
+      </c>
+      <c r="AB144">
+        <v>2.6</v>
+      </c>
+      <c r="AC144">
+        <v>0</v>
+      </c>
+      <c r="AD144">
+        <v>0</v>
+      </c>
+      <c r="AE144">
+        <v>0</v>
+      </c>
+      <c r="AF144">
+        <v>0</v>
+      </c>
+      <c r="AG144">
+        <v>2.05</v>
+      </c>
+      <c r="AH144">
+        <v>1.66</v>
+      </c>
+      <c r="AI144">
+        <v>0</v>
+      </c>
+      <c r="AJ144">
+        <v>0</v>
+      </c>
+      <c r="AK144">
+        <v>0</v>
+      </c>
+      <c r="AL144">
+        <v>0</v>
+      </c>
+      <c r="AM144">
+        <v>0</v>
+      </c>
+      <c r="AN144">
+        <v>1.22</v>
+      </c>
+      <c r="AO144">
+        <v>2.11</v>
+      </c>
+      <c r="AP144">
+        <v>1.4</v>
+      </c>
+      <c r="AQ144">
+        <v>1.9</v>
+      </c>
+      <c r="AR144">
+        <v>1.18</v>
+      </c>
+      <c r="AS144">
+        <v>0.7</v>
+      </c>
+      <c r="AT144">
+        <v>1.88</v>
+      </c>
+      <c r="AU144">
+        <v>-1</v>
+      </c>
+      <c r="AV144">
+        <v>-1</v>
+      </c>
+      <c r="AW144">
+        <v>-1</v>
+      </c>
+      <c r="AX144">
+        <v>-1</v>
+      </c>
+      <c r="AY144">
+        <v>-1</v>
+      </c>
+      <c r="AZ144">
+        <v>-1</v>
+      </c>
+      <c r="BA144">
+        <v>-1</v>
+      </c>
+      <c r="BB144">
+        <v>-1</v>
+      </c>
+      <c r="BC144">
+        <v>-1</v>
+      </c>
+      <c r="BD144">
+        <v>0</v>
+      </c>
+      <c r="BE144">
+        <v>0</v>
+      </c>
+      <c r="BF144">
+        <v>0</v>
+      </c>
+      <c r="BG144">
+        <v>0</v>
+      </c>
+      <c r="BH144">
+        <v>0</v>
+      </c>
+      <c r="BI144">
+        <v>0</v>
+      </c>
+      <c r="BJ144">
+        <v>0</v>
+      </c>
+      <c r="BK144">
+        <v>0</v>
+      </c>
+      <c r="BL144">
+        <v>0</v>
+      </c>
+      <c r="BM144">
+        <v>0</v>
+      </c>
+      <c r="BN144">
+        <v>0</v>
+      </c>
+      <c r="BO144">
+        <v>0</v>
+      </c>
+      <c r="BP144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7453824</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F145">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s">
+        <v>79</v>
+      </c>
+      <c r="H145" t="s">
+        <v>78</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>6</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>6</v>
+      </c>
+      <c r="O145" t="s">
+        <v>187</v>
+      </c>
+      <c r="P145" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q145">
+        <v>1.95</v>
+      </c>
+      <c r="R145">
+        <v>2.25</v>
+      </c>
+      <c r="S145">
+        <v>6.5</v>
+      </c>
+      <c r="T145">
+        <v>1.36</v>
+      </c>
+      <c r="U145">
+        <v>3</v>
+      </c>
+      <c r="V145">
+        <v>2.75</v>
+      </c>
+      <c r="W145">
+        <v>1.4</v>
+      </c>
+      <c r="X145">
+        <v>6.5</v>
+      </c>
+      <c r="Y145">
+        <v>1.1</v>
+      </c>
+      <c r="Z145">
+        <v>1.33</v>
+      </c>
+      <c r="AA145">
+        <v>4.5</v>
+      </c>
+      <c r="AB145">
+        <v>7</v>
+      </c>
+      <c r="AC145">
+        <v>1.05</v>
+      </c>
+      <c r="AD145">
+        <v>8.5</v>
+      </c>
+      <c r="AE145">
+        <v>1.27</v>
+      </c>
+      <c r="AF145">
+        <v>3.55</v>
+      </c>
+      <c r="AG145">
+        <v>1.8</v>
+      </c>
+      <c r="AH145">
+        <v>1.91</v>
+      </c>
+      <c r="AI145">
+        <v>2.1</v>
+      </c>
+      <c r="AJ145">
+        <v>1.67</v>
+      </c>
+      <c r="AK145">
+        <v>1.09</v>
+      </c>
+      <c r="AL145">
+        <v>1.16</v>
+      </c>
+      <c r="AM145">
+        <v>2.29</v>
+      </c>
+      <c r="AN145">
+        <v>1</v>
+      </c>
+      <c r="AO145">
+        <v>0.11</v>
+      </c>
+      <c r="AP145">
+        <v>1.2</v>
+      </c>
+      <c r="AQ145">
+        <v>0.1</v>
+      </c>
+      <c r="AR145">
+        <v>1.37</v>
+      </c>
+      <c r="AS145">
+        <v>1.02</v>
+      </c>
+      <c r="AT145">
+        <v>2.39</v>
+      </c>
+      <c r="AU145">
+        <v>13</v>
+      </c>
+      <c r="AV145">
+        <v>3</v>
+      </c>
+      <c r="AW145">
+        <v>2</v>
+      </c>
+      <c r="AX145">
+        <v>4</v>
+      </c>
+      <c r="AY145">
+        <v>17</v>
+      </c>
+      <c r="AZ145">
+        <v>7</v>
+      </c>
+      <c r="BA145">
+        <v>5</v>
+      </c>
+      <c r="BB145">
+        <v>1</v>
+      </c>
+      <c r="BC145">
+        <v>6</v>
+      </c>
+      <c r="BD145">
+        <v>1.3</v>
+      </c>
+      <c r="BE145">
+        <v>9.5</v>
+      </c>
+      <c r="BF145">
+        <v>4.44</v>
+      </c>
+      <c r="BG145">
+        <v>1.48</v>
+      </c>
+      <c r="BH145">
+        <v>2.53</v>
+      </c>
+      <c r="BI145">
+        <v>1.8</v>
+      </c>
+      <c r="BJ145">
+        <v>2</v>
+      </c>
+      <c r="BK145">
+        <v>2.34</v>
+      </c>
+      <c r="BL145">
+        <v>1.56</v>
+      </c>
+      <c r="BM145">
+        <v>3.1</v>
+      </c>
+      <c r="BN145">
+        <v>1.34</v>
+      </c>
+      <c r="BO145">
+        <v>4</v>
+      </c>
+      <c r="BP145">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,15 @@
     <t>['26', '39', '56', '58', '80', '82']</t>
   </si>
   <si>
+    <t>['58', '78']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -632,9 +641,6 @@
   </si>
   <si>
     <t>['4', '23']</t>
-  </si>
-  <si>
-    <t>['34']</t>
   </si>
   <si>
     <t>['54']</t>
@@ -800,6 +806,15 @@
   </si>
   <si>
     <t>['17']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['6', '11', '15', '18', '48', '71', '90']</t>
+  </si>
+  <si>
+    <t>['22', '36', '49']</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1420,7 +1435,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1704,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ3">
         <v>2.11</v>
@@ -2038,7 +2053,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2119,7 +2134,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ5">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2322,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ6">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2450,7 +2465,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2528,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -2656,7 +2671,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2737,7 +2752,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2940,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ9">
         <v>0.78</v>
@@ -3068,7 +3083,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3274,7 +3289,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3480,7 +3495,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3892,7 +3907,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4304,7 +4319,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4382,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ16">
         <v>0.78</v>
@@ -4588,10 +4603,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>1.59</v>
@@ -4922,7 +4937,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5206,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ20">
         <v>0.67</v>
@@ -5412,10 +5427,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ21">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5827,7 +5842,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ23">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR23">
         <v>1.76</v>
@@ -5952,7 +5967,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6570,7 +6585,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6776,7 +6791,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -7188,7 +7203,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7600,7 +7615,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7678,7 +7693,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32">
         <v>3</v>
@@ -7884,10 +7899,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ33">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.82</v>
@@ -8012,7 +8027,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8090,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34">
         <v>1.9</v>
@@ -8296,7 +8311,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ35">
         <v>0.67</v>
@@ -8424,7 +8439,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8836,7 +8851,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8917,7 +8932,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR38">
         <v>1.63</v>
@@ -9248,7 +9263,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>2.88</v>
@@ -9454,7 +9469,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9660,7 +9675,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9866,7 +9881,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10072,7 +10087,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10278,7 +10293,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10359,7 +10374,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ45">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR45">
         <v>1.22</v>
@@ -10562,7 +10577,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ46">
         <v>0.44</v>
@@ -10768,7 +10783,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47">
         <v>0.1</v>
@@ -10896,7 +10911,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -10974,10 +10989,10 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ48">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR48">
         <v>1.07</v>
@@ -11308,7 +11323,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11386,7 +11401,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ50">
         <v>1.9</v>
@@ -11514,7 +11529,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11801,7 +11816,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR52">
         <v>1.32</v>
@@ -12338,7 +12353,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12750,7 +12765,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12828,7 +12843,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ57">
         <v>1.22</v>
@@ -12956,7 +12971,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13162,7 +13177,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13368,7 +13383,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13449,7 +13464,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ60">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR60">
         <v>0.73</v>
@@ -13574,7 +13589,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13780,7 +13795,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -13858,7 +13873,7 @@
         <v>0.25</v>
       </c>
       <c r="AP62">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
         <v>0.1</v>
@@ -13986,7 +14001,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14064,7 +14079,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ63">
         <v>0.89</v>
@@ -14192,7 +14207,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14270,7 +14285,7 @@
         <v>2.33</v>
       </c>
       <c r="AP64">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ64">
         <v>1.9</v>
@@ -14398,7 +14413,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14479,7 +14494,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ65">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR65">
         <v>1.31</v>
@@ -14604,7 +14619,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14891,7 +14906,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ67">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>1.33</v>
@@ -15222,7 +15237,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15634,7 +15649,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15840,7 +15855,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15918,7 +15933,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ72">
         <v>1.38</v>
@@ -16124,7 +16139,7 @@
         <v>1.5</v>
       </c>
       <c r="AP73">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ73">
         <v>1.56</v>
@@ -16252,7 +16267,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16333,7 +16348,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR74">
         <v>1.34</v>
@@ -16664,7 +16679,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17076,7 +17091,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17282,7 +17297,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17363,7 +17378,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR79">
         <v>1.64</v>
@@ -17694,7 +17709,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17900,7 +17915,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18106,7 +18121,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18184,7 +18199,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ83">
         <v>0.89</v>
@@ -18312,7 +18327,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18518,7 +18533,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18599,7 +18614,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ85">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR85">
         <v>1.12</v>
@@ -18802,7 +18817,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ86">
         <v>0.1</v>
@@ -18930,7 +18945,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19011,7 +19026,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ87">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR87">
         <v>2.4</v>
@@ -19214,7 +19229,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ88">
         <v>0.78</v>
@@ -19342,7 +19357,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19420,7 +19435,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ89">
         <v>1.56</v>
@@ -19548,7 +19563,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19754,7 +19769,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20041,7 +20056,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ92">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR92">
         <v>1.11</v>
@@ -20372,7 +20387,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20450,7 +20465,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ94">
         <v>2.11</v>
@@ -21402,7 +21417,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>13</v>
@@ -21608,7 +21623,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21689,7 +21704,7 @@
         <v>1</v>
       </c>
       <c r="AQ100">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR100">
         <v>1.66</v>
@@ -21814,7 +21829,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -21892,7 +21907,7 @@
         <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ101">
         <v>1.38</v>
@@ -22020,7 +22035,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22226,7 +22241,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22307,7 +22322,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ103">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR103">
         <v>1.2</v>
@@ -22510,7 +22525,7 @@
         <v>0.57</v>
       </c>
       <c r="AP104">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ104">
         <v>0.78</v>
@@ -22925,7 +22940,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ106">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR106">
         <v>2.08</v>
@@ -23050,7 +23065,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23128,7 +23143,7 @@
         <v>2.17</v>
       </c>
       <c r="AP107">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ107">
         <v>2.11</v>
@@ -23540,7 +23555,7 @@
         <v>1.29</v>
       </c>
       <c r="AP109">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ109">
         <v>1.33</v>
@@ -23668,7 +23683,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -23749,7 +23764,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ110">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR110">
         <v>1.11</v>
@@ -23874,7 +23889,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24080,7 +24095,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24776,7 +24791,7 @@
         <v>0.14</v>
       </c>
       <c r="AP115">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ115">
         <v>0.1</v>
@@ -24904,7 +24919,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q116">
         <v>2.05</v>
@@ -25110,7 +25125,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25316,7 +25331,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25522,7 +25537,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25728,7 +25743,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26552,7 +26567,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26758,7 +26773,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -26836,10 +26851,10 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ125">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR125">
         <v>1.76</v>
@@ -26964,7 +26979,7 @@
         <v>111</v>
       </c>
       <c r="P126" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27042,7 +27057,7 @@
         <v>0.38</v>
       </c>
       <c r="AP126">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ126">
         <v>0.67</v>
@@ -27251,7 +27266,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ127">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR127">
         <v>1.18</v>
@@ -27376,7 +27391,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27454,7 +27469,7 @@
         <v>1.13</v>
       </c>
       <c r="AP128">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ128">
         <v>1.33</v>
@@ -27582,7 +27597,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27994,7 +28009,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28278,10 +28293,10 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ132">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR132">
         <v>1.95</v>
@@ -28487,7 +28502,7 @@
         <v>2</v>
       </c>
       <c r="AQ133">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR133">
         <v>1.68</v>
@@ -28612,7 +28627,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q134">
         <v>1.62</v>
@@ -29024,7 +29039,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29642,7 +29657,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -29848,7 +29863,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q140">
         <v>2.4</v>
@@ -30054,7 +30069,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30260,7 +30275,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30466,7 +30481,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30765,31 +30780,31 @@
         <v>1.88</v>
       </c>
       <c r="AU144">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW144">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX144">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY144">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ144">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA144">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB144">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC144">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD144">
         <v>0</v>
@@ -31035,6 +31050,830 @@
       </c>
       <c r="BP145">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7453826</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45641.375</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>71</v>
+      </c>
+      <c r="H146" t="s">
+        <v>80</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>188</v>
+      </c>
+      <c r="P146" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q146">
+        <v>3.25</v>
+      </c>
+      <c r="R146">
+        <v>2.1</v>
+      </c>
+      <c r="S146">
+        <v>3</v>
+      </c>
+      <c r="T146">
+        <v>1.4</v>
+      </c>
+      <c r="U146">
+        <v>2.75</v>
+      </c>
+      <c r="V146">
+        <v>2.75</v>
+      </c>
+      <c r="W146">
+        <v>1.4</v>
+      </c>
+      <c r="X146">
+        <v>7</v>
+      </c>
+      <c r="Y146">
+        <v>1.08</v>
+      </c>
+      <c r="Z146">
+        <v>2.62</v>
+      </c>
+      <c r="AA146">
+        <v>3.35</v>
+      </c>
+      <c r="AB146">
+        <v>2.27</v>
+      </c>
+      <c r="AC146">
+        <v>1.05</v>
+      </c>
+      <c r="AD146">
+        <v>8.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.28</v>
+      </c>
+      <c r="AF146">
+        <v>3.5</v>
+      </c>
+      <c r="AG146">
+        <v>1.93</v>
+      </c>
+      <c r="AH146">
+        <v>1.89</v>
+      </c>
+      <c r="AI146">
+        <v>1.73</v>
+      </c>
+      <c r="AJ146">
+        <v>2</v>
+      </c>
+      <c r="AK146">
+        <v>1.46</v>
+      </c>
+      <c r="AL146">
+        <v>1.26</v>
+      </c>
+      <c r="AM146">
+        <v>1.35</v>
+      </c>
+      <c r="AN146">
+        <v>1.11</v>
+      </c>
+      <c r="AO146">
+        <v>0.78</v>
+      </c>
+      <c r="AP146">
+        <v>1.3</v>
+      </c>
+      <c r="AQ146">
+        <v>0.7</v>
+      </c>
+      <c r="AR146">
+        <v>1.33</v>
+      </c>
+      <c r="AS146">
+        <v>1.39</v>
+      </c>
+      <c r="AT146">
+        <v>2.72</v>
+      </c>
+      <c r="AU146">
+        <v>6</v>
+      </c>
+      <c r="AV146">
+        <v>7</v>
+      </c>
+      <c r="AW146">
+        <v>2</v>
+      </c>
+      <c r="AX146">
+        <v>3</v>
+      </c>
+      <c r="AY146">
+        <v>9</v>
+      </c>
+      <c r="AZ146">
+        <v>20</v>
+      </c>
+      <c r="BA146">
+        <v>3</v>
+      </c>
+      <c r="BB146">
+        <v>5</v>
+      </c>
+      <c r="BC146">
+        <v>8</v>
+      </c>
+      <c r="BD146">
+        <v>2.33</v>
+      </c>
+      <c r="BE146">
+        <v>7.5</v>
+      </c>
+      <c r="BF146">
+        <v>1.85</v>
+      </c>
+      <c r="BG146">
+        <v>1.4</v>
+      </c>
+      <c r="BH146">
+        <v>2.82</v>
+      </c>
+      <c r="BI146">
+        <v>1.68</v>
+      </c>
+      <c r="BJ146">
+        <v>2.11</v>
+      </c>
+      <c r="BK146">
+        <v>2.11</v>
+      </c>
+      <c r="BL146">
+        <v>1.68</v>
+      </c>
+      <c r="BM146">
+        <v>2.75</v>
+      </c>
+      <c r="BN146">
+        <v>1.42</v>
+      </c>
+      <c r="BO146">
+        <v>3.82</v>
+      </c>
+      <c r="BP146">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7453829</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45641.41666666666</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>74</v>
+      </c>
+      <c r="H147" t="s">
+        <v>82</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>87</v>
+      </c>
+      <c r="P147" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q147">
+        <v>2.5</v>
+      </c>
+      <c r="R147">
+        <v>2.1</v>
+      </c>
+      <c r="S147">
+        <v>4</v>
+      </c>
+      <c r="T147">
+        <v>1.4</v>
+      </c>
+      <c r="U147">
+        <v>2.75</v>
+      </c>
+      <c r="V147">
+        <v>2.75</v>
+      </c>
+      <c r="W147">
+        <v>1.4</v>
+      </c>
+      <c r="X147">
+        <v>7</v>
+      </c>
+      <c r="Y147">
+        <v>1.08</v>
+      </c>
+      <c r="Z147">
+        <v>1.78</v>
+      </c>
+      <c r="AA147">
+        <v>3.45</v>
+      </c>
+      <c r="AB147">
+        <v>3.75</v>
+      </c>
+      <c r="AC147">
+        <v>1.05</v>
+      </c>
+      <c r="AD147">
+        <v>8.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.28</v>
+      </c>
+      <c r="AF147">
+        <v>3.5</v>
+      </c>
+      <c r="AG147">
+        <v>1.94</v>
+      </c>
+      <c r="AH147">
+        <v>1.88</v>
+      </c>
+      <c r="AI147">
+        <v>1.73</v>
+      </c>
+      <c r="AJ147">
+        <v>2</v>
+      </c>
+      <c r="AK147">
+        <v>1.23</v>
+      </c>
+      <c r="AL147">
+        <v>1.24</v>
+      </c>
+      <c r="AM147">
+        <v>1.67</v>
+      </c>
+      <c r="AN147">
+        <v>1.78</v>
+      </c>
+      <c r="AO147">
+        <v>1.89</v>
+      </c>
+      <c r="AP147">
+        <v>1.6</v>
+      </c>
+      <c r="AQ147">
+        <v>2</v>
+      </c>
+      <c r="AR147">
+        <v>1.6</v>
+      </c>
+      <c r="AS147">
+        <v>1.32</v>
+      </c>
+      <c r="AT147">
+        <v>2.92</v>
+      </c>
+      <c r="AU147">
+        <v>10</v>
+      </c>
+      <c r="AV147">
+        <v>7</v>
+      </c>
+      <c r="AW147">
+        <v>9</v>
+      </c>
+      <c r="AX147">
+        <v>4</v>
+      </c>
+      <c r="AY147">
+        <v>22</v>
+      </c>
+      <c r="AZ147">
+        <v>13</v>
+      </c>
+      <c r="BA147">
+        <v>5</v>
+      </c>
+      <c r="BB147">
+        <v>3</v>
+      </c>
+      <c r="BC147">
+        <v>8</v>
+      </c>
+      <c r="BD147">
+        <v>1.64</v>
+      </c>
+      <c r="BE147">
+        <v>8</v>
+      </c>
+      <c r="BF147">
+        <v>2.77</v>
+      </c>
+      <c r="BG147">
+        <v>1.4</v>
+      </c>
+      <c r="BH147">
+        <v>2.82</v>
+      </c>
+      <c r="BI147">
+        <v>1.68</v>
+      </c>
+      <c r="BJ147">
+        <v>2.11</v>
+      </c>
+      <c r="BK147">
+        <v>2.11</v>
+      </c>
+      <c r="BL147">
+        <v>1.68</v>
+      </c>
+      <c r="BM147">
+        <v>2.75</v>
+      </c>
+      <c r="BN147">
+        <v>1.42</v>
+      </c>
+      <c r="BO147">
+        <v>3.82</v>
+      </c>
+      <c r="BP147">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7453830</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45641.45833333334</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>75</v>
+      </c>
+      <c r="H148" t="s">
+        <v>72</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>4</v>
+      </c>
+      <c r="K148">
+        <v>5</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>7</v>
+      </c>
+      <c r="N148">
+        <v>8</v>
+      </c>
+      <c r="O148" t="s">
+        <v>189</v>
+      </c>
+      <c r="P148" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q148">
+        <v>8.5</v>
+      </c>
+      <c r="R148">
+        <v>2.88</v>
+      </c>
+      <c r="S148">
+        <v>1.57</v>
+      </c>
+      <c r="T148">
+        <v>1.22</v>
+      </c>
+      <c r="U148">
+        <v>4</v>
+      </c>
+      <c r="V148">
+        <v>2</v>
+      </c>
+      <c r="W148">
+        <v>1.73</v>
+      </c>
+      <c r="X148">
+        <v>4.33</v>
+      </c>
+      <c r="Y148">
+        <v>1.2</v>
+      </c>
+      <c r="Z148">
+        <v>8.4</v>
+      </c>
+      <c r="AA148">
+        <v>5.5</v>
+      </c>
+      <c r="AB148">
+        <v>1.22</v>
+      </c>
+      <c r="AC148">
+        <v>1.01</v>
+      </c>
+      <c r="AD148">
+        <v>15.5</v>
+      </c>
+      <c r="AE148">
+        <v>1.11</v>
+      </c>
+      <c r="AF148">
+        <v>6</v>
+      </c>
+      <c r="AG148">
+        <v>1.44</v>
+      </c>
+      <c r="AH148">
+        <v>2.6</v>
+      </c>
+      <c r="AI148">
+        <v>1.91</v>
+      </c>
+      <c r="AJ148">
+        <v>1.8</v>
+      </c>
+      <c r="AK148">
+        <v>3</v>
+      </c>
+      <c r="AL148">
+        <v>1.08</v>
+      </c>
+      <c r="AM148">
+        <v>1.04</v>
+      </c>
+      <c r="AN148">
+        <v>1.56</v>
+      </c>
+      <c r="AO148">
+        <v>3</v>
+      </c>
+      <c r="AP148">
+        <v>1.4</v>
+      </c>
+      <c r="AQ148">
+        <v>3</v>
+      </c>
+      <c r="AR148">
+        <v>1.72</v>
+      </c>
+      <c r="AS148">
+        <v>2.16</v>
+      </c>
+      <c r="AT148">
+        <v>3.88</v>
+      </c>
+      <c r="AU148">
+        <v>4</v>
+      </c>
+      <c r="AV148">
+        <v>10</v>
+      </c>
+      <c r="AW148">
+        <v>5</v>
+      </c>
+      <c r="AX148">
+        <v>3</v>
+      </c>
+      <c r="AY148">
+        <v>14</v>
+      </c>
+      <c r="AZ148">
+        <v>15</v>
+      </c>
+      <c r="BA148">
+        <v>2</v>
+      </c>
+      <c r="BB148">
+        <v>5</v>
+      </c>
+      <c r="BC148">
+        <v>7</v>
+      </c>
+      <c r="BD148">
+        <v>6.16</v>
+      </c>
+      <c r="BE148">
+        <v>11</v>
+      </c>
+      <c r="BF148">
+        <v>1.18</v>
+      </c>
+      <c r="BG148">
+        <v>1.4</v>
+      </c>
+      <c r="BH148">
+        <v>2.82</v>
+      </c>
+      <c r="BI148">
+        <v>1.68</v>
+      </c>
+      <c r="BJ148">
+        <v>2.12</v>
+      </c>
+      <c r="BK148">
+        <v>2.11</v>
+      </c>
+      <c r="BL148">
+        <v>1.68</v>
+      </c>
+      <c r="BM148">
+        <v>2.75</v>
+      </c>
+      <c r="BN148">
+        <v>1.42</v>
+      </c>
+      <c r="BO148">
+        <v>3.8</v>
+      </c>
+      <c r="BP148">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7453828</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45641.52083333334</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>77</v>
+      </c>
+      <c r="H149" t="s">
+        <v>84</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>3</v>
+      </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
+      <c r="O149" t="s">
+        <v>190</v>
+      </c>
+      <c r="P149" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q149">
+        <v>2.88</v>
+      </c>
+      <c r="R149">
+        <v>2.2</v>
+      </c>
+      <c r="S149">
+        <v>3.25</v>
+      </c>
+      <c r="T149">
+        <v>1.36</v>
+      </c>
+      <c r="U149">
+        <v>3</v>
+      </c>
+      <c r="V149">
+        <v>2.75</v>
+      </c>
+      <c r="W149">
+        <v>1.4</v>
+      </c>
+      <c r="X149">
+        <v>6.5</v>
+      </c>
+      <c r="Y149">
+        <v>1.1</v>
+      </c>
+      <c r="Z149">
+        <v>2</v>
+      </c>
+      <c r="AA149">
+        <v>3.4</v>
+      </c>
+      <c r="AB149">
+        <v>3.3</v>
+      </c>
+      <c r="AC149">
+        <v>1.05</v>
+      </c>
+      <c r="AD149">
+        <v>8.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.25</v>
+      </c>
+      <c r="AF149">
+        <v>3.7</v>
+      </c>
+      <c r="AG149">
+        <v>1.7</v>
+      </c>
+      <c r="AH149">
+        <v>1.95</v>
+      </c>
+      <c r="AI149">
+        <v>1.67</v>
+      </c>
+      <c r="AJ149">
+        <v>2.1</v>
+      </c>
+      <c r="AK149">
+        <v>1.38</v>
+      </c>
+      <c r="AL149">
+        <v>1.26</v>
+      </c>
+      <c r="AM149">
+        <v>1.53</v>
+      </c>
+      <c r="AN149">
+        <v>1.44</v>
+      </c>
+      <c r="AO149">
+        <v>1.67</v>
+      </c>
+      <c r="AP149">
+        <v>1.3</v>
+      </c>
+      <c r="AQ149">
+        <v>1.8</v>
+      </c>
+      <c r="AR149">
+        <v>2.02</v>
+      </c>
+      <c r="AS149">
+        <v>1.77</v>
+      </c>
+      <c r="AT149">
+        <v>3.79</v>
+      </c>
+      <c r="AU149">
+        <v>7</v>
+      </c>
+      <c r="AV149">
+        <v>5</v>
+      </c>
+      <c r="AW149">
+        <v>6</v>
+      </c>
+      <c r="AX149">
+        <v>1</v>
+      </c>
+      <c r="AY149">
+        <v>18</v>
+      </c>
+      <c r="AZ149">
+        <v>9</v>
+      </c>
+      <c r="BA149">
+        <v>5</v>
+      </c>
+      <c r="BB149">
+        <v>1</v>
+      </c>
+      <c r="BC149">
+        <v>6</v>
+      </c>
+      <c r="BD149">
+        <v>1.95</v>
+      </c>
+      <c r="BE149">
+        <v>7.5</v>
+      </c>
+      <c r="BF149">
+        <v>2.1</v>
+      </c>
+      <c r="BG149">
+        <v>1.4</v>
+      </c>
+      <c r="BH149">
+        <v>2.82</v>
+      </c>
+      <c r="BI149">
+        <v>1.68</v>
+      </c>
+      <c r="BJ149">
+        <v>2.11</v>
+      </c>
+      <c r="BK149">
+        <v>2.11</v>
+      </c>
+      <c r="BL149">
+        <v>1.68</v>
+      </c>
+      <c r="BM149">
+        <v>2.75</v>
+      </c>
+      <c r="BN149">
+        <v>1.42</v>
+      </c>
+      <c r="BO149">
+        <v>3.82</v>
+      </c>
+      <c r="BP149">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,12 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['35', '90+3']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -608,9 +614,6 @@
   </si>
   <si>
     <t>['19', '37']</t>
-  </si>
-  <si>
-    <t>['26']</t>
   </si>
   <si>
     <t>['65']</t>
@@ -815,6 +818,9 @@
   </si>
   <si>
     <t>['22', '36', '49']</t>
+  </si>
+  <si>
+    <t>['67']</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1435,7 +1441,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1513,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ2">
         <v>1.33</v>
@@ -2053,7 +2059,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2465,7 +2471,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2546,7 +2552,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2671,7 +2677,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2958,7 +2964,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ9">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3083,7 +3089,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3289,7 +3295,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3495,7 +3501,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3907,7 +3913,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4319,7 +4325,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4400,7 +4406,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ16">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR16">
         <v>1.02</v>
@@ -4937,7 +4943,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5224,7 +5230,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR20">
         <v>1.78</v>
@@ -5633,7 +5639,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5839,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ23">
         <v>0.7</v>
@@ -5967,7 +5973,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6585,7 +6591,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6791,7 +6797,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -7203,7 +7209,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7615,7 +7621,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -8027,7 +8033,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8314,7 +8320,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ35">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR35">
         <v>1.22</v>
@@ -8439,7 +8445,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8726,7 +8732,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ37">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>1.6</v>
@@ -8851,7 +8857,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8929,7 +8935,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ38">
         <v>1.8</v>
@@ -9469,7 +9475,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9675,7 +9681,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9756,7 +9762,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ42">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>0.6</v>
@@ -9881,7 +9887,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10087,7 +10093,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10293,7 +10299,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10911,7 +10917,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11198,7 +11204,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR49">
         <v>1.36</v>
@@ -11323,7 +11329,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11529,7 +11535,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11607,7 +11613,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ51">
         <v>3</v>
@@ -11813,7 +11819,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ52">
         <v>1.8</v>
@@ -12022,7 +12028,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ53">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR53">
         <v>1.1</v>
@@ -12353,7 +12359,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12765,7 +12771,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12971,7 +12977,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13177,7 +13183,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13383,7 +13389,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13589,7 +13595,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13795,7 +13801,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -14001,7 +14007,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14207,7 +14213,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14413,7 +14419,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14619,7 +14625,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14700,7 +14706,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR66">
         <v>1.91</v>
@@ -15109,7 +15115,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ68">
         <v>0.44</v>
@@ -15237,7 +15243,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15315,7 +15321,7 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ69">
         <v>3</v>
@@ -15649,7 +15655,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15730,7 +15736,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ71">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR71">
         <v>1.63</v>
@@ -15855,7 +15861,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16267,7 +16273,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16679,7 +16685,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16966,7 +16972,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ77">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR77">
         <v>0.96</v>
@@ -17091,7 +17097,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17297,7 +17303,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17581,7 +17587,7 @@
         <v>1.25</v>
       </c>
       <c r="AP80">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ80">
         <v>1.22</v>
@@ -17709,7 +17715,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17915,7 +17921,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -17993,7 +17999,7 @@
         <v>0.75</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ82">
         <v>0.44</v>
@@ -18121,7 +18127,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18327,7 +18333,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18533,7 +18539,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18945,7 +18951,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19357,7 +19363,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19563,7 +19569,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19644,7 +19650,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ90">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR90">
         <v>1.6</v>
@@ -19769,7 +19775,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20262,7 +20268,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ93">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR93">
         <v>0</v>
@@ -20387,7 +20393,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20877,7 +20883,7 @@
         <v>0.17</v>
       </c>
       <c r="AP96">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ96">
         <v>0.1</v>
@@ -21083,7 +21089,7 @@
         <v>1.2</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ97">
         <v>1.22</v>
@@ -21417,7 +21423,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>13</v>
@@ -21623,7 +21629,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21829,7 +21835,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22035,7 +22041,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22241,7 +22247,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22528,7 +22534,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ104">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR104">
         <v>1.79</v>
@@ -22731,7 +22737,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ105">
         <v>0.78</v>
@@ -23065,7 +23071,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23352,7 +23358,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ108">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR108">
         <v>0.6899999999999999</v>
@@ -23683,7 +23689,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -23889,7 +23895,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24095,7 +24101,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24919,7 +24925,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q116">
         <v>2.05</v>
@@ -24997,7 +25003,7 @@
         <v>1.5</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ116">
         <v>1.56</v>
@@ -25125,7 +25131,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25331,7 +25337,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25537,7 +25543,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25743,7 +25749,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26439,7 +26445,7 @@
         <v>0.86</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ123">
         <v>0.78</v>
@@ -26567,7 +26573,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26773,7 +26779,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -26979,7 +26985,7 @@
         <v>111</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27060,7 +27066,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ126">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR126">
         <v>1.56</v>
@@ -27391,7 +27397,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27597,7 +27603,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27675,10 +27681,10 @@
         <v>0.5</v>
       </c>
       <c r="AP129">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ129">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR129">
         <v>1.62</v>
@@ -27881,7 +27887,7 @@
         <v>0.13</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ130">
         <v>0.1</v>
@@ -28009,7 +28015,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28499,7 +28505,7 @@
         <v>0.88</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ133">
         <v>0.7</v>
@@ -28627,7 +28633,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q134">
         <v>1.62</v>
@@ -29039,7 +29045,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29657,7 +29663,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -29863,7 +29869,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q140">
         <v>2.4</v>
@@ -30069,7 +30075,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30275,7 +30281,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30481,7 +30487,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -31066,7 +31072,7 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45641.375</v>
+        <v>45640.875</v>
       </c>
       <c r="F146">
         <v>19</v>
@@ -31099,7 +31105,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31201,13 +31207,13 @@
         <v>2</v>
       </c>
       <c r="AX146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY146">
         <v>9</v>
       </c>
       <c r="AZ146">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA146">
         <v>3</v>
@@ -31263,7 +31269,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7453829</v>
+        <v>7453830</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31272,166 +31278,166 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45641.41666666666</v>
+        <v>45640.875</v>
       </c>
       <c r="F147">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H147" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N147">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O147" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="P147" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="Q147">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="R147">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="S147">
+        <v>1.57</v>
+      </c>
+      <c r="T147">
+        <v>1.22</v>
+      </c>
+      <c r="U147">
         <v>4</v>
       </c>
-      <c r="T147">
+      <c r="V147">
+        <v>2</v>
+      </c>
+      <c r="W147">
+        <v>1.73</v>
+      </c>
+      <c r="X147">
+        <v>4.33</v>
+      </c>
+      <c r="Y147">
+        <v>1.2</v>
+      </c>
+      <c r="Z147">
+        <v>8.4</v>
+      </c>
+      <c r="AA147">
+        <v>5.5</v>
+      </c>
+      <c r="AB147">
+        <v>1.22</v>
+      </c>
+      <c r="AC147">
+        <v>1.01</v>
+      </c>
+      <c r="AD147">
+        <v>15.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.11</v>
+      </c>
+      <c r="AF147">
+        <v>6</v>
+      </c>
+      <c r="AG147">
+        <v>1.44</v>
+      </c>
+      <c r="AH147">
+        <v>2.6</v>
+      </c>
+      <c r="AI147">
+        <v>1.91</v>
+      </c>
+      <c r="AJ147">
+        <v>1.8</v>
+      </c>
+      <c r="AK147">
+        <v>3</v>
+      </c>
+      <c r="AL147">
+        <v>1.08</v>
+      </c>
+      <c r="AM147">
+        <v>1.04</v>
+      </c>
+      <c r="AN147">
+        <v>1.56</v>
+      </c>
+      <c r="AO147">
+        <v>3</v>
+      </c>
+      <c r="AP147">
         <v>1.4</v>
       </c>
-      <c r="U147">
-        <v>2.75</v>
-      </c>
-      <c r="V147">
-        <v>2.75</v>
-      </c>
-      <c r="W147">
-        <v>1.4</v>
-      </c>
-      <c r="X147">
+      <c r="AQ147">
+        <v>3</v>
+      </c>
+      <c r="AR147">
+        <v>1.72</v>
+      </c>
+      <c r="AS147">
+        <v>2.16</v>
+      </c>
+      <c r="AT147">
+        <v>3.88</v>
+      </c>
+      <c r="AU147">
+        <v>4</v>
+      </c>
+      <c r="AV147">
+        <v>10</v>
+      </c>
+      <c r="AW147">
+        <v>5</v>
+      </c>
+      <c r="AX147">
+        <v>3</v>
+      </c>
+      <c r="AY147">
+        <v>14</v>
+      </c>
+      <c r="AZ147">
+        <v>15</v>
+      </c>
+      <c r="BA147">
+        <v>2</v>
+      </c>
+      <c r="BB147">
+        <v>5</v>
+      </c>
+      <c r="BC147">
         <v>7</v>
       </c>
-      <c r="Y147">
-        <v>1.08</v>
-      </c>
-      <c r="Z147">
-        <v>1.78</v>
-      </c>
-      <c r="AA147">
-        <v>3.45</v>
-      </c>
-      <c r="AB147">
-        <v>3.75</v>
-      </c>
-      <c r="AC147">
-        <v>1.05</v>
-      </c>
-      <c r="AD147">
-        <v>8.5</v>
-      </c>
-      <c r="AE147">
-        <v>1.28</v>
-      </c>
-      <c r="AF147">
-        <v>3.5</v>
-      </c>
-      <c r="AG147">
-        <v>1.94</v>
-      </c>
-      <c r="AH147">
-        <v>1.88</v>
-      </c>
-      <c r="AI147">
-        <v>1.73</v>
-      </c>
-      <c r="AJ147">
-        <v>2</v>
-      </c>
-      <c r="AK147">
-        <v>1.23</v>
-      </c>
-      <c r="AL147">
-        <v>1.24</v>
-      </c>
-      <c r="AM147">
-        <v>1.67</v>
-      </c>
-      <c r="AN147">
-        <v>1.78</v>
-      </c>
-      <c r="AO147">
-        <v>1.89</v>
-      </c>
-      <c r="AP147">
-        <v>1.6</v>
-      </c>
-      <c r="AQ147">
-        <v>2</v>
-      </c>
-      <c r="AR147">
-        <v>1.6</v>
-      </c>
-      <c r="AS147">
-        <v>1.32</v>
-      </c>
-      <c r="AT147">
-        <v>2.92</v>
-      </c>
-      <c r="AU147">
-        <v>10</v>
-      </c>
-      <c r="AV147">
-        <v>7</v>
-      </c>
-      <c r="AW147">
-        <v>9</v>
-      </c>
-      <c r="AX147">
-        <v>4</v>
-      </c>
-      <c r="AY147">
-        <v>22</v>
-      </c>
-      <c r="AZ147">
-        <v>13</v>
-      </c>
-      <c r="BA147">
-        <v>5</v>
-      </c>
-      <c r="BB147">
-        <v>3</v>
-      </c>
-      <c r="BC147">
-        <v>8</v>
-      </c>
       <c r="BD147">
-        <v>1.64</v>
+        <v>6.16</v>
       </c>
       <c r="BE147">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BF147">
-        <v>2.77</v>
+        <v>1.18</v>
       </c>
       <c r="BG147">
         <v>1.4</v>
@@ -31443,7 +31449,7 @@
         <v>1.68</v>
       </c>
       <c r="BJ147">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="BK147">
         <v>2.11</v>
@@ -31458,7 +31464,7 @@
         <v>1.42</v>
       </c>
       <c r="BO147">
-        <v>3.82</v>
+        <v>3.8</v>
       </c>
       <c r="BP147">
         <v>1.24</v>
@@ -31469,7 +31475,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7453830</v>
+        <v>7453829</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31478,166 +31484,166 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45641.45833333334</v>
+        <v>45641.41666666666</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H148" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>87</v>
+      </c>
+      <c r="P148" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q148">
+        <v>2.5</v>
+      </c>
+      <c r="R148">
+        <v>2.1</v>
+      </c>
+      <c r="S148">
         <v>4</v>
       </c>
-      <c r="K148">
+      <c r="T148">
+        <v>1.4</v>
+      </c>
+      <c r="U148">
+        <v>2.75</v>
+      </c>
+      <c r="V148">
+        <v>2.75</v>
+      </c>
+      <c r="W148">
+        <v>1.4</v>
+      </c>
+      <c r="X148">
+        <v>7</v>
+      </c>
+      <c r="Y148">
+        <v>1.08</v>
+      </c>
+      <c r="Z148">
+        <v>1.78</v>
+      </c>
+      <c r="AA148">
+        <v>3.45</v>
+      </c>
+      <c r="AB148">
+        <v>3.75</v>
+      </c>
+      <c r="AC148">
+        <v>1.05</v>
+      </c>
+      <c r="AD148">
+        <v>8.5</v>
+      </c>
+      <c r="AE148">
+        <v>1.28</v>
+      </c>
+      <c r="AF148">
+        <v>3.5</v>
+      </c>
+      <c r="AG148">
+        <v>1.94</v>
+      </c>
+      <c r="AH148">
+        <v>1.88</v>
+      </c>
+      <c r="AI148">
+        <v>1.73</v>
+      </c>
+      <c r="AJ148">
+        <v>2</v>
+      </c>
+      <c r="AK148">
+        <v>1.23</v>
+      </c>
+      <c r="AL148">
+        <v>1.24</v>
+      </c>
+      <c r="AM148">
+        <v>1.67</v>
+      </c>
+      <c r="AN148">
+        <v>1.78</v>
+      </c>
+      <c r="AO148">
+        <v>1.89</v>
+      </c>
+      <c r="AP148">
+        <v>1.6</v>
+      </c>
+      <c r="AQ148">
+        <v>2</v>
+      </c>
+      <c r="AR148">
+        <v>1.6</v>
+      </c>
+      <c r="AS148">
+        <v>1.32</v>
+      </c>
+      <c r="AT148">
+        <v>2.92</v>
+      </c>
+      <c r="AU148">
+        <v>10</v>
+      </c>
+      <c r="AV148">
+        <v>8</v>
+      </c>
+      <c r="AW148">
+        <v>11</v>
+      </c>
+      <c r="AX148">
+        <v>4</v>
+      </c>
+      <c r="AY148">
+        <v>24</v>
+      </c>
+      <c r="AZ148">
+        <v>14</v>
+      </c>
+      <c r="BA148">
         <v>5</v>
       </c>
-      <c r="L148">
-        <v>1</v>
-      </c>
-      <c r="M148">
-        <v>7</v>
-      </c>
-      <c r="N148">
+      <c r="BB148">
+        <v>3</v>
+      </c>
+      <c r="BC148">
         <v>8</v>
       </c>
-      <c r="O148" t="s">
-        <v>189</v>
-      </c>
-      <c r="P148" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q148">
-        <v>8.5</v>
-      </c>
-      <c r="R148">
-        <v>2.88</v>
-      </c>
-      <c r="S148">
-        <v>1.57</v>
-      </c>
-      <c r="T148">
-        <v>1.22</v>
-      </c>
-      <c r="U148">
-        <v>4</v>
-      </c>
-      <c r="V148">
-        <v>2</v>
-      </c>
-      <c r="W148">
-        <v>1.73</v>
-      </c>
-      <c r="X148">
-        <v>4.33</v>
-      </c>
-      <c r="Y148">
-        <v>1.2</v>
-      </c>
-      <c r="Z148">
-        <v>8.4</v>
-      </c>
-      <c r="AA148">
-        <v>5.5</v>
-      </c>
-      <c r="AB148">
-        <v>1.22</v>
-      </c>
-      <c r="AC148">
-        <v>1.01</v>
-      </c>
-      <c r="AD148">
-        <v>15.5</v>
-      </c>
-      <c r="AE148">
-        <v>1.11</v>
-      </c>
-      <c r="AF148">
-        <v>6</v>
-      </c>
-      <c r="AG148">
-        <v>1.44</v>
-      </c>
-      <c r="AH148">
-        <v>2.6</v>
-      </c>
-      <c r="AI148">
-        <v>1.91</v>
-      </c>
-      <c r="AJ148">
-        <v>1.8</v>
-      </c>
-      <c r="AK148">
-        <v>3</v>
-      </c>
-      <c r="AL148">
-        <v>1.08</v>
-      </c>
-      <c r="AM148">
-        <v>1.04</v>
-      </c>
-      <c r="AN148">
-        <v>1.56</v>
-      </c>
-      <c r="AO148">
-        <v>3</v>
-      </c>
-      <c r="AP148">
-        <v>1.4</v>
-      </c>
-      <c r="AQ148">
-        <v>3</v>
-      </c>
-      <c r="AR148">
-        <v>1.72</v>
-      </c>
-      <c r="AS148">
-        <v>2.16</v>
-      </c>
-      <c r="AT148">
-        <v>3.88</v>
-      </c>
-      <c r="AU148">
-        <v>4</v>
-      </c>
-      <c r="AV148">
-        <v>10</v>
-      </c>
-      <c r="AW148">
-        <v>5</v>
-      </c>
-      <c r="AX148">
-        <v>3</v>
-      </c>
-      <c r="AY148">
-        <v>14</v>
-      </c>
-      <c r="AZ148">
-        <v>15</v>
-      </c>
-      <c r="BA148">
-        <v>2</v>
-      </c>
-      <c r="BB148">
-        <v>5</v>
-      </c>
-      <c r="BC148">
-        <v>7</v>
-      </c>
       <c r="BD148">
-        <v>6.16</v>
+        <v>1.64</v>
       </c>
       <c r="BE148">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BF148">
-        <v>1.18</v>
+        <v>2.77</v>
       </c>
       <c r="BG148">
         <v>1.4</v>
@@ -31649,7 +31655,7 @@
         <v>1.68</v>
       </c>
       <c r="BJ148">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="BK148">
         <v>2.11</v>
@@ -31664,7 +31670,7 @@
         <v>1.42</v>
       </c>
       <c r="BO148">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="BP148">
         <v>1.24</v>
@@ -31717,7 +31723,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -31874,6 +31880,418 @@
       </c>
       <c r="BP149">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7453827</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45642.54166666666</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>70</v>
+      </c>
+      <c r="H150" t="s">
+        <v>81</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150" t="s">
+        <v>191</v>
+      </c>
+      <c r="P150" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q150">
+        <v>2.05</v>
+      </c>
+      <c r="R150">
+        <v>2.25</v>
+      </c>
+      <c r="S150">
+        <v>5.5</v>
+      </c>
+      <c r="T150">
+        <v>1.36</v>
+      </c>
+      <c r="U150">
+        <v>3</v>
+      </c>
+      <c r="V150">
+        <v>2.63</v>
+      </c>
+      <c r="W150">
+        <v>1.44</v>
+      </c>
+      <c r="X150">
+        <v>6.5</v>
+      </c>
+      <c r="Y150">
+        <v>1.1</v>
+      </c>
+      <c r="Z150">
+        <v>1.95</v>
+      </c>
+      <c r="AA150">
+        <v>2.9</v>
+      </c>
+      <c r="AB150">
+        <v>4.01</v>
+      </c>
+      <c r="AC150">
+        <v>1.02</v>
+      </c>
+      <c r="AD150">
+        <v>10</v>
+      </c>
+      <c r="AE150">
+        <v>1.26</v>
+      </c>
+      <c r="AF150">
+        <v>3.6</v>
+      </c>
+      <c r="AG150">
+        <v>1.76</v>
+      </c>
+      <c r="AH150">
+        <v>1.96</v>
+      </c>
+      <c r="AI150">
+        <v>1.91</v>
+      </c>
+      <c r="AJ150">
+        <v>1.8</v>
+      </c>
+      <c r="AK150">
+        <v>1.15</v>
+      </c>
+      <c r="AL150">
+        <v>1.2</v>
+      </c>
+      <c r="AM150">
+        <v>1.95</v>
+      </c>
+      <c r="AN150">
+        <v>1.56</v>
+      </c>
+      <c r="AO150">
+        <v>0.67</v>
+      </c>
+      <c r="AP150">
+        <v>1.7</v>
+      </c>
+      <c r="AQ150">
+        <v>0.6</v>
+      </c>
+      <c r="AR150">
+        <v>1.62</v>
+      </c>
+      <c r="AS150">
+        <v>1.39</v>
+      </c>
+      <c r="AT150">
+        <v>3.01</v>
+      </c>
+      <c r="AU150">
+        <v>7</v>
+      </c>
+      <c r="AV150">
+        <v>4</v>
+      </c>
+      <c r="AW150">
+        <v>4</v>
+      </c>
+      <c r="AX150">
+        <v>3</v>
+      </c>
+      <c r="AY150">
+        <v>13</v>
+      </c>
+      <c r="AZ150">
+        <v>8</v>
+      </c>
+      <c r="BA150">
+        <v>4</v>
+      </c>
+      <c r="BB150">
+        <v>4</v>
+      </c>
+      <c r="BC150">
+        <v>8</v>
+      </c>
+      <c r="BD150">
+        <v>1.69</v>
+      </c>
+      <c r="BE150">
+        <v>8</v>
+      </c>
+      <c r="BF150">
+        <v>2.54</v>
+      </c>
+      <c r="BG150">
+        <v>1.35</v>
+      </c>
+      <c r="BH150">
+        <v>2.74</v>
+      </c>
+      <c r="BI150">
+        <v>1.67</v>
+      </c>
+      <c r="BJ150">
+        <v>2.03</v>
+      </c>
+      <c r="BK150">
+        <v>2.1</v>
+      </c>
+      <c r="BL150">
+        <v>1.59</v>
+      </c>
+      <c r="BM150">
+        <v>2.83</v>
+      </c>
+      <c r="BN150">
+        <v>1.33</v>
+      </c>
+      <c r="BO150">
+        <v>3.88</v>
+      </c>
+      <c r="BP150">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7453825</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45642.625</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>83</v>
+      </c>
+      <c r="H151" t="s">
+        <v>85</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>192</v>
+      </c>
+      <c r="P151" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q151">
+        <v>1.83</v>
+      </c>
+      <c r="R151">
+        <v>2.5</v>
+      </c>
+      <c r="S151">
+        <v>6</v>
+      </c>
+      <c r="T151">
+        <v>1.29</v>
+      </c>
+      <c r="U151">
+        <v>3.5</v>
+      </c>
+      <c r="V151">
+        <v>2.38</v>
+      </c>
+      <c r="W151">
+        <v>1.53</v>
+      </c>
+      <c r="X151">
+        <v>5</v>
+      </c>
+      <c r="Y151">
+        <v>1.14</v>
+      </c>
+      <c r="Z151">
+        <v>1.22</v>
+      </c>
+      <c r="AA151">
+        <v>7.63</v>
+      </c>
+      <c r="AB151">
+        <v>6.26</v>
+      </c>
+      <c r="AC151">
+        <v>1.01</v>
+      </c>
+      <c r="AD151">
+        <v>13</v>
+      </c>
+      <c r="AE151">
+        <v>1.18</v>
+      </c>
+      <c r="AF151">
+        <v>4.5</v>
+      </c>
+      <c r="AG151">
+        <v>1.63</v>
+      </c>
+      <c r="AH151">
+        <v>2.15</v>
+      </c>
+      <c r="AI151">
+        <v>1.8</v>
+      </c>
+      <c r="AJ151">
+        <v>1.91</v>
+      </c>
+      <c r="AK151">
+        <v>1.1</v>
+      </c>
+      <c r="AL151">
+        <v>1.15</v>
+      </c>
+      <c r="AM151">
+        <v>2.3</v>
+      </c>
+      <c r="AN151">
+        <v>2</v>
+      </c>
+      <c r="AO151">
+        <v>0.78</v>
+      </c>
+      <c r="AP151">
+        <v>1.9</v>
+      </c>
+      <c r="AQ151">
+        <v>0.8</v>
+      </c>
+      <c r="AR151">
+        <v>1.68</v>
+      </c>
+      <c r="AS151">
+        <v>1.49</v>
+      </c>
+      <c r="AT151">
+        <v>3.17</v>
+      </c>
+      <c r="AU151">
+        <v>5</v>
+      </c>
+      <c r="AV151">
+        <v>5</v>
+      </c>
+      <c r="AW151">
+        <v>5</v>
+      </c>
+      <c r="AX151">
+        <v>3</v>
+      </c>
+      <c r="AY151">
+        <v>16</v>
+      </c>
+      <c r="AZ151">
+        <v>9</v>
+      </c>
+      <c r="BA151">
+        <v>5</v>
+      </c>
+      <c r="BB151">
+        <v>4</v>
+      </c>
+      <c r="BC151">
+        <v>9</v>
+      </c>
+      <c r="BD151">
+        <v>1.34</v>
+      </c>
+      <c r="BE151">
+        <v>9</v>
+      </c>
+      <c r="BF151">
+        <v>3.88</v>
+      </c>
+      <c r="BG151">
+        <v>1.32</v>
+      </c>
+      <c r="BH151">
+        <v>3.22</v>
+      </c>
+      <c r="BI151">
+        <v>1.56</v>
+      </c>
+      <c r="BJ151">
+        <v>2.33</v>
+      </c>
+      <c r="BK151">
+        <v>2</v>
+      </c>
+      <c r="BL151">
+        <v>1.8</v>
+      </c>
+      <c r="BM151">
+        <v>2.47</v>
+      </c>
+      <c r="BN151">
+        <v>1.51</v>
+      </c>
+      <c r="BO151">
+        <v>3.35</v>
+      </c>
+      <c r="BP151">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -31072,7 +31072,7 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45640.875</v>
+        <v>45641.375</v>
       </c>
       <c r="F146">
         <v>19</v>
@@ -31269,7 +31269,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7453830</v>
+        <v>7453829</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31278,166 +31278,166 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45640.875</v>
+        <v>45641.41666666666</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H147" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>87</v>
+      </c>
+      <c r="P147" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q147">
+        <v>2.5</v>
+      </c>
+      <c r="R147">
+        <v>2.1</v>
+      </c>
+      <c r="S147">
         <v>4</v>
       </c>
-      <c r="K147">
+      <c r="T147">
+        <v>1.4</v>
+      </c>
+      <c r="U147">
+        <v>2.75</v>
+      </c>
+      <c r="V147">
+        <v>2.75</v>
+      </c>
+      <c r="W147">
+        <v>1.4</v>
+      </c>
+      <c r="X147">
+        <v>7</v>
+      </c>
+      <c r="Y147">
+        <v>1.08</v>
+      </c>
+      <c r="Z147">
+        <v>1.78</v>
+      </c>
+      <c r="AA147">
+        <v>3.45</v>
+      </c>
+      <c r="AB147">
+        <v>3.75</v>
+      </c>
+      <c r="AC147">
+        <v>1.05</v>
+      </c>
+      <c r="AD147">
+        <v>8.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.28</v>
+      </c>
+      <c r="AF147">
+        <v>3.5</v>
+      </c>
+      <c r="AG147">
+        <v>1.94</v>
+      </c>
+      <c r="AH147">
+        <v>1.88</v>
+      </c>
+      <c r="AI147">
+        <v>1.73</v>
+      </c>
+      <c r="AJ147">
+        <v>2</v>
+      </c>
+      <c r="AK147">
+        <v>1.23</v>
+      </c>
+      <c r="AL147">
+        <v>1.24</v>
+      </c>
+      <c r="AM147">
+        <v>1.67</v>
+      </c>
+      <c r="AN147">
+        <v>1.78</v>
+      </c>
+      <c r="AO147">
+        <v>1.89</v>
+      </c>
+      <c r="AP147">
+        <v>1.6</v>
+      </c>
+      <c r="AQ147">
+        <v>2</v>
+      </c>
+      <c r="AR147">
+        <v>1.6</v>
+      </c>
+      <c r="AS147">
+        <v>1.32</v>
+      </c>
+      <c r="AT147">
+        <v>2.92</v>
+      </c>
+      <c r="AU147">
+        <v>10</v>
+      </c>
+      <c r="AV147">
+        <v>8</v>
+      </c>
+      <c r="AW147">
+        <v>11</v>
+      </c>
+      <c r="AX147">
+        <v>4</v>
+      </c>
+      <c r="AY147">
+        <v>24</v>
+      </c>
+      <c r="AZ147">
+        <v>14</v>
+      </c>
+      <c r="BA147">
         <v>5</v>
       </c>
-      <c r="L147">
-        <v>1</v>
-      </c>
-      <c r="M147">
-        <v>7</v>
-      </c>
-      <c r="N147">
+      <c r="BB147">
+        <v>3</v>
+      </c>
+      <c r="BC147">
         <v>8</v>
       </c>
-      <c r="O147" t="s">
-        <v>189</v>
-      </c>
-      <c r="P147" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q147">
-        <v>8.5</v>
-      </c>
-      <c r="R147">
-        <v>2.88</v>
-      </c>
-      <c r="S147">
-        <v>1.57</v>
-      </c>
-      <c r="T147">
-        <v>1.22</v>
-      </c>
-      <c r="U147">
-        <v>4</v>
-      </c>
-      <c r="V147">
-        <v>2</v>
-      </c>
-      <c r="W147">
-        <v>1.73</v>
-      </c>
-      <c r="X147">
-        <v>4.33</v>
-      </c>
-      <c r="Y147">
-        <v>1.2</v>
-      </c>
-      <c r="Z147">
-        <v>8.4</v>
-      </c>
-      <c r="AA147">
-        <v>5.5</v>
-      </c>
-      <c r="AB147">
-        <v>1.22</v>
-      </c>
-      <c r="AC147">
-        <v>1.01</v>
-      </c>
-      <c r="AD147">
-        <v>15.5</v>
-      </c>
-      <c r="AE147">
-        <v>1.11</v>
-      </c>
-      <c r="AF147">
-        <v>6</v>
-      </c>
-      <c r="AG147">
-        <v>1.44</v>
-      </c>
-      <c r="AH147">
-        <v>2.6</v>
-      </c>
-      <c r="AI147">
-        <v>1.91</v>
-      </c>
-      <c r="AJ147">
-        <v>1.8</v>
-      </c>
-      <c r="AK147">
-        <v>3</v>
-      </c>
-      <c r="AL147">
-        <v>1.08</v>
-      </c>
-      <c r="AM147">
-        <v>1.04</v>
-      </c>
-      <c r="AN147">
-        <v>1.56</v>
-      </c>
-      <c r="AO147">
-        <v>3</v>
-      </c>
-      <c r="AP147">
-        <v>1.4</v>
-      </c>
-      <c r="AQ147">
-        <v>3</v>
-      </c>
-      <c r="AR147">
-        <v>1.72</v>
-      </c>
-      <c r="AS147">
-        <v>2.16</v>
-      </c>
-      <c r="AT147">
-        <v>3.88</v>
-      </c>
-      <c r="AU147">
-        <v>4</v>
-      </c>
-      <c r="AV147">
-        <v>10</v>
-      </c>
-      <c r="AW147">
-        <v>5</v>
-      </c>
-      <c r="AX147">
-        <v>3</v>
-      </c>
-      <c r="AY147">
-        <v>14</v>
-      </c>
-      <c r="AZ147">
-        <v>15</v>
-      </c>
-      <c r="BA147">
-        <v>2</v>
-      </c>
-      <c r="BB147">
-        <v>5</v>
-      </c>
-      <c r="BC147">
-        <v>7</v>
-      </c>
       <c r="BD147">
-        <v>6.16</v>
+        <v>1.64</v>
       </c>
       <c r="BE147">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BF147">
-        <v>1.18</v>
+        <v>2.77</v>
       </c>
       <c r="BG147">
         <v>1.4</v>
@@ -31449,7 +31449,7 @@
         <v>1.68</v>
       </c>
       <c r="BJ147">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="BK147">
         <v>2.11</v>
@@ -31464,7 +31464,7 @@
         <v>1.42</v>
       </c>
       <c r="BO147">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="BP147">
         <v>1.24</v>
@@ -31475,7 +31475,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7453829</v>
+        <v>7453830</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31484,166 +31484,166 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45641.41666666666</v>
+        <v>45641.45833333334</v>
       </c>
       <c r="F148">
         <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H148" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N148">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O148" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="Q148">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="R148">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="S148">
+        <v>1.57</v>
+      </c>
+      <c r="T148">
+        <v>1.22</v>
+      </c>
+      <c r="U148">
         <v>4</v>
       </c>
-      <c r="T148">
+      <c r="V148">
+        <v>2</v>
+      </c>
+      <c r="W148">
+        <v>1.73</v>
+      </c>
+      <c r="X148">
+        <v>4.33</v>
+      </c>
+      <c r="Y148">
+        <v>1.2</v>
+      </c>
+      <c r="Z148">
+        <v>8.4</v>
+      </c>
+      <c r="AA148">
+        <v>5.5</v>
+      </c>
+      <c r="AB148">
+        <v>1.22</v>
+      </c>
+      <c r="AC148">
+        <v>1.01</v>
+      </c>
+      <c r="AD148">
+        <v>15.5</v>
+      </c>
+      <c r="AE148">
+        <v>1.11</v>
+      </c>
+      <c r="AF148">
+        <v>6</v>
+      </c>
+      <c r="AG148">
+        <v>1.44</v>
+      </c>
+      <c r="AH148">
+        <v>2.6</v>
+      </c>
+      <c r="AI148">
+        <v>1.91</v>
+      </c>
+      <c r="AJ148">
+        <v>1.8</v>
+      </c>
+      <c r="AK148">
+        <v>3</v>
+      </c>
+      <c r="AL148">
+        <v>1.08</v>
+      </c>
+      <c r="AM148">
+        <v>1.04</v>
+      </c>
+      <c r="AN148">
+        <v>1.56</v>
+      </c>
+      <c r="AO148">
+        <v>3</v>
+      </c>
+      <c r="AP148">
         <v>1.4</v>
       </c>
-      <c r="U148">
-        <v>2.75</v>
-      </c>
-      <c r="V148">
-        <v>2.75</v>
-      </c>
-      <c r="W148">
-        <v>1.4</v>
-      </c>
-      <c r="X148">
+      <c r="AQ148">
+        <v>3</v>
+      </c>
+      <c r="AR148">
+        <v>1.72</v>
+      </c>
+      <c r="AS148">
+        <v>2.16</v>
+      </c>
+      <c r="AT148">
+        <v>3.88</v>
+      </c>
+      <c r="AU148">
+        <v>4</v>
+      </c>
+      <c r="AV148">
+        <v>11</v>
+      </c>
+      <c r="AW148">
+        <v>5</v>
+      </c>
+      <c r="AX148">
+        <v>3</v>
+      </c>
+      <c r="AY148">
+        <v>14</v>
+      </c>
+      <c r="AZ148">
+        <v>16</v>
+      </c>
+      <c r="BA148">
+        <v>2</v>
+      </c>
+      <c r="BB148">
+        <v>5</v>
+      </c>
+      <c r="BC148">
         <v>7</v>
       </c>
-      <c r="Y148">
-        <v>1.08</v>
-      </c>
-      <c r="Z148">
-        <v>1.78</v>
-      </c>
-      <c r="AA148">
-        <v>3.45</v>
-      </c>
-      <c r="AB148">
-        <v>3.75</v>
-      </c>
-      <c r="AC148">
-        <v>1.05</v>
-      </c>
-      <c r="AD148">
-        <v>8.5</v>
-      </c>
-      <c r="AE148">
-        <v>1.28</v>
-      </c>
-      <c r="AF148">
-        <v>3.5</v>
-      </c>
-      <c r="AG148">
-        <v>1.94</v>
-      </c>
-      <c r="AH148">
-        <v>1.88</v>
-      </c>
-      <c r="AI148">
-        <v>1.73</v>
-      </c>
-      <c r="AJ148">
-        <v>2</v>
-      </c>
-      <c r="AK148">
-        <v>1.23</v>
-      </c>
-      <c r="AL148">
-        <v>1.24</v>
-      </c>
-      <c r="AM148">
-        <v>1.67</v>
-      </c>
-      <c r="AN148">
-        <v>1.78</v>
-      </c>
-      <c r="AO148">
-        <v>1.89</v>
-      </c>
-      <c r="AP148">
-        <v>1.6</v>
-      </c>
-      <c r="AQ148">
-        <v>2</v>
-      </c>
-      <c r="AR148">
-        <v>1.6</v>
-      </c>
-      <c r="AS148">
-        <v>1.32</v>
-      </c>
-      <c r="AT148">
-        <v>2.92</v>
-      </c>
-      <c r="AU148">
-        <v>10</v>
-      </c>
-      <c r="AV148">
-        <v>8</v>
-      </c>
-      <c r="AW148">
+      <c r="BD148">
+        <v>6.16</v>
+      </c>
+      <c r="BE148">
         <v>11</v>
       </c>
-      <c r="AX148">
-        <v>4</v>
-      </c>
-      <c r="AY148">
-        <v>24</v>
-      </c>
-      <c r="AZ148">
-        <v>14</v>
-      </c>
-      <c r="BA148">
-        <v>5</v>
-      </c>
-      <c r="BB148">
-        <v>3</v>
-      </c>
-      <c r="BC148">
-        <v>8</v>
-      </c>
-      <c r="BD148">
-        <v>1.64</v>
-      </c>
-      <c r="BE148">
-        <v>8</v>
-      </c>
       <c r="BF148">
-        <v>2.77</v>
+        <v>1.18</v>
       </c>
       <c r="BG148">
         <v>1.4</v>
@@ -31655,7 +31655,7 @@
         <v>1.68</v>
       </c>
       <c r="BJ148">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="BK148">
         <v>2.11</v>
@@ -31670,7 +31670,7 @@
         <v>1.42</v>
       </c>
       <c r="BO148">
-        <v>3.82</v>
+        <v>3.8</v>
       </c>
       <c r="BP148">
         <v>1.24</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -822,6 +822,9 @@
   <si>
     <t>['67']</t>
   </si>
+  <si>
+    <t>['39', '65', '73', '80']</t>
+  </si>
 </sst>
 </file>
 
@@ -1182,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3167,7 +3170,7 @@
         <v>3</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ10">
         <v>2.11</v>
@@ -7081,7 +7084,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ29">
         <v>1.33</v>
@@ -9759,7 +9762,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ42">
         <v>0.8</v>
@@ -13467,7 +13470,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ60">
         <v>0.7</v>
@@ -16969,7 +16972,7 @@
         <v>0.2</v>
       </c>
       <c r="AP77">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ77">
         <v>0.6</v>
@@ -20059,7 +20062,7 @@
         <v>1.83</v>
       </c>
       <c r="AP92">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ92">
         <v>1.8</v>
@@ -23767,7 +23770,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ110">
         <v>2</v>
@@ -29123,7 +29126,7 @@
         <v>2</v>
       </c>
       <c r="AP136">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AQ136">
         <v>1.9</v>
@@ -32292,6 +32295,212 @@
       </c>
       <c r="BP151">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7453801</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45644.5</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>78</v>
+      </c>
+      <c r="H152" t="s">
+        <v>72</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>4</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>87</v>
+      </c>
+      <c r="P152" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q152">
+        <v>13</v>
+      </c>
+      <c r="R152">
+        <v>3.4</v>
+      </c>
+      <c r="S152">
+        <v>1.36</v>
+      </c>
+      <c r="T152">
+        <v>1.18</v>
+      </c>
+      <c r="U152">
+        <v>4.5</v>
+      </c>
+      <c r="V152">
+        <v>1.96</v>
+      </c>
+      <c r="W152">
+        <v>1.79</v>
+      </c>
+      <c r="X152">
+        <v>4</v>
+      </c>
+      <c r="Y152">
+        <v>1.22</v>
+      </c>
+      <c r="Z152">
+        <v>27</v>
+      </c>
+      <c r="AA152">
+        <v>17</v>
+      </c>
+      <c r="AB152">
+        <v>1.02</v>
+      </c>
+      <c r="AC152">
+        <v>1.01</v>
+      </c>
+      <c r="AD152">
+        <v>13</v>
+      </c>
+      <c r="AE152">
+        <v>1.05</v>
+      </c>
+      <c r="AF152">
+        <v>7.5</v>
+      </c>
+      <c r="AG152">
+        <v>1.22</v>
+      </c>
+      <c r="AH152">
+        <v>3.75</v>
+      </c>
+      <c r="AI152">
+        <v>2.25</v>
+      </c>
+      <c r="AJ152">
+        <v>1.62</v>
+      </c>
+      <c r="AK152">
+        <v>6.7</v>
+      </c>
+      <c r="AL152">
+        <v>1.02</v>
+      </c>
+      <c r="AM152">
+        <v>1</v>
+      </c>
+      <c r="AN152">
+        <v>0.5</v>
+      </c>
+      <c r="AO152">
+        <v>3</v>
+      </c>
+      <c r="AP152">
+        <v>0.44</v>
+      </c>
+      <c r="AQ152">
+        <v>3</v>
+      </c>
+      <c r="AR152">
+        <v>1.2</v>
+      </c>
+      <c r="AS152">
+        <v>2.15</v>
+      </c>
+      <c r="AT152">
+        <v>3.35</v>
+      </c>
+      <c r="AU152">
+        <v>3</v>
+      </c>
+      <c r="AV152">
+        <v>10</v>
+      </c>
+      <c r="AW152">
+        <v>3</v>
+      </c>
+      <c r="AX152">
+        <v>11</v>
+      </c>
+      <c r="AY152">
+        <v>10</v>
+      </c>
+      <c r="AZ152">
+        <v>26</v>
+      </c>
+      <c r="BA152">
+        <v>3</v>
+      </c>
+      <c r="BB152">
+        <v>5</v>
+      </c>
+      <c r="BC152">
+        <v>8</v>
+      </c>
+      <c r="BD152">
+        <v>10</v>
+      </c>
+      <c r="BE152">
+        <v>13</v>
+      </c>
+      <c r="BF152">
+        <v>1.08</v>
+      </c>
+      <c r="BG152">
+        <v>1.29</v>
+      </c>
+      <c r="BH152">
+        <v>2.92</v>
+      </c>
+      <c r="BI152">
+        <v>1.55</v>
+      </c>
+      <c r="BJ152">
+        <v>2.12</v>
+      </c>
+      <c r="BK152">
+        <v>1.98</v>
+      </c>
+      <c r="BL152">
+        <v>1.7</v>
+      </c>
+      <c r="BM152">
+        <v>2.54</v>
+      </c>
+      <c r="BN152">
+        <v>1.38</v>
+      </c>
+      <c r="BO152">
+        <v>3.44</v>
+      </c>
+      <c r="BP152">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -825,6 +825,9 @@
   <si>
     <t>['39', '65', '73', '80']</t>
   </si>
+  <si>
+    <t>['4', '34', '52']</t>
+  </si>
 </sst>
 </file>
 
@@ -1185,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2140,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -4818,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ18">
         <v>0.1</v>
@@ -6672,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ27">
         <v>0.44</v>
@@ -6881,7 +6884,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ28">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR28">
         <v>2.33</v>
@@ -9144,7 +9147,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ39">
         <v>1.22</v>
@@ -9559,7 +9562,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ41">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -12440,7 +12443,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ55">
         <v>1.56</v>
@@ -14091,7 +14094,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ63">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR63">
         <v>1.81</v>
@@ -16766,7 +16769,7 @@
         <v>1.75</v>
       </c>
       <c r="AP76">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ76">
         <v>2.11</v>
@@ -17181,7 +17184,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR78">
         <v>1.57</v>
@@ -18211,7 +18214,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ83">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR83">
         <v>1.12</v>
@@ -20268,7 +20271,7 @@
         <v>0.67</v>
       </c>
       <c r="AP93">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ93">
         <v>0.8</v>
@@ -21301,7 +21304,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ98">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR98">
         <v>1.32</v>
@@ -23358,7 +23361,7 @@
         <v>0.29</v>
       </c>
       <c r="AP108">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ108">
         <v>0.6</v>
@@ -23979,7 +23982,7 @@
         <v>2</v>
       </c>
       <c r="AQ111">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR111">
         <v>1.71</v>
@@ -25833,7 +25836,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ120">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR120">
         <v>1.05</v>
@@ -28096,7 +28099,7 @@
         <v>3</v>
       </c>
       <c r="AP131">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ131">
         <v>3</v>
@@ -29953,7 +29956,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ140">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR140">
         <v>1.53</v>
@@ -32501,6 +32504,212 @@
       </c>
       <c r="BP152">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7453833</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45646.54166666666</v>
+      </c>
+      <c r="F153">
+        <v>20</v>
+      </c>
+      <c r="G153" t="s">
+        <v>73</v>
+      </c>
+      <c r="H153" t="s">
+        <v>75</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>2</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>3</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153" t="s">
+        <v>92</v>
+      </c>
+      <c r="P153" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <v>0</v>
+      </c>
+      <c r="V153">
+        <v>0</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <v>0</v>
+      </c>
+      <c r="Z153">
+        <v>2.88</v>
+      </c>
+      <c r="AA153">
+        <v>3.1</v>
+      </c>
+      <c r="AB153">
+        <v>2.38</v>
+      </c>
+      <c r="AC153">
+        <v>0</v>
+      </c>
+      <c r="AD153">
+        <v>0</v>
+      </c>
+      <c r="AE153">
+        <v>0</v>
+      </c>
+      <c r="AF153">
+        <v>0</v>
+      </c>
+      <c r="AG153">
+        <v>1.85</v>
+      </c>
+      <c r="AH153">
+        <v>1.75</v>
+      </c>
+      <c r="AI153">
+        <v>0</v>
+      </c>
+      <c r="AJ153">
+        <v>0</v>
+      </c>
+      <c r="AK153">
+        <v>0</v>
+      </c>
+      <c r="AL153">
+        <v>0</v>
+      </c>
+      <c r="AM153">
+        <v>0</v>
+      </c>
+      <c r="AN153">
+        <v>1.44</v>
+      </c>
+      <c r="AO153">
+        <v>0.89</v>
+      </c>
+      <c r="AP153">
+        <v>1.3</v>
+      </c>
+      <c r="AQ153">
+        <v>1.1</v>
+      </c>
+      <c r="AR153">
+        <v>1.01</v>
+      </c>
+      <c r="AS153">
+        <v>1.26</v>
+      </c>
+      <c r="AT153">
+        <v>2.27</v>
+      </c>
+      <c r="AU153">
+        <v>-1</v>
+      </c>
+      <c r="AV153">
+        <v>-1</v>
+      </c>
+      <c r="AW153">
+        <v>-1</v>
+      </c>
+      <c r="AX153">
+        <v>-1</v>
+      </c>
+      <c r="AY153">
+        <v>-1</v>
+      </c>
+      <c r="AZ153">
+        <v>-1</v>
+      </c>
+      <c r="BA153">
+        <v>-1</v>
+      </c>
+      <c r="BB153">
+        <v>-1</v>
+      </c>
+      <c r="BC153">
+        <v>-1</v>
+      </c>
+      <c r="BD153">
+        <v>0</v>
+      </c>
+      <c r="BE153">
+        <v>0</v>
+      </c>
+      <c r="BF153">
+        <v>0</v>
+      </c>
+      <c r="BG153">
+        <v>0</v>
+      </c>
+      <c r="BH153">
+        <v>0</v>
+      </c>
+      <c r="BI153">
+        <v>0</v>
+      </c>
+      <c r="BJ153">
+        <v>0</v>
+      </c>
+      <c r="BK153">
+        <v>0</v>
+      </c>
+      <c r="BL153">
+        <v>0</v>
+      </c>
+      <c r="BM153">
+        <v>0</v>
+      </c>
+      <c r="BN153">
+        <v>0</v>
+      </c>
+      <c r="BO153">
+        <v>0</v>
+      </c>
+      <c r="BP153">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,12 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['34', '45', '67']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -827,6 +833,9 @@
   </si>
   <si>
     <t>['4', '34', '52']</t>
+  </si>
+  <si>
+    <t>['54', '80']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1447,7 +1456,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1528,7 +1537,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1734,7 +1743,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ3">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2065,7 +2074,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2477,7 +2486,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2683,7 +2692,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3095,7 +3104,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3176,7 +3185,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ10">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3301,7 +3310,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3507,7 +3516,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3791,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ13">
         <v>1.38</v>
@@ -4331,7 +4340,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4949,7 +4958,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5648,7 +5657,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5979,7 +5988,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6263,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ25">
         <v>0.78</v>
@@ -6472,7 +6481,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR26">
         <v>0.95</v>
@@ -6597,7 +6606,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6803,7 +6812,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -7090,7 +7099,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR29">
         <v>0.53</v>
@@ -7215,7 +7224,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7293,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ30">
         <v>1.38</v>
@@ -7499,10 +7508,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ31">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7627,7 +7636,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -8039,7 +8048,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8451,7 +8460,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8863,7 +8872,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9353,10 +9362,10 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR40">
         <v>1.91</v>
@@ -9481,7 +9490,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9687,7 +9696,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9893,7 +9902,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9974,7 +9983,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
         <v>1.47</v>
@@ -10099,7 +10108,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10177,7 +10186,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ44">
         <v>0.78</v>
@@ -10305,7 +10314,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10383,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45">
         <v>0.7</v>
@@ -10923,7 +10932,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11335,7 +11344,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11541,7 +11550,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -12237,10 +12246,10 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ54">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR54">
         <v>1.46</v>
@@ -12365,7 +12374,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12446,7 +12455,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ55">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
         <v>0</v>
@@ -12777,7 +12786,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12983,7 +12992,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13064,7 +13073,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR58">
         <v>1.68</v>
@@ -13189,7 +13198,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13395,7 +13404,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13601,7 +13610,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13679,10 +13688,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR61">
         <v>1.36</v>
@@ -13807,7 +13816,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -14013,7 +14022,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14219,7 +14228,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14425,7 +14434,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14503,7 +14512,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65">
         <v>1.8</v>
@@ -14631,7 +14640,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -14709,7 +14718,7 @@
         <v>0.25</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ66">
         <v>0.6</v>
@@ -15249,7 +15258,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15536,7 +15545,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR70">
         <v>2.49</v>
@@ -15661,7 +15670,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15867,7 +15876,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16154,7 +16163,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ73">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR73">
         <v>1.97</v>
@@ -16279,7 +16288,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16357,7 +16366,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ74">
         <v>0.7</v>
@@ -16691,7 +16700,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16772,7 +16781,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ76">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR76">
         <v>0</v>
@@ -17103,7 +17112,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17181,7 +17190,7 @@
         <v>0</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ78">
         <v>1.1</v>
@@ -17309,7 +17318,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17387,7 +17396,7 @@
         <v>2.6</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ79">
         <v>2</v>
@@ -17721,7 +17730,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17927,7 +17936,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18133,7 +18142,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18339,7 +18348,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18417,7 +18426,7 @@
         <v>3</v>
       </c>
       <c r="AP84">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ84">
         <v>3</v>
@@ -18545,7 +18554,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18957,7 +18966,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19369,7 +19378,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19450,7 +19459,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ89">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR89">
         <v>1.92</v>
@@ -19575,7 +19584,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19781,7 +19790,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -19862,7 +19871,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR91">
         <v>1.18</v>
@@ -20399,7 +20408,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20480,7 +20489,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ94">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR94">
         <v>1.84</v>
@@ -20683,7 +20692,7 @@
         <v>0.6</v>
       </c>
       <c r="AP95">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ95">
         <v>0.44</v>
@@ -21429,7 +21438,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>13</v>
@@ -21635,7 +21644,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21713,7 +21722,7 @@
         <v>2.33</v>
       </c>
       <c r="AP100">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ100">
         <v>2</v>
@@ -21841,7 +21850,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22047,7 +22056,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22125,7 +22134,7 @@
         <v>2.6</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ102">
         <v>1.9</v>
@@ -22253,7 +22262,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23077,7 +23086,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23158,7 +23167,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ107">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR107">
         <v>1.95</v>
@@ -23570,7 +23579,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ109">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -23695,7 +23704,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -23901,7 +23910,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -23979,7 +23988,7 @@
         <v>1</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ111">
         <v>1.1</v>
@@ -24107,7 +24116,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24185,7 +24194,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ112">
         <v>1.22</v>
@@ -24597,7 +24606,7 @@
         <v>2.33</v>
       </c>
       <c r="AP114">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ114">
         <v>1.9</v>
@@ -24931,7 +24940,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>2.05</v>
@@ -25012,7 +25021,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ116">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR116">
         <v>1.39</v>
@@ -25137,7 +25146,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25343,7 +25352,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25549,7 +25558,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25627,7 +25636,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ119">
         <v>1.22</v>
@@ -25755,7 +25764,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -26039,7 +26048,7 @@
         <v>0.43</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ121">
         <v>0.44</v>
@@ -26579,7 +26588,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26660,7 +26669,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ124">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR124">
         <v>1.33</v>
@@ -26785,7 +26794,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -26991,7 +27000,7 @@
         <v>111</v>
       </c>
       <c r="P126" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27403,7 +27412,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27484,7 +27493,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ128">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR128">
         <v>1.28</v>
@@ -27609,7 +27618,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28021,7 +28030,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28639,7 +28648,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q134">
         <v>1.62</v>
@@ -29051,7 +29060,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29335,7 +29344,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ137">
         <v>1.22</v>
@@ -29669,7 +29678,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -29750,7 +29759,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ139">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR139">
         <v>1.32</v>
@@ -29875,7 +29884,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q140">
         <v>2.4</v>
@@ -30081,7 +30090,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30159,7 +30168,7 @@
         <v>0.88</v>
       </c>
       <c r="AP141">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ141">
         <v>0.78</v>
@@ -30287,7 +30296,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30365,10 +30374,10 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ142">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR142">
         <v>1.78</v>
@@ -30493,7 +30502,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30574,7 +30583,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ143">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR143">
         <v>1.05</v>
@@ -31111,7 +31120,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31317,7 +31326,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31523,7 +31532,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q148">
         <v>8.5</v>
@@ -31729,7 +31738,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32141,7 +32150,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32347,7 +32356,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -32520,7 +32529,7 @@
         <v>69</v>
       </c>
       <c r="E153" s="2">
-        <v>45646.54166666666</v>
+        <v>45645.875</v>
       </c>
       <c r="F153">
         <v>20</v>
@@ -32553,7 +32562,7 @@
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -32710,6 +32719,624 @@
       </c>
       <c r="BP153">
         <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7453838</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45646.875</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>80</v>
+      </c>
+      <c r="H154" t="s">
+        <v>83</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>87</v>
+      </c>
+      <c r="P154" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q154">
+        <v>4</v>
+      </c>
+      <c r="R154">
+        <v>2.25</v>
+      </c>
+      <c r="S154">
+        <v>2.4</v>
+      </c>
+      <c r="T154">
+        <v>1.33</v>
+      </c>
+      <c r="U154">
+        <v>3.25</v>
+      </c>
+      <c r="V154">
+        <v>2.63</v>
+      </c>
+      <c r="W154">
+        <v>1.44</v>
+      </c>
+      <c r="X154">
+        <v>6</v>
+      </c>
+      <c r="Y154">
+        <v>1.11</v>
+      </c>
+      <c r="Z154">
+        <v>2.65</v>
+      </c>
+      <c r="AA154">
+        <v>2.6</v>
+      </c>
+      <c r="AB154">
+        <v>2.9</v>
+      </c>
+      <c r="AC154">
+        <v>1.04</v>
+      </c>
+      <c r="AD154">
+        <v>9</v>
+      </c>
+      <c r="AE154">
+        <v>1.23</v>
+      </c>
+      <c r="AF154">
+        <v>3.9</v>
+      </c>
+      <c r="AG154">
+        <v>1.76</v>
+      </c>
+      <c r="AH154">
+        <v>1.96</v>
+      </c>
+      <c r="AI154">
+        <v>1.67</v>
+      </c>
+      <c r="AJ154">
+        <v>2.1</v>
+      </c>
+      <c r="AK154">
+        <v>1.8</v>
+      </c>
+      <c r="AL154">
+        <v>1.25</v>
+      </c>
+      <c r="AM154">
+        <v>1.21</v>
+      </c>
+      <c r="AN154">
+        <v>2</v>
+      </c>
+      <c r="AO154">
+        <v>2.11</v>
+      </c>
+      <c r="AP154">
+        <v>1.8</v>
+      </c>
+      <c r="AQ154">
+        <v>2.2</v>
+      </c>
+      <c r="AR154">
+        <v>1.72</v>
+      </c>
+      <c r="AS154">
+        <v>1.43</v>
+      </c>
+      <c r="AT154">
+        <v>3.15</v>
+      </c>
+      <c r="AU154">
+        <v>7</v>
+      </c>
+      <c r="AV154">
+        <v>4</v>
+      </c>
+      <c r="AW154">
+        <v>7</v>
+      </c>
+      <c r="AX154">
+        <v>2</v>
+      </c>
+      <c r="AY154">
+        <v>21</v>
+      </c>
+      <c r="AZ154">
+        <v>6</v>
+      </c>
+      <c r="BA154">
+        <v>11</v>
+      </c>
+      <c r="BB154">
+        <v>4</v>
+      </c>
+      <c r="BC154">
+        <v>15</v>
+      </c>
+      <c r="BD154">
+        <v>2.44</v>
+      </c>
+      <c r="BE154">
+        <v>8</v>
+      </c>
+      <c r="BF154">
+        <v>1.75</v>
+      </c>
+      <c r="BG154">
+        <v>1.32</v>
+      </c>
+      <c r="BH154">
+        <v>3.22</v>
+      </c>
+      <c r="BI154">
+        <v>1.56</v>
+      </c>
+      <c r="BJ154">
+        <v>2.33</v>
+      </c>
+      <c r="BK154">
+        <v>1.98</v>
+      </c>
+      <c r="BL154">
+        <v>1.82</v>
+      </c>
+      <c r="BM154">
+        <v>2.47</v>
+      </c>
+      <c r="BN154">
+        <v>1.51</v>
+      </c>
+      <c r="BO154">
+        <v>3.35</v>
+      </c>
+      <c r="BP154">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7453839</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45647.375</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>85</v>
+      </c>
+      <c r="H155" t="s">
+        <v>79</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>193</v>
+      </c>
+      <c r="P155" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q155">
+        <v>3</v>
+      </c>
+      <c r="R155">
+        <v>2.1</v>
+      </c>
+      <c r="S155">
+        <v>3.4</v>
+      </c>
+      <c r="T155">
+        <v>1.4</v>
+      </c>
+      <c r="U155">
+        <v>2.75</v>
+      </c>
+      <c r="V155">
+        <v>3</v>
+      </c>
+      <c r="W155">
+        <v>1.36</v>
+      </c>
+      <c r="X155">
+        <v>7</v>
+      </c>
+      <c r="Y155">
+        <v>1.08</v>
+      </c>
+      <c r="Z155">
+        <v>2.4</v>
+      </c>
+      <c r="AA155">
+        <v>3.25</v>
+      </c>
+      <c r="AB155">
+        <v>2.8</v>
+      </c>
+      <c r="AC155">
+        <v>1.06</v>
+      </c>
+      <c r="AD155">
+        <v>8</v>
+      </c>
+      <c r="AE155">
+        <v>1.31</v>
+      </c>
+      <c r="AF155">
+        <v>3.25</v>
+      </c>
+      <c r="AG155">
+        <v>1.95</v>
+      </c>
+      <c r="AH155">
+        <v>1.81</v>
+      </c>
+      <c r="AI155">
+        <v>1.8</v>
+      </c>
+      <c r="AJ155">
+        <v>1.91</v>
+      </c>
+      <c r="AK155">
+        <v>1.37</v>
+      </c>
+      <c r="AL155">
+        <v>1.29</v>
+      </c>
+      <c r="AM155">
+        <v>1.48</v>
+      </c>
+      <c r="AN155">
+        <v>1.38</v>
+      </c>
+      <c r="AO155">
+        <v>1.33</v>
+      </c>
+      <c r="AP155">
+        <v>1.33</v>
+      </c>
+      <c r="AQ155">
+        <v>1.3</v>
+      </c>
+      <c r="AR155">
+        <v>1.27</v>
+      </c>
+      <c r="AS155">
+        <v>1.19</v>
+      </c>
+      <c r="AT155">
+        <v>2.46</v>
+      </c>
+      <c r="AU155">
+        <v>10</v>
+      </c>
+      <c r="AV155">
+        <v>3</v>
+      </c>
+      <c r="AW155">
+        <v>9</v>
+      </c>
+      <c r="AX155">
+        <v>3</v>
+      </c>
+      <c r="AY155">
+        <v>26</v>
+      </c>
+      <c r="AZ155">
+        <v>7</v>
+      </c>
+      <c r="BA155">
+        <v>6</v>
+      </c>
+      <c r="BB155">
+        <v>0</v>
+      </c>
+      <c r="BC155">
+        <v>6</v>
+      </c>
+      <c r="BD155">
+        <v>1.75</v>
+      </c>
+      <c r="BE155">
+        <v>8</v>
+      </c>
+      <c r="BF155">
+        <v>2.44</v>
+      </c>
+      <c r="BG155">
+        <v>1.4</v>
+      </c>
+      <c r="BH155">
+        <v>2.82</v>
+      </c>
+      <c r="BI155">
+        <v>1.68</v>
+      </c>
+      <c r="BJ155">
+        <v>2.12</v>
+      </c>
+      <c r="BK155">
+        <v>2.11</v>
+      </c>
+      <c r="BL155">
+        <v>1.68</v>
+      </c>
+      <c r="BM155">
+        <v>2.75</v>
+      </c>
+      <c r="BN155">
+        <v>1.42</v>
+      </c>
+      <c r="BO155">
+        <v>3.8</v>
+      </c>
+      <c r="BP155">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7453836</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45647.41666666666</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>84</v>
+      </c>
+      <c r="H156" t="s">
+        <v>70</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>3</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>5</v>
+      </c>
+      <c r="O156" t="s">
+        <v>194</v>
+      </c>
+      <c r="P156" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q156">
+        <v>2.38</v>
+      </c>
+      <c r="R156">
+        <v>2.25</v>
+      </c>
+      <c r="S156">
+        <v>4</v>
+      </c>
+      <c r="T156">
+        <v>1.33</v>
+      </c>
+      <c r="U156">
+        <v>3.25</v>
+      </c>
+      <c r="V156">
+        <v>2.63</v>
+      </c>
+      <c r="W156">
+        <v>1.44</v>
+      </c>
+      <c r="X156">
+        <v>6</v>
+      </c>
+      <c r="Y156">
+        <v>1.11</v>
+      </c>
+      <c r="Z156">
+        <v>1.68</v>
+      </c>
+      <c r="AA156">
+        <v>3.74</v>
+      </c>
+      <c r="AB156">
+        <v>4.4</v>
+      </c>
+      <c r="AC156">
+        <v>1.04</v>
+      </c>
+      <c r="AD156">
+        <v>9</v>
+      </c>
+      <c r="AE156">
+        <v>1.22</v>
+      </c>
+      <c r="AF156">
+        <v>3.95</v>
+      </c>
+      <c r="AG156">
+        <v>1.65</v>
+      </c>
+      <c r="AH156">
+        <v>2.1</v>
+      </c>
+      <c r="AI156">
+        <v>1.67</v>
+      </c>
+      <c r="AJ156">
+        <v>2.1</v>
+      </c>
+      <c r="AK156">
+        <v>1.21</v>
+      </c>
+      <c r="AL156">
+        <v>1.23</v>
+      </c>
+      <c r="AM156">
+        <v>1.86</v>
+      </c>
+      <c r="AN156">
+        <v>1</v>
+      </c>
+      <c r="AO156">
+        <v>1.56</v>
+      </c>
+      <c r="AP156">
+        <v>1.2</v>
+      </c>
+      <c r="AQ156">
+        <v>1.4</v>
+      </c>
+      <c r="AR156">
+        <v>1.77</v>
+      </c>
+      <c r="AS156">
+        <v>1.75</v>
+      </c>
+      <c r="AT156">
+        <v>3.52</v>
+      </c>
+      <c r="AU156">
+        <v>9</v>
+      </c>
+      <c r="AV156">
+        <v>6</v>
+      </c>
+      <c r="AW156">
+        <v>4</v>
+      </c>
+      <c r="AX156">
+        <v>5</v>
+      </c>
+      <c r="AY156">
+        <v>14</v>
+      </c>
+      <c r="AZ156">
+        <v>14</v>
+      </c>
+      <c r="BA156">
+        <v>1</v>
+      </c>
+      <c r="BB156">
+        <v>4</v>
+      </c>
+      <c r="BC156">
+        <v>5</v>
+      </c>
+      <c r="BD156">
+        <v>1.45</v>
+      </c>
+      <c r="BE156">
+        <v>8.5</v>
+      </c>
+      <c r="BF156">
+        <v>3.29</v>
+      </c>
+      <c r="BG156">
+        <v>1.4</v>
+      </c>
+      <c r="BH156">
+        <v>2.82</v>
+      </c>
+      <c r="BI156">
+        <v>1.68</v>
+      </c>
+      <c r="BJ156">
+        <v>2.11</v>
+      </c>
+      <c r="BK156">
+        <v>2.11</v>
+      </c>
+      <c r="BL156">
+        <v>1.68</v>
+      </c>
+      <c r="BM156">
+        <v>2.75</v>
+      </c>
+      <c r="BN156">
+        <v>1.42</v>
+      </c>
+      <c r="BO156">
+        <v>3.82</v>
+      </c>
+      <c r="BP156">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,12 @@
     <t>['34', '45', '67']</t>
   </si>
   <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['45+1', '62', '69', '79', '84']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -644,9 +650,6 @@
   </si>
   <si>
     <t>['29']</t>
-  </si>
-  <si>
-    <t>['90+4']</t>
   </si>
   <si>
     <t>['4', '23']</t>
@@ -836,6 +839,12 @@
   </si>
   <si>
     <t>['54', '80']</t>
+  </si>
+  <si>
+    <t>['32', '57']</t>
+  </si>
+  <si>
+    <t>['59', '71']</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1456,7 +1465,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1946,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ4">
         <v>0.1</v>
@@ -2074,7 +2083,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2486,7 +2495,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2692,7 +2701,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -3104,7 +3113,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3182,7 +3191,7 @@
         <v>3</v>
       </c>
       <c r="AP10">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ10">
         <v>2.2</v>
@@ -3310,7 +3319,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3391,7 +3400,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3516,7 +3525,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3594,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ12">
         <v>1.9</v>
@@ -4006,10 +4015,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4215,7 +4224,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4340,7 +4349,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4958,7 +4967,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5988,7 +5997,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6069,7 +6078,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR24">
         <v>0.98</v>
@@ -6275,7 +6284,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ25">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6478,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>1.4</v>
@@ -6606,7 +6615,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6687,7 +6696,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ27">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6812,7 +6821,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -6890,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ28">
         <v>1.1</v>
@@ -7096,7 +7105,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ29">
         <v>1.3</v>
@@ -7224,7 +7233,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7636,7 +7645,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -8048,7 +8057,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8460,7 +8469,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>2.55</v>
@@ -8872,7 +8881,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9159,7 +9168,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ39">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9490,7 +9499,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9696,7 +9705,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9774,7 +9783,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ42">
         <v>0.8</v>
@@ -9902,7 +9911,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -10108,7 +10117,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10189,7 +10198,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ44">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.19</v>
@@ -10314,7 +10323,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10601,7 +10610,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ46">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR46">
         <v>0.99</v>
@@ -10932,7 +10941,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11344,7 +11353,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11550,7 +11559,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -12040,7 +12049,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>0.8</v>
@@ -12374,7 +12383,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12658,10 +12667,10 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ56">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>2.35</v>
@@ -12786,7 +12795,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12867,7 +12876,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ57">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR57">
         <v>1.94</v>
@@ -12992,7 +13001,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13198,7 +13207,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13404,7 +13413,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13482,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ60">
         <v>0.7</v>
@@ -13610,7 +13619,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13816,7 +13825,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -14022,7 +14031,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14228,7 +14237,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14434,7 +14443,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14640,7 +14649,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15133,7 +15142,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ68">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR68">
         <v>1.54</v>
@@ -15258,7 +15267,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15542,7 +15551,7 @@
         <v>1.2</v>
       </c>
       <c r="AP70">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ70">
         <v>1.3</v>
@@ -15670,7 +15679,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15876,7 +15885,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -16288,7 +16297,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16575,7 +16584,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ75">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>1.22</v>
@@ -16700,7 +16709,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16984,7 +16993,7 @@
         <v>0.2</v>
       </c>
       <c r="AP77">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ77">
         <v>0.6</v>
@@ -17112,7 +17121,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17318,7 +17327,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17605,7 +17614,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ80">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -17730,7 +17739,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17936,7 +17945,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18017,7 +18026,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ82">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -18142,7 +18151,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18348,7 +18357,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18554,7 +18563,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18632,7 +18641,7 @@
         <v>1.6</v>
       </c>
       <c r="AP85">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
         <v>1.8</v>
@@ -18966,7 +18975,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19044,7 +19053,7 @@
         <v>0.8</v>
       </c>
       <c r="AP87">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ87">
         <v>0.7</v>
@@ -19253,7 +19262,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ88">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.41</v>
@@ -19378,7 +19387,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19584,7 +19593,7 @@
         <v>151</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="Q90">
         <v>2.2</v>
@@ -19790,7 +19799,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -20074,7 +20083,7 @@
         <v>1.83</v>
       </c>
       <c r="AP92">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ92">
         <v>1.8</v>
@@ -20408,7 +20417,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20695,7 +20704,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ95">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -21107,7 +21116,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ97">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR97">
         <v>1.33</v>
@@ -21438,7 +21447,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>13</v>
@@ -21516,7 +21525,7 @@
         <v>3</v>
       </c>
       <c r="AP99">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
         <v>3</v>
@@ -21644,7 +21653,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21850,7 +21859,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -22056,7 +22065,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22262,7 +22271,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22755,7 +22764,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ105">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.53</v>
@@ -22958,7 +22967,7 @@
         <v>1.71</v>
       </c>
       <c r="AP106">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ106">
         <v>1.8</v>
@@ -23086,7 +23095,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23704,7 +23713,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -23782,7 +23791,7 @@
         <v>2</v>
       </c>
       <c r="AP110">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ110">
         <v>2</v>
@@ -23910,7 +23919,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24116,7 +24125,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24197,7 +24206,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR112">
         <v>1.19</v>
@@ -24400,10 +24409,10 @@
         <v>0.5</v>
       </c>
       <c r="AP113">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR113">
         <v>1.01</v>
@@ -24940,7 +24949,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>2.05</v>
@@ -25146,7 +25155,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25352,7 +25361,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25558,7 +25567,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25639,7 +25648,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ119">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR119">
         <v>1.78</v>
@@ -25764,7 +25773,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -25842,7 +25851,7 @@
         <v>0.86</v>
       </c>
       <c r="AP120">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
         <v>1.1</v>
@@ -26051,7 +26060,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ121">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR121">
         <v>1.85</v>
@@ -26463,7 +26472,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ123">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.46</v>
@@ -26588,7 +26597,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26794,7 +26803,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -27000,7 +27009,7 @@
         <v>111</v>
       </c>
       <c r="P126" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27412,7 +27421,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27618,7 +27627,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28030,7 +28039,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28648,7 +28657,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>1.62</v>
@@ -28726,7 +28735,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ134">
         <v>1.38</v>
@@ -28932,10 +28941,10 @@
         <v>0.5</v>
       </c>
       <c r="AP135">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ135">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR135">
         <v>1.93</v>
@@ -29060,7 +29069,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29138,7 +29147,7 @@
         <v>2</v>
       </c>
       <c r="AP136">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ136">
         <v>1.9</v>
@@ -29347,7 +29356,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ137">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR137">
         <v>1.8</v>
@@ -29550,7 +29559,7 @@
         <v>1.43</v>
       </c>
       <c r="AP138">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ138">
         <v>1.38</v>
@@ -29678,7 +29687,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -29884,7 +29893,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q140">
         <v>2.4</v>
@@ -30090,7 +30099,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30171,7 +30180,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ141">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR141">
         <v>1.19</v>
@@ -30296,7 +30305,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30502,7 +30511,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -30580,7 +30589,7 @@
         <v>2.38</v>
       </c>
       <c r="AP143">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143">
         <v>2.2</v>
@@ -31120,7 +31129,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31326,7 +31335,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31532,7 +31541,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q148">
         <v>8.5</v>
@@ -31738,7 +31747,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32150,7 +32159,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32356,7 +32365,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -32434,7 +32443,7 @@
         <v>3</v>
       </c>
       <c r="AP152">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AQ152">
         <v>3</v>
@@ -32562,7 +32571,7 @@
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -32941,7 +32950,7 @@
         <v>69</v>
       </c>
       <c r="E155" s="2">
-        <v>45647.375</v>
+        <v>45646.875</v>
       </c>
       <c r="F155">
         <v>20</v>
@@ -33180,7 +33189,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q156">
         <v>2.38</v>
@@ -33337,6 +33346,624 @@
       </c>
       <c r="BP156">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7453832</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45647.875</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>78</v>
+      </c>
+      <c r="H157" t="s">
+        <v>76</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>195</v>
+      </c>
+      <c r="P157" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q157">
+        <v>3.2</v>
+      </c>
+      <c r="R157">
+        <v>2.1</v>
+      </c>
+      <c r="S157">
+        <v>3.1</v>
+      </c>
+      <c r="T157">
+        <v>1.4</v>
+      </c>
+      <c r="U157">
+        <v>2.75</v>
+      </c>
+      <c r="V157">
+        <v>2.75</v>
+      </c>
+      <c r="W157">
+        <v>1.4</v>
+      </c>
+      <c r="X157">
+        <v>7</v>
+      </c>
+      <c r="Y157">
+        <v>1.08</v>
+      </c>
+      <c r="Z157">
+        <v>2.56</v>
+      </c>
+      <c r="AA157">
+        <v>3.1</v>
+      </c>
+      <c r="AB157">
+        <v>2.55</v>
+      </c>
+      <c r="AC157">
+        <v>1.05</v>
+      </c>
+      <c r="AD157">
+        <v>8.5</v>
+      </c>
+      <c r="AE157">
+        <v>1.28</v>
+      </c>
+      <c r="AF157">
+        <v>3.5</v>
+      </c>
+      <c r="AG157">
+        <v>2.11</v>
+      </c>
+      <c r="AH157">
+        <v>1.65</v>
+      </c>
+      <c r="AI157">
+        <v>1.73</v>
+      </c>
+      <c r="AJ157">
+        <v>2</v>
+      </c>
+      <c r="AK157">
+        <v>1.45</v>
+      </c>
+      <c r="AL157">
+        <v>1.28</v>
+      </c>
+      <c r="AM157">
+        <v>1.41</v>
+      </c>
+      <c r="AN157">
+        <v>0.44</v>
+      </c>
+      <c r="AO157">
+        <v>0.44</v>
+      </c>
+      <c r="AP157">
+        <v>0.7</v>
+      </c>
+      <c r="AQ157">
+        <v>0.4</v>
+      </c>
+      <c r="AR157">
+        <v>1.13</v>
+      </c>
+      <c r="AS157">
+        <v>0.95</v>
+      </c>
+      <c r="AT157">
+        <v>2.08</v>
+      </c>
+      <c r="AU157">
+        <v>5</v>
+      </c>
+      <c r="AV157">
+        <v>3</v>
+      </c>
+      <c r="AW157">
+        <v>4</v>
+      </c>
+      <c r="AX157">
+        <v>4</v>
+      </c>
+      <c r="AY157">
+        <v>10</v>
+      </c>
+      <c r="AZ157">
+        <v>9</v>
+      </c>
+      <c r="BA157">
+        <v>4</v>
+      </c>
+      <c r="BB157">
+        <v>3</v>
+      </c>
+      <c r="BC157">
+        <v>7</v>
+      </c>
+      <c r="BD157">
+        <v>2.42</v>
+      </c>
+      <c r="BE157">
+        <v>7.5</v>
+      </c>
+      <c r="BF157">
+        <v>1.82</v>
+      </c>
+      <c r="BG157">
+        <v>1.51</v>
+      </c>
+      <c r="BH157">
+        <v>2.45</v>
+      </c>
+      <c r="BI157">
+        <v>1.9</v>
+      </c>
+      <c r="BJ157">
+        <v>1.9</v>
+      </c>
+      <c r="BK157">
+        <v>2.42</v>
+      </c>
+      <c r="BL157">
+        <v>1.53</v>
+      </c>
+      <c r="BM157">
+        <v>3.3</v>
+      </c>
+      <c r="BN157">
+        <v>1.3</v>
+      </c>
+      <c r="BO157">
+        <v>4.65</v>
+      </c>
+      <c r="BP157">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7453834</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45648.45833333334</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>72</v>
+      </c>
+      <c r="H158" t="s">
+        <v>74</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>5</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158">
+        <v>7</v>
+      </c>
+      <c r="O158" t="s">
+        <v>196</v>
+      </c>
+      <c r="P158" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q158">
+        <v>1.53</v>
+      </c>
+      <c r="R158">
+        <v>2.88</v>
+      </c>
+      <c r="S158">
+        <v>9</v>
+      </c>
+      <c r="T158">
+        <v>1.22</v>
+      </c>
+      <c r="U158">
+        <v>4</v>
+      </c>
+      <c r="V158">
+        <v>2</v>
+      </c>
+      <c r="W158">
+        <v>1.73</v>
+      </c>
+      <c r="X158">
+        <v>4.33</v>
+      </c>
+      <c r="Y158">
+        <v>1.2</v>
+      </c>
+      <c r="Z158">
+        <v>1.17</v>
+      </c>
+      <c r="AA158">
+        <v>7.7</v>
+      </c>
+      <c r="AB158">
+        <v>12</v>
+      </c>
+      <c r="AC158">
+        <v>1.01</v>
+      </c>
+      <c r="AD158">
+        <v>18</v>
+      </c>
+      <c r="AE158">
+        <v>1.11</v>
+      </c>
+      <c r="AF158">
+        <v>6</v>
+      </c>
+      <c r="AG158">
+        <v>1.33</v>
+      </c>
+      <c r="AH158">
+        <v>3</v>
+      </c>
+      <c r="AI158">
+        <v>2</v>
+      </c>
+      <c r="AJ158">
+        <v>1.73</v>
+      </c>
+      <c r="AK158">
+        <v>1.04</v>
+      </c>
+      <c r="AL158">
+        <v>1.07</v>
+      </c>
+      <c r="AM158">
+        <v>3.55</v>
+      </c>
+      <c r="AN158">
+        <v>2.78</v>
+      </c>
+      <c r="AO158">
+        <v>1.22</v>
+      </c>
+      <c r="AP158">
+        <v>2.8</v>
+      </c>
+      <c r="AQ158">
+        <v>1.1</v>
+      </c>
+      <c r="AR158">
+        <v>2</v>
+      </c>
+      <c r="AS158">
+        <v>1.41</v>
+      </c>
+      <c r="AT158">
+        <v>3.41</v>
+      </c>
+      <c r="AU158">
+        <v>12</v>
+      </c>
+      <c r="AV158">
+        <v>5</v>
+      </c>
+      <c r="AW158">
+        <v>1</v>
+      </c>
+      <c r="AX158">
+        <v>3</v>
+      </c>
+      <c r="AY158">
+        <v>19</v>
+      </c>
+      <c r="AZ158">
+        <v>8</v>
+      </c>
+      <c r="BA158">
+        <v>4</v>
+      </c>
+      <c r="BB158">
+        <v>4</v>
+      </c>
+      <c r="BC158">
+        <v>8</v>
+      </c>
+      <c r="BD158">
+        <v>1.1</v>
+      </c>
+      <c r="BE158">
+        <v>13</v>
+      </c>
+      <c r="BF158">
+        <v>7.5</v>
+      </c>
+      <c r="BG158">
+        <v>1.29</v>
+      </c>
+      <c r="BH158">
+        <v>3.35</v>
+      </c>
+      <c r="BI158">
+        <v>1.53</v>
+      </c>
+      <c r="BJ158">
+        <v>2.41</v>
+      </c>
+      <c r="BK158">
+        <v>1.92</v>
+      </c>
+      <c r="BL158">
+        <v>1.88</v>
+      </c>
+      <c r="BM158">
+        <v>2.38</v>
+      </c>
+      <c r="BN158">
+        <v>1.54</v>
+      </c>
+      <c r="BO158">
+        <v>3.2</v>
+      </c>
+      <c r="BP158">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7453837</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45648.54166666666</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>81</v>
+      </c>
+      <c r="H159" t="s">
+        <v>71</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>87</v>
+      </c>
+      <c r="P159" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q159">
+        <v>2.88</v>
+      </c>
+      <c r="R159">
+        <v>2</v>
+      </c>
+      <c r="S159">
+        <v>4</v>
+      </c>
+      <c r="T159">
+        <v>1.5</v>
+      </c>
+      <c r="U159">
+        <v>2.5</v>
+      </c>
+      <c r="V159">
+        <v>3.4</v>
+      </c>
+      <c r="W159">
+        <v>1.3</v>
+      </c>
+      <c r="X159">
+        <v>8</v>
+      </c>
+      <c r="Y159">
+        <v>1.06</v>
+      </c>
+      <c r="Z159">
+        <v>2.14</v>
+      </c>
+      <c r="AA159">
+        <v>3.32</v>
+      </c>
+      <c r="AB159">
+        <v>3.32</v>
+      </c>
+      <c r="AC159">
+        <v>1.02</v>
+      </c>
+      <c r="AD159">
+        <v>7.9</v>
+      </c>
+      <c r="AE159">
+        <v>1.49</v>
+      </c>
+      <c r="AF159">
+        <v>2.3</v>
+      </c>
+      <c r="AG159">
+        <v>2.25</v>
+      </c>
+      <c r="AH159">
+        <v>1.57</v>
+      </c>
+      <c r="AI159">
+        <v>1.91</v>
+      </c>
+      <c r="AJ159">
+        <v>1.8</v>
+      </c>
+      <c r="AK159">
+        <v>1.3</v>
+      </c>
+      <c r="AL159">
+        <v>1.3</v>
+      </c>
+      <c r="AM159">
+        <v>1.57</v>
+      </c>
+      <c r="AN159">
+        <v>1.67</v>
+      </c>
+      <c r="AO159">
+        <v>0.78</v>
+      </c>
+      <c r="AP159">
+        <v>1.5</v>
+      </c>
+      <c r="AQ159">
+        <v>1</v>
+      </c>
+      <c r="AR159">
+        <v>1.07</v>
+      </c>
+      <c r="AS159">
+        <v>1</v>
+      </c>
+      <c r="AT159">
+        <v>2.07</v>
+      </c>
+      <c r="AU159">
+        <v>3</v>
+      </c>
+      <c r="AV159">
+        <v>6</v>
+      </c>
+      <c r="AW159">
+        <v>4</v>
+      </c>
+      <c r="AX159">
+        <v>2</v>
+      </c>
+      <c r="AY159">
+        <v>8</v>
+      </c>
+      <c r="AZ159">
+        <v>10</v>
+      </c>
+      <c r="BA159">
+        <v>1</v>
+      </c>
+      <c r="BB159">
+        <v>1</v>
+      </c>
+      <c r="BC159">
+        <v>2</v>
+      </c>
+      <c r="BD159">
+        <v>1.64</v>
+      </c>
+      <c r="BE159">
+        <v>8</v>
+      </c>
+      <c r="BF159">
+        <v>2.77</v>
+      </c>
+      <c r="BG159">
+        <v>1.36</v>
+      </c>
+      <c r="BH159">
+        <v>2.98</v>
+      </c>
+      <c r="BI159">
+        <v>1.62</v>
+      </c>
+      <c r="BJ159">
+        <v>2.22</v>
+      </c>
+      <c r="BK159">
+        <v>2.02</v>
+      </c>
+      <c r="BL159">
+        <v>1.74</v>
+      </c>
+      <c r="BM159">
+        <v>2.6</v>
+      </c>
+      <c r="BN159">
+        <v>1.46</v>
+      </c>
+      <c r="BO159">
+        <v>3.58</v>
+      </c>
+      <c r="BP159">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -268,10 +268,10 @@
     <t>Partizan</t>
   </si>
   <si>
-    <t>Vojvodina</t>
+    <t>IMT Novi Beograd</t>
   </si>
   <si>
-    <t>IMT Novi Beograd</t>
+    <t>Vojvodina</t>
   </si>
   <si>
     <t>['29', '53']</t>
@@ -316,10 +316,10 @@
     <t>['52', '71']</t>
   </si>
   <si>
-    <t>['19', '30', '38']</t>
+    <t>['13', '39']</t>
   </si>
   <si>
-    <t>['13', '39']</t>
+    <t>['19', '30', '38']</t>
   </si>
   <si>
     <t>['33', '45+13', '83', '85']</t>
@@ -346,10 +346,10 @@
     <t>['69']</t>
   </si>
   <si>
-    <t>['35', '85']</t>
+    <t>['3']</t>
   </si>
   <si>
-    <t>['3']</t>
+    <t>['35', '85']</t>
   </si>
   <si>
     <t>['12', '71']</t>
@@ -607,6 +607,9 @@
     <t>['45+1', '62', '69', '79', '84']</t>
   </si>
   <si>
+    <t>['34', '87']</t>
+  </si>
+  <si>
     <t>['3', '15', '45+3']</t>
   </si>
   <si>
@@ -845,6 +848,9 @@
   </si>
   <si>
     <t>['59', '71']</t>
+  </si>
+  <si>
+    <t>['7', '56']</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1465,7 +1471,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -2083,7 +2089,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2495,7 +2501,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2677,7 +2683,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2701,7 +2707,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>5.5</v>
@@ -2883,7 +2889,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3113,7 +3119,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3319,7 +3325,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>2.75</v>
@@ -3525,7 +3531,7 @@
         <v>95</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3812,7 +3818,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ13">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4221,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ15">
         <v>0.4</v>
@@ -4325,7 +4331,7 @@
         <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4349,7 +4355,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4967,7 +4973,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -5337,7 +5343,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7453704</v>
+        <v>7453708</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -5352,190 +5358,190 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O21" t="s">
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="R21">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="S21">
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <v>1.3</v>
+      </c>
+      <c r="U21">
         <v>3.4</v>
       </c>
-      <c r="T21">
+      <c r="V21">
+        <v>2.5</v>
+      </c>
+      <c r="W21">
+        <v>1.5</v>
+      </c>
+      <c r="X21">
+        <v>5.5</v>
+      </c>
+      <c r="Y21">
+        <v>1.13</v>
+      </c>
+      <c r="Z21">
+        <v>1.4</v>
+      </c>
+      <c r="AA21">
+        <v>4.41</v>
+      </c>
+      <c r="AB21">
+        <v>6.01</v>
+      </c>
+      <c r="AC21">
+        <v>1.01</v>
+      </c>
+      <c r="AD21">
+        <v>12</v>
+      </c>
+      <c r="AE21">
+        <v>1.2</v>
+      </c>
+      <c r="AF21">
+        <v>4.33</v>
+      </c>
+      <c r="AG21">
+        <v>1.57</v>
+      </c>
+      <c r="AH21">
+        <v>2.25</v>
+      </c>
+      <c r="AI21">
+        <v>2</v>
+      </c>
+      <c r="AJ21">
+        <v>1.73</v>
+      </c>
+      <c r="AK21">
+        <v>1.06</v>
+      </c>
+      <c r="AL21">
+        <v>1.14</v>
+      </c>
+      <c r="AM21">
+        <v>2.88</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
+        <v>1.9</v>
+      </c>
+      <c r="AQ21">
+        <v>1.3</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>1.25</v>
+      </c>
+      <c r="AT21">
+        <v>1.25</v>
+      </c>
+      <c r="AU21">
+        <v>5</v>
+      </c>
+      <c r="AV21">
+        <v>4</v>
+      </c>
+      <c r="AW21">
+        <v>4</v>
+      </c>
+      <c r="AX21">
+        <v>5</v>
+      </c>
+      <c r="AY21">
+        <v>15</v>
+      </c>
+      <c r="AZ21">
+        <v>14</v>
+      </c>
+      <c r="BA21">
+        <v>8</v>
+      </c>
+      <c r="BB21">
+        <v>4</v>
+      </c>
+      <c r="BC21">
+        <v>12</v>
+      </c>
+      <c r="BD21">
+        <v>1.26</v>
+      </c>
+      <c r="BE21">
+        <v>10</v>
+      </c>
+      <c r="BF21">
+        <v>4.86</v>
+      </c>
+      <c r="BG21">
+        <v>1.28</v>
+      </c>
+      <c r="BH21">
+        <v>3.2</v>
+      </c>
+      <c r="BI21">
+        <v>1.52</v>
+      </c>
+      <c r="BJ21">
+        <v>2.3</v>
+      </c>
+      <c r="BK21">
+        <v>1.98</v>
+      </c>
+      <c r="BL21">
+        <v>1.82</v>
+      </c>
+      <c r="BM21">
+        <v>2.5</v>
+      </c>
+      <c r="BN21">
         <v>1.44</v>
       </c>
-      <c r="U21">
-        <v>2.63</v>
-      </c>
-      <c r="V21">
-        <v>3</v>
-      </c>
-      <c r="W21">
-        <v>1.36</v>
-      </c>
-      <c r="X21">
-        <v>7.5</v>
-      </c>
-      <c r="Y21">
-        <v>1.07</v>
-      </c>
-      <c r="Z21">
-        <v>2.35</v>
-      </c>
-      <c r="AA21">
-        <v>3.15</v>
-      </c>
-      <c r="AB21">
-        <v>2.76</v>
-      </c>
-      <c r="AC21">
-        <v>1.04</v>
-      </c>
-      <c r="AD21">
-        <v>9</v>
-      </c>
-      <c r="AE21">
-        <v>1.33</v>
-      </c>
-      <c r="AF21">
-        <v>3.25</v>
-      </c>
-      <c r="AG21">
-        <v>1.91</v>
-      </c>
-      <c r="AH21">
-        <v>1.83</v>
-      </c>
-      <c r="AI21">
-        <v>1.83</v>
-      </c>
-      <c r="AJ21">
-        <v>1.83</v>
-      </c>
-      <c r="AK21">
-        <v>1.33</v>
-      </c>
-      <c r="AL21">
-        <v>1.29</v>
-      </c>
-      <c r="AM21">
-        <v>1.5</v>
-      </c>
-      <c r="AN21">
-        <v>3</v>
-      </c>
-      <c r="AO21">
-        <v>3</v>
-      </c>
-      <c r="AP21">
-        <v>1.6</v>
-      </c>
-      <c r="AQ21">
-        <v>1.8</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>1.59</v>
-      </c>
-      <c r="AT21">
-        <v>1.59</v>
-      </c>
-      <c r="AU21">
-        <v>3</v>
-      </c>
-      <c r="AV21">
-        <v>7</v>
-      </c>
-      <c r="AW21">
-        <v>5</v>
-      </c>
-      <c r="AX21">
-        <v>9</v>
-      </c>
-      <c r="AY21">
-        <v>9</v>
-      </c>
-      <c r="AZ21">
-        <v>21</v>
-      </c>
-      <c r="BA21">
-        <v>2</v>
-      </c>
-      <c r="BB21">
-        <v>7</v>
-      </c>
-      <c r="BC21">
-        <v>9</v>
-      </c>
-      <c r="BD21">
-        <v>1.95</v>
-      </c>
-      <c r="BE21">
-        <v>7.5</v>
-      </c>
-      <c r="BF21">
-        <v>2.1</v>
-      </c>
-      <c r="BG21">
-        <v>1.32</v>
-      </c>
-      <c r="BH21">
-        <v>2.98</v>
-      </c>
-      <c r="BI21">
-        <v>1.59</v>
-      </c>
-      <c r="BJ21">
-        <v>2.16</v>
-      </c>
-      <c r="BK21">
-        <v>2</v>
-      </c>
-      <c r="BL21">
-        <v>1.69</v>
-      </c>
-      <c r="BM21">
-        <v>2.67</v>
-      </c>
-      <c r="BN21">
-        <v>1.39</v>
-      </c>
       <c r="BO21">
-        <v>3.65</v>
+        <v>3.42</v>
       </c>
       <c r="BP21">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5543,7 +5549,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7453708</v>
+        <v>7453704</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5558,190 +5564,190 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O22" t="s">
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>2.05</v>
+      </c>
+      <c r="S22">
+        <v>3.4</v>
+      </c>
+      <c r="T22">
+        <v>1.44</v>
+      </c>
+      <c r="U22">
+        <v>2.63</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>1.36</v>
+      </c>
+      <c r="X22">
+        <v>7.5</v>
+      </c>
+      <c r="Y22">
+        <v>1.07</v>
+      </c>
+      <c r="Z22">
+        <v>2.35</v>
+      </c>
+      <c r="AA22">
+        <v>3.15</v>
+      </c>
+      <c r="AB22">
+        <v>2.76</v>
+      </c>
+      <c r="AC22">
+        <v>1.04</v>
+      </c>
+      <c r="AD22">
+        <v>9</v>
+      </c>
+      <c r="AE22">
+        <v>1.33</v>
+      </c>
+      <c r="AF22">
+        <v>3.25</v>
+      </c>
+      <c r="AG22">
+        <v>1.91</v>
+      </c>
+      <c r="AH22">
+        <v>1.83</v>
+      </c>
+      <c r="AI22">
+        <v>1.83</v>
+      </c>
+      <c r="AJ22">
+        <v>1.83</v>
+      </c>
+      <c r="AK22">
+        <v>1.33</v>
+      </c>
+      <c r="AL22">
+        <v>1.29</v>
+      </c>
+      <c r="AM22">
+        <v>1.5</v>
+      </c>
+      <c r="AN22">
+        <v>3</v>
+      </c>
+      <c r="AO22">
+        <v>3</v>
+      </c>
+      <c r="AP22">
+        <v>1.6</v>
+      </c>
+      <c r="AQ22">
         <v>1.8</v>
       </c>
-      <c r="R22">
-        <v>2.4</v>
-      </c>
-      <c r="S22">
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>1.59</v>
+      </c>
+      <c r="AT22">
+        <v>1.59</v>
+      </c>
+      <c r="AU22">
+        <v>3</v>
+      </c>
+      <c r="AV22">
         <v>7</v>
       </c>
-      <c r="T22">
-        <v>1.3</v>
-      </c>
-      <c r="U22">
-        <v>3.4</v>
-      </c>
-      <c r="V22">
-        <v>2.5</v>
-      </c>
-      <c r="W22">
-        <v>1.5</v>
-      </c>
-      <c r="X22">
-        <v>5.5</v>
-      </c>
-      <c r="Y22">
-        <v>1.13</v>
-      </c>
-      <c r="Z22">
-        <v>1.4</v>
-      </c>
-      <c r="AA22">
-        <v>4.41</v>
-      </c>
-      <c r="AB22">
-        <v>6.01</v>
-      </c>
-      <c r="AC22">
-        <v>1.01</v>
-      </c>
-      <c r="AD22">
-        <v>12</v>
-      </c>
-      <c r="AE22">
-        <v>1.2</v>
-      </c>
-      <c r="AF22">
-        <v>4.33</v>
-      </c>
-      <c r="AG22">
-        <v>1.57</v>
-      </c>
-      <c r="AH22">
-        <v>2.25</v>
-      </c>
-      <c r="AI22">
-        <v>2</v>
-      </c>
-      <c r="AJ22">
-        <v>1.73</v>
-      </c>
-      <c r="AK22">
-        <v>1.06</v>
-      </c>
-      <c r="AL22">
-        <v>1.14</v>
-      </c>
-      <c r="AM22">
-        <v>2.88</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>3</v>
-      </c>
-      <c r="AP22">
-        <v>1.9</v>
-      </c>
-      <c r="AQ22">
-        <v>1.3</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
-      </c>
-      <c r="AS22">
-        <v>1.25</v>
-      </c>
-      <c r="AT22">
-        <v>1.25</v>
-      </c>
-      <c r="AU22">
+      <c r="AW22">
         <v>5</v>
       </c>
-      <c r="AV22">
-        <v>4</v>
-      </c>
-      <c r="AW22">
-        <v>4</v>
-      </c>
       <c r="AX22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY22">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AZ22">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BA22">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BB22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC22">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD22">
-        <v>1.26</v>
+        <v>1.95</v>
       </c>
       <c r="BE22">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="BF22">
-        <v>4.86</v>
+        <v>2.1</v>
       </c>
       <c r="BG22">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="BH22">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="BI22">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="BJ22">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="BK22">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BL22">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="BM22">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="BN22">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="BO22">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="BP22">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5997,7 +6003,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6075,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ24">
         <v>1.1</v>
@@ -6615,7 +6621,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -6821,7 +6827,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>1.44</v>
@@ -7191,7 +7197,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7453713</v>
+        <v>7453710</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -7209,187 +7215,187 @@
         <v>84</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="Q30">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="R30">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="T30">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U30">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V30">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W30">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X30">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y30">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z30">
-        <v>2.75</v>
+        <v>4.6</v>
       </c>
       <c r="AA30">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="AB30">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="AC30">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD30">
         <v>10</v>
       </c>
       <c r="AE30">
+        <v>1.2</v>
+      </c>
+      <c r="AF30">
+        <v>4.2</v>
+      </c>
+      <c r="AG30">
+        <v>1.81</v>
+      </c>
+      <c r="AH30">
+        <v>2</v>
+      </c>
+      <c r="AI30">
+        <v>1.91</v>
+      </c>
+      <c r="AJ30">
+        <v>1.8</v>
+      </c>
+      <c r="AK30">
+        <v>3.3</v>
+      </c>
+      <c r="AL30">
+        <v>1.11</v>
+      </c>
+      <c r="AM30">
+        <v>1.02</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <v>1.33</v>
+      </c>
+      <c r="AQ30">
+        <v>2.2</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>1.54</v>
+      </c>
+      <c r="AT30">
+        <v>1.54</v>
+      </c>
+      <c r="AU30">
+        <v>5</v>
+      </c>
+      <c r="AV30">
+        <v>3</v>
+      </c>
+      <c r="AW30">
+        <v>4</v>
+      </c>
+      <c r="AX30">
+        <v>5</v>
+      </c>
+      <c r="AY30">
+        <v>10</v>
+      </c>
+      <c r="AZ30">
+        <v>11</v>
+      </c>
+      <c r="BA30">
+        <v>1</v>
+      </c>
+      <c r="BB30">
+        <v>3</v>
+      </c>
+      <c r="BC30">
+        <v>4</v>
+      </c>
+      <c r="BD30">
+        <v>4.41</v>
+      </c>
+      <c r="BE30">
+        <v>9.5</v>
+      </c>
+      <c r="BF30">
+        <v>1.31</v>
+      </c>
+      <c r="BG30">
+        <v>1.31</v>
+      </c>
+      <c r="BH30">
+        <v>3.04</v>
+      </c>
+      <c r="BI30">
+        <v>1.57</v>
+      </c>
+      <c r="BJ30">
+        <v>2.19</v>
+      </c>
+      <c r="BK30">
+        <v>1.98</v>
+      </c>
+      <c r="BL30">
+        <v>1.7</v>
+      </c>
+      <c r="BM30">
+        <v>2.6</v>
+      </c>
+      <c r="BN30">
+        <v>1.41</v>
+      </c>
+      <c r="BO30">
+        <v>3.65</v>
+      </c>
+      <c r="BP30">
         <v>1.22</v>
-      </c>
-      <c r="AF30">
-        <v>3.64</v>
-      </c>
-      <c r="AG30">
-        <v>1.8</v>
-      </c>
-      <c r="AH30">
-        <v>1.98</v>
-      </c>
-      <c r="AI30">
-        <v>1.67</v>
-      </c>
-      <c r="AJ30">
-        <v>2.1</v>
-      </c>
-      <c r="AK30">
-        <v>1.53</v>
-      </c>
-      <c r="AL30">
-        <v>1.26</v>
-      </c>
-      <c r="AM30">
-        <v>1.4</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>1.2</v>
-      </c>
-      <c r="AQ30">
-        <v>1.38</v>
-      </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="AS30">
-        <v>1.21</v>
-      </c>
-      <c r="AT30">
-        <v>1.21</v>
-      </c>
-      <c r="AU30">
-        <v>3</v>
-      </c>
-      <c r="AV30">
-        <v>6</v>
-      </c>
-      <c r="AW30">
-        <v>8</v>
-      </c>
-      <c r="AX30">
-        <v>7</v>
-      </c>
-      <c r="AY30">
-        <v>15</v>
-      </c>
-      <c r="AZ30">
-        <v>14</v>
-      </c>
-      <c r="BA30">
-        <v>4</v>
-      </c>
-      <c r="BB30">
-        <v>5</v>
-      </c>
-      <c r="BC30">
-        <v>9</v>
-      </c>
-      <c r="BD30">
-        <v>1.82</v>
-      </c>
-      <c r="BE30">
-        <v>7.5</v>
-      </c>
-      <c r="BF30">
-        <v>2.34</v>
-      </c>
-      <c r="BG30">
-        <v>1.36</v>
-      </c>
-      <c r="BH30">
-        <v>2.79</v>
-      </c>
-      <c r="BI30">
-        <v>1.65</v>
-      </c>
-      <c r="BJ30">
-        <v>2.05</v>
-      </c>
-      <c r="BK30">
-        <v>2.11</v>
-      </c>
-      <c r="BL30">
-        <v>1.62</v>
-      </c>
-      <c r="BM30">
-        <v>2.84</v>
-      </c>
-      <c r="BN30">
-        <v>1.35</v>
-      </c>
-      <c r="BO30">
-        <v>3.7</v>
-      </c>
-      <c r="BP30">
-        <v>1.24</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -7397,7 +7403,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7453710</v>
+        <v>7453713</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7415,187 +7421,187 @@
         <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O31" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="Q31">
+        <v>3.2</v>
+      </c>
+      <c r="R31">
+        <v>2.2</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>1.36</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>2.63</v>
+      </c>
+      <c r="W31">
+        <v>1.44</v>
+      </c>
+      <c r="X31">
         <v>6.5</v>
       </c>
-      <c r="R31">
+      <c r="Y31">
+        <v>1.1</v>
+      </c>
+      <c r="Z31">
+        <v>2.75</v>
+      </c>
+      <c r="AA31">
+        <v>3.25</v>
+      </c>
+      <c r="AB31">
         <v>2.4</v>
       </c>
-      <c r="S31">
-        <v>1.83</v>
-      </c>
-      <c r="T31">
-        <v>1.3</v>
-      </c>
-      <c r="U31">
-        <v>3.4</v>
-      </c>
-      <c r="V31">
-        <v>2.38</v>
-      </c>
-      <c r="W31">
-        <v>1.53</v>
-      </c>
-      <c r="X31">
-        <v>5.5</v>
-      </c>
-      <c r="Y31">
-        <v>1.13</v>
-      </c>
-      <c r="Z31">
-        <v>4.6</v>
-      </c>
-      <c r="AA31">
-        <v>3.8</v>
-      </c>
-      <c r="AB31">
-        <v>1.57</v>
-      </c>
       <c r="AC31">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD31">
         <v>10</v>
       </c>
       <c r="AE31">
+        <v>1.22</v>
+      </c>
+      <c r="AF31">
+        <v>3.64</v>
+      </c>
+      <c r="AG31">
+        <v>1.8</v>
+      </c>
+      <c r="AH31">
+        <v>1.98</v>
+      </c>
+      <c r="AI31">
+        <v>1.67</v>
+      </c>
+      <c r="AJ31">
+        <v>2.1</v>
+      </c>
+      <c r="AK31">
+        <v>1.53</v>
+      </c>
+      <c r="AL31">
+        <v>1.26</v>
+      </c>
+      <c r="AM31">
+        <v>1.4</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
         <v>1.2</v>
       </c>
-      <c r="AF31">
-        <v>4.2</v>
-      </c>
-      <c r="AG31">
-        <v>1.81</v>
-      </c>
-      <c r="AH31">
-        <v>2</v>
-      </c>
-      <c r="AI31">
-        <v>1.91</v>
-      </c>
-      <c r="AJ31">
-        <v>1.8</v>
-      </c>
-      <c r="AK31">
-        <v>3.3</v>
-      </c>
-      <c r="AL31">
-        <v>1.11</v>
-      </c>
-      <c r="AM31">
-        <v>1.02</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
-        <v>3</v>
-      </c>
-      <c r="AP31">
+      <c r="AQ31">
         <v>1.33</v>
       </c>
-      <c r="AQ31">
-        <v>2.2</v>
-      </c>
       <c r="AR31">
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="AT31">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="AU31">
+        <v>3</v>
+      </c>
+      <c r="AV31">
+        <v>6</v>
+      </c>
+      <c r="AW31">
+        <v>8</v>
+      </c>
+      <c r="AX31">
+        <v>7</v>
+      </c>
+      <c r="AY31">
+        <v>15</v>
+      </c>
+      <c r="AZ31">
+        <v>14</v>
+      </c>
+      <c r="BA31">
+        <v>4</v>
+      </c>
+      <c r="BB31">
         <v>5</v>
       </c>
-      <c r="AV31">
-        <v>3</v>
-      </c>
-      <c r="AW31">
-        <v>4</v>
-      </c>
-      <c r="AX31">
-        <v>5</v>
-      </c>
-      <c r="AY31">
-        <v>10</v>
-      </c>
-      <c r="AZ31">
-        <v>11</v>
-      </c>
-      <c r="BA31">
-        <v>1</v>
-      </c>
-      <c r="BB31">
-        <v>3</v>
-      </c>
       <c r="BC31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD31">
-        <v>4.41</v>
+        <v>1.82</v>
       </c>
       <c r="BE31">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF31">
-        <v>1.31</v>
+        <v>2.34</v>
       </c>
       <c r="BG31">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="BH31">
-        <v>3.04</v>
+        <v>2.79</v>
       </c>
       <c r="BI31">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="BJ31">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="BK31">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="BL31">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="BM31">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="BN31">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="BO31">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BP31">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7645,7 +7651,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -8057,7 +8063,7 @@
         <v>87</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -8221,7 +8227,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7453722</v>
+        <v>7453717</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -8236,10 +8242,10 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -8251,10 +8257,10 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -8263,61 +8269,61 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>4.33</v>
+      </c>
+      <c r="T35">
+        <v>1.45</v>
+      </c>
+      <c r="U35">
+        <v>2.55</v>
+      </c>
+      <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="W35">
+        <v>1.33</v>
+      </c>
+      <c r="X35">
+        <v>6.85</v>
+      </c>
+      <c r="Y35">
+        <v>1.07</v>
+      </c>
+      <c r="Z35">
         <v>1.95</v>
       </c>
-      <c r="S35">
-        <v>3.65</v>
-      </c>
-      <c r="T35">
-        <v>1.48</v>
-      </c>
-      <c r="U35">
-        <v>2.45</v>
-      </c>
-      <c r="V35">
+      <c r="AA35">
         <v>3.2</v>
       </c>
-      <c r="W35">
-        <v>1.3</v>
-      </c>
-      <c r="X35">
-        <v>7.3</v>
-      </c>
-      <c r="Y35">
-        <v>1.06</v>
-      </c>
-      <c r="Z35">
-        <v>2.5</v>
-      </c>
-      <c r="AA35">
-        <v>3</v>
-      </c>
       <c r="AB35">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC35">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD35">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE35">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AF35">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="AG35">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AH35">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AI35">
         <v>1.83</v>
@@ -8326,100 +8332,100 @@
         <v>1.8</v>
       </c>
       <c r="AK35">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AL35">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM35">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="AN35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AQ35">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="AR35">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="AS35">
-        <v>1.35</v>
+        <v>0.52</v>
       </c>
       <c r="AT35">
-        <v>2.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>3</v>
+      </c>
+      <c r="AX35">
         <v>6</v>
       </c>
-      <c r="AW35">
-        <v>2</v>
-      </c>
-      <c r="AX35">
-        <v>7</v>
-      </c>
       <c r="AY35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ35">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BA35">
         <v>2</v>
       </c>
       <c r="BB35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC35">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BD35">
-        <v>2.29</v>
+        <v>1.59</v>
       </c>
       <c r="BE35">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="BF35">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="BG35">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BH35">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="BI35">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BJ35">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BK35">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="BL35">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BM35">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BN35">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BO35">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BP35">
-        <v>0</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8427,7 +8433,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7453717</v>
+        <v>7453722</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8442,10 +8448,10 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8457,10 +8463,10 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>2</v>
@@ -8469,61 +8475,61 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="Q36">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="T36">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U36">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="V36">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="W36">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X36">
-        <v>6.85</v>
+        <v>7.3</v>
       </c>
       <c r="Y36">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z36">
+        <v>2.5</v>
+      </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <v>2.6</v>
+      </c>
+      <c r="AC36">
+        <v>1.09</v>
+      </c>
+      <c r="AD36">
+        <v>6.5</v>
+      </c>
+      <c r="AE36">
+        <v>1.42</v>
+      </c>
+      <c r="AF36">
+        <v>2.75</v>
+      </c>
+      <c r="AG36">
         <v>1.95</v>
       </c>
-      <c r="AA36">
-        <v>3.2</v>
-      </c>
-      <c r="AB36">
-        <v>3.4</v>
-      </c>
-      <c r="AC36">
-        <v>1.07</v>
-      </c>
-      <c r="AD36">
-        <v>7.5</v>
-      </c>
-      <c r="AE36">
-        <v>1.36</v>
-      </c>
-      <c r="AF36">
-        <v>2.95</v>
-      </c>
-      <c r="AG36">
-        <v>2</v>
-      </c>
       <c r="AH36">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AI36">
         <v>1.83</v>
@@ -8532,100 +8538,100 @@
         <v>1.8</v>
       </c>
       <c r="AK36">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AL36">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AM36">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO36">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AQ36">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AR36">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="AS36">
-        <v>0.52</v>
+        <v>1.35</v>
       </c>
       <c r="AT36">
-        <v>1.53</v>
+        <v>2.57</v>
       </c>
       <c r="AU36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AZ36">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA36">
         <v>2</v>
       </c>
       <c r="BB36">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC36">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD36">
-        <v>1.59</v>
+        <v>2.29</v>
       </c>
       <c r="BE36">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF36">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="BG36">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="BH36">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="BI36">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BJ36">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BK36">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="BL36">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="BM36">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="BN36">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="BO36">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="BP36">
-        <v>1.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8651,7 +8657,7 @@
         <v>79</v>
       </c>
       <c r="H37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -8857,7 +8863,7 @@
         <v>70</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -8881,7 +8887,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9499,7 +9505,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>3.2</v>
@@ -9681,7 +9687,7 @@
         <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -9705,7 +9711,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9911,7 +9917,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>2.88</v>
@@ -9989,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ43">
         <v>1.4</v>
@@ -10090,7 +10096,7 @@
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
         <v>71</v>
@@ -10117,7 +10123,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>2.2</v>
@@ -10296,7 +10302,7 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s">
         <v>80</v>
@@ -10323,7 +10329,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10735,7 +10741,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q47">
         <v>2.1</v>
@@ -10941,7 +10947,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>3.2</v>
@@ -11353,7 +11359,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11559,7 +11565,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>7.5</v>
@@ -11741,7 +11747,7 @@
         <v>83</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -11947,7 +11953,7 @@
         <v>81</v>
       </c>
       <c r="H53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -12150,7 +12156,7 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s">
         <v>79</v>
@@ -12383,7 +12389,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12795,7 +12801,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13001,7 +13007,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>4.5</v>
@@ -13079,7 +13085,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ58">
         <v>2.2</v>
@@ -13207,7 +13213,7 @@
         <v>132</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13288,7 +13294,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ59">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13413,7 +13419,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13592,7 +13598,7 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s">
         <v>70</v>
@@ -13619,7 +13625,7 @@
         <v>87</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13825,7 +13831,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q62">
         <v>1.62</v>
@@ -14031,7 +14037,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14237,7 +14243,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -14416,10 +14422,10 @@
         <v>9</v>
       </c>
       <c r="G65" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65" t="s">
         <v>85</v>
-      </c>
-      <c r="H65" t="s">
-        <v>84</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -14443,7 +14449,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q65">
         <v>3.75</v>
@@ -14649,7 +14655,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q66">
         <v>2.75</v>
@@ -15267,7 +15273,7 @@
         <v>87</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15655,7 +15661,7 @@
         <v>82</v>
       </c>
       <c r="H71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -15679,7 +15685,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>2.38</v>
@@ -15757,7 +15763,7 @@
         <v>0.8</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ71">
         <v>0.8</v>
@@ -15885,7 +15891,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15966,7 +15972,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ72">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -16270,7 +16276,7 @@
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H74" t="s">
         <v>80</v>
@@ -16297,7 +16303,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>1.95</v>
@@ -16709,7 +16715,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17094,7 +17100,7 @@
         <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H78" t="s">
         <v>75</v>
@@ -17121,7 +17127,7 @@
         <v>87</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>2.38</v>
@@ -17327,7 +17333,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>2.85</v>
@@ -17739,7 +17745,7 @@
         <v>135</v>
       </c>
       <c r="P81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -17945,7 +17951,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q82">
         <v>1.73</v>
@@ -18151,7 +18157,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18330,7 +18336,7 @@
         <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H84" t="s">
         <v>72</v>
@@ -18357,7 +18363,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>8</v>
@@ -18539,7 +18545,7 @@
         <v>81</v>
       </c>
       <c r="H85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -18563,7 +18569,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18975,7 +18981,7 @@
         <v>150</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q87">
         <v>1.36</v>
@@ -19387,7 +19393,7 @@
         <v>87</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>2.2</v>
@@ -19671,7 +19677,7 @@
         <v>0.17</v>
       </c>
       <c r="AP90">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ90">
         <v>0.6</v>
@@ -19799,7 +19805,7 @@
         <v>87</v>
       </c>
       <c r="P91" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>3.2</v>
@@ -19981,7 +19987,7 @@
         <v>78</v>
       </c>
       <c r="H92" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -20187,7 +20193,7 @@
         <v>73</v>
       </c>
       <c r="H93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -20417,7 +20423,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q94">
         <v>3.6</v>
@@ -20596,7 +20602,7 @@
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H95" t="s">
         <v>76</v>
@@ -21447,7 +21453,7 @@
         <v>158</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>13</v>
@@ -21626,7 +21632,7 @@
         <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H100" t="s">
         <v>82</v>
@@ -21653,7 +21659,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>2.38</v>
@@ -21859,7 +21865,7 @@
         <v>87</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>5.5</v>
@@ -21940,7 +21946,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ101">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR101">
         <v>1.12</v>
@@ -22065,7 +22071,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -22271,7 +22277,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22453,7 +22459,7 @@
         <v>75</v>
       </c>
       <c r="H104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I104">
         <v>3</v>
@@ -22865,7 +22871,7 @@
         <v>72</v>
       </c>
       <c r="H106" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I106">
         <v>3</v>
@@ -23095,7 +23101,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>3.4</v>
@@ -23465,7 +23471,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7453791</v>
+        <v>7453786</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23480,43 +23486,43 @@
         <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H109" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O109" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="P109" t="s">
-        <v>87</v>
+        <v>253</v>
       </c>
       <c r="Q109">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="R109">
         <v>2.2</v>
       </c>
       <c r="S109">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="T109">
         <v>1.4</v>
@@ -23525,145 +23531,145 @@
         <v>2.75</v>
       </c>
       <c r="V109">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W109">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X109">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y109">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z109">
-        <v>1.56</v>
+        <v>4.95</v>
       </c>
       <c r="AA109">
-        <v>4.01</v>
+        <v>3.66</v>
       </c>
       <c r="AB109">
-        <v>5.08</v>
+        <v>1.58</v>
       </c>
       <c r="AC109">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD109">
+        <v>8</v>
+      </c>
+      <c r="AE109">
+        <v>1.33</v>
+      </c>
+      <c r="AF109">
+        <v>3.2</v>
+      </c>
+      <c r="AG109">
+        <v>1.9</v>
+      </c>
+      <c r="AH109">
+        <v>1.84</v>
+      </c>
+      <c r="AI109">
+        <v>2</v>
+      </c>
+      <c r="AJ109">
+        <v>1.73</v>
+      </c>
+      <c r="AK109">
+        <v>2.4</v>
+      </c>
+      <c r="AL109">
+        <v>1.2</v>
+      </c>
+      <c r="AM109">
+        <v>1.08</v>
+      </c>
+      <c r="AN109">
+        <v>0.67</v>
+      </c>
+      <c r="AO109">
+        <v>2</v>
+      </c>
+      <c r="AP109">
+        <v>0.7</v>
+      </c>
+      <c r="AQ109">
+        <v>2</v>
+      </c>
+      <c r="AR109">
+        <v>1.11</v>
+      </c>
+      <c r="AS109">
+        <v>1.25</v>
+      </c>
+      <c r="AT109">
+        <v>2.36</v>
+      </c>
+      <c r="AU109">
+        <v>5</v>
+      </c>
+      <c r="AV109">
+        <v>6</v>
+      </c>
+      <c r="AW109">
+        <v>7</v>
+      </c>
+      <c r="AX109">
+        <v>2</v>
+      </c>
+      <c r="AY109">
+        <v>16</v>
+      </c>
+      <c r="AZ109">
+        <v>12</v>
+      </c>
+      <c r="BA109">
+        <v>4</v>
+      </c>
+      <c r="BB109">
+        <v>5</v>
+      </c>
+      <c r="BC109">
         <v>9</v>
       </c>
-      <c r="AE109">
-        <v>1.25</v>
-      </c>
-      <c r="AF109">
-        <v>3.6</v>
-      </c>
-      <c r="AG109">
-        <v>1.83</v>
-      </c>
-      <c r="AH109">
-        <v>1.83</v>
-      </c>
-      <c r="AI109">
-        <v>1.83</v>
-      </c>
-      <c r="AJ109">
-        <v>1.83</v>
-      </c>
-      <c r="AK109">
-        <v>1.15</v>
-      </c>
-      <c r="AL109">
-        <v>1.22</v>
-      </c>
-      <c r="AM109">
-        <v>2.04</v>
-      </c>
-      <c r="AN109">
-        <v>1.86</v>
-      </c>
-      <c r="AO109">
-        <v>1.29</v>
-      </c>
-      <c r="AP109">
-        <v>1.6</v>
-      </c>
-      <c r="AQ109">
-        <v>1.3</v>
-      </c>
-      <c r="AR109">
-        <v>1.53</v>
-      </c>
-      <c r="AS109">
-        <v>1.31</v>
-      </c>
-      <c r="AT109">
-        <v>2.84</v>
-      </c>
-      <c r="AU109">
-        <v>8</v>
-      </c>
-      <c r="AV109">
-        <v>0</v>
-      </c>
-      <c r="AW109">
-        <v>4</v>
-      </c>
-      <c r="AX109">
-        <v>3</v>
-      </c>
-      <c r="AY109">
-        <v>15</v>
-      </c>
-      <c r="AZ109">
-        <v>3</v>
-      </c>
-      <c r="BA109">
-        <v>1</v>
-      </c>
-      <c r="BB109">
-        <v>1</v>
-      </c>
-      <c r="BC109">
-        <v>2</v>
-      </c>
       <c r="BD109">
-        <v>1.51</v>
+        <v>3.59</v>
       </c>
       <c r="BE109">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF109">
-        <v>3.17</v>
+        <v>1.41</v>
       </c>
       <c r="BG109">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="BH109">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="BI109">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="BJ109">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="BK109">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BL109">
         <v>1.56</v>
       </c>
       <c r="BM109">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="BN109">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="BO109">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="BP109">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23671,7 +23677,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7453786</v>
+        <v>7453791</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23686,43 +23692,43 @@
         <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H110" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O110" t="s">
+        <v>166</v>
+      </c>
+      <c r="P110" t="s">
         <v>87</v>
       </c>
-      <c r="P110" t="s">
-        <v>252</v>
-      </c>
       <c r="Q110">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="R110">
         <v>2.2</v>
       </c>
       <c r="S110">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="T110">
         <v>1.4</v>
@@ -23731,145 +23737,145 @@
         <v>2.75</v>
       </c>
       <c r="V110">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W110">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X110">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y110">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z110">
-        <v>4.95</v>
+        <v>1.56</v>
       </c>
       <c r="AA110">
-        <v>3.66</v>
+        <v>4.01</v>
       </c>
       <c r="AB110">
-        <v>1.58</v>
+        <v>5.08</v>
       </c>
       <c r="AC110">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD110">
+        <v>9</v>
+      </c>
+      <c r="AE110">
+        <v>1.25</v>
+      </c>
+      <c r="AF110">
+        <v>3.6</v>
+      </c>
+      <c r="AG110">
+        <v>1.83</v>
+      </c>
+      <c r="AH110">
+        <v>1.83</v>
+      </c>
+      <c r="AI110">
+        <v>1.83</v>
+      </c>
+      <c r="AJ110">
+        <v>1.83</v>
+      </c>
+      <c r="AK110">
+        <v>1.15</v>
+      </c>
+      <c r="AL110">
+        <v>1.22</v>
+      </c>
+      <c r="AM110">
+        <v>2.04</v>
+      </c>
+      <c r="AN110">
+        <v>1.86</v>
+      </c>
+      <c r="AO110">
+        <v>1.29</v>
+      </c>
+      <c r="AP110">
+        <v>1.6</v>
+      </c>
+      <c r="AQ110">
+        <v>1.3</v>
+      </c>
+      <c r="AR110">
+        <v>1.53</v>
+      </c>
+      <c r="AS110">
+        <v>1.31</v>
+      </c>
+      <c r="AT110">
+        <v>2.84</v>
+      </c>
+      <c r="AU110">
         <v>8</v>
       </c>
-      <c r="AE110">
-        <v>1.33</v>
-      </c>
-      <c r="AF110">
-        <v>3.2</v>
-      </c>
-      <c r="AG110">
-        <v>1.9</v>
-      </c>
-      <c r="AH110">
-        <v>1.84</v>
-      </c>
-      <c r="AI110">
-        <v>2</v>
-      </c>
-      <c r="AJ110">
-        <v>1.73</v>
-      </c>
-      <c r="AK110">
-        <v>2.4</v>
-      </c>
-      <c r="AL110">
-        <v>1.2</v>
-      </c>
-      <c r="AM110">
-        <v>1.08</v>
-      </c>
-      <c r="AN110">
-        <v>0.67</v>
-      </c>
-      <c r="AO110">
-        <v>2</v>
-      </c>
-      <c r="AP110">
-        <v>0.7</v>
-      </c>
-      <c r="AQ110">
-        <v>2</v>
-      </c>
-      <c r="AR110">
-        <v>1.11</v>
-      </c>
-      <c r="AS110">
-        <v>1.25</v>
-      </c>
-      <c r="AT110">
-        <v>2.36</v>
-      </c>
-      <c r="AU110">
-        <v>5</v>
-      </c>
       <c r="AV110">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW110">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY110">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ110">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BA110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB110">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC110">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BD110">
-        <v>3.59</v>
+        <v>1.51</v>
       </c>
       <c r="BE110">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF110">
-        <v>1.41</v>
+        <v>3.17</v>
       </c>
       <c r="BG110">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="BH110">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="BI110">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="BJ110">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="BK110">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BL110">
         <v>1.56</v>
       </c>
       <c r="BM110">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="BN110">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="BO110">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="BP110">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="111" spans="1:68">
@@ -23919,7 +23925,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q111">
         <v>2.63</v>
@@ -24098,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H112" t="s">
         <v>74</v>
@@ -24125,7 +24131,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -24510,7 +24516,7 @@
         <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H114" t="s">
         <v>73</v>
@@ -24949,7 +24955,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q116">
         <v>2.05</v>
@@ -25155,7 +25161,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -25236,7 +25242,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ117">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR117">
         <v>1.31</v>
@@ -25361,7 +25367,7 @@
         <v>87</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -25439,7 +25445,7 @@
         <v>3</v>
       </c>
       <c r="AP118">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ118">
         <v>3</v>
@@ -25567,7 +25573,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q119">
         <v>3.25</v>
@@ -25773,7 +25779,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>3.15</v>
@@ -25952,7 +25958,7 @@
         <v>16</v>
       </c>
       <c r="G121" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H121" t="s">
         <v>76</v>
@@ -26263,7 +26269,7 @@
         <v>2.14</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ122">
         <v>1.9</v>
@@ -26597,7 +26603,7 @@
         <v>174</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>3.25</v>
@@ -26779,7 +26785,7 @@
         <v>75</v>
       </c>
       <c r="H125" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -26803,7 +26809,7 @@
         <v>87</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>3.85</v>
@@ -27006,10 +27012,10 @@
         <v>3</v>
       </c>
       <c r="O126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P126" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>1.77</v>
@@ -27421,7 +27427,7 @@
         <v>119</v>
       </c>
       <c r="P128" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q128">
         <v>3.2</v>
@@ -27603,7 +27609,7 @@
         <v>70</v>
       </c>
       <c r="H129" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -27627,7 +27633,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -28039,7 +28045,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q131">
         <v>0</v>
@@ -28657,7 +28663,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q134">
         <v>1.62</v>
@@ -28738,7 +28744,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ134">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR134">
         <v>2.03</v>
@@ -29069,7 +29075,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q136">
         <v>0</v>
@@ -29248,7 +29254,7 @@
         <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H137" t="s">
         <v>74</v>
@@ -29562,7 +29568,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ138">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR138">
         <v>1.06</v>
@@ -29687,7 +29693,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q139">
         <v>5.5</v>
@@ -29893,7 +29899,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q140">
         <v>2.4</v>
@@ -29971,7 +29977,7 @@
         <v>0.88</v>
       </c>
       <c r="AP140">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ140">
         <v>1.1</v>
@@ -30072,7 +30078,7 @@
         <v>18</v>
       </c>
       <c r="G141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H141" t="s">
         <v>71</v>
@@ -30099,7 +30105,7 @@
         <v>184</v>
       </c>
       <c r="P141" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q141">
         <v>2.4</v>
@@ -30305,7 +30311,7 @@
         <v>148</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30511,7 +30517,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q143">
         <v>5.5</v>
@@ -31129,7 +31135,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31335,7 +31341,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31541,7 +31547,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q148">
         <v>8.5</v>
@@ -31723,7 +31729,7 @@
         <v>77</v>
       </c>
       <c r="H149" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -31747,7 +31753,7 @@
         <v>190</v>
       </c>
       <c r="P149" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q149">
         <v>2.88</v>
@@ -32135,7 +32141,7 @@
         <v>83</v>
       </c>
       <c r="H151" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -32159,7 +32165,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q151">
         <v>1.83</v>
@@ -32365,7 +32371,7 @@
         <v>87</v>
       </c>
       <c r="P152" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q152">
         <v>13</v>
@@ -32538,7 +32544,7 @@
         <v>69</v>
       </c>
       <c r="E153" s="2">
-        <v>45645.875</v>
+        <v>45646.54166666666</v>
       </c>
       <c r="F153">
         <v>20</v>
@@ -32571,7 +32577,7 @@
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -32664,31 +32670,31 @@
         <v>2.27</v>
       </c>
       <c r="AU153">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV153">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW153">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX153">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY153">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ153">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA153">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB153">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC153">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD153">
         <v>0</v>
@@ -32735,7 +32741,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7453838</v>
+        <v>7453839</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32744,196 +32750,196 @@
         <v>69</v>
       </c>
       <c r="E154" s="2">
-        <v>45646.875</v>
+        <v>45647.375</v>
       </c>
       <c r="F154">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H154" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154">
         <v>1</v>
       </c>
       <c r="K154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M154">
         <v>1</v>
       </c>
       <c r="N154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O154" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="Q154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R154">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S154">
+        <v>3.4</v>
+      </c>
+      <c r="T154">
+        <v>1.4</v>
+      </c>
+      <c r="U154">
+        <v>2.75</v>
+      </c>
+      <c r="V154">
+        <v>3</v>
+      </c>
+      <c r="W154">
+        <v>1.36</v>
+      </c>
+      <c r="X154">
+        <v>7</v>
+      </c>
+      <c r="Y154">
+        <v>1.08</v>
+      </c>
+      <c r="Z154">
         <v>2.4</v>
       </c>
-      <c r="T154">
+      <c r="AA154">
+        <v>3.25</v>
+      </c>
+      <c r="AB154">
+        <v>2.8</v>
+      </c>
+      <c r="AC154">
+        <v>1.06</v>
+      </c>
+      <c r="AD154">
+        <v>8</v>
+      </c>
+      <c r="AE154">
+        <v>1.31</v>
+      </c>
+      <c r="AF154">
+        <v>3.25</v>
+      </c>
+      <c r="AG154">
+        <v>1.95</v>
+      </c>
+      <c r="AH154">
+        <v>1.81</v>
+      </c>
+      <c r="AI154">
+        <v>1.8</v>
+      </c>
+      <c r="AJ154">
+        <v>1.91</v>
+      </c>
+      <c r="AK154">
+        <v>1.37</v>
+      </c>
+      <c r="AL154">
+        <v>1.29</v>
+      </c>
+      <c r="AM154">
+        <v>1.48</v>
+      </c>
+      <c r="AN154">
+        <v>1.38</v>
+      </c>
+      <c r="AO154">
         <v>1.33</v>
       </c>
-      <c r="U154">
-        <v>3.25</v>
-      </c>
-      <c r="V154">
-        <v>2.63</v>
-      </c>
-      <c r="W154">
-        <v>1.44</v>
-      </c>
-      <c r="X154">
+      <c r="AP154">
+        <v>1.33</v>
+      </c>
+      <c r="AQ154">
+        <v>1.3</v>
+      </c>
+      <c r="AR154">
+        <v>1.27</v>
+      </c>
+      <c r="AS154">
+        <v>1.19</v>
+      </c>
+      <c r="AT154">
+        <v>2.46</v>
+      </c>
+      <c r="AU154">
+        <v>10</v>
+      </c>
+      <c r="AV154">
+        <v>3</v>
+      </c>
+      <c r="AW154">
+        <v>9</v>
+      </c>
+      <c r="AX154">
+        <v>3</v>
+      </c>
+      <c r="AY154">
+        <v>26</v>
+      </c>
+      <c r="AZ154">
+        <v>7</v>
+      </c>
+      <c r="BA154">
         <v>6</v>
       </c>
-      <c r="Y154">
-        <v>1.11</v>
-      </c>
-      <c r="Z154">
-        <v>2.65</v>
-      </c>
-      <c r="AA154">
-        <v>2.6</v>
-      </c>
-      <c r="AB154">
-        <v>2.9</v>
-      </c>
-      <c r="AC154">
-        <v>1.04</v>
-      </c>
-      <c r="AD154">
-        <v>9</v>
-      </c>
-      <c r="AE154">
-        <v>1.23</v>
-      </c>
-      <c r="AF154">
-        <v>3.9</v>
-      </c>
-      <c r="AG154">
-        <v>1.76</v>
-      </c>
-      <c r="AH154">
-        <v>1.96</v>
-      </c>
-      <c r="AI154">
-        <v>1.67</v>
-      </c>
-      <c r="AJ154">
-        <v>2.1</v>
-      </c>
-      <c r="AK154">
-        <v>1.8</v>
-      </c>
-      <c r="AL154">
-        <v>1.25</v>
-      </c>
-      <c r="AM154">
-        <v>1.21</v>
-      </c>
-      <c r="AN154">
-        <v>2</v>
-      </c>
-      <c r="AO154">
-        <v>2.11</v>
-      </c>
-      <c r="AP154">
-        <v>1.8</v>
-      </c>
-      <c r="AQ154">
-        <v>2.2</v>
-      </c>
-      <c r="AR154">
-        <v>1.72</v>
-      </c>
-      <c r="AS154">
-        <v>1.43</v>
-      </c>
-      <c r="AT154">
-        <v>3.15</v>
-      </c>
-      <c r="AU154">
-        <v>7</v>
-      </c>
-      <c r="AV154">
-        <v>4</v>
-      </c>
-      <c r="AW154">
-        <v>7</v>
-      </c>
-      <c r="AX154">
-        <v>2</v>
-      </c>
-      <c r="AY154">
-        <v>21</v>
-      </c>
-      <c r="AZ154">
+      <c r="BB154">
+        <v>0</v>
+      </c>
+      <c r="BC154">
         <v>6</v>
       </c>
-      <c r="BA154">
-        <v>11</v>
-      </c>
-      <c r="BB154">
-        <v>4</v>
-      </c>
-      <c r="BC154">
-        <v>15</v>
-      </c>
       <c r="BD154">
-        <v>2.44</v>
+        <v>1.75</v>
       </c>
       <c r="BE154">
         <v>8</v>
       </c>
       <c r="BF154">
-        <v>1.75</v>
+        <v>2.44</v>
       </c>
       <c r="BG154">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="BH154">
-        <v>3.22</v>
+        <v>2.82</v>
       </c>
       <c r="BI154">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="BJ154">
-        <v>2.33</v>
+        <v>2.12</v>
       </c>
       <c r="BK154">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="BL154">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="BM154">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="BN154">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="BO154">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="BP154">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -32941,7 +32947,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7453839</v>
+        <v>7453836</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -32950,7 +32956,7 @@
         <v>69</v>
       </c>
       <c r="E155" s="2">
-        <v>45646.875</v>
+        <v>45647.41666666666</v>
       </c>
       <c r="F155">
         <v>20</v>
@@ -32959,157 +32965,157 @@
         <v>85</v>
       </c>
       <c r="H155" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155">
         <v>2</v>
       </c>
       <c r="L155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N155">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O155" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P155" t="s">
-        <v>151</v>
+        <v>275</v>
       </c>
       <c r="Q155">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="R155">
+        <v>2.25</v>
+      </c>
+      <c r="S155">
+        <v>4</v>
+      </c>
+      <c r="T155">
+        <v>1.33</v>
+      </c>
+      <c r="U155">
+        <v>3.25</v>
+      </c>
+      <c r="V155">
+        <v>2.63</v>
+      </c>
+      <c r="W155">
+        <v>1.44</v>
+      </c>
+      <c r="X155">
+        <v>6</v>
+      </c>
+      <c r="Y155">
+        <v>1.11</v>
+      </c>
+      <c r="Z155">
+        <v>1.68</v>
+      </c>
+      <c r="AA155">
+        <v>3.74</v>
+      </c>
+      <c r="AB155">
+        <v>4.4</v>
+      </c>
+      <c r="AC155">
+        <v>1.04</v>
+      </c>
+      <c r="AD155">
+        <v>9</v>
+      </c>
+      <c r="AE155">
+        <v>1.22</v>
+      </c>
+      <c r="AF155">
+        <v>3.95</v>
+      </c>
+      <c r="AG155">
+        <v>1.65</v>
+      </c>
+      <c r="AH155">
         <v>2.1</v>
       </c>
-      <c r="S155">
-        <v>3.4</v>
-      </c>
-      <c r="T155">
+      <c r="AI155">
+        <v>1.67</v>
+      </c>
+      <c r="AJ155">
+        <v>2.1</v>
+      </c>
+      <c r="AK155">
+        <v>1.21</v>
+      </c>
+      <c r="AL155">
+        <v>1.23</v>
+      </c>
+      <c r="AM155">
+        <v>1.86</v>
+      </c>
+      <c r="AN155">
+        <v>1</v>
+      </c>
+      <c r="AO155">
+        <v>1.56</v>
+      </c>
+      <c r="AP155">
+        <v>1.2</v>
+      </c>
+      <c r="AQ155">
         <v>1.4</v>
       </c>
-      <c r="U155">
-        <v>2.75</v>
-      </c>
-      <c r="V155">
-        <v>3</v>
-      </c>
-      <c r="W155">
-        <v>1.36</v>
-      </c>
-      <c r="X155">
-        <v>7</v>
-      </c>
-      <c r="Y155">
-        <v>1.08</v>
-      </c>
-      <c r="Z155">
-        <v>2.4</v>
-      </c>
-      <c r="AA155">
-        <v>3.25</v>
-      </c>
-      <c r="AB155">
-        <v>2.8</v>
-      </c>
-      <c r="AC155">
-        <v>1.06</v>
-      </c>
-      <c r="AD155">
-        <v>8</v>
-      </c>
-      <c r="AE155">
-        <v>1.31</v>
-      </c>
-      <c r="AF155">
-        <v>3.25</v>
-      </c>
-      <c r="AG155">
-        <v>1.95</v>
-      </c>
-      <c r="AH155">
-        <v>1.81</v>
-      </c>
-      <c r="AI155">
-        <v>1.8</v>
-      </c>
-      <c r="AJ155">
-        <v>1.91</v>
-      </c>
-      <c r="AK155">
-        <v>1.37</v>
-      </c>
-      <c r="AL155">
-        <v>1.29</v>
-      </c>
-      <c r="AM155">
-        <v>1.48</v>
-      </c>
-      <c r="AN155">
-        <v>1.38</v>
-      </c>
-      <c r="AO155">
-        <v>1.33</v>
-      </c>
-      <c r="AP155">
-        <v>1.33</v>
-      </c>
-      <c r="AQ155">
-        <v>1.3</v>
-      </c>
       <c r="AR155">
-        <v>1.27</v>
+        <v>1.77</v>
       </c>
       <c r="AS155">
-        <v>1.19</v>
+        <v>1.75</v>
       </c>
       <c r="AT155">
-        <v>2.46</v>
+        <v>3.52</v>
       </c>
       <c r="AU155">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV155">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW155">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX155">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY155">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AZ155">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA155">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BB155">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC155">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD155">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="BE155">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF155">
-        <v>2.44</v>
+        <v>3.29</v>
       </c>
       <c r="BG155">
         <v>1.4</v>
@@ -33121,7 +33127,7 @@
         <v>1.68</v>
       </c>
       <c r="BJ155">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="BK155">
         <v>2.11</v>
@@ -33136,7 +33142,7 @@
         <v>1.42</v>
       </c>
       <c r="BO155">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="BP155">
         <v>1.24</v>
@@ -33147,7 +33153,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7453836</v>
+        <v>7453838</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33156,49 +33162,49 @@
         <v>69</v>
       </c>
       <c r="E156" s="2">
-        <v>45647.41666666666</v>
+        <v>45647.5</v>
       </c>
       <c r="F156">
         <v>20</v>
       </c>
       <c r="G156" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H156" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N156">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O156" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="P156" t="s">
-        <v>274</v>
+        <v>98</v>
       </c>
       <c r="Q156">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="R156">
         <v>2.25</v>
       </c>
       <c r="S156">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="T156">
         <v>1.33</v>
@@ -33219,13 +33225,13 @@
         <v>1.11</v>
       </c>
       <c r="Z156">
-        <v>1.68</v>
+        <v>2.65</v>
       </c>
       <c r="AA156">
-        <v>3.74</v>
+        <v>2.6</v>
       </c>
       <c r="AB156">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="AC156">
         <v>1.04</v>
@@ -33234,16 +33240,16 @@
         <v>9</v>
       </c>
       <c r="AE156">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AF156">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AG156">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="AH156">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="AI156">
         <v>1.67</v>
@@ -33252,100 +33258,100 @@
         <v>2.1</v>
       </c>
       <c r="AK156">
+        <v>1.8</v>
+      </c>
+      <c r="AL156">
+        <v>1.25</v>
+      </c>
+      <c r="AM156">
         <v>1.21</v>
       </c>
-      <c r="AL156">
-        <v>1.23</v>
-      </c>
-      <c r="AM156">
-        <v>1.86</v>
-      </c>
       <c r="AN156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO156">
-        <v>1.56</v>
+        <v>2.11</v>
       </c>
       <c r="AP156">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ156">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="AR156">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="AS156">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="AT156">
-        <v>3.52</v>
+        <v>3.15</v>
       </c>
       <c r="AU156">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV156">
+        <v>4</v>
+      </c>
+      <c r="AW156">
+        <v>7</v>
+      </c>
+      <c r="AX156">
+        <v>2</v>
+      </c>
+      <c r="AY156">
+        <v>21</v>
+      </c>
+      <c r="AZ156">
         <v>6</v>
       </c>
-      <c r="AW156">
-        <v>4</v>
-      </c>
-      <c r="AX156">
-        <v>5</v>
-      </c>
-      <c r="AY156">
-        <v>14</v>
-      </c>
-      <c r="AZ156">
-        <v>14</v>
-      </c>
       <c r="BA156">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BB156">
         <v>4</v>
       </c>
       <c r="BC156">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BD156">
-        <v>1.45</v>
+        <v>2.44</v>
       </c>
       <c r="BE156">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF156">
-        <v>3.29</v>
+        <v>1.75</v>
       </c>
       <c r="BG156">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="BH156">
-        <v>2.82</v>
+        <v>3.22</v>
       </c>
       <c r="BI156">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="BJ156">
-        <v>2.11</v>
+        <v>2.33</v>
       </c>
       <c r="BK156">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="BL156">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="BM156">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="BN156">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="BO156">
-        <v>3.82</v>
+        <v>3.35</v>
       </c>
       <c r="BP156">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -33362,7 +33368,7 @@
         <v>69</v>
       </c>
       <c r="E157" s="2">
-        <v>45647.875</v>
+        <v>45648.375</v>
       </c>
       <c r="F157">
         <v>20</v>
@@ -33601,7 +33607,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q158">
         <v>1.53</v>
@@ -33807,7 +33813,7 @@
         <v>87</v>
       </c>
       <c r="P159" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -33964,6 +33970,212 @@
       </c>
       <c r="BP159">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7453835</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45649.4375</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>82</v>
+      </c>
+      <c r="H160" t="s">
+        <v>77</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160" t="s">
+        <v>197</v>
+      </c>
+      <c r="P160" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q160">
+        <v>3.25</v>
+      </c>
+      <c r="R160">
+        <v>2.1</v>
+      </c>
+      <c r="S160">
+        <v>3</v>
+      </c>
+      <c r="T160">
+        <v>1.4</v>
+      </c>
+      <c r="U160">
+        <v>2.75</v>
+      </c>
+      <c r="V160">
+        <v>2.75</v>
+      </c>
+      <c r="W160">
+        <v>1.4</v>
+      </c>
+      <c r="X160">
+        <v>7</v>
+      </c>
+      <c r="Y160">
+        <v>1.08</v>
+      </c>
+      <c r="Z160">
+        <v>2.55</v>
+      </c>
+      <c r="AA160">
+        <v>3.05</v>
+      </c>
+      <c r="AB160">
+        <v>2.65</v>
+      </c>
+      <c r="AC160">
+        <v>1.05</v>
+      </c>
+      <c r="AD160">
+        <v>8.5</v>
+      </c>
+      <c r="AE160">
+        <v>1.27</v>
+      </c>
+      <c r="AF160">
+        <v>3.55</v>
+      </c>
+      <c r="AG160">
+        <v>1.95</v>
+      </c>
+      <c r="AH160">
+        <v>1.81</v>
+      </c>
+      <c r="AI160">
+        <v>1.73</v>
+      </c>
+      <c r="AJ160">
+        <v>2</v>
+      </c>
+      <c r="AK160">
+        <v>1.53</v>
+      </c>
+      <c r="AL160">
+        <v>1.28</v>
+      </c>
+      <c r="AM160">
+        <v>1.36</v>
+      </c>
+      <c r="AN160">
+        <v>1.33</v>
+      </c>
+      <c r="AO160">
+        <v>1.38</v>
+      </c>
+      <c r="AP160">
+        <v>1.3</v>
+      </c>
+      <c r="AQ160">
+        <v>1.33</v>
+      </c>
+      <c r="AR160">
+        <v>1.53</v>
+      </c>
+      <c r="AS160">
+        <v>1.5</v>
+      </c>
+      <c r="AT160">
+        <v>3.03</v>
+      </c>
+      <c r="AU160">
+        <v>5</v>
+      </c>
+      <c r="AV160">
+        <v>6</v>
+      </c>
+      <c r="AW160">
+        <v>4</v>
+      </c>
+      <c r="AX160">
+        <v>3</v>
+      </c>
+      <c r="AY160">
+        <v>13</v>
+      </c>
+      <c r="AZ160">
+        <v>12</v>
+      </c>
+      <c r="BA160">
+        <v>3</v>
+      </c>
+      <c r="BB160">
+        <v>3</v>
+      </c>
+      <c r="BC160">
+        <v>6</v>
+      </c>
+      <c r="BD160">
+        <v>2.2</v>
+      </c>
+      <c r="BE160">
+        <v>7.5</v>
+      </c>
+      <c r="BF160">
+        <v>1.91</v>
+      </c>
+      <c r="BG160">
+        <v>1.48</v>
+      </c>
+      <c r="BH160">
+        <v>2.53</v>
+      </c>
+      <c r="BI160">
+        <v>1.8</v>
+      </c>
+      <c r="BJ160">
+        <v>2</v>
+      </c>
+      <c r="BK160">
+        <v>2.34</v>
+      </c>
+      <c r="BL160">
+        <v>1.56</v>
+      </c>
+      <c r="BM160">
+        <v>3.1</v>
+      </c>
+      <c r="BN160">
+        <v>1.34</v>
+      </c>
+      <c r="BO160">
+        <v>4.4</v>
+      </c>
+      <c r="BP160">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -34118,13 +34118,13 @@
         <v>6</v>
       </c>
       <c r="AW160">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX160">
         <v>3</v>
       </c>
       <c r="AY160">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ160">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Serbia SuperLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -852,6 +852,9 @@
   <si>
     <t>['7', '56']</t>
   </si>
+  <si>
+    <t>['18', '42']</t>
+  </si>
 </sst>
 </file>
 
@@ -1212,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3818,7 +3821,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -7317,7 +7320,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ30">
         <v>2.2</v>
@@ -7526,7 +7529,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -10407,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ45">
         <v>0.7</v>
@@ -13294,7 +13297,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13703,7 +13706,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ61">
         <v>1.4</v>
@@ -14527,7 +14530,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ65">
         <v>1.8</v>
@@ -15972,7 +15975,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -18441,7 +18444,7 @@
         <v>3</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ84">
         <v>3</v>
@@ -20707,7 +20710,7 @@
         <v>0.6</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ95">
         <v>0.4</v>
@@ -21946,7 +21949,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ101">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR101">
         <v>1.12</v>
@@ -24209,7 +24212,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ112">
         <v>1.1</v>
@@ -25242,7 +25245,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ117">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR117">
         <v>1.31</v>
@@ -28744,7 +28747,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ134">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR134">
         <v>2.03</v>
@@ -29568,7 +29571,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ138">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR138">
         <v>1.06</v>
@@ -30183,7 +30186,7 @@
         <v>0.88</v>
       </c>
       <c r="AP141">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ141">
         <v>1</v>
@@ -32861,7 +32864,7 @@
         <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ154">
         <v>1.3</v>
@@ -34100,7 +34103,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ160">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR160">
         <v>1.53</v>
@@ -34176,6 +34179,212 @@
       </c>
       <c r="BP160">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7453805</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45652.375</v>
+      </c>
+      <c r="F161">
+        <v>16</v>
+      </c>
+      <c r="G161" t="s">
+        <v>84</v>
+      </c>
+      <c r="H161" t="s">
+        <v>77</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>87</v>
+      </c>
+      <c r="P161" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q161">
+        <v>4</v>
+      </c>
+      <c r="R161">
+        <v>2.2</v>
+      </c>
+      <c r="S161">
+        <v>2.5</v>
+      </c>
+      <c r="T161">
+        <v>1.36</v>
+      </c>
+      <c r="U161">
+        <v>3</v>
+      </c>
+      <c r="V161">
+        <v>2.75</v>
+      </c>
+      <c r="W161">
+        <v>1.4</v>
+      </c>
+      <c r="X161">
+        <v>6.5</v>
+      </c>
+      <c r="Y161">
+        <v>1.1</v>
+      </c>
+      <c r="Z161">
+        <v>2.55</v>
+      </c>
+      <c r="AA161">
+        <v>3.4</v>
+      </c>
+      <c r="AB161">
+        <v>2.55</v>
+      </c>
+      <c r="AC161">
+        <v>1.05</v>
+      </c>
+      <c r="AD161">
+        <v>8.5</v>
+      </c>
+      <c r="AE161">
+        <v>1.24</v>
+      </c>
+      <c r="AF161">
+        <v>3.8</v>
+      </c>
+      <c r="AG161">
+        <v>1.76</v>
+      </c>
+      <c r="AH161">
+        <v>1.99</v>
+      </c>
+      <c r="AI161">
+        <v>1.73</v>
+      </c>
+      <c r="AJ161">
+        <v>2</v>
+      </c>
+      <c r="AK161">
+        <v>1.43</v>
+      </c>
+      <c r="AL161">
+        <v>1.28</v>
+      </c>
+      <c r="AM161">
+        <v>1.43</v>
+      </c>
+      <c r="AN161">
+        <v>1.33</v>
+      </c>
+      <c r="AO161">
+        <v>1.33</v>
+      </c>
+      <c r="AP161">
+        <v>1.2</v>
+      </c>
+      <c r="AQ161">
+        <v>1.5</v>
+      </c>
+      <c r="AR161">
+        <v>1.42</v>
+      </c>
+      <c r="AS161">
+        <v>1.47</v>
+      </c>
+      <c r="AT161">
+        <v>2.89</v>
+      </c>
+      <c r="AU161">
+        <v>3</v>
+      </c>
+      <c r="AV161">
+        <v>8</v>
+      </c>
+      <c r="AW161">
+        <v>3</v>
+      </c>
+      <c r="AX161">
+        <v>3</v>
+      </c>
+      <c r="AY161">
+        <v>11</v>
+      </c>
+      <c r="AZ161">
+        <v>15</v>
+      </c>
+      <c r="BA161">
+        <v>4</v>
+      </c>
+      <c r="BB161">
+        <v>7</v>
+      </c>
+      <c r="BC161">
+        <v>11</v>
+      </c>
+      <c r="BD161">
+        <v>1.85</v>
+      </c>
+      <c r="BE161">
+        <v>7.5</v>
+      </c>
+      <c r="BF161">
+        <v>2.29</v>
+      </c>
+      <c r="BG161">
+        <v>1.51</v>
+      </c>
+      <c r="BH161">
+        <v>2.45</v>
+      </c>
+      <c r="BI161">
+        <v>1.87</v>
+      </c>
+      <c r="BJ161">
+        <v>1.87</v>
+      </c>
+      <c r="BK161">
+        <v>2.42</v>
+      </c>
+      <c r="BL161">
+        <v>1.53</v>
+      </c>
+      <c r="BM161">
+        <v>3.3</v>
+      </c>
+      <c r="BN161">
+        <v>1.3</v>
+      </c>
+      <c r="BO161">
+        <v>4.65</v>
+      </c>
+      <c r="BP161">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>
